--- a/Project-MRA/Project MRA.xlsx
+++ b/Project-MRA/Project MRA.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Viktor\Desktop\Tenderi\WEB\GIT\Qinshift-homeworks\Project MRA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Viktor\Desktop\Tenderi\WEB\GIT\Qinshift-homeworks\Project-MRA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF7DBA47-A256-4AB0-BBBE-2D92B080A433}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0B647C5-FB34-4C99-80E4-1FB1FCEF3B0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="124">
   <si>
     <t>Contact details</t>
   </si>
@@ -1034,6 +1034,24 @@
   </si>
   <si>
     <t>1. Capture contact form inputs via JS, save them as object, and stringify the object.</t>
+  </si>
+  <si>
+    <t>1. multilanguage dropdown</t>
+  </si>
+  <si>
+    <t>Make dropdown to swith languages via localStorage</t>
+  </si>
+  <si>
+    <t>Read content from JSON file on MongoDB</t>
+  </si>
+  <si>
+    <t>Fill JSON with all content</t>
+  </si>
+  <si>
+    <t>Integrate dropdown in navbar</t>
+  </si>
+  <si>
+    <t>Prepare text elements for variable content</t>
   </si>
 </sst>
 </file>
@@ -2135,10 +2153,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D10F2B9-E351-4458-8FEA-B1EFBB0E3371}">
-  <dimension ref="B2:D10"/>
+  <dimension ref="B2:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2183,6 +2201,36 @@
         <v>116</v>
       </c>
     </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="19" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
+        <v>123</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Project-MRA/Project MRA.xlsx
+++ b/Project-MRA/Project MRA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Viktor\Desktop\Tenderi\WEB\GIT\Qinshift-homeworks\Project-MRA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0B647C5-FB34-4C99-80E4-1FB1FCEF3B0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B5BCF0B-81B6-420F-A78F-19838CFB4453}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="120">
   <si>
     <t>Contact details</t>
   </si>
@@ -1024,34 +1024,22 @@
     <t>json kade kje se cuvaat porakite</t>
   </si>
   <si>
-    <t>1. Create JSON file from contact form inputs</t>
-  </si>
-  <si>
-    <t>2. Convert inputs into JSON object</t>
-  </si>
-  <si>
-    <t>3. Create JSON file</t>
-  </si>
-  <si>
-    <t>1. Capture contact form inputs via JS, save them as object, and stringify the object.</t>
-  </si>
-  <si>
     <t>1. multilanguage dropdown</t>
   </si>
   <si>
-    <t>Make dropdown to swith languages via localStorage</t>
-  </si>
-  <si>
-    <t>Read content from JSON file on MongoDB</t>
-  </si>
-  <si>
-    <t>Fill JSON with all content</t>
-  </si>
-  <si>
     <t>Integrate dropdown in navbar</t>
   </si>
   <si>
-    <t>Prepare text elements for variable content</t>
+    <t>Make dropdown for switching content languages via localStorage</t>
+  </si>
+  <si>
+    <t>Read multilingual content from JSON file on MongoDB</t>
+  </si>
+  <si>
+    <t>Fill JSON with all multilingual content</t>
+  </si>
+  <si>
+    <t>Prepare text elements for variable content, in all pages</t>
   </si>
 </sst>
 </file>
@@ -2156,7 +2144,7 @@
   <dimension ref="B2:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2181,54 +2169,34 @@
         <v>113</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C7" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D8" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D9" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D10" t="s">
-        <v>116</v>
-      </c>
-    </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="17" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D17" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="18" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="19" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D19" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>

--- a/Project-MRA/Project MRA.xlsx
+++ b/Project-MRA/Project MRA.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Viktor\Desktop\Tenderi\WEB\GIT\Qinshift-homeworks\Project-MRA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Programming\GIT\Qinshift-homeworks\Project-MRA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B5BCF0B-81B6-420F-A78F-19838CFB4453}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Public" sheetId="1" r:id="rId1"/>
@@ -19,7 +18,7 @@
     <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
     <sheet name="MyProject" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="146">
   <si>
     <t>Contact details</t>
   </si>
@@ -1040,13 +1039,91 @@
   </si>
   <si>
     <t>Prepare text elements for variable content, in all pages</t>
+  </si>
+  <si>
+    <t>Se koristi fetch, namesto axios, bidejki imav CORS problemi koi ne mozev da gi nadminam.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Istite CORS problemi gi nadminav za fetch so koristenje na CORS: </t>
+  </si>
+  <si>
+    <t>instalacija na CORS, importiranje vo index.js I app.use(cors({ origin: '*' })); statement, koja e najavena kako problematicna za production faza</t>
+  </si>
+  <si>
+    <t>importiranje vo index.js</t>
+  </si>
+  <si>
+    <t>Q: kako da se nadmine problemo so CORS, kako dolgotrajno resenie?</t>
+  </si>
+  <si>
+    <t>Q: dali treba da se deinstaliraat paketi koi bile instalirani no se pokazale kako nekorisni?</t>
+  </si>
+  <si>
+    <t>Ideata e:</t>
+  </si>
+  <si>
+    <t>Name: unikatno za site (validirano so MVC), I ednakvo na id na html textOnscreen elementot.</t>
+  </si>
+  <si>
+    <t>german: tekstot preveden na germanski</t>
+  </si>
+  <si>
+    <t>english: tekstot preveden na angliski</t>
+  </si>
+  <si>
+    <t>macedonian: tekstot preveden na makedonski</t>
+  </si>
+  <si>
+    <t>Preku Postman da se pravi CRUD na sodrzina, odnosno na sekoj onscreen tekst posebno, so parametri:</t>
+  </si>
+  <si>
+    <t>Bidejki, dokolku se odluci da ovaa moznost se dade vo dashboard na admin, kje moze lesno da se implementira.</t>
+  </si>
+  <si>
+    <t>Testirano e, funkcionira.</t>
+  </si>
+  <si>
+    <t>Kreirni Gmail, MongoDB, Postman accounts za MRA clientot.</t>
+  </si>
+  <si>
+    <t>Preku Postman, vo MongoDB e kreiran JSON file so 5 tekstovi koi se onscreen za page contact.html</t>
+  </si>
+  <si>
+    <t>Pri promena na language ne se vrsi reload, samo se menuva tekstot, koj vazi vo tekot na celata sesija na surfanje.</t>
+  </si>
+  <si>
+    <t>Vo main.css staven e css za mhltilingual bidejki treba da e vo navbar.</t>
+  </si>
+  <si>
+    <t>multilngual.js e vo folder modules, no treba da se integrira vo sekoj page.</t>
+  </si>
+  <si>
+    <t>app.use(cors({ origin: '*' })); statement vo index.js, koja e najavena kako problematicna za production faza, bidejki e privremen pristap</t>
+  </si>
+  <si>
+    <t>Kreirana MVCexpress arhitektura vo folder MVC I povrzana so MongoDB.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Promenata na language se vrsi preku localStorage parametar I toa preku modul multilingual.js vo folder modules. </t>
+  </si>
+  <si>
+    <t>Tekstot ostanuva vo izbraniot jazik I pri promena na strana na aplikacijata, bidejki vo site html strani e integriran modulot multilingal.js.</t>
+  </si>
+  <si>
+    <t>Q: npm run dev, dali mora da e izvrseno za da moze da se  startuva aplikacijata kako treba?</t>
+  </si>
+  <si>
+    <t>Q: kako da se izkoristi lang="en" vo html file-ot?</t>
+  </si>
+  <si>
+    <t>Q: Sto da koristime za prakjame mejlovi: EmailJS, Formspree, SMTP servers kako SendGrid, Mailgun, or SMTP2Go?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1079,13 +1156,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1101,9 +1190,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1418,146 +1509,146 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:E30"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D10" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D11" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D12" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D14" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
       <c r="E15" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
       <c r="E16" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E17" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D19" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D20" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D22" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D23" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D24" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D26" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D27" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D28" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D29" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D30" t="s">
         <v>48</v>
       </c>
@@ -1568,16 +1659,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C4:N27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="Q24" sqref="Q24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="4" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>35</v>
       </c>
@@ -1585,22 +1676,22 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:14" x14ac:dyDescent="0.3">
       <c r="M5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:14" x14ac:dyDescent="0.3">
       <c r="N6" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:14" x14ac:dyDescent="0.3">
       <c r="N7" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:14" x14ac:dyDescent="0.3">
       <c r="D8" t="s">
         <v>28</v>
       </c>
@@ -1608,7 +1699,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:14" x14ac:dyDescent="0.3">
       <c r="E9" t="s">
         <v>60</v>
       </c>
@@ -1616,7 +1707,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:14" x14ac:dyDescent="0.3">
       <c r="E10" t="s">
         <v>61</v>
       </c>
@@ -1624,7 +1715,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:14" x14ac:dyDescent="0.3">
       <c r="E11" t="s">
         <v>27</v>
       </c>
@@ -1632,7 +1723,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:14" x14ac:dyDescent="0.3">
       <c r="E12" t="s">
         <v>30</v>
       </c>
@@ -1640,7 +1731,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:14" x14ac:dyDescent="0.3">
       <c r="E13" t="s">
         <v>29</v>
       </c>
@@ -1648,7 +1739,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:14" x14ac:dyDescent="0.3">
       <c r="E14" t="s">
         <v>58</v>
       </c>
@@ -1656,7 +1747,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:14" x14ac:dyDescent="0.3">
       <c r="E15" t="s">
         <v>26</v>
       </c>
@@ -1664,7 +1755,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:14" x14ac:dyDescent="0.3">
       <c r="D16" t="s">
         <v>59</v>
       </c>
@@ -1672,7 +1763,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="5:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="5:14" x14ac:dyDescent="0.3">
       <c r="E17" t="s">
         <v>32</v>
       </c>
@@ -1680,7 +1771,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="5:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="5:14" x14ac:dyDescent="0.3">
       <c r="E18" t="s">
         <v>33</v>
       </c>
@@ -1688,7 +1779,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="5:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="5:14" x14ac:dyDescent="0.3">
       <c r="E19" t="s">
         <v>31</v>
       </c>
@@ -1696,7 +1787,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="5:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="5:14" x14ac:dyDescent="0.3">
       <c r="E20" t="s">
         <v>34</v>
       </c>
@@ -1704,7 +1795,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="5:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="5:14" x14ac:dyDescent="0.3">
       <c r="F21" t="s">
         <v>54</v>
       </c>
@@ -1712,7 +1803,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="5:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="5:14" x14ac:dyDescent="0.3">
       <c r="F22" t="s">
         <v>55</v>
       </c>
@@ -1720,7 +1811,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="5:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="5:14" x14ac:dyDescent="0.3">
       <c r="F23" t="s">
         <v>62</v>
       </c>
@@ -1728,7 +1819,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="5:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="5:14" x14ac:dyDescent="0.3">
       <c r="F24" t="s">
         <v>56</v>
       </c>
@@ -1736,7 +1827,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="5:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="5:14" x14ac:dyDescent="0.3">
       <c r="F25" t="s">
         <v>57</v>
       </c>
@@ -1744,12 +1835,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="5:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="5:14" x14ac:dyDescent="0.3">
       <c r="N26" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="27" spans="5:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="5:14" x14ac:dyDescent="0.3">
       <c r="N27" t="s">
         <v>41</v>
       </c>
@@ -1760,20 +1851,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:S29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="R20" sqref="R20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>25</v>
       </c>
@@ -1793,7 +1884,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:19" x14ac:dyDescent="0.3">
       <c r="C2" t="s">
         <v>67</v>
       </c>
@@ -1804,7 +1895,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:19" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>66</v>
       </c>
@@ -1815,7 +1906,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="4" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:19" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>68</v>
       </c>
@@ -1826,7 +1917,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="5" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:19" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>69</v>
       </c>
@@ -1837,7 +1928,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:19" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>71</v>
       </c>
@@ -1848,7 +1939,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="7" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:19" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>50</v>
       </c>
@@ -1859,7 +1950,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="8" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:19" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>49</v>
       </c>
@@ -1870,7 +1961,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="9" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:19" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>70</v>
       </c>
@@ -1881,7 +1972,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="10" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:19" x14ac:dyDescent="0.3">
       <c r="K10" t="s">
         <v>79</v>
       </c>
@@ -1889,7 +1980,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="11" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>63</v>
       </c>
@@ -1903,7 +1994,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="12" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:19" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>67</v>
       </c>
@@ -1914,7 +2005,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="13" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:19" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>66</v>
       </c>
@@ -1922,7 +2013,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:19" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>72</v>
       </c>
@@ -1936,7 +2027,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:19" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>69</v>
       </c>
@@ -1947,7 +2038,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:19" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>71</v>
       </c>
@@ -1955,7 +2046,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="17" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:19" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>50</v>
       </c>
@@ -1969,7 +2060,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="18" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:19" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>73</v>
       </c>
@@ -1977,7 +2068,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="19" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:19" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>74</v>
       </c>
@@ -1985,7 +2076,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="20" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:19" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>70</v>
       </c>
@@ -1993,12 +2084,12 @@
         <v>85</v>
       </c>
     </row>
-    <row r="21" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:19" x14ac:dyDescent="0.3">
       <c r="K21" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="22" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>19</v>
       </c>
@@ -2009,7 +2100,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:19" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>67</v>
       </c>
@@ -2017,7 +2108,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="24" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:19" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>66</v>
       </c>
@@ -2025,7 +2116,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="25" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:19" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>75</v>
       </c>
@@ -2033,7 +2124,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="26" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:19" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>72</v>
       </c>
@@ -2041,7 +2132,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="27" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:19" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>78</v>
       </c>
@@ -2049,7 +2140,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="28" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:19" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>70</v>
       </c>
@@ -2057,7 +2148,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="29" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:19" x14ac:dyDescent="0.3">
       <c r="K29" t="s">
         <v>83</v>
       </c>
@@ -2068,36 +2159,36 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>105</v>
       </c>
@@ -2105,7 +2196,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>109</v>
       </c>
@@ -2113,7 +2204,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>105</v>
       </c>
@@ -2121,18 +2212,18 @@
         <v>107</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>108</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
-    <hyperlink ref="B5" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
-    <hyperlink ref="B10" r:id="rId3" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
-    <hyperlink ref="B11" r:id="rId4" xr:uid="{00000000-0004-0000-0300-000003000000}"/>
-    <hyperlink ref="B12" r:id="rId5" xr:uid="{00000000-0004-0000-0300-000004000000}"/>
+    <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="B5" r:id="rId2"/>
+    <hyperlink ref="B10" r:id="rId3"/>
+    <hyperlink ref="B11" r:id="rId4"/>
+    <hyperlink ref="B12" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId6"/>
@@ -2140,66 +2231,183 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D10F2B9-E351-4458-8FEA-B1EFBB0E3371}">
-  <dimension ref="B2:D19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:N45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D15" t="s">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="D15" s="2" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="K15" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.3">
       <c r="D16" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="K16" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="17" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D17" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="K17" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="18" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D18" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="19" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="K18" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="19" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D19" t="s">
         <v>119</v>
       </c>
+      <c r="K19" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="20" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="K20" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="21" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="K21" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="23" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="K23" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="24" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="D24" t="s">
+        <v>137</v>
+      </c>
+      <c r="L24" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="25" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="D25" t="s">
+        <v>138</v>
+      </c>
+      <c r="N25" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="26" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="N26" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="27" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="N27" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="28" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="N28" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="29" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="M29" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="33" spans="11:12" x14ac:dyDescent="0.3">
+      <c r="K33" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="34" spans="11:12" x14ac:dyDescent="0.3">
+      <c r="K34" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="35" spans="11:12" x14ac:dyDescent="0.3">
+      <c r="L35" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="36" spans="11:12" x14ac:dyDescent="0.3">
+      <c r="L36" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="37" spans="11:12" x14ac:dyDescent="0.3">
+      <c r="L37" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="39" spans="11:12" x14ac:dyDescent="0.3">
+      <c r="K39" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="40" spans="11:12" x14ac:dyDescent="0.3">
+      <c r="K40" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="41" spans="11:12" x14ac:dyDescent="0.3">
+      <c r="K41" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="42" spans="11:12" x14ac:dyDescent="0.3">
+      <c r="K42" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="45" spans="11:12" x14ac:dyDescent="0.3">
+      <c r="K45" t="s">
+        <v>145</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Project-MRA/Project MRA.xlsx
+++ b/Project-MRA/Project MRA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Viktor\Desktop\Tenderi\WEB\GIT\Qinshift-homeworks\Project-MRA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B5BCF0B-81B6-420F-A78F-19838CFB4453}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A319161-1410-4B61-B3EC-2406DE0C6CC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Public" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="DB" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
     <sheet name="MyProject" sheetId="5" r:id="rId5"/>
+    <sheet name="mraMongoose" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="366">
   <si>
     <t>Contact details</t>
   </si>
@@ -1041,12 +1042,882 @@
   <si>
     <t>Prepare text elements for variable content, in all pages</t>
   </si>
+  <si>
+    <t>mrallround5@gmail.com</t>
+  </si>
+  <si>
+    <t>qinshift2025</t>
+  </si>
+  <si>
+    <t>GMAIL, MongoDB</t>
+  </si>
+  <si>
+    <t>mrallround5</t>
+  </si>
+  <si>
+    <t>5HLa4FABrNxP8rV6</t>
+  </si>
+  <si>
+    <t>MongoDB User</t>
+  </si>
+  <si>
+    <t>db pass:</t>
+  </si>
+  <si>
+    <t>I. Inicijalizirame root folder</t>
+  </si>
+  <si>
+    <t>Create root folder, and in it</t>
+  </si>
+  <si>
+    <t>Create index.js</t>
+  </si>
+  <si>
+    <t>Copy .gitignore file from other project</t>
+  </si>
+  <si>
+    <t>Create folders:</t>
+  </si>
+  <si>
+    <t>routes, and in it</t>
+  </si>
+  <si>
+    <t>Create main-router.js</t>
+  </si>
+  <si>
+    <t>controllers</t>
+  </si>
+  <si>
+    <t>models</t>
+  </si>
+  <si>
+    <t>middlewares, and in it</t>
+  </si>
+  <si>
+    <t>Create validateRequest.js</t>
+  </si>
+  <si>
+    <t>services</t>
+  </si>
+  <si>
+    <t>schemas</t>
+  </si>
+  <si>
+    <t>In terminal, initiate root folder</t>
+  </si>
+  <si>
+    <t>npm init -y</t>
+  </si>
+  <si>
+    <t>In index.js input</t>
+  </si>
+  <si>
+    <t>"type": "module"</t>
+  </si>
+  <si>
+    <t>"scripts"</t>
+  </si>
+  <si>
+    <t>"start": "node index.js"</t>
+  </si>
+  <si>
+    <t>"dev": "nodemon index.js"</t>
+  </si>
+  <si>
+    <t>In terminal, install</t>
+  </si>
+  <si>
+    <t>npm i express // za kreiranje serverska okolina</t>
+  </si>
+  <si>
+    <t>npm i mongoose // za rabota so MongoDb I validacija na inputi prema baza</t>
+  </si>
+  <si>
+    <t>npm i dotenv // za bezbednost, skrivanje na osetlici podatoci</t>
+  </si>
+  <si>
+    <t>npm i zod // za validacija na inputi od frontend prema server</t>
+  </si>
+  <si>
+    <t>npm i -D nodemon // za sledenje vo zivo na rabota na server</t>
+  </si>
+  <si>
+    <t>II. Postavuvame osnoven setup za aplikacija vo dotenv okolina</t>
+  </si>
+  <si>
+    <t>Vo validateRequest.js</t>
+  </si>
+  <si>
+    <t>kreirame I exportirame object so edinstvena metoda za valideiranje na Request</t>
+  </si>
+  <si>
+    <t>const ValidateRequest = schema =&gt; async (req, res, next) =&gt; {</t>
+  </si>
+  <si>
+    <t>    try {</t>
+  </si>
+  <si>
+    <t>        await schema.parseAsync(req.body);</t>
+  </si>
+  <si>
+    <t>        next();</t>
+  </si>
+  <si>
+    <t>    } catch (error) {</t>
+  </si>
+  <si>
+    <t>        res.status(400).send({</t>
+  </si>
+  <si>
+    <t>            errors: error.errors,</t>
+  </si>
+  <si>
+    <t>        });</t>
+  </si>
+  <si>
+    <t>    }</t>
+  </si>
+  <si>
+    <t>};</t>
+  </si>
+  <si>
+    <t>export default ValidateRequest;</t>
+  </si>
+  <si>
+    <t>Vo main-router.js</t>
+  </si>
+  <si>
+    <t>importirame externi paketi</t>
+  </si>
+  <si>
+    <t>import {Router} from 'express';</t>
+  </si>
+  <si>
+    <t>kreirame I exportirame main-router</t>
+  </si>
+  <si>
+    <t>const MainRouter = Router();</t>
+  </si>
+  <si>
+    <t>export default MainRouter</t>
+  </si>
+  <si>
+    <t>Vo index.js</t>
+  </si>
+  <si>
+    <t>importirame paketi</t>
+  </si>
+  <si>
+    <t>import express from 'express'  // za kreiranje na server</t>
+  </si>
+  <si>
+    <t>import mongoose from 'mongoose'  // za povrzuvanje so baza</t>
+  </si>
+  <si>
+    <t>import dotenv from 'dotenv'  // za skrivanje na osetlivi invormacii</t>
+  </si>
+  <si>
+    <t>import router from './routes/main-router.js';</t>
+  </si>
+  <si>
+    <t>postavuvame dotenv okolina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dotenv.config();  // This line loads environment variables from a .env file into process.env. </t>
+  </si>
+  <si>
+    <t>const { PORT, HOSTNAME, MONGO_USERNAME, MONGO_PASSWORD, MONGO_CLUSTER, MONGO_DB_NAME } = process.env   // takes the values from process.env and assigns them to constants.</t>
+  </si>
+  <si>
+    <t>const URI = `mongodb+srv://${MONGO_USERNAME}:${MONGO_PASSWORD}@${MONGO_CLUSTER}.mongodb.net/${MONGO_DB_NAME}?retryWrites=true&amp;w=majority&amp;appName=Cluster0`;   //This constructs a MongoDB connection URI using the environment variables.</t>
+  </si>
+  <si>
+    <t>kreirame server</t>
+  </si>
+  <si>
+    <t>const app = express();</t>
+  </si>
+  <si>
+    <t>Se povrzuvame so middleware za citanje json sodrzina</t>
+  </si>
+  <si>
+    <t>app.use(express.json())</t>
+  </si>
+  <si>
+    <t>Se povrzuvame so glavniot ruter</t>
+  </si>
+  <si>
+    <t>Vo root folder kreirame .env file kade gi stavame konstantite so nivnite vrednosti. Ovoj file samo nie go gledame</t>
+  </si>
+  <si>
+    <t>HOSTNAME="localhost"</t>
+  </si>
+  <si>
+    <t>PORT=3000</t>
+  </si>
+  <si>
+    <t>Vo root folder kreirame .env.example file kade gi stavame konstantite so lazni vrednosti. Ovoj file go gledaat drugi samo kolku da znaat koi konstanti se potrebni da se vnesat pravilnite vrednosti.</t>
+  </si>
+  <si>
+    <r>
+      <t>HOSTNAME</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t>""</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>PORT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t>9999</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>MONGO_USERNAME</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t>"dsaffweqdf"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>MONGO_PASSWORD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t>"dsadas"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>MONGO_CLUSTER</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t>"dsadas"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>MONGO_DB_NAME</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t>"db-name"</t>
+    </r>
+  </si>
+  <si>
+    <t>Imeto na databazata go pisuvame vo .env MONGO_DB_NAME</t>
+  </si>
+  <si>
+    <t>Kreirame IIFE funkcija za povrzuvanje so bazata I pocetok na slusanje na soodvetniot PORT I HOSTNAME, so vklucen ERROR MNGT</t>
+  </si>
+  <si>
+    <t>( async () =&gt; {</t>
+  </si>
+  <si>
+    <t>        await mongoose.connect(URI);</t>
+  </si>
+  <si>
+    <t>    } catch (error){</t>
+  </si>
+  <si>
+    <t>        console.log(`Connection to MongoDB failed!`, error)</t>
+  </si>
+  <si>
+    <t>    app.listen(PORT, HOSTNAME, ()=&gt;{</t>
+  </si>
+  <si>
+    <t>        console.log(`Server started listening on http://${HOSTNAME}:${PORT}`)</t>
+  </si>
+  <si>
+    <t>    });</t>
+  </si>
+  <si>
+    <t>})();</t>
+  </si>
+  <si>
+    <t>III. Ja kreirame logikata na konkretnata aplikacija</t>
+  </si>
+  <si>
+    <t>III.1. Ja definirame bazata</t>
+  </si>
+  <si>
+    <t>Vo sekoj .js file vo models importirame Schema I Model od mongoose</t>
+  </si>
+  <si>
+    <t>import { Schema, model } from 'mongoose';</t>
+  </si>
+  <si>
+    <t>Vo sekoj .js file vo models definirame Schema za validacija na soodvetniot subject pri vlez na podatoci vo bazata</t>
+  </si>
+  <si>
+    <t>        type: String,</t>
+  </si>
+  <si>
+    <t>        required: true,</t>
+  </si>
+  <si>
+    <t>    },</t>
+  </si>
+  <si>
+    <t>},</t>
+  </si>
+  <si>
+    <t>})</t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t>Vo sekoj .js file vo model, kreirame I exportirame model na subject-ot spored negovata Schema.</t>
+  </si>
+  <si>
+    <t>III.2. Definirame zod validacija na podatoci na izlez od frontend I vlez vo server</t>
+  </si>
+  <si>
+    <t>Vo sekoj .js file vo schemas importirame z od zod</t>
+  </si>
+  <si>
+    <t>import { z } from 'zod';</t>
+  </si>
+  <si>
+    <t>Vo sekoj .js file vo schemas definirame Schema za validacija na soodvetniot subject, pri vlez na podatoci od frontend vo server za kreiranje I update-iranje na soodvetniot subject</t>
+  </si>
+  <si>
+    <t>Ne smee nekoi pravilo tuka da se kosi so pravilo vo modelot na konkretniot subject. Ako tamu e type string, treba I tuka da bide, ako e tamu required true, treba I tuka.</t>
+  </si>
+  <si>
+    <t>III.3. Definirame logikata koja treba da se izvrsuva vrz podatocite od requestot dobieno od controllers, a vo soglasnost so models</t>
+  </si>
+  <si>
+    <t>Vo sekoj .js file vo services importirame mongoose od mongoose I soodvetniot subjectModel.js od models.</t>
+  </si>
+  <si>
+    <t>Vo rideServices.js se importiraat I modelite od driver, passenger I car, bidejki i kaj niv se vrsat promeni so sekoe novo Ride ili brisenje na Ride.</t>
+  </si>
+  <si>
+    <t>import mongoose from 'mongoose';</t>
+  </si>
+  <si>
+    <t>Vo sekoj .js file vo services definirame object so CRUD koi kje ja pretstavuvaat logikata na obrabotka na podatoci (body) dobieni od controller-ot za request-ot</t>
+  </si>
+  <si>
+    <t>Create and export SubjectServices object so getAllSubjects metoda</t>
+  </si>
+  <si>
+    <t>                new: true,</t>
+  </si>
+  <si>
+    <t>                runValidators: true,</t>
+  </si>
+  <si>
+    <t>            })</t>
+  </si>
+  <si>
+    <t>        }</t>
+  </si>
+  <si>
+    <t>Vo object kaj site dodadi metoda createObject.</t>
+  </si>
+  <si>
+    <t>Vo object kaj site dodadi metoda deleteObject.</t>
+  </si>
+  <si>
+    <t>Vo object kaj site dodadi metoda getObjectById.</t>
+  </si>
+  <si>
+    <t>Vo sekoj .js file vo controllers definirame object so metodi za prevzemanje informacii od request I prakjanje do soodvetnite metodi vo services.</t>
+  </si>
+  <si>
+    <t>Vo sekoj .js file vo controllers importirame soodvetniot subjectServices od services.</t>
+  </si>
+  <si>
+    <t>Create and export SubjectController object so getAllSubjects metoda</t>
+  </si>
+  <si>
+    <t>Osven vo object na RideController, kaj site drugi dodadi metoda updateObject, bidejki nema updateRide metoda, bidejki ne e dozvoleno soglasno baranje na sopstvenikot na aplikacijata.</t>
+  </si>
+  <si>
+    <t>        try {</t>
+  </si>
+  <si>
+    <t>                req.params.id,</t>
+  </si>
+  <si>
+    <t>                req.body</t>
+  </si>
+  <si>
+    <t>            );</t>
+  </si>
+  <si>
+    <t>        } catch (error) {</t>
+  </si>
+  <si>
+    <t>            res.status(500).send({</t>
+  </si>
+  <si>
+    <t>                errors: [error.message],</t>
+  </si>
+  <si>
+    <t>            });</t>
+  </si>
+  <si>
+    <t>        try{</t>
+  </si>
+  <si>
+    <t>            res.sendStatus(204)</t>
+  </si>
+  <si>
+    <t>        }catch (error) {</t>
+  </si>
+  <si>
+    <t>Importirame</t>
+  </si>
+  <si>
+    <t>Vo sekoj .js file vo routes importirame Router od express.</t>
+  </si>
+  <si>
+    <t>import { Router } from "express";</t>
+  </si>
+  <si>
+    <t>Vo sekoj .js file vo routes importirame soodvetniot subjectConstrollers od controllers.</t>
+  </si>
+  <si>
+    <t>Vo sekoj .js file vo routes importirame validateRequest od middlewares.</t>
+  </si>
+  <si>
+    <t>import ValidateRequest from "../middlewares/validateRequest.js";</t>
+  </si>
+  <si>
+    <t>Vo sekoj .js file vo routes importirame soodvetnite createSubjectSchema   I updateSubjectSchema od schemas.</t>
+  </si>
+  <si>
+    <t>Create and export SubjectRouter object</t>
+  </si>
+  <si>
+    <t>Vo sekoj object kreirame route do getAllSubjects</t>
+  </si>
+  <si>
+    <t>Vo sekoj object kreirame route do updateSubject, osven za Ride, bidejki update ne e dozvolen za niv</t>
+  </si>
+  <si>
+    <t>Vo sekoj object kreirame route do createSubject</t>
+  </si>
+  <si>
+    <t>Vo sekoj object kreirame route do deleteSubject</t>
+  </si>
+  <si>
+    <t>Vo sekoj object kreirame route do getSubjectById</t>
+  </si>
+  <si>
+    <t>importirame SubjectRouter objectite od soodvetnite subjectRoutes.js</t>
+  </si>
+  <si>
+    <t>nasocuvame povicite koi doagjaat do api, do soodvetnite SubjectRouter za niv vo subjectRoutes.js</t>
+  </si>
+  <si>
+    <t>MONGO_USERNAME="mrallround5"</t>
+  </si>
+  <si>
+    <t>MONGO_PASSWORD="qinshift2025"</t>
+  </si>
+  <si>
+    <t>MONGO_CLUSTER="cluster0.ilszzef"</t>
+  </si>
+  <si>
+    <t>MONGO_DB_NAME="mrallround"  // tuka se stava imeto na bazata vo MongoDB</t>
+  </si>
+  <si>
+    <t>Content</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>german</t>
+  </si>
+  <si>
+    <t>english</t>
+  </si>
+  <si>
+    <t>spanish</t>
+  </si>
+  <si>
+    <t>french</t>
+  </si>
+  <si>
+    <t>macedonian</t>
+  </si>
+  <si>
+    <t>Vo folder models kreirame .js files za site kolekcii so podatoci: driverModel.js passengerModel.js carModel.js rideModel.js (vo slucajov contentModel.js)</t>
+  </si>
+  <si>
+    <t>Vo mongodb.com kreirame databaza od kolekcii za drivers, passengers, cars, rides. (Vo slucajov multilingualpagecontent)</t>
+  </si>
+  <si>
+    <t>    {</t>
+  </si>
+  <si>
+    <t>    })</t>
+  </si>
+  <si>
+    <t>const contentSchema = new Schema({</t>
+  </si>
+  <si>
+    <t>    name: {</t>
+  </si>
+  <si>
+    <t>    german: {</t>
+  </si>
+  <si>
+    <t>    english: {</t>
+  </si>
+  <si>
+    <t>    spanish: {</t>
+  </si>
+  <si>
+    <t>    french: {</t>
+  </si>
+  <si>
+    <t>    macedonian: {</t>
+  </si>
+  <si>
+    <t>        timestamps: true,</t>
+  </si>
+  <si>
+    <t>const contentModel = model('multilingualpagecontent', contentSchema);</t>
+  </si>
+  <si>
+    <t>export default contentModel;</t>
+  </si>
+  <si>
+    <t>Vo folder schemas kreirame .js files za site kolekcii so podatoci: driverSchema.js passengerSchema.js carSchema.js rideSchema.js (Vo slucajov contentSchema.js)</t>
+  </si>
+  <si>
+    <t>export const createContentSchema = z.object({</t>
+  </si>
+  <si>
+    <t>    name: z</t>
+  </si>
+  <si>
+    <t>        .string(),</t>
+  </si>
+  <si>
+    <t>    german: z</t>
+  </si>
+  <si>
+    <t>    english: z</t>
+  </si>
+  <si>
+    <t>    spanish: z</t>
+  </si>
+  <si>
+    <t>    french: z</t>
+  </si>
+  <si>
+    <t>    macedonian: z</t>
+  </si>
+  <si>
+    <t>export const updateContentSchema = createContentSchema.partial();</t>
+  </si>
+  <si>
+    <t>Vo folder services kreirame .js files za site kolekcii so podatoci: driverServices.js passengerServices.js carServices.js rideServices.js (VO slucajov contentServices.js)</t>
+  </si>
+  <si>
+    <t>import ContentModel from '../models/contenModel.js';</t>
+  </si>
+  <si>
+    <t>const ContentServices = {</t>
+  </si>
+  <si>
+    <t>    async getAllContents (){</t>
+  </si>
+  <si>
+    <t>        const allContents = await ContentModel.find();</t>
+  </si>
+  <si>
+    <t>        return allContents;</t>
+  </si>
+  <si>
+    <t>export default ContentServices;</t>
+  </si>
+  <si>
+    <t>Osven vo object-ot RideService, vo drugite dodadi metoda updateObject kade sto kje moze da se menuva samo userName kaj Driver I Passenger I samo licensePlate kaj Car. (VO slucajov za Content)</t>
+  </si>
+  <si>
+    <t>    async updateContent (id, body) {</t>
+  </si>
+  <si>
+    <t>            const updatedContent = await ContentModel.findByIdAndUpdate(id, body, {</t>
+  </si>
+  <si>
+    <t>            return updatedContent</t>
+  </si>
+  <si>
+    <t>        const {name, german, english, spanish, french, macedonian} = body;</t>
+  </si>
+  <si>
+    <t>            name,</t>
+  </si>
+  <si>
+    <t>            german,</t>
+  </si>
+  <si>
+    <t>            english,</t>
+  </si>
+  <si>
+    <t>            spanish,</t>
+  </si>
+  <si>
+    <t>            french,</t>
+  </si>
+  <si>
+    <t>            macedonian,</t>
+  </si>
+  <si>
+    <t>    async createContent (body) {</t>
+  </si>
+  <si>
+    <t>        const newContent = new ContentModel({</t>
+  </si>
+  <si>
+    <t>        const createdContent = await newContent.save();</t>
+  </si>
+  <si>
+    <t>        return createdContent;</t>
+  </si>
+  <si>
+    <t>    async deleteContent (id) {</t>
+  </si>
+  <si>
+    <t>        await ContentModel.findByIdAndDelete(id)</t>
+  </si>
+  <si>
+    <t>        return `Content with ${id} was deleted.`</t>
+  </si>
+  <si>
+    <t>    async getContentById(id) {</t>
+  </si>
+  <si>
+    <t>import ContentServices from '../services/contentServices.js'</t>
+  </si>
+  <si>
+    <t>        const contentDetails = await ContentModel.findById(id);</t>
+  </si>
+  <si>
+    <t>        return contentDetails;</t>
+  </si>
+  <si>
+    <t>const ContentController = {</t>
+  </si>
+  <si>
+    <t>    async getAllContents (req, res){</t>
+  </si>
+  <si>
+    <t>        const allContents = await ContentServices.getAllContents();</t>
+  </si>
+  <si>
+    <t>        res.send(allContents);</t>
+  </si>
+  <si>
+    <t>export default ContentController</t>
+  </si>
+  <si>
+    <t>    async updateContent(req, res) {</t>
+  </si>
+  <si>
+    <t>            const updatedContent = await ContentServices.updateContent(</t>
+  </si>
+  <si>
+    <t>            res.send(updatedContent);</t>
+  </si>
+  <si>
+    <t>    async createContent(req, res) {</t>
+  </si>
+  <si>
+    <t>            const newContent = await ContentServices.createContent(req.body);</t>
+  </si>
+  <si>
+    <t>            res.status(201).send(newContent);</t>
+  </si>
+  <si>
+    <t>    async deleteContent(req, res){ // ova e ok</t>
+  </si>
+  <si>
+    <t>            await ContentServices.deleteContent(req.params.id);</t>
+  </si>
+  <si>
+    <t>        if (!contentDetails) {</t>
+  </si>
+  <si>
+    <t>            throw new Error('Content not found');</t>
+  </si>
+  <si>
+    <t>import ContentController from "../controllers/contentController.js";</t>
+  </si>
+  <si>
+    <t>import { createContentSchema, updateContentSchema } from "../schemas/contentSchema.js";</t>
+  </si>
+  <si>
+    <t>const ContentRouter = Router()</t>
+  </si>
+  <si>
+    <t>export default ContentRouter</t>
+  </si>
+  <si>
+    <t>ContentRouter.get('/all', ContentController.getAllContents);</t>
+  </si>
+  <si>
+    <t>ContentRouter.put('/update/:id', ValidateRequest(updateContentSchema), ContentController.updateContent);</t>
+  </si>
+  <si>
+    <t>ContentRouter.post('/create', ValidateRequest(createContentSchema), ContentController.createContent);</t>
+  </si>
+  <si>
+    <t>ContentRouter.delete('/delete/:id', ContentController.deleteContent);</t>
+  </si>
+  <si>
+    <t>ContentRouter.get('/:id', ContentController.getContentById);</t>
+  </si>
+  <si>
+    <t>MainRouter.use('/multilingualpagecontent', ContentRouter);</t>
+  </si>
+  <si>
+    <t>import ContentRouter from './contentRouter.js';</t>
+  </si>
+  <si>
+    <t>Vo sekoj subjectRouter.js file vo routes definirame object so metodi za prevzemanje informacii od frontend I preprakjanje do soodvetnite metodi vo controllers.</t>
+  </si>
+  <si>
+    <t>Vo main-router.js file vo routes definirame object so metodi za prevzemanje informacii od frontend I preprakjanje do soodvetnite metodi vo subjectRouter.js.</t>
+  </si>
+  <si>
+    <t>GET: http://localhost:3000/api/multilingualpagecontent/all</t>
+  </si>
+  <si>
+    <t>GET: http://localhost:3000/api/multilingualpagecontent/create</t>
+  </si>
+  <si>
+    <t>GET: http://localhost:3000/api/multilingualpagecontent/update/:id</t>
+  </si>
+  <si>
+    <t>III.4. Kreirame kolekcija mraMongoose vo Postman I vo nea gi kreirame site requesti, soglasno main-router I site SubjectRouter.js od folder routes</t>
+  </si>
+  <si>
+    <t>app.use('/api', MainRouter)</t>
+  </si>
+  <si>
+    <t>        const contentDetails = await ContentServices.findById(id);</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1079,6 +1950,33 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF0070C0"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFD4D4D4"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFCE9178"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF0070C0"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1097,17 +1995,29 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{6EEA1DC9-0DA6-43D5-9F6F-9BB57EB1331F}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1120,6 +2030,3369 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="2" name="Group 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C1E7BA4-E928-4644-95D3-66AFC5D88447}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="4524375" y="714376"/>
+          <a:ext cx="10058400" cy="4171949"/>
+          <a:chOff x="1790700" y="1339734"/>
+          <a:chExt cx="12915900" cy="5575416"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="3" name="Group 2">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8C1FBA3-CCB8-6C18-0B44-3E330A7410EB}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="1790700" y="3857624"/>
+            <a:ext cx="1743076" cy="742951"/>
+            <a:chOff x="5305425" y="1276349"/>
+            <a:chExt cx="1743076" cy="742951"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="77" name="Rectangle 76">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9EA3083C-C026-4946-1A24-D3048BE9C0B5}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5305425" y="1276349"/>
+              <a:ext cx="1743076" cy="742951"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="15000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US" sz="900"/>
+                <a:t>dotenv</a:t>
+              </a:r>
+              <a:endParaRPr lang="mk-MK" sz="900"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="78" name="Flowchart: Document 77">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9745391-B607-817E-987D-63C6FBEC3D61}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5591176" y="1552575"/>
+              <a:ext cx="1257299" cy="352425"/>
+            </a:xfrm>
+            <a:prstGeom prst="flowChartDocument">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="15000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US" sz="900">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>dotenv</a:t>
+              </a:r>
+              <a:endParaRPr lang="mk-MK" sz="900"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="4" name="Group 3">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{942F81DC-840A-8AC3-0707-8587D95D945A}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="4019550" y="2552699"/>
+            <a:ext cx="1743075" cy="762001"/>
+            <a:chOff x="5305425" y="1276349"/>
+            <a:chExt cx="1743075" cy="762001"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="75" name="Rectangle 74">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B137CF48-11CC-7B60-05F8-CFA0D3D20616}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5305425" y="1276349"/>
+              <a:ext cx="1743075" cy="762001"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="15000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US" sz="900"/>
+                <a:t>main-router.js</a:t>
+              </a:r>
+              <a:endParaRPr lang="mk-MK" sz="900"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="76" name="Flowchart: Document 75">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5089936-A1EC-3D98-1564-670F906198CF}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5657851" y="1600200"/>
+              <a:ext cx="1085850" cy="352425"/>
+            </a:xfrm>
+            <a:prstGeom prst="flowChartDocument">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="15000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US" sz="900"/>
+                <a:t>MainRouter</a:t>
+              </a:r>
+              <a:endParaRPr lang="mk-MK" sz="900"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="5" name="Group 4">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5282AE49-4F21-9F9B-3B49-5C6B8C8A26EC}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="6267450" y="2590799"/>
+            <a:ext cx="1743076" cy="742951"/>
+            <a:chOff x="5305425" y="1276349"/>
+            <a:chExt cx="1743076" cy="742951"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="73" name="Rectangle 72">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30D5BFC8-E79A-2F10-C9D8-4E5B6A0FE408}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5305425" y="1276349"/>
+              <a:ext cx="1743076" cy="742951"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="15000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US" sz="900"/>
+                <a:t>subjectRoutes.js</a:t>
+              </a:r>
+              <a:endParaRPr lang="mk-MK" sz="900"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="74" name="Flowchart: Document 73">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79BB1DCE-6244-1A70-C23E-611C2EA16C8A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5591176" y="1552575"/>
+              <a:ext cx="1085850" cy="352425"/>
+            </a:xfrm>
+            <a:prstGeom prst="flowChartDocument">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="15000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US" sz="900"/>
+                <a:t>SubjectRouter</a:t>
+              </a:r>
+              <a:endParaRPr lang="mk-MK" sz="900"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="6" name="Group 5">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36D6F1F8-242A-E9BF-1B68-8AFE91936C68}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="8429625" y="2609849"/>
+            <a:ext cx="1743076" cy="742951"/>
+            <a:chOff x="5305425" y="1276349"/>
+            <a:chExt cx="1743076" cy="742951"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="71" name="Rectangle 70">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F7C1910-92C2-2CA0-6086-6C23173FA4AA}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5305425" y="1276349"/>
+              <a:ext cx="1743076" cy="742951"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="15000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US" sz="900"/>
+                <a:t>subjectController.js</a:t>
+              </a:r>
+              <a:endParaRPr lang="mk-MK" sz="900"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="72" name="Flowchart: Document 71">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{607D11D5-EE00-00F2-85A6-BBF8A8ECFCFD}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5591176" y="1552575"/>
+              <a:ext cx="1257299" cy="352425"/>
+            </a:xfrm>
+            <a:prstGeom prst="flowChartDocument">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="15000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US" sz="900">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>SubjectController</a:t>
+              </a:r>
+              <a:endParaRPr lang="mk-MK" sz="900"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="7" name="Group 6">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F02C4114-D9F5-6289-12D8-C18E55397FA5}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="5048250" y="1390650"/>
+            <a:ext cx="3895726" cy="781050"/>
+            <a:chOff x="5305425" y="1276350"/>
+            <a:chExt cx="3895726" cy="781050"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="68" name="Rectangle 67">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0252F04E-872C-D7C5-5070-BC5B96AD1314}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5305425" y="1276350"/>
+              <a:ext cx="3895726" cy="781050"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="15000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US" sz="900"/>
+                <a:t>subjectSchema.js</a:t>
+              </a:r>
+              <a:endParaRPr lang="mk-MK" sz="900"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="69" name="Flowchart: Document 68">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1143D275-0BE9-1E11-A925-4F47EF2C5CE0}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5591176" y="1552575"/>
+              <a:ext cx="1571624" cy="352425"/>
+            </a:xfrm>
+            <a:prstGeom prst="flowChartDocument">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="15000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US" sz="900">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>createSubjectSchema</a:t>
+              </a:r>
+              <a:endParaRPr lang="mk-MK" sz="900"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="70" name="Flowchart: Document 69">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1784B69-C4DB-200E-2BD9-A84483214493}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7381876" y="1552575"/>
+              <a:ext cx="1571624" cy="352425"/>
+            </a:xfrm>
+            <a:prstGeom prst="flowChartDocument">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="15000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US" sz="900">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>updateSubjectSchema</a:t>
+              </a:r>
+              <a:endParaRPr lang="mk-MK" sz="900"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="8" name="Group 7">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3156EE9B-0DA0-AC2E-8EDF-B1E2E7206356}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="7229475" y="3752849"/>
+            <a:ext cx="1743076" cy="742951"/>
+            <a:chOff x="5305425" y="1276349"/>
+            <a:chExt cx="1743076" cy="742951"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="66" name="Rectangle 65">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB1C8BD2-9421-4CDD-91F4-C215639F6521}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5305425" y="1276349"/>
+              <a:ext cx="1743076" cy="742951"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="15000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US" sz="900"/>
+                <a:t>validateRequest.js</a:t>
+              </a:r>
+              <a:endParaRPr lang="mk-MK" sz="900"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="67" name="Flowchart: Document 66">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35E5F36B-0BA9-69FF-6F93-0B3077A10CA8}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5591176" y="1552575"/>
+              <a:ext cx="1257299" cy="352425"/>
+            </a:xfrm>
+            <a:prstGeom prst="flowChartDocument">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="15000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US" sz="900">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>ValidateRequest</a:t>
+              </a:r>
+              <a:endParaRPr lang="mk-MK" sz="900"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="9" name="Group 8">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BC5D9F9-B848-C28D-A0A3-DE2CA1CCB921}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="5057776" y="3743325"/>
+            <a:ext cx="1866900" cy="742950"/>
+            <a:chOff x="5305426" y="1276350"/>
+            <a:chExt cx="1866900" cy="742950"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="64" name="Rectangle 63">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8F632D9-01AC-E411-60D9-AD3E4DB05D34}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5305426" y="1276350"/>
+              <a:ext cx="1866900" cy="742950"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="15000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US" sz="900"/>
+                <a:t>express</a:t>
+              </a:r>
+              <a:endParaRPr lang="mk-MK" sz="900"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="65" name="Flowchart: Document 64">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{478D29DF-4FA3-A3C3-E462-B3E43789BC19}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5591176" y="1552575"/>
+              <a:ext cx="1190624" cy="352425"/>
+            </a:xfrm>
+            <a:prstGeom prst="flowChartDocument">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="15000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US" sz="900">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>Router</a:t>
+              </a:r>
+              <a:endParaRPr lang="mk-MK" sz="900"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="10" name="Group 9">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{209FB63D-4961-2589-FC34-DDB1E0E2CE81}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="5876925" y="5219699"/>
+            <a:ext cx="1743076" cy="1695451"/>
+            <a:chOff x="5305425" y="1276349"/>
+            <a:chExt cx="1743076" cy="1695451"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="60" name="Rectangle 59">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF8C4EA4-FF4D-F98B-1776-3F878D376132}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5305425" y="1276349"/>
+              <a:ext cx="1743076" cy="1695451"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="15000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US" sz="900"/>
+                <a:t>mongoose</a:t>
+              </a:r>
+              <a:endParaRPr lang="mk-MK" sz="900"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="61" name="Flowchart: Document 60">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE918DD3-5BC0-21CB-115F-680A74A8795C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5591176" y="1552575"/>
+              <a:ext cx="1257299" cy="352425"/>
+            </a:xfrm>
+            <a:prstGeom prst="flowChartDocument">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="15000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US" sz="900">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>mongoose</a:t>
+              </a:r>
+              <a:endParaRPr lang="mk-MK" sz="900"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="62" name="Flowchart: Document 61">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7160447F-3AA0-8DFE-4E69-AEACC167C501}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5581651" y="1990725"/>
+              <a:ext cx="1257299" cy="352425"/>
+            </a:xfrm>
+            <a:prstGeom prst="flowChartDocument">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="15000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US" sz="900">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>Schema</a:t>
+              </a:r>
+              <a:endParaRPr lang="mk-MK" sz="900"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="63" name="Flowchart: Document 62">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5EC4EDBD-949B-8463-7FC7-0C27014AA88B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5581651" y="2447925"/>
+              <a:ext cx="1257299" cy="352425"/>
+            </a:xfrm>
+            <a:prstGeom prst="flowChartDocument">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="15000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US" sz="900">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>model</a:t>
+              </a:r>
+              <a:endParaRPr lang="mk-MK" sz="900"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="11" name="Group 10">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A0FC110-2A37-20DD-99FB-05D0627D694B}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="10439399" y="1339734"/>
+            <a:ext cx="2038351" cy="3508492"/>
+            <a:chOff x="10439399" y="2168409"/>
+            <a:chExt cx="2038351" cy="3508492"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="51" name="Rectangle 50">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0A1683F-3661-CD37-AEAC-5F2CED30CA24}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="10439399" y="2168409"/>
+              <a:ext cx="2038351" cy="3508492"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="15000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US" sz="900"/>
+                <a:t>services</a:t>
+              </a:r>
+              <a:endParaRPr lang="mk-MK" sz="900"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="52" name="Rectangle 51">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73159000-4795-435A-17A6-976969AD2B13}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="10687050" y="3286125"/>
+              <a:ext cx="1638300" cy="676275"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="15000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US" sz="900"/>
+                <a:t>passengerServices.js</a:t>
+              </a:r>
+              <a:endParaRPr lang="mk-MK" sz="900"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="53" name="Flowchart: Document 52">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36F9C20C-8D24-03D8-727A-01A00518DC85}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="10774131" y="3559233"/>
+              <a:ext cx="1461815" cy="353084"/>
+            </a:xfrm>
+            <a:prstGeom prst="flowChartDocument">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="15000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US" sz="900"/>
+                <a:t>PassengererServices</a:t>
+              </a:r>
+              <a:endParaRPr lang="mk-MK" sz="900"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="54" name="Rectangle 53">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A9CCBE8-8D9B-0DB4-672D-FCE6829CBED8}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="10677523" y="2448451"/>
+              <a:ext cx="1647825" cy="732898"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="15000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US" sz="900"/>
+                <a:t>driverServices.js</a:t>
+              </a:r>
+              <a:endParaRPr lang="mk-MK" sz="900"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="55" name="Flowchart: Document 54">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E449D8DF-7AF7-3D83-801C-4F946DF063ED}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="10813529" y="2752725"/>
+              <a:ext cx="1204521" cy="352425"/>
+            </a:xfrm>
+            <a:prstGeom prst="flowChartDocument">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="15000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US" sz="900"/>
+                <a:t>DriverServices</a:t>
+              </a:r>
+              <a:endParaRPr lang="mk-MK" sz="900"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="56" name="Rectangle 55">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34C602F6-C986-2BE3-B325-BE1DBFE85F51}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="10687050" y="4048125"/>
+              <a:ext cx="1638300" cy="676275"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="15000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US" sz="900"/>
+                <a:t>carServices.js</a:t>
+              </a:r>
+              <a:endParaRPr lang="mk-MK" sz="900"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="57" name="Flowchart: Document 56">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B1D9B47-CF83-6FAD-BA0B-61E11C9F6C60}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="10823054" y="4295775"/>
+              <a:ext cx="1204521" cy="352425"/>
+            </a:xfrm>
+            <a:prstGeom prst="flowChartDocument">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="15000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US" sz="900"/>
+                <a:t>CarServices</a:t>
+              </a:r>
+              <a:endParaRPr lang="mk-MK" sz="900"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="58" name="Rectangle 57">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3771EDD1-A0AC-4CF6-BEC3-1CEEA5CABF4F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="10677524" y="4810125"/>
+              <a:ext cx="1666875" cy="676275"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="15000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US" sz="900"/>
+                <a:t>rideServices.js</a:t>
+              </a:r>
+              <a:endParaRPr lang="mk-MK" sz="900"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="59" name="Flowchart: Document 58">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A28820EB-5907-4FE6-6CE4-A63277FC366C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="10813529" y="5095964"/>
+              <a:ext cx="1373492" cy="292948"/>
+            </a:xfrm>
+            <a:prstGeom prst="flowChartDocument">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="15000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US" sz="900"/>
+                <a:t>RideServices</a:t>
+              </a:r>
+              <a:endParaRPr lang="mk-MK" sz="900"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="12" name="Group 11">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76467CA4-72F5-A8D2-D2FD-77FFD1D6D948}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="12668249" y="1409699"/>
+            <a:ext cx="2038351" cy="3438525"/>
+            <a:chOff x="10439399" y="2238374"/>
+            <a:chExt cx="2038351" cy="3438525"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="42" name="Rectangle 41">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14F1DA2B-1713-E2DF-7F5D-363453971340}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="10439399" y="2238374"/>
+              <a:ext cx="2038351" cy="3438525"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="15000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US" sz="900"/>
+                <a:t>model</a:t>
+              </a:r>
+              <a:endParaRPr lang="mk-MK" sz="900"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="43" name="Rectangle 42">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E764221F-9A4A-4876-8A81-57BE75BDA4E0}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="10687050" y="3286125"/>
+              <a:ext cx="1638300" cy="676275"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="15000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US" sz="900"/>
+                <a:t>passengerModel.js</a:t>
+              </a:r>
+              <a:endParaRPr lang="mk-MK" sz="900"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="44" name="Flowchart: Document 43">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{100A46A6-5426-0762-14F2-D0BB28E0F136}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="10810824" y="3559233"/>
+              <a:ext cx="1378471" cy="352425"/>
+            </a:xfrm>
+            <a:prstGeom prst="flowChartDocument">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="15000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US" sz="900"/>
+                <a:t>PassengererModel</a:t>
+              </a:r>
+              <a:endParaRPr lang="mk-MK" sz="900"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="45" name="Rectangle 44">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{510E2D83-E0DA-8B46-F0B9-1C3B3A8F700F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="10677524" y="2505075"/>
+              <a:ext cx="1647825" cy="676275"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="15000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US" sz="900"/>
+                <a:t>driverModel.js</a:t>
+              </a:r>
+              <a:endParaRPr lang="mk-MK" sz="900"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="46" name="Flowchart: Document 45">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2C74666-C859-E731-9D65-CAF175F2C0A7}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="10789066" y="2803643"/>
+              <a:ext cx="1236137" cy="306732"/>
+            </a:xfrm>
+            <a:prstGeom prst="flowChartDocument">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="15000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US" sz="900"/>
+                <a:t>DriverModel</a:t>
+              </a:r>
+              <a:endParaRPr lang="mk-MK" sz="900"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="47" name="Rectangle 46">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A39BDC2-BECE-F160-28A8-78BAF81BE496}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="10687050" y="4048125"/>
+              <a:ext cx="1638300" cy="676275"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="15000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US" sz="900"/>
+                <a:t>carModel.js</a:t>
+              </a:r>
+              <a:endParaRPr lang="mk-MK" sz="900"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="48" name="Flowchart: Document 47">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2DDFBEE-F172-32B2-A881-D5A8B83A188B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="10786360" y="4333962"/>
+              <a:ext cx="1373383" cy="316652"/>
+            </a:xfrm>
+            <a:prstGeom prst="flowChartDocument">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="15000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US" sz="900"/>
+                <a:t>CarModel</a:t>
+              </a:r>
+              <a:endParaRPr lang="mk-MK" sz="900"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="49" name="Rectangle 48">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95AC7DAE-E072-FB28-CC84-0CC3B1234749}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="10677525" y="4810125"/>
+              <a:ext cx="1552576" cy="676275"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="15000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US" sz="900"/>
+                <a:t>rideModel.js</a:t>
+              </a:r>
+              <a:endParaRPr lang="mk-MK" sz="900"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="50" name="Flowchart: Document 49">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF3FDD15-B7FD-8848-C67B-1B308B149294}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="10837991" y="5095963"/>
+              <a:ext cx="1174982" cy="305677"/>
+            </a:xfrm>
+            <a:prstGeom prst="flowChartDocument">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="15000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US" sz="900"/>
+                <a:t>RideModel</a:t>
+              </a:r>
+              <a:endParaRPr lang="mk-MK" sz="900"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="13" name="Group 12">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86F3C16A-B757-0098-39E0-C9F963FE6818}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="2690813" y="1986225"/>
+            <a:ext cx="10996612" cy="4581263"/>
+            <a:chOff x="2690813" y="1986225"/>
+            <a:chExt cx="10996612" cy="4581263"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="17" name="Straight Arrow Connector 16">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E801BC7-1646-F5AA-D314-F4A9C51FD4FF}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvCxnSpPr>
+              <a:stCxn id="74" idx="1"/>
+              <a:endCxn id="75" idx="3"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipH="1" flipV="1">
+              <a:off x="5762625" y="2933700"/>
+              <a:ext cx="790576" cy="109538"/>
+            </a:xfrm>
+            <a:prstGeom prst="straightConnector1">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:tailEnd type="triangle"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="18" name="Straight Arrow Connector 17">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{759EB4E6-2287-6063-12ED-39974D27506E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvCxnSpPr>
+              <a:stCxn id="67" idx="0"/>
+              <a:endCxn id="73" idx="2"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipH="1" flipV="1">
+              <a:off x="7138988" y="3333750"/>
+              <a:ext cx="1004888" cy="695325"/>
+            </a:xfrm>
+            <a:prstGeom prst="straightConnector1">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:tailEnd type="triangle"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="19" name="Straight Arrow Connector 18">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E00AC011-A2F8-4150-93CA-44F83BD24812}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvCxnSpPr>
+              <a:stCxn id="70" idx="2"/>
+              <a:endCxn id="73" idx="0"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipH="1">
+              <a:off x="7138988" y="1996001"/>
+              <a:ext cx="771525" cy="594798"/>
+            </a:xfrm>
+            <a:prstGeom prst="straightConnector1">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:tailEnd type="triangle"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="20" name="Straight Arrow Connector 19">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13802546-1F2E-5363-3491-4549CAB1756C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvCxnSpPr>
+              <a:stCxn id="69" idx="2"/>
+              <a:endCxn id="73" idx="0"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6119813" y="1996001"/>
+              <a:ext cx="1019175" cy="594798"/>
+            </a:xfrm>
+            <a:prstGeom prst="straightConnector1">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:tailEnd type="triangle"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="21" name="Straight Arrow Connector 20">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1C89248-96A0-240E-5973-D68205B02C22}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvCxnSpPr>
+              <a:stCxn id="72" idx="1"/>
+              <a:endCxn id="73" idx="3"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipH="1" flipV="1">
+              <a:off x="8010526" y="2962275"/>
+              <a:ext cx="704850" cy="100013"/>
+            </a:xfrm>
+            <a:prstGeom prst="straightConnector1">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:tailEnd type="triangle"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="22" name="Straight Arrow Connector 21">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E9C5D0F-7513-3428-9A8B-2F6C4CC3888E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvCxnSpPr>
+              <a:stCxn id="65" idx="0"/>
+              <a:endCxn id="75" idx="2"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipH="1" flipV="1">
+              <a:off x="4891088" y="3314700"/>
+              <a:ext cx="1047750" cy="704850"/>
+            </a:xfrm>
+            <a:prstGeom prst="straightConnector1">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:tailEnd type="triangle"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="23" name="Straight Arrow Connector 22">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA1288FD-8616-99A5-6C92-D58DAF8F0A5A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvCxnSpPr>
+              <a:stCxn id="65" idx="0"/>
+              <a:endCxn id="73" idx="2"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipV="1">
+              <a:off x="5938838" y="3333750"/>
+              <a:ext cx="1200150" cy="685800"/>
+            </a:xfrm>
+            <a:prstGeom prst="straightConnector1">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:tailEnd type="triangle"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C11EC009-3ACA-3626-D1B1-5EDD73C7EB5A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvCxnSpPr>
+              <a:stCxn id="55" idx="1"/>
+              <a:endCxn id="71" idx="3"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipH="1">
+              <a:off x="10172701" y="2100263"/>
+              <a:ext cx="640828" cy="881062"/>
+            </a:xfrm>
+            <a:prstGeom prst="straightConnector1">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:tailEnd type="triangle"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="25" name="Straight Arrow Connector 24">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8D00FBA-64C2-EFFD-E4FA-834394B839C5}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvCxnSpPr>
+              <a:stCxn id="61" idx="0"/>
+              <a:endCxn id="58" idx="2"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipV="1">
+              <a:off x="6791326" y="4657725"/>
+              <a:ext cx="4719636" cy="838200"/>
+            </a:xfrm>
+            <a:prstGeom prst="straightConnector1">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:tailEnd type="triangle"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="26" name="Straight Arrow Connector 25">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2955CD15-A586-8D6A-940E-6B731BAE89F8}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvCxnSpPr>
+              <a:stCxn id="48" idx="1"/>
+              <a:endCxn id="56" idx="3"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipH="1" flipV="1">
+              <a:off x="12325350" y="3557588"/>
+              <a:ext cx="689861" cy="106025"/>
+            </a:xfrm>
+            <a:prstGeom prst="straightConnector1">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:tailEnd type="triangle"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{824A2069-A006-02C6-D3CB-478B6126D7C9}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvCxnSpPr>
+              <a:stCxn id="46" idx="1"/>
+              <a:endCxn id="54" idx="3"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipH="1" flipV="1">
+              <a:off x="12325349" y="1986225"/>
+              <a:ext cx="692568" cy="142108"/>
+            </a:xfrm>
+            <a:prstGeom prst="straightConnector1">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:tailEnd type="triangle"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="28" name="Straight Arrow Connector 27">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17D1F8C9-B3AA-91CF-1798-233960E42BA3}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvCxnSpPr>
+              <a:stCxn id="44" idx="1"/>
+              <a:endCxn id="52" idx="3"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipH="1" flipV="1">
+              <a:off x="12325350" y="2795587"/>
+              <a:ext cx="714324" cy="111184"/>
+            </a:xfrm>
+            <a:prstGeom prst="straightConnector1">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:tailEnd type="triangle"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="29" name="Straight Arrow Connector 28">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{110CC4AD-B571-7211-8E61-2F9955512F95}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvCxnSpPr>
+              <a:stCxn id="50" idx="1"/>
+              <a:endCxn id="58" idx="3"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipH="1" flipV="1">
+              <a:off x="12344398" y="4319588"/>
+              <a:ext cx="722444" cy="100539"/>
+            </a:xfrm>
+            <a:prstGeom prst="straightConnector1">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:tailEnd type="triangle"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="30" name="Straight Arrow Connector 29">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F68CD5F7-F8FD-358D-C077-73B5C0DC2267}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvCxnSpPr>
+              <a:stCxn id="46" idx="1"/>
+              <a:endCxn id="58" idx="3"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipH="1">
+              <a:off x="12344398" y="2128333"/>
+              <a:ext cx="673519" cy="2191255"/>
+            </a:xfrm>
+            <a:prstGeom prst="straightConnector1">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:tailEnd type="triangle"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="31" name="Straight Arrow Connector 30">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15BBE64C-594F-C217-771F-6751DE4A640A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvCxnSpPr>
+              <a:stCxn id="44" idx="1"/>
+              <a:endCxn id="58" idx="3"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipH="1">
+              <a:off x="12344398" y="2906771"/>
+              <a:ext cx="695276" cy="1412817"/>
+            </a:xfrm>
+            <a:prstGeom prst="straightConnector1">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:tailEnd type="triangle"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="32" name="Straight Arrow Connector 31">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C161C619-DAE8-403B-114F-989C75A0C5E4}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvCxnSpPr>
+              <a:stCxn id="48" idx="1"/>
+              <a:endCxn id="58" idx="3"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipH="1">
+              <a:off x="12344398" y="3663613"/>
+              <a:ext cx="670813" cy="655975"/>
+            </a:xfrm>
+            <a:prstGeom prst="straightConnector1">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:tailEnd type="triangle"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3FF1EC7-1362-B63F-CED3-88CA02023CA0}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvCxnSpPr>
+              <a:stCxn id="57" idx="1"/>
+              <a:endCxn id="71" idx="3"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipH="1" flipV="1">
+              <a:off x="10172701" y="2981325"/>
+              <a:ext cx="650353" cy="661988"/>
+            </a:xfrm>
+            <a:prstGeom prst="straightConnector1">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:tailEnd type="triangle"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="34" name="Straight Arrow Connector 33">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A821EDC-D6B9-D522-81E2-E254BC6ACF96}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvCxnSpPr>
+              <a:stCxn id="53" idx="1"/>
+              <a:endCxn id="71" idx="3"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipH="1">
+              <a:off x="10172701" y="2907099"/>
+              <a:ext cx="601430" cy="74224"/>
+            </a:xfrm>
+            <a:prstGeom prst="straightConnector1">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:tailEnd type="triangle"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="35" name="Straight Arrow Connector 34">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D32C73D5-38FE-C0C2-782B-1766E5CAEA5E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvCxnSpPr>
+              <a:stCxn id="59" idx="1"/>
+              <a:endCxn id="71" idx="3"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipH="1" flipV="1">
+              <a:off x="10172701" y="2981323"/>
+              <a:ext cx="640828" cy="1432440"/>
+            </a:xfrm>
+            <a:prstGeom prst="straightConnector1">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:tailEnd type="triangle"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="36" name="Straight Arrow Connector 35">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9A76C3B-4A3C-4425-9812-8A47A9A50048}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvCxnSpPr>
+              <a:stCxn id="65" idx="0"/>
+              <a:endCxn id="15" idx="2"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipH="1" flipV="1">
+              <a:off x="2690813" y="3295650"/>
+              <a:ext cx="3248025" cy="723900"/>
+            </a:xfrm>
+            <a:prstGeom prst="straightConnector1">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:tailEnd type="triangle"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="37" name="Straight Arrow Connector 36">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8C2D027-1EF4-1D99-99A2-A2CC64FE2E71}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvCxnSpPr>
+              <a:stCxn id="76" idx="1"/>
+              <a:endCxn id="15" idx="3"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipH="1" flipV="1">
+              <a:off x="3562350" y="2914650"/>
+              <a:ext cx="809626" cy="138113"/>
+            </a:xfrm>
+            <a:prstGeom prst="straightConnector1">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:tailEnd type="triangle"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="38" name="Straight Arrow Connector 37">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC9D3C3A-D0E0-159B-2E92-B67A23A8CEF1}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvCxnSpPr>
+              <a:stCxn id="61" idx="0"/>
+              <a:endCxn id="15" idx="2"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipH="1" flipV="1">
+              <a:off x="2690813" y="3295650"/>
+              <a:ext cx="4100513" cy="2200275"/>
+            </a:xfrm>
+            <a:prstGeom prst="straightConnector1">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:tailEnd type="triangle"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="39" name="Straight Arrow Connector 38">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37E8050C-D81F-9764-F9B5-FC72F4C9FDD9}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvCxnSpPr>
+              <a:stCxn id="78" idx="0"/>
+              <a:endCxn id="15" idx="2"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipH="1" flipV="1">
+              <a:off x="2690813" y="3295650"/>
+              <a:ext cx="14288" cy="838200"/>
+            </a:xfrm>
+            <a:prstGeom prst="straightConnector1">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:tailEnd type="triangle"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="40" name="Straight Arrow Connector 39">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD847ECB-5E38-7AA4-3941-C1A159407436}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvCxnSpPr>
+              <a:stCxn id="63" idx="3"/>
+              <a:endCxn id="42" idx="2"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipV="1">
+              <a:off x="7410450" y="4848224"/>
+              <a:ext cx="6276975" cy="1719264"/>
+            </a:xfrm>
+            <a:prstGeom prst="straightConnector1">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:tailEnd type="triangle"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="41" name="Straight Arrow Connector 40">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2942630C-47FD-483E-5618-C66DC72E78F2}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvCxnSpPr>
+              <a:stCxn id="62" idx="3"/>
+              <a:endCxn id="42" idx="2"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipV="1">
+              <a:off x="7410450" y="4848224"/>
+              <a:ext cx="6276975" cy="1262064"/>
+            </a:xfrm>
+            <a:prstGeom prst="straightConnector1">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:tailEnd type="triangle"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+      </xdr:grpSp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="14" name="Group 13">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{295B7A7A-D877-880D-7B77-363F874AAAD9}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="1819275" y="2533649"/>
+            <a:ext cx="1743075" cy="762001"/>
+            <a:chOff x="5305425" y="1276349"/>
+            <a:chExt cx="1743075" cy="762001"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="15" name="Rectangle 14">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9BFF3BD-F028-5C3D-2402-9DDFCE4EB308}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5305425" y="1276349"/>
+              <a:ext cx="1743075" cy="762001"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="15000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US" sz="900"/>
+                <a:t>index.js</a:t>
+              </a:r>
+              <a:endParaRPr lang="mk-MK" sz="900"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="16" name="Flowchart: Document 15">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7EA371C8-71D5-56D0-0A46-9F18E4545670}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5657851" y="1600200"/>
+              <a:ext cx="1085850" cy="352425"/>
+            </a:xfrm>
+            <a:prstGeom prst="flowChartDocument">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="15000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US" sz="900"/>
+                <a:t>app</a:t>
+              </a:r>
+              <a:endParaRPr lang="mk-MK" sz="900"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2069,10 +6342,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A3:B14"/>
+  <dimension ref="A3:B24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2126,6 +6399,49 @@
         <v>108</v>
       </c>
     </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B22" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>126</v>
+      </c>
+      <c r="B23" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>124</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
@@ -2133,9 +6449,11 @@
     <hyperlink ref="B10" r:id="rId3" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
     <hyperlink ref="B11" r:id="rId4" xr:uid="{00000000-0004-0000-0300-000003000000}"/>
     <hyperlink ref="B12" r:id="rId5" xr:uid="{00000000-0004-0000-0300-000004000000}"/>
+    <hyperlink ref="B17" r:id="rId6" xr:uid="{169CC5D0-1B6F-4200-A7AC-0AE610BBB9E3}"/>
+    <hyperlink ref="B22" r:id="rId7" xr:uid="{C548D785-2D83-482F-A47D-425968D31B15}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId6"/>
+  <pageSetup orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>
 
@@ -2143,7 +6461,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D10F2B9-E351-4458-8FEA-B1EFBB0E3371}">
   <dimension ref="B2:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
@@ -2202,4 +6520,1846 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{051D39E4-007D-44B7-959F-97EBB6F6F7B6}">
+  <dimension ref="B3:T294"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A241" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N249" sqref="N249"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C4" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D5" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D6" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D7" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E8" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F9" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E10" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E11" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E12" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F13" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E14" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E15" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C16" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D17" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C18" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D19" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="E19" s="3"/>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D20" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E20" s="3"/>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D21" s="3"/>
+      <c r="E21" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D22" s="3"/>
+      <c r="E22" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C23" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D24" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D25" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D26" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D27" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D28" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B29" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C30" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D31" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E32" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="33" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E33" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="34" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E34" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="35" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E35" s="3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="36" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E36" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="37" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E37" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="38" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E38" s="3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="39" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E39" s="3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="40" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E40" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="41" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E41" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="42" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E42" s="3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="43" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C43" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="44" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D44" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="45" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E45" s="3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="46" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D46" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="47" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E47" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="48" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E48" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="49" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C49" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="50" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D50" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="51" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E51" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="52" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E52" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="53" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E53" s="3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="54" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E54" s="3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="55" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D55" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E55" s="3"/>
+    </row>
+    <row r="56" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E56" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="57" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E57" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="58" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C58" s="3"/>
+      <c r="E58" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="59" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C59" s="3"/>
+      <c r="D59" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E59" s="3"/>
+    </row>
+    <row r="60" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C60" s="3"/>
+      <c r="E60" s="3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="61" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C61" s="3"/>
+      <c r="D61" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E61" s="3"/>
+    </row>
+    <row r="62" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C62" s="3"/>
+      <c r="E62" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="63" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C63" s="3"/>
+      <c r="D63" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="64" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C64" s="3"/>
+      <c r="E64" s="3" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="65" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C65" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="66" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C66" s="3"/>
+      <c r="D66" s="3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="67" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C67" s="3"/>
+      <c r="D67" s="3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="68" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C68" s="3"/>
+      <c r="D68" s="3" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="69" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C69" s="3"/>
+      <c r="D69" s="3" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="70" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D70" s="3" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="71" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D71" s="3" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="72" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C72" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="73" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D73" s="3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="74" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D74" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="75" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D75" s="3" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="76" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D76" s="3" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="77" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D77" s="3" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="78" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D78" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="79" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C79" s="2" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="80" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D80" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="81" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C81" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="82" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D82" s="3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="83" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D83" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="84" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D84" s="3" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="85" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D85" s="3" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="86" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D86" s="3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="87" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D87" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="88" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D88" s="3" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="89" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D89" s="3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="90" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D90" s="3" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="91" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D91" s="3" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="92" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B92" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="93" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B93" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="94" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D94" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="95" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E95" s="3" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="96" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E96" s="3" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="E97" s="3" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="E98" s="3" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="E99" s="3" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C100" s="2" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C101" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="D102" s="3" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="103" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C103" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="104" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="D104" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="H104" s="3"/>
+      <c r="M104" s="3"/>
+      <c r="Q104" s="3"/>
+    </row>
+    <row r="105" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="D105" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="H105" s="3"/>
+      <c r="M105" s="3"/>
+      <c r="Q105" s="3"/>
+    </row>
+    <row r="106" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="D106" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="H106" s="3"/>
+      <c r="M106" s="3"/>
+      <c r="Q106" s="3"/>
+    </row>
+    <row r="107" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="D107" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="H107" s="3"/>
+      <c r="M107" s="3"/>
+      <c r="Q107" s="3"/>
+    </row>
+    <row r="108" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="D108" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="H108" s="3"/>
+      <c r="M108" s="3"/>
+      <c r="Q108" s="3"/>
+    </row>
+    <row r="109" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="D109" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="H109" s="3"/>
+      <c r="M109" s="3"/>
+      <c r="Q109" s="3"/>
+    </row>
+    <row r="110" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="D110" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="H110" s="3"/>
+      <c r="M110" s="3"/>
+      <c r="Q110" s="3"/>
+    </row>
+    <row r="111" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="D111" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="H111" s="3"/>
+      <c r="M111" s="3"/>
+      <c r="Q111" s="3"/>
+    </row>
+    <row r="112" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="D112" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="H112" s="3"/>
+      <c r="M112" s="3"/>
+      <c r="Q112" s="3"/>
+    </row>
+    <row r="113" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D113" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="H113" s="3"/>
+      <c r="M113" s="3"/>
+      <c r="Q113" s="3"/>
+    </row>
+    <row r="114" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D114" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="H114" s="3"/>
+      <c r="M114" s="3"/>
+      <c r="Q114" s="3"/>
+    </row>
+    <row r="115" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D115" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="H115" s="3"/>
+      <c r="M115" s="3"/>
+      <c r="Q115" s="3"/>
+    </row>
+    <row r="116" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D116" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="H116" s="3"/>
+      <c r="M116" s="3"/>
+      <c r="Q116" s="3"/>
+    </row>
+    <row r="117" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D117" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="H117" s="3"/>
+      <c r="M117" s="3"/>
+      <c r="Q117" s="3"/>
+    </row>
+    <row r="118" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D118" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="H118" s="3"/>
+      <c r="M118" s="3"/>
+      <c r="Q118" s="3"/>
+    </row>
+    <row r="119" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D119" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="H119" s="3"/>
+      <c r="M119" s="3"/>
+      <c r="Q119" s="3"/>
+    </row>
+    <row r="120" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D120" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="H120" s="3"/>
+      <c r="M120" s="3"/>
+      <c r="Q120" s="3"/>
+    </row>
+    <row r="121" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D121" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="H121" s="3"/>
+      <c r="M121" s="3"/>
+      <c r="Q121" s="3"/>
+    </row>
+    <row r="122" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D122" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="H122" s="3"/>
+      <c r="M122" s="3"/>
+      <c r="Q122" s="3"/>
+    </row>
+    <row r="123" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D123" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="H123" s="3"/>
+      <c r="Q123" s="3"/>
+    </row>
+    <row r="124" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D124" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="H124" s="3"/>
+      <c r="Q124" s="3"/>
+    </row>
+    <row r="125" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D125" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="H125" s="3"/>
+      <c r="Q125" s="3"/>
+    </row>
+    <row r="126" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D126" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="Q126" s="3"/>
+    </row>
+    <row r="127" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D127" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q127" s="3"/>
+    </row>
+    <row r="128" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D128" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q128" s="3"/>
+    </row>
+    <row r="129" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="D129" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q129" s="3"/>
+    </row>
+    <row r="130" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="D130" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q130" s="3"/>
+    </row>
+    <row r="131" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="D131" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="Q131" s="3"/>
+    </row>
+    <row r="132" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="D132" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="Q132" s="3"/>
+    </row>
+    <row r="133" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="D133" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="Q133" s="3"/>
+    </row>
+    <row r="134" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="C134" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="135" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="D135" s="5" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="136" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="D136" s="5" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="137" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B137" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="138" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="C138" s="2" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="139" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="C139" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="140" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="D140" s="3" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="141" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="C141" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="142" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="D142" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="143" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="D143" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="I143" s="3"/>
+      <c r="O143" s="3"/>
+      <c r="T143" s="3"/>
+    </row>
+    <row r="144" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="D144" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="I144" s="3"/>
+      <c r="O144" s="3"/>
+      <c r="T144" s="3"/>
+    </row>
+    <row r="145" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="D145" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="I145" s="3"/>
+      <c r="O145" s="3"/>
+      <c r="T145" s="3"/>
+    </row>
+    <row r="146" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="D146" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="I146" s="3"/>
+      <c r="O146" s="3"/>
+      <c r="T146" s="3"/>
+    </row>
+    <row r="147" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="D147" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="I147" s="3"/>
+      <c r="O147" s="3"/>
+      <c r="T147" s="3"/>
+    </row>
+    <row r="148" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="D148" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="I148" s="3"/>
+      <c r="O148" s="3"/>
+      <c r="T148" s="3"/>
+    </row>
+    <row r="149" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="D149" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="I149" s="3"/>
+      <c r="O149" s="3"/>
+      <c r="T149" s="3"/>
+    </row>
+    <row r="150" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="D150" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="I150" s="3"/>
+      <c r="O150" s="3"/>
+      <c r="T150" s="3"/>
+    </row>
+    <row r="151" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="D151" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="I151" s="3"/>
+      <c r="O151" s="3"/>
+      <c r="T151" s="3"/>
+    </row>
+    <row r="152" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="D152" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="I152" s="3"/>
+      <c r="O152" s="3"/>
+      <c r="T152" s="3"/>
+    </row>
+    <row r="153" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="D153" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="I153" s="3"/>
+      <c r="O153" s="3"/>
+      <c r="T153" s="3"/>
+    </row>
+    <row r="154" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="D154" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="I154" s="3"/>
+      <c r="O154" s="3"/>
+      <c r="T154" s="3"/>
+    </row>
+    <row r="155" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="D155" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="I155" s="3"/>
+      <c r="O155" s="3"/>
+      <c r="T155" s="3"/>
+    </row>
+    <row r="156" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="D156" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="I156" s="3"/>
+      <c r="O156" s="3"/>
+      <c r="T156" s="3"/>
+    </row>
+    <row r="157" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="D157" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="I157" s="3"/>
+      <c r="O157" s="3"/>
+      <c r="T157" s="3"/>
+    </row>
+    <row r="158" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="D158" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="I158" s="3"/>
+      <c r="T158" s="3"/>
+    </row>
+    <row r="159" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B159" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="160" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="C160" s="2" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="161" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C161" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="162" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="D162" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="163" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="E163" s="4" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="164" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="E164" s="3" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="165" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C165" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="166" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="D166" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="167" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="E167" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="J167" s="3"/>
+      <c r="O167" s="3"/>
+      <c r="T167" s="3"/>
+    </row>
+    <row r="168" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="E168" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="J168" s="3"/>
+      <c r="O168" s="3"/>
+      <c r="T168" s="3"/>
+    </row>
+    <row r="169" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="E169" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="J169" s="3"/>
+      <c r="O169" s="3"/>
+      <c r="T169" s="3"/>
+    </row>
+    <row r="170" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="E170" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="J170" s="3"/>
+      <c r="O170" s="3"/>
+      <c r="T170" s="3"/>
+    </row>
+    <row r="171" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="E171" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="J171" s="3"/>
+      <c r="O171" s="3"/>
+      <c r="T171" s="3"/>
+    </row>
+    <row r="172" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="E172" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="J172" s="3"/>
+      <c r="O172" s="3"/>
+      <c r="T172" s="3"/>
+    </row>
+    <row r="173" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="E173" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="J173" s="3"/>
+      <c r="O173" s="3"/>
+      <c r="T173" s="3"/>
+    </row>
+    <row r="174" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="D174" s="2" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="175" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="E175" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="L175" s="3"/>
+      <c r="R175" s="3"/>
+    </row>
+    <row r="176" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="E176" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="L176" s="3"/>
+      <c r="R176" s="3"/>
+    </row>
+    <row r="177" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="E177" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="L177" s="3"/>
+      <c r="R177" s="3"/>
+    </row>
+    <row r="178" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="E178" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="L178" s="3"/>
+      <c r="R178" s="3"/>
+    </row>
+    <row r="179" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="E179" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="L179" s="3"/>
+      <c r="R179" s="3"/>
+    </row>
+    <row r="180" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="E180" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="L180" s="3"/>
+      <c r="R180" s="3"/>
+    </row>
+    <row r="181" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="E181" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="L181" s="3"/>
+      <c r="R181" s="3"/>
+    </row>
+    <row r="182" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="D182" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="183" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="E183" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="I183" s="3"/>
+      <c r="N183" s="3"/>
+      <c r="R183" s="4"/>
+    </row>
+    <row r="184" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="E184" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="I184" s="3"/>
+      <c r="N184" s="3"/>
+      <c r="R184" s="4"/>
+    </row>
+    <row r="185" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="E185" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="I185" s="3"/>
+      <c r="N185" s="3"/>
+      <c r="R185" s="4"/>
+    </row>
+    <row r="186" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="E186" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="I186" s="3"/>
+      <c r="N186" s="3"/>
+      <c r="R186" s="4"/>
+    </row>
+    <row r="187" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="E187" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="I187" s="3"/>
+      <c r="N187" s="3"/>
+      <c r="R187" s="4"/>
+    </row>
+    <row r="188" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="E188" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="I188" s="3"/>
+      <c r="N188" s="3"/>
+      <c r="R188" s="4"/>
+    </row>
+    <row r="189" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="E189" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="I189" s="3"/>
+      <c r="N189" s="3"/>
+      <c r="R189" s="4"/>
+    </row>
+    <row r="190" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="E190" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="I190" s="3"/>
+      <c r="N190" s="3"/>
+      <c r="R190" s="4"/>
+    </row>
+    <row r="191" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="E191" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="I191" s="3"/>
+      <c r="N191" s="3"/>
+      <c r="R191" s="4"/>
+    </row>
+    <row r="192" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="E192" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="I192" s="3"/>
+      <c r="N192" s="3"/>
+      <c r="R192" s="4"/>
+    </row>
+    <row r="193" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="E193" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="I193" s="3"/>
+      <c r="N193" s="3"/>
+      <c r="R193" s="4"/>
+    </row>
+    <row r="194" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="E194" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="I194" s="3"/>
+      <c r="N194" s="3"/>
+      <c r="R194" s="4"/>
+    </row>
+    <row r="195" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="E195" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="I195" s="3"/>
+      <c r="N195" s="3"/>
+      <c r="R195" s="4"/>
+    </row>
+    <row r="196" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="D196" s="2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="197" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="E197" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="I197" s="3"/>
+      <c r="N197" s="3"/>
+      <c r="S197" s="4"/>
+    </row>
+    <row r="198" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="E198" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="I198" s="3"/>
+      <c r="N198" s="3"/>
+      <c r="S198" s="4"/>
+    </row>
+    <row r="199" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="E199" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="I199" s="3"/>
+      <c r="N199" s="3"/>
+      <c r="S199" s="4"/>
+    </row>
+    <row r="200" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="E200" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="I200" s="3"/>
+      <c r="N200" s="3"/>
+      <c r="S200" s="4"/>
+    </row>
+    <row r="201" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="D201" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="202" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="E202" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="I202" s="3"/>
+      <c r="N202" s="3"/>
+      <c r="S202" s="3"/>
+    </row>
+    <row r="203" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="E203" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="I203" s="3"/>
+      <c r="N203" s="3"/>
+      <c r="S203" s="3"/>
+    </row>
+    <row r="204" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="E204" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="I204" s="3"/>
+      <c r="N204" s="3"/>
+      <c r="S204" s="3"/>
+    </row>
+    <row r="205" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="E205" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="I205" s="3"/>
+      <c r="N205" s="3"/>
+      <c r="S205" s="3"/>
+    </row>
+    <row r="206" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C206" s="2" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="207" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="D207" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="208" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="E208" s="3" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="209" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D209" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="F209" s="3"/>
+    </row>
+    <row r="210" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="E210" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="J210" s="3"/>
+      <c r="O210" s="3"/>
+      <c r="T210" s="3"/>
+    </row>
+    <row r="211" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="E211" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="J211" s="3"/>
+      <c r="O211" s="3"/>
+      <c r="T211" s="3"/>
+    </row>
+    <row r="212" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="E212" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="J212" s="3"/>
+      <c r="O212" s="3"/>
+      <c r="T212" s="3"/>
+    </row>
+    <row r="213" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="E213" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="J213" s="3"/>
+      <c r="O213" s="3"/>
+      <c r="T213" s="3"/>
+    </row>
+    <row r="214" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="E214" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="J214" s="3"/>
+      <c r="O214" s="3"/>
+      <c r="T214" s="3"/>
+    </row>
+    <row r="215" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="E215" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="J215" s="3"/>
+      <c r="O215" s="3"/>
+      <c r="T215" s="3"/>
+    </row>
+    <row r="216" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="E216" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="J216" s="3"/>
+      <c r="O216" s="3"/>
+      <c r="T216" s="3"/>
+    </row>
+    <row r="217" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D217" s="2" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="218" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="E218" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="J218" s="3"/>
+      <c r="O218" s="3"/>
+    </row>
+    <row r="219" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="E219" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="J219" s="3"/>
+      <c r="O219" s="3"/>
+    </row>
+    <row r="220" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="E220" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="J220" s="3"/>
+      <c r="O220" s="3"/>
+    </row>
+    <row r="221" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="E221" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="J221" s="3"/>
+      <c r="O221" s="3"/>
+    </row>
+    <row r="222" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="E222" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="J222" s="3"/>
+      <c r="O222" s="3"/>
+    </row>
+    <row r="223" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="E223" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="J223" s="3"/>
+      <c r="O223" s="3"/>
+    </row>
+    <row r="224" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="E224" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="J224" s="3"/>
+      <c r="O224" s="3"/>
+    </row>
+    <row r="225" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="E225" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="J225" s="3"/>
+      <c r="O225" s="3"/>
+    </row>
+    <row r="226" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="E226" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="J226" s="3"/>
+      <c r="O226" s="3"/>
+    </row>
+    <row r="227" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="E227" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="J227" s="3"/>
+      <c r="O227" s="3"/>
+    </row>
+    <row r="228" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="E228" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="J228" s="3"/>
+      <c r="O228" s="3"/>
+    </row>
+    <row r="229" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="E229" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="J229" s="3"/>
+      <c r="O229" s="3"/>
+    </row>
+    <row r="230" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="E230" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="J230" s="3"/>
+      <c r="O230" s="3"/>
+    </row>
+    <row r="231" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D231" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="232" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="E232" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="J232" s="3"/>
+      <c r="O232" s="3"/>
+      <c r="S232" s="3"/>
+    </row>
+    <row r="233" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="E233" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="J233" s="3"/>
+      <c r="O233" s="3"/>
+      <c r="S233" s="3"/>
+    </row>
+    <row r="234" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="E234" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="J234" s="3"/>
+      <c r="O234" s="3"/>
+      <c r="S234" s="3"/>
+    </row>
+    <row r="235" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="E235" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="J235" s="3"/>
+      <c r="O235" s="3"/>
+      <c r="S235" s="3"/>
+    </row>
+    <row r="236" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="E236" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="J236" s="3"/>
+      <c r="O236" s="3"/>
+      <c r="S236" s="3"/>
+    </row>
+    <row r="237" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="E237" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="J237" s="3"/>
+      <c r="O237" s="3"/>
+      <c r="S237" s="3"/>
+    </row>
+    <row r="238" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="E238" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="J238" s="3"/>
+      <c r="O238" s="3"/>
+      <c r="S238" s="3"/>
+    </row>
+    <row r="239" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="E239" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="J239" s="3"/>
+      <c r="O239" s="3"/>
+      <c r="S239" s="3"/>
+    </row>
+    <row r="240" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="E240" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="J240" s="3"/>
+      <c r="O240" s="3"/>
+      <c r="S240" s="3"/>
+    </row>
+    <row r="241" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="E241" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="J241" s="3"/>
+      <c r="O241" s="3"/>
+      <c r="S241" s="3"/>
+    </row>
+    <row r="242" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D242" s="2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="243" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="E243" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="J243" s="3"/>
+      <c r="O243" s="3"/>
+      <c r="S243" s="3"/>
+    </row>
+    <row r="244" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="E244" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="J244" s="3"/>
+      <c r="O244" s="3"/>
+      <c r="S244" s="3"/>
+    </row>
+    <row r="245" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="E245" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="J245" s="3"/>
+      <c r="O245" s="3"/>
+      <c r="S245" s="3"/>
+    </row>
+    <row r="246" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="E246" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="J246" s="3"/>
+      <c r="O246" s="3"/>
+      <c r="S246" s="3"/>
+    </row>
+    <row r="247" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="E247" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="J247" s="3"/>
+      <c r="O247" s="3"/>
+      <c r="S247" s="3"/>
+    </row>
+    <row r="248" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="E248" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="J248" s="3"/>
+      <c r="O248" s="3"/>
+      <c r="S248" s="3"/>
+    </row>
+    <row r="249" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="E249" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="J249" s="3"/>
+      <c r="O249" s="3"/>
+      <c r="S249" s="3"/>
+    </row>
+    <row r="250" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="E250" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="J250" s="3"/>
+      <c r="O250" s="3"/>
+      <c r="S250" s="3"/>
+    </row>
+    <row r="251" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="E251" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="J251" s="3"/>
+      <c r="O251" s="3"/>
+      <c r="S251" s="3"/>
+    </row>
+    <row r="252" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="E252" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="J252" s="3"/>
+      <c r="O252" s="3"/>
+      <c r="S252" s="3"/>
+    </row>
+    <row r="253" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D253" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="254" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="E254" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="J254" s="4"/>
+      <c r="O254" s="4"/>
+      <c r="S254" s="4"/>
+    </row>
+    <row r="255" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="E255" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="J255" s="4"/>
+      <c r="O255" s="4"/>
+      <c r="S255" s="4"/>
+    </row>
+    <row r="256" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="E256" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="J256" s="4"/>
+      <c r="O256" s="4"/>
+      <c r="S256" s="4"/>
+    </row>
+    <row r="257" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="E257" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="J257" s="4"/>
+      <c r="O257" s="4"/>
+      <c r="S257" s="4"/>
+    </row>
+    <row r="258" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="E258" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="J258" s="4"/>
+      <c r="O258" s="4"/>
+      <c r="S258" s="4"/>
+    </row>
+    <row r="259" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="E259" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="J259" s="4"/>
+      <c r="O259" s="4"/>
+      <c r="S259" s="4"/>
+    </row>
+    <row r="260" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="E260" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="J260" s="4"/>
+      <c r="O260" s="4"/>
+      <c r="S260" s="4"/>
+    </row>
+    <row r="261" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C261" s="2" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="262" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="D262" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="263" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="E263" s="2" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="264" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="F264" s="3" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="265" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="E265" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="266" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="F266" s="3" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="267" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="E267" s="2" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="268" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="F268" s="3" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="269" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="E269" s="2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="270" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="F270" s="3" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="271" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="D271" s="2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="272" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="E272" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="I272" s="3"/>
+      <c r="N272" s="3"/>
+      <c r="R272" s="3"/>
+    </row>
+    <row r="273" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="E273" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="I273" s="3"/>
+      <c r="N273" s="3"/>
+      <c r="R273" s="3"/>
+    </row>
+    <row r="274" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="D274" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="275" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="E275" s="3" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="276" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="D276" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="277" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="E277" s="3" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="278" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="D278" s="2" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="279" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="E279" s="3" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="280" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="D280" s="2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="281" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="E281" s="3" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="282" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="D282" s="2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="283" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="E283" s="3" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="284" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C284" s="2" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="285" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="D285" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="286" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="E286" s="3" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="287" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="D287" s="2" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="288" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="E288" s="3" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="289" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B289" s="2" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="290" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D290" s="2" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="292" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D292" s="2" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="294" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D294" s="2" t="s">
+        <v>362</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/Project-MRA/Project MRA.xlsx
+++ b/Project-MRA/Project MRA.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Viktor\Desktop\Tenderi\WEB\GIT\Qinshift-homeworks\Project-MRA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Programming\GIT\Qinshift-homeworks\Project-MRA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A319161-1410-4B61-B3EC-2406DE0C6CC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Public" sheetId="1" r:id="rId1"/>
@@ -19,8 +18,9 @@
     <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
     <sheet name="MyProject" sheetId="5" r:id="rId5"/>
     <sheet name="mraMongoose" sheetId="6" r:id="rId6"/>
+    <sheet name="multilingual" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="392">
   <si>
     <t>Contact details</t>
   </si>
@@ -1912,11 +1912,92 @@
   <si>
     <t>        const contentDetails = await ContentServices.findById(id);</t>
   </si>
+  <si>
+    <t>Kreirni Gmail, MongoDB, Postman accounts za MRA clientot.</t>
+  </si>
+  <si>
+    <t>Kreirana MVCexpress arhitektura vo folder MVC I povrzana so MongoDB.</t>
+  </si>
+  <si>
+    <t>Preku Postman, vo MongoDB e kreiran JSON file so 5 tekstovi koi se onscreen za page contact.html</t>
+  </si>
+  <si>
+    <t>Promenata na language se vrsi preku localStorage parametar I toa preku modul multilingual.js vo folder modules. </t>
+  </si>
+  <si>
+    <t>Pri promena na language ne se vrsi reload, samo se menuva tekstot, koj vazi vo tekot na celata sesija na surfanje.</t>
+  </si>
+  <si>
+    <t>Tekstot ostanuva vo izbraniot jazik I pri promena na strana na aplikacijata, bidejki vo site html strani e integriran modulot multilingal.js.</t>
+  </si>
+  <si>
+    <t>Testirano e, funkcionira.</t>
+  </si>
+  <si>
+    <t>Ideata e:</t>
+  </si>
+  <si>
+    <t>Preku Postman da se pravi CRUD na sodrzina, odnosno na sekoj onscreen tekst posebno, so parametri:</t>
+  </si>
+  <si>
+    <t>Name: unikatno za site (validirano so MVC), I ednakvo na id na html textOnscreen elementot.</t>
+  </si>
+  <si>
+    <t>german: tekstot preveden na germanski</t>
+  </si>
+  <si>
+    <t>english: tekstot preveden na angliski</t>
+  </si>
+  <si>
+    <t>macedonian: tekstot preveden na makedonski</t>
+  </si>
+  <si>
+    <t>Bidejki, dokolku se odluci da ovaa moznost se dade vo dashboard na admin, kje moze lesno da se implementira.</t>
+  </si>
+  <si>
+    <t>Implement dropdown for switching content languages via localStorage in contact page, as a pilot.</t>
+  </si>
+  <si>
+    <t>Include German, English, SMacedonian language support.</t>
+  </si>
+  <si>
+    <t>When switching language in navbar it switches all onscreen display text to the language chosen.</t>
+  </si>
+  <si>
+    <t>#28
+Make dropdown for switching content languages via localStorage</t>
+  </si>
+  <si>
+    <t>Create MongoDB account for the client, where multilingual content will be stored i mlContent.json file.</t>
+  </si>
+  <si>
+    <t>Connect database with contact page from application, by using axios.</t>
+  </si>
+  <si>
+    <t>Axios is not used, but fetch, due to difficulties in CORS resolving.</t>
+  </si>
+  <si>
+    <t>#29
+Read multilingual content from JSON file on MongoDB</t>
+  </si>
+  <si>
+    <t>Make all text elements, in all app pages, to display content dynamically, according to the selected language.</t>
+  </si>
+  <si>
+    <t>This is done via making this feature available only by integrating script modul multilingual.js into each page.</t>
+  </si>
+  <si>
+    <t>Only thing to be careful is making elements that display text onscreen to have class="onscreenText" and have id same as name of the text given when created in MongoDB data for that text.</t>
+  </si>
+  <si>
+    <t>#32
+Prepare text elements for variable content, in all pages</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2000,7 +2081,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
@@ -2013,11 +2094,18 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{6EEA1DC9-0DA6-43D5-9F6F-9BB57EB1331F}"/>
+    <cellStyle name="Normal 2" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2060,8 +2148,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4524375" y="714376"/>
-          <a:ext cx="10058400" cy="4171949"/>
+          <a:off x="4631055" y="691516"/>
+          <a:ext cx="10302240" cy="4004309"/>
           <a:chOff x="1790700" y="1339734"/>
           <a:chExt cx="12915900" cy="5575416"/>
         </a:xfrm>
@@ -5691,146 +5779,146 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:E30"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D10" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D11" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D12" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D14" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
       <c r="E15" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
       <c r="E16" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E17" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D19" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D20" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D22" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D23" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D24" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D26" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D27" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D28" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D29" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D30" t="s">
         <v>48</v>
       </c>
@@ -5841,16 +5929,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C4:N27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="Q24" sqref="Q24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="4" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>35</v>
       </c>
@@ -5858,22 +5946,22 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:14" x14ac:dyDescent="0.3">
       <c r="M5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:14" x14ac:dyDescent="0.3">
       <c r="N6" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:14" x14ac:dyDescent="0.3">
       <c r="N7" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:14" x14ac:dyDescent="0.3">
       <c r="D8" t="s">
         <v>28</v>
       </c>
@@ -5881,7 +5969,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:14" x14ac:dyDescent="0.3">
       <c r="E9" t="s">
         <v>60</v>
       </c>
@@ -5889,7 +5977,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:14" x14ac:dyDescent="0.3">
       <c r="E10" t="s">
         <v>61</v>
       </c>
@@ -5897,7 +5985,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:14" x14ac:dyDescent="0.3">
       <c r="E11" t="s">
         <v>27</v>
       </c>
@@ -5905,7 +5993,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:14" x14ac:dyDescent="0.3">
       <c r="E12" t="s">
         <v>30</v>
       </c>
@@ -5913,7 +6001,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:14" x14ac:dyDescent="0.3">
       <c r="E13" t="s">
         <v>29</v>
       </c>
@@ -5921,7 +6009,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:14" x14ac:dyDescent="0.3">
       <c r="E14" t="s">
         <v>58</v>
       </c>
@@ -5929,7 +6017,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:14" x14ac:dyDescent="0.3">
       <c r="E15" t="s">
         <v>26</v>
       </c>
@@ -5937,7 +6025,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:14" x14ac:dyDescent="0.3">
       <c r="D16" t="s">
         <v>59</v>
       </c>
@@ -5945,7 +6033,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="5:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="5:14" x14ac:dyDescent="0.3">
       <c r="E17" t="s">
         <v>32</v>
       </c>
@@ -5953,7 +6041,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="5:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="5:14" x14ac:dyDescent="0.3">
       <c r="E18" t="s">
         <v>33</v>
       </c>
@@ -5961,7 +6049,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="5:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="5:14" x14ac:dyDescent="0.3">
       <c r="E19" t="s">
         <v>31</v>
       </c>
@@ -5969,7 +6057,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="5:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="5:14" x14ac:dyDescent="0.3">
       <c r="E20" t="s">
         <v>34</v>
       </c>
@@ -5977,7 +6065,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="5:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="5:14" x14ac:dyDescent="0.3">
       <c r="F21" t="s">
         <v>54</v>
       </c>
@@ -5985,7 +6073,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="5:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="5:14" x14ac:dyDescent="0.3">
       <c r="F22" t="s">
         <v>55</v>
       </c>
@@ -5993,7 +6081,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="5:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="5:14" x14ac:dyDescent="0.3">
       <c r="F23" t="s">
         <v>62</v>
       </c>
@@ -6001,7 +6089,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="5:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="5:14" x14ac:dyDescent="0.3">
       <c r="F24" t="s">
         <v>56</v>
       </c>
@@ -6009,7 +6097,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="5:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="5:14" x14ac:dyDescent="0.3">
       <c r="F25" t="s">
         <v>57</v>
       </c>
@@ -6017,12 +6105,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="5:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="5:14" x14ac:dyDescent="0.3">
       <c r="N26" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="27" spans="5:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="5:14" x14ac:dyDescent="0.3">
       <c r="N27" t="s">
         <v>41</v>
       </c>
@@ -6033,20 +6121,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:S29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="R20" sqref="R20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>25</v>
       </c>
@@ -6066,7 +6154,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:19" x14ac:dyDescent="0.3">
       <c r="C2" t="s">
         <v>67</v>
       </c>
@@ -6077,7 +6165,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:19" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>66</v>
       </c>
@@ -6088,7 +6176,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="4" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:19" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>68</v>
       </c>
@@ -6099,7 +6187,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="5" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:19" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>69</v>
       </c>
@@ -6110,7 +6198,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:19" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>71</v>
       </c>
@@ -6121,7 +6209,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="7" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:19" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>50</v>
       </c>
@@ -6132,7 +6220,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="8" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:19" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>49</v>
       </c>
@@ -6143,7 +6231,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="9" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:19" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>70</v>
       </c>
@@ -6154,7 +6242,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="10" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:19" x14ac:dyDescent="0.3">
       <c r="K10" t="s">
         <v>79</v>
       </c>
@@ -6162,7 +6250,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="11" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>63</v>
       </c>
@@ -6176,7 +6264,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="12" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:19" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>67</v>
       </c>
@@ -6187,7 +6275,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="13" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:19" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>66</v>
       </c>
@@ -6195,7 +6283,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:19" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>72</v>
       </c>
@@ -6209,7 +6297,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:19" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>69</v>
       </c>
@@ -6220,7 +6308,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:19" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>71</v>
       </c>
@@ -6228,7 +6316,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="17" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:19" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>50</v>
       </c>
@@ -6242,7 +6330,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="18" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:19" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>73</v>
       </c>
@@ -6250,7 +6338,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="19" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:19" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>74</v>
       </c>
@@ -6258,7 +6346,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="20" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:19" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>70</v>
       </c>
@@ -6266,12 +6354,12 @@
         <v>85</v>
       </c>
     </row>
-    <row r="21" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:19" x14ac:dyDescent="0.3">
       <c r="K21" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="22" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>19</v>
       </c>
@@ -6282,7 +6370,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:19" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>67</v>
       </c>
@@ -6290,7 +6378,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="24" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:19" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>66</v>
       </c>
@@ -6298,7 +6386,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="25" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:19" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>75</v>
       </c>
@@ -6306,7 +6394,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="26" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:19" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>72</v>
       </c>
@@ -6314,7 +6402,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="27" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:19" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>78</v>
       </c>
@@ -6322,7 +6410,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="28" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:19" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>70</v>
       </c>
@@ -6330,7 +6418,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="29" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:19" x14ac:dyDescent="0.3">
       <c r="K29" t="s">
         <v>83</v>
       </c>
@@ -6341,36 +6429,36 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:B24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>105</v>
       </c>
@@ -6378,7 +6466,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>109</v>
       </c>
@@ -6386,7 +6474,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>105</v>
       </c>
@@ -6394,42 +6482,42 @@
         <v>107</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B17" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B22" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>126</v>
       </c>
@@ -6437,20 +6525,20 @@
         <v>121</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>124</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
-    <hyperlink ref="B5" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
-    <hyperlink ref="B10" r:id="rId3" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
-    <hyperlink ref="B11" r:id="rId4" xr:uid="{00000000-0004-0000-0300-000003000000}"/>
-    <hyperlink ref="B12" r:id="rId5" xr:uid="{00000000-0004-0000-0300-000004000000}"/>
-    <hyperlink ref="B17" r:id="rId6" xr:uid="{169CC5D0-1B6F-4200-A7AC-0AE610BBB9E3}"/>
-    <hyperlink ref="B22" r:id="rId7" xr:uid="{C548D785-2D83-482F-A47D-425968D31B15}"/>
+    <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="B5" r:id="rId2"/>
+    <hyperlink ref="B10" r:id="rId3"/>
+    <hyperlink ref="B11" r:id="rId4"/>
+    <hyperlink ref="B12" r:id="rId5"/>
+    <hyperlink ref="B17" r:id="rId6"/>
+    <hyperlink ref="B22" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId8"/>
@@ -6458,61 +6546,61 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D10F2B9-E351-4458-8FEA-B1EFBB0E3371}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D15" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D16" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D17" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D18" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="19" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D19" t="s">
         <v>119</v>
       </c>
@@ -6523,492 +6611,492 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{051D39E4-007D-44B7-959F-97EBB6F6F7B6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:T294"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A241" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A241" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="N249" sqref="N249"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C4" s="2" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
       <c r="D5" s="2" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
       <c r="D6" s="2" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
       <c r="D7" s="2" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
       <c r="E8" s="2" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
       <c r="F9" s="2" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
       <c r="E10" s="2" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
       <c r="E11" s="2" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
       <c r="E12" s="2" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
       <c r="F13" s="2" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
       <c r="E14" s="2" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
       <c r="E15" s="2" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C16" s="2" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D17" s="3" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C18" s="2" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D19" s="3" t="s">
         <v>143</v>
       </c>
       <c r="E19" s="3"/>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D20" s="3" t="s">
         <v>144</v>
       </c>
       <c r="E20" s="3"/>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D21" s="3"/>
       <c r="E21" s="3" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D22" s="3"/>
       <c r="E22" s="3" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C23" s="2" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D24" s="3" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D25" s="3" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D26" s="3" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D27" s="3" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D28" s="3" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B29" s="2" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C30" s="2" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D31" s="2" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
       <c r="E32" s="3" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="33" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E33" s="3" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="34" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E34" s="3" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="35" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E35" s="3" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="36" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E36" s="3" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="37" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E37" s="3" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="38" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E38" s="3" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="39" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E39" s="3" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="40" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E40" s="3" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="41" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E41" s="3" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="42" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E42" s="3" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="43" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C43" s="2" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="44" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D44" s="2" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="45" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E45" s="3" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="46" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D46" s="2" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="47" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E47" s="3" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="48" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E48" s="3" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="49" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C49" s="2" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="50" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D50" s="2" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="51" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E51" s="3" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="52" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E52" s="3" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="53" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E53" s="3" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="54" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E54" s="3" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="55" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D55" s="2" t="s">
         <v>179</v>
       </c>
       <c r="E55" s="3"/>
     </row>
-    <row r="56" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E56" s="3" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="57" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E57" s="3" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="58" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C58" s="3"/>
       <c r="E58" s="3" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="59" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C59" s="3"/>
       <c r="D59" s="2" t="s">
         <v>183</v>
       </c>
       <c r="E59" s="3"/>
     </row>
-    <row r="60" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C60" s="3"/>
       <c r="E60" s="3" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="61" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C61" s="3"/>
       <c r="D61" s="2" t="s">
         <v>185</v>
       </c>
       <c r="E61" s="3"/>
     </row>
-    <row r="62" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C62" s="3"/>
       <c r="E62" s="3" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="63" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C63" s="3"/>
       <c r="D63" s="2" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="64" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C64" s="3"/>
       <c r="E64" s="3" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="65" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C65" s="2" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="66" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C66" s="3"/>
       <c r="D66" s="3" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="67" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C67" s="3"/>
       <c r="D67" s="3" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="68" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C68" s="3"/>
       <c r="D68" s="3" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="69" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C69" s="3"/>
       <c r="D69" s="3" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="70" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D70" s="3" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="71" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D71" s="3" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="72" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C72" s="2" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="73" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D73" s="3" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="74" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D74" s="3" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="75" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D75" s="3" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="76" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D76" s="3" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="77" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D77" s="3" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="78" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D78" s="3" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="79" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C79" s="2" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="80" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D80" s="2" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C81" s="2" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D82" s="3" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D83" s="3" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D84" s="3" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D85" s="3" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D86" s="3" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D87" s="3" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D88" s="3" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D89" s="3" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="90" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D90" s="3" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="91" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D91" s="3" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="92" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B92" s="2" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="93" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B93" s="2" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="94" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D94" s="2" t="s">
         <v>272</v>
       </c>
@@ -7016,52 +7104,52 @@
         <v>273</v>
       </c>
     </row>
-    <row r="95" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:5" x14ac:dyDescent="0.3">
       <c r="E95" s="3" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="96" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:5" x14ac:dyDescent="0.3">
       <c r="E96" s="3" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="97" spans="3:17" x14ac:dyDescent="0.3">
       <c r="E97" s="3" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="98" spans="3:17" x14ac:dyDescent="0.3">
       <c r="E98" s="3" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="99" spans="3:17" x14ac:dyDescent="0.3">
       <c r="E99" s="3" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="100" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C100" s="2" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="101" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C101" s="2" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="102" spans="3:17" x14ac:dyDescent="0.3">
       <c r="D102" s="3" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="103" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="103" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C103" s="2" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="104" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="104" spans="3:17" x14ac:dyDescent="0.3">
       <c r="D104" s="5" t="s">
         <v>211</v>
       </c>
@@ -7069,7 +7157,7 @@
       <c r="M104" s="3"/>
       <c r="Q104" s="3"/>
     </row>
-    <row r="105" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="105" spans="3:17" x14ac:dyDescent="0.3">
       <c r="D105" s="5" t="s">
         <v>283</v>
       </c>
@@ -7077,7 +7165,7 @@
       <c r="M105" s="3"/>
       <c r="Q105" s="3"/>
     </row>
-    <row r="106" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="106" spans="3:17" x14ac:dyDescent="0.3">
       <c r="D106" s="5" t="s">
         <v>284</v>
       </c>
@@ -7085,7 +7173,7 @@
       <c r="M106" s="3"/>
       <c r="Q106" s="3"/>
     </row>
-    <row r="107" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="107" spans="3:17" x14ac:dyDescent="0.3">
       <c r="D107" s="5" t="s">
         <v>213</v>
       </c>
@@ -7093,7 +7181,7 @@
       <c r="M107" s="3"/>
       <c r="Q107" s="3"/>
     </row>
-    <row r="108" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="108" spans="3:17" x14ac:dyDescent="0.3">
       <c r="D108" s="5" t="s">
         <v>214</v>
       </c>
@@ -7101,7 +7189,7 @@
       <c r="M108" s="3"/>
       <c r="Q108" s="3"/>
     </row>
-    <row r="109" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="109" spans="3:17" x14ac:dyDescent="0.3">
       <c r="D109" s="5" t="s">
         <v>215</v>
       </c>
@@ -7109,7 +7197,7 @@
       <c r="M109" s="3"/>
       <c r="Q109" s="3"/>
     </row>
-    <row r="110" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="110" spans="3:17" x14ac:dyDescent="0.3">
       <c r="D110" s="5" t="s">
         <v>285</v>
       </c>
@@ -7117,7 +7205,7 @@
       <c r="M110" s="3"/>
       <c r="Q110" s="3"/>
     </row>
-    <row r="111" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="111" spans="3:17" x14ac:dyDescent="0.3">
       <c r="D111" s="5" t="s">
         <v>213</v>
       </c>
@@ -7125,7 +7213,7 @@
       <c r="M111" s="3"/>
       <c r="Q111" s="3"/>
     </row>
-    <row r="112" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="112" spans="3:17" x14ac:dyDescent="0.3">
       <c r="D112" s="5" t="s">
         <v>214</v>
       </c>
@@ -7133,7 +7221,7 @@
       <c r="M112" s="3"/>
       <c r="Q112" s="3"/>
     </row>
-    <row r="113" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="113" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D113" s="5" t="s">
         <v>215</v>
       </c>
@@ -7141,7 +7229,7 @@
       <c r="M113" s="3"/>
       <c r="Q113" s="3"/>
     </row>
-    <row r="114" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="114" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D114" s="5" t="s">
         <v>286</v>
       </c>
@@ -7149,7 +7237,7 @@
       <c r="M114" s="3"/>
       <c r="Q114" s="3"/>
     </row>
-    <row r="115" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="115" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D115" s="5" t="s">
         <v>213</v>
       </c>
@@ -7157,7 +7245,7 @@
       <c r="M115" s="3"/>
       <c r="Q115" s="3"/>
     </row>
-    <row r="116" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="116" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D116" s="5" t="s">
         <v>214</v>
       </c>
@@ -7165,7 +7253,7 @@
       <c r="M116" s="3"/>
       <c r="Q116" s="3"/>
     </row>
-    <row r="117" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="117" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D117" s="5" t="s">
         <v>215</v>
       </c>
@@ -7173,7 +7261,7 @@
       <c r="M117" s="3"/>
       <c r="Q117" s="3"/>
     </row>
-    <row r="118" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="118" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D118" s="5" t="s">
         <v>287</v>
       </c>
@@ -7181,7 +7269,7 @@
       <c r="M118" s="3"/>
       <c r="Q118" s="3"/>
     </row>
-    <row r="119" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="119" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D119" s="5" t="s">
         <v>213</v>
       </c>
@@ -7189,7 +7277,7 @@
       <c r="M119" s="3"/>
       <c r="Q119" s="3"/>
     </row>
-    <row r="120" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="120" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D120" s="5" t="s">
         <v>214</v>
       </c>
@@ -7197,7 +7285,7 @@
       <c r="M120" s="3"/>
       <c r="Q120" s="3"/>
     </row>
-    <row r="121" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="121" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D121" s="5" t="s">
         <v>215</v>
       </c>
@@ -7205,7 +7293,7 @@
       <c r="M121" s="3"/>
       <c r="Q121" s="3"/>
     </row>
-    <row r="122" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="122" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D122" s="5" t="s">
         <v>288</v>
       </c>
@@ -7213,121 +7301,121 @@
       <c r="M122" s="3"/>
       <c r="Q122" s="3"/>
     </row>
-    <row r="123" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="123" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D123" s="5" t="s">
         <v>213</v>
       </c>
       <c r="H123" s="3"/>
       <c r="Q123" s="3"/>
     </row>
-    <row r="124" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="124" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D124" s="5" t="s">
         <v>214</v>
       </c>
       <c r="H124" s="3"/>
       <c r="Q124" s="3"/>
     </row>
-    <row r="125" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="125" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D125" s="5" t="s">
         <v>215</v>
       </c>
       <c r="H125" s="3"/>
       <c r="Q125" s="3"/>
     </row>
-    <row r="126" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="126" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D126" s="5" t="s">
         <v>289</v>
       </c>
       <c r="Q126" s="3"/>
     </row>
-    <row r="127" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="127" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D127" s="5" t="s">
         <v>213</v>
       </c>
       <c r="Q127" s="3"/>
     </row>
-    <row r="128" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="128" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D128" s="5" t="s">
         <v>214</v>
       </c>
       <c r="Q128" s="3"/>
     </row>
-    <row r="129" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:20" x14ac:dyDescent="0.3">
       <c r="D129" s="5" t="s">
         <v>215</v>
       </c>
       <c r="Q129" s="3"/>
     </row>
-    <row r="130" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:20" x14ac:dyDescent="0.3">
       <c r="D130" s="5" t="s">
         <v>216</v>
       </c>
       <c r="Q130" s="3"/>
     </row>
-    <row r="131" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:20" x14ac:dyDescent="0.3">
       <c r="D131" s="5" t="s">
         <v>281</v>
       </c>
       <c r="Q131" s="3"/>
     </row>
-    <row r="132" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:20" x14ac:dyDescent="0.3">
       <c r="D132" s="5" t="s">
         <v>290</v>
       </c>
       <c r="Q132" s="3"/>
     </row>
-    <row r="133" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:20" x14ac:dyDescent="0.3">
       <c r="D133" s="5" t="s">
         <v>282</v>
       </c>
       <c r="Q133" s="3"/>
     </row>
-    <row r="134" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:20" x14ac:dyDescent="0.3">
       <c r="C134" s="2" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="135" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:20" x14ac:dyDescent="0.3">
       <c r="D135" s="5" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="136" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:20" x14ac:dyDescent="0.3">
       <c r="D136" s="5" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="137" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B137" s="2" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="138" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:20" x14ac:dyDescent="0.3">
       <c r="C138" s="2" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="139" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:20" x14ac:dyDescent="0.3">
       <c r="C139" s="2" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="140" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:20" x14ac:dyDescent="0.3">
       <c r="D140" s="3" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="141" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:20" x14ac:dyDescent="0.3">
       <c r="C141" s="2" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="142" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:20" x14ac:dyDescent="0.3">
       <c r="D142" s="2" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="143" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:20" x14ac:dyDescent="0.3">
       <c r="D143" s="5" t="s">
         <v>222</v>
       </c>
@@ -7335,7 +7423,7 @@
       <c r="O143" s="3"/>
       <c r="T143" s="3"/>
     </row>
-    <row r="144" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:20" x14ac:dyDescent="0.3">
       <c r="D144" s="5" t="s">
         <v>294</v>
       </c>
@@ -7343,7 +7431,7 @@
       <c r="O144" s="3"/>
       <c r="T144" s="3"/>
     </row>
-    <row r="145" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:20" x14ac:dyDescent="0.3">
       <c r="D145" s="5" t="s">
         <v>295</v>
       </c>
@@ -7351,7 +7439,7 @@
       <c r="O145" s="3"/>
       <c r="T145" s="3"/>
     </row>
-    <row r="146" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:20" x14ac:dyDescent="0.3">
       <c r="D146" s="5" t="s">
         <v>296</v>
       </c>
@@ -7359,7 +7447,7 @@
       <c r="O146" s="3"/>
       <c r="T146" s="3"/>
     </row>
-    <row r="147" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:20" x14ac:dyDescent="0.3">
       <c r="D147" s="5" t="s">
         <v>297</v>
       </c>
@@ -7367,7 +7455,7 @@
       <c r="O147" s="3"/>
       <c r="T147" s="3"/>
     </row>
-    <row r="148" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:20" x14ac:dyDescent="0.3">
       <c r="D148" s="5" t="s">
         <v>296</v>
       </c>
@@ -7375,7 +7463,7 @@
       <c r="O148" s="3"/>
       <c r="T148" s="3"/>
     </row>
-    <row r="149" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:20" x14ac:dyDescent="0.3">
       <c r="D149" s="5" t="s">
         <v>298</v>
       </c>
@@ -7383,7 +7471,7 @@
       <c r="O149" s="3"/>
       <c r="T149" s="3"/>
     </row>
-    <row r="150" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:20" x14ac:dyDescent="0.3">
       <c r="D150" s="5" t="s">
         <v>296</v>
       </c>
@@ -7391,7 +7479,7 @@
       <c r="O150" s="3"/>
       <c r="T150" s="3"/>
     </row>
-    <row r="151" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:20" x14ac:dyDescent="0.3">
       <c r="D151" s="5" t="s">
         <v>299</v>
       </c>
@@ -7399,7 +7487,7 @@
       <c r="O151" s="3"/>
       <c r="T151" s="3"/>
     </row>
-    <row r="152" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:20" x14ac:dyDescent="0.3">
       <c r="D152" s="5" t="s">
         <v>296</v>
       </c>
@@ -7407,7 +7495,7 @@
       <c r="O152" s="3"/>
       <c r="T152" s="3"/>
     </row>
-    <row r="153" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:20" x14ac:dyDescent="0.3">
       <c r="D153" s="5" t="s">
         <v>300</v>
       </c>
@@ -7415,7 +7503,7 @@
       <c r="O153" s="3"/>
       <c r="T153" s="3"/>
     </row>
-    <row r="154" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:20" x14ac:dyDescent="0.3">
       <c r="D154" s="5" t="s">
         <v>296</v>
       </c>
@@ -7423,7 +7511,7 @@
       <c r="O154" s="3"/>
       <c r="T154" s="3"/>
     </row>
-    <row r="155" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:20" x14ac:dyDescent="0.3">
       <c r="D155" s="5" t="s">
         <v>301</v>
       </c>
@@ -7431,7 +7519,7 @@
       <c r="O155" s="3"/>
       <c r="T155" s="3"/>
     </row>
-    <row r="156" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:20" x14ac:dyDescent="0.3">
       <c r="D156" s="5" t="s">
         <v>296</v>
       </c>
@@ -7439,7 +7527,7 @@
       <c r="O156" s="3"/>
       <c r="T156" s="3"/>
     </row>
-    <row r="157" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:20" x14ac:dyDescent="0.3">
       <c r="D157" s="5" t="s">
         <v>217</v>
       </c>
@@ -7447,54 +7535,54 @@
       <c r="O157" s="3"/>
       <c r="T157" s="3"/>
     </row>
-    <row r="158" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:20" x14ac:dyDescent="0.3">
       <c r="D158" s="5" t="s">
         <v>302</v>
       </c>
       <c r="I158" s="3"/>
       <c r="T158" s="3"/>
     </row>
-    <row r="159" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B159" s="2" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="160" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:20" x14ac:dyDescent="0.3">
       <c r="C160" s="2" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="161" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="161" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C161" s="2" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="162" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="162" spans="3:20" x14ac:dyDescent="0.3">
       <c r="D162" s="2" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="163" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="163" spans="3:20" x14ac:dyDescent="0.3">
       <c r="E163" s="4" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="164" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="164" spans="3:20" x14ac:dyDescent="0.3">
       <c r="E164" s="3" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="165" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="165" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C165" s="2" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="166" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="166" spans="3:20" x14ac:dyDescent="0.3">
       <c r="D166" s="2" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="167" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="167" spans="3:20" x14ac:dyDescent="0.3">
       <c r="E167" s="3" t="s">
         <v>305</v>
       </c>
@@ -7502,7 +7590,7 @@
       <c r="O167" s="3"/>
       <c r="T167" s="3"/>
     </row>
-    <row r="168" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="168" spans="3:20" x14ac:dyDescent="0.3">
       <c r="E168" s="3" t="s">
         <v>306</v>
       </c>
@@ -7510,7 +7598,7 @@
       <c r="O168" s="3"/>
       <c r="T168" s="3"/>
     </row>
-    <row r="169" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="169" spans="3:20" x14ac:dyDescent="0.3">
       <c r="E169" s="3" t="s">
         <v>307</v>
       </c>
@@ -7518,7 +7606,7 @@
       <c r="O169" s="3"/>
       <c r="T169" s="3"/>
     </row>
-    <row r="170" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="170" spans="3:20" x14ac:dyDescent="0.3">
       <c r="E170" s="3" t="s">
         <v>308</v>
       </c>
@@ -7526,7 +7614,7 @@
       <c r="O170" s="3"/>
       <c r="T170" s="3"/>
     </row>
-    <row r="171" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="171" spans="3:20" x14ac:dyDescent="0.3">
       <c r="E171" s="3" t="s">
         <v>215</v>
       </c>
@@ -7534,7 +7622,7 @@
       <c r="O171" s="3"/>
       <c r="T171" s="3"/>
     </row>
-    <row r="172" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="172" spans="3:20" x14ac:dyDescent="0.3">
       <c r="E172" s="3" t="s">
         <v>165</v>
       </c>
@@ -7542,7 +7630,7 @@
       <c r="O172" s="3"/>
       <c r="T172" s="3"/>
     </row>
-    <row r="173" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="173" spans="3:20" x14ac:dyDescent="0.3">
       <c r="E173" s="3" t="s">
         <v>309</v>
       </c>
@@ -7550,66 +7638,66 @@
       <c r="O173" s="3"/>
       <c r="T173" s="3"/>
     </row>
-    <row r="174" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="174" spans="3:20" x14ac:dyDescent="0.3">
       <c r="D174" s="2" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="175" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="175" spans="3:20" x14ac:dyDescent="0.3">
       <c r="E175" s="3" t="s">
         <v>311</v>
       </c>
       <c r="L175" s="3"/>
       <c r="R175" s="3"/>
     </row>
-    <row r="176" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="176" spans="3:20" x14ac:dyDescent="0.3">
       <c r="E176" s="3" t="s">
         <v>312</v>
       </c>
       <c r="L176" s="3"/>
       <c r="R176" s="3"/>
     </row>
-    <row r="177" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="177" spans="4:18" x14ac:dyDescent="0.3">
       <c r="E177" s="3" t="s">
         <v>231</v>
       </c>
       <c r="L177" s="3"/>
       <c r="R177" s="3"/>
     </row>
-    <row r="178" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="178" spans="4:18" x14ac:dyDescent="0.3">
       <c r="E178" s="3" t="s">
         <v>232</v>
       </c>
       <c r="L178" s="3"/>
       <c r="R178" s="3"/>
     </row>
-    <row r="179" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="179" spans="4:18" x14ac:dyDescent="0.3">
       <c r="E179" s="3" t="s">
         <v>233</v>
       </c>
       <c r="L179" s="3"/>
       <c r="R179" s="3"/>
     </row>
-    <row r="180" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="180" spans="4:18" x14ac:dyDescent="0.3">
       <c r="E180" s="3" t="s">
         <v>313</v>
       </c>
       <c r="L180" s="3"/>
       <c r="R180" s="3"/>
     </row>
-    <row r="181" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="181" spans="4:18" x14ac:dyDescent="0.3">
       <c r="E181" s="3" t="s">
         <v>215</v>
       </c>
       <c r="L181" s="3"/>
       <c r="R181" s="3"/>
     </row>
-    <row r="182" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="182" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D182" s="2" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="183" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="183" spans="4:18" x14ac:dyDescent="0.3">
       <c r="E183" s="3" t="s">
         <v>321</v>
       </c>
@@ -7617,7 +7705,7 @@
       <c r="N183" s="3"/>
       <c r="R183" s="4"/>
     </row>
-    <row r="184" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="184" spans="4:18" x14ac:dyDescent="0.3">
       <c r="E184" s="3" t="s">
         <v>314</v>
       </c>
@@ -7625,7 +7713,7 @@
       <c r="N184" s="3"/>
       <c r="R184" s="4"/>
     </row>
-    <row r="185" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="185" spans="4:18" x14ac:dyDescent="0.3">
       <c r="E185" s="3" t="s">
         <v>322</v>
       </c>
@@ -7633,7 +7721,7 @@
       <c r="N185" s="3"/>
       <c r="R185" s="4"/>
     </row>
-    <row r="186" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="186" spans="4:18" x14ac:dyDescent="0.3">
       <c r="E186" s="3" t="s">
         <v>315</v>
       </c>
@@ -7641,7 +7729,7 @@
       <c r="N186" s="3"/>
       <c r="R186" s="4"/>
     </row>
-    <row r="187" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="187" spans="4:18" x14ac:dyDescent="0.3">
       <c r="E187" s="3" t="s">
         <v>316</v>
       </c>
@@ -7649,7 +7737,7 @@
       <c r="N187" s="3"/>
       <c r="R187" s="4"/>
     </row>
-    <row r="188" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="188" spans="4:18" x14ac:dyDescent="0.3">
       <c r="E188" s="3" t="s">
         <v>317</v>
       </c>
@@ -7657,7 +7745,7 @@
       <c r="N188" s="3"/>
       <c r="R188" s="4"/>
     </row>
-    <row r="189" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="189" spans="4:18" x14ac:dyDescent="0.3">
       <c r="E189" s="3" t="s">
         <v>318</v>
       </c>
@@ -7665,7 +7753,7 @@
       <c r="N189" s="3"/>
       <c r="R189" s="4"/>
     </row>
-    <row r="190" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="190" spans="4:18" x14ac:dyDescent="0.3">
       <c r="E190" s="3" t="s">
         <v>319</v>
       </c>
@@ -7673,7 +7761,7 @@
       <c r="N190" s="3"/>
       <c r="R190" s="4"/>
     </row>
-    <row r="191" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="191" spans="4:18" x14ac:dyDescent="0.3">
       <c r="E191" s="3" t="s">
         <v>320</v>
       </c>
@@ -7681,7 +7769,7 @@
       <c r="N191" s="3"/>
       <c r="R191" s="4"/>
     </row>
-    <row r="192" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="192" spans="4:18" x14ac:dyDescent="0.3">
       <c r="E192" s="3" t="s">
         <v>163</v>
       </c>
@@ -7689,7 +7777,7 @@
       <c r="N192" s="3"/>
       <c r="R192" s="4"/>
     </row>
-    <row r="193" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="193" spans="3:19" x14ac:dyDescent="0.3">
       <c r="E193" s="3" t="s">
         <v>323</v>
       </c>
@@ -7697,7 +7785,7 @@
       <c r="N193" s="3"/>
       <c r="R193" s="4"/>
     </row>
-    <row r="194" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="194" spans="3:19" x14ac:dyDescent="0.3">
       <c r="E194" s="3" t="s">
         <v>324</v>
       </c>
@@ -7705,7 +7793,7 @@
       <c r="N194" s="3"/>
       <c r="R194" s="4"/>
     </row>
-    <row r="195" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="195" spans="3:19" x14ac:dyDescent="0.3">
       <c r="E195" s="3" t="s">
         <v>164</v>
       </c>
@@ -7713,12 +7801,12 @@
       <c r="N195" s="3"/>
       <c r="R195" s="4"/>
     </row>
-    <row r="196" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="196" spans="3:19" x14ac:dyDescent="0.3">
       <c r="D196" s="2" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="197" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="197" spans="3:19" x14ac:dyDescent="0.3">
       <c r="E197" s="3" t="s">
         <v>325</v>
       </c>
@@ -7726,7 +7814,7 @@
       <c r="N197" s="3"/>
       <c r="S197" s="4"/>
     </row>
-    <row r="198" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="198" spans="3:19" x14ac:dyDescent="0.3">
       <c r="E198" s="3" t="s">
         <v>326</v>
       </c>
@@ -7734,7 +7822,7 @@
       <c r="N198" s="3"/>
       <c r="S198" s="4"/>
     </row>
-    <row r="199" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="199" spans="3:19" x14ac:dyDescent="0.3">
       <c r="E199" s="3" t="s">
         <v>327</v>
       </c>
@@ -7742,7 +7830,7 @@
       <c r="N199" s="3"/>
       <c r="S199" s="4"/>
     </row>
-    <row r="200" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="200" spans="3:19" x14ac:dyDescent="0.3">
       <c r="E200" s="3" t="s">
         <v>164</v>
       </c>
@@ -7750,12 +7838,12 @@
       <c r="N200" s="3"/>
       <c r="S200" s="4"/>
     </row>
-    <row r="201" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="201" spans="3:19" x14ac:dyDescent="0.3">
       <c r="D201" s="2" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="202" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="202" spans="3:19" x14ac:dyDescent="0.3">
       <c r="E202" s="3" t="s">
         <v>328</v>
       </c>
@@ -7763,7 +7851,7 @@
       <c r="N202" s="3"/>
       <c r="S202" s="3"/>
     </row>
-    <row r="203" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="203" spans="3:19" x14ac:dyDescent="0.3">
       <c r="E203" s="3" t="s">
         <v>330</v>
       </c>
@@ -7771,7 +7859,7 @@
       <c r="N203" s="3"/>
       <c r="S203" s="3"/>
     </row>
-    <row r="204" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="204" spans="3:19" x14ac:dyDescent="0.3">
       <c r="E204" s="3" t="s">
         <v>331</v>
       </c>
@@ -7779,7 +7867,7 @@
       <c r="N204" s="3"/>
       <c r="S204" s="3"/>
     </row>
-    <row r="205" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="205" spans="3:19" x14ac:dyDescent="0.3">
       <c r="E205" s="3" t="s">
         <v>215</v>
       </c>
@@ -7787,28 +7875,28 @@
       <c r="N205" s="3"/>
       <c r="S205" s="3"/>
     </row>
-    <row r="206" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="206" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C206" s="2" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="207" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="207" spans="3:19" x14ac:dyDescent="0.3">
       <c r="D207" s="2" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="208" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="208" spans="3:19" x14ac:dyDescent="0.3">
       <c r="E208" s="3" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="209" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="209" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D209" s="2" t="s">
         <v>240</v>
       </c>
       <c r="F209" s="3"/>
     </row>
-    <row r="210" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="210" spans="4:20" x14ac:dyDescent="0.3">
       <c r="E210" s="3" t="s">
         <v>332</v>
       </c>
@@ -7816,7 +7904,7 @@
       <c r="O210" s="3"/>
       <c r="T210" s="3"/>
     </row>
-    <row r="211" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="211" spans="4:20" x14ac:dyDescent="0.3">
       <c r="E211" s="3" t="s">
         <v>333</v>
       </c>
@@ -7824,7 +7912,7 @@
       <c r="O211" s="3"/>
       <c r="T211" s="3"/>
     </row>
-    <row r="212" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="212" spans="4:20" x14ac:dyDescent="0.3">
       <c r="E212" s="3" t="s">
         <v>334</v>
       </c>
@@ -7832,7 +7920,7 @@
       <c r="O212" s="3"/>
       <c r="T212" s="3"/>
     </row>
-    <row r="213" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="213" spans="4:20" x14ac:dyDescent="0.3">
       <c r="E213" s="3" t="s">
         <v>335</v>
       </c>
@@ -7840,7 +7928,7 @@
       <c r="O213" s="3"/>
       <c r="T213" s="3"/>
     </row>
-    <row r="214" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="214" spans="4:20" x14ac:dyDescent="0.3">
       <c r="E214" s="3" t="s">
         <v>164</v>
       </c>
@@ -7848,7 +7936,7 @@
       <c r="O214" s="3"/>
       <c r="T214" s="3"/>
     </row>
-    <row r="215" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="215" spans="4:20" x14ac:dyDescent="0.3">
       <c r="E215" s="3" t="s">
         <v>218</v>
       </c>
@@ -7856,7 +7944,7 @@
       <c r="O215" s="3"/>
       <c r="T215" s="3"/>
     </row>
-    <row r="216" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="216" spans="4:20" x14ac:dyDescent="0.3">
       <c r="E216" s="3" t="s">
         <v>336</v>
       </c>
@@ -7864,108 +7952,108 @@
       <c r="O216" s="3"/>
       <c r="T216" s="3"/>
     </row>
-    <row r="217" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="217" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D217" s="2" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="218" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="218" spans="4:20" x14ac:dyDescent="0.3">
       <c r="E218" s="3" t="s">
         <v>337</v>
       </c>
       <c r="J218" s="3"/>
       <c r="O218" s="3"/>
     </row>
-    <row r="219" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="219" spans="4:20" x14ac:dyDescent="0.3">
       <c r="E219" s="3" t="s">
         <v>242</v>
       </c>
       <c r="J219" s="3"/>
       <c r="O219" s="3"/>
     </row>
-    <row r="220" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="220" spans="4:20" x14ac:dyDescent="0.3">
       <c r="E220" s="3" t="s">
         <v>338</v>
       </c>
       <c r="J220" s="3"/>
       <c r="O220" s="3"/>
     </row>
-    <row r="221" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="221" spans="4:20" x14ac:dyDescent="0.3">
       <c r="E221" s="3" t="s">
         <v>243</v>
       </c>
       <c r="J221" s="3"/>
       <c r="O221" s="3"/>
     </row>
-    <row r="222" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="222" spans="4:20" x14ac:dyDescent="0.3">
       <c r="E222" s="3" t="s">
         <v>244</v>
       </c>
       <c r="J222" s="3"/>
       <c r="O222" s="3"/>
     </row>
-    <row r="223" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="223" spans="4:20" x14ac:dyDescent="0.3">
       <c r="E223" s="3" t="s">
         <v>245</v>
       </c>
       <c r="J223" s="3"/>
       <c r="O223" s="3"/>
     </row>
-    <row r="224" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="224" spans="4:20" x14ac:dyDescent="0.3">
       <c r="E224" s="3" t="s">
         <v>339</v>
       </c>
       <c r="J224" s="3"/>
       <c r="O224" s="3"/>
     </row>
-    <row r="225" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="225" spans="4:19" x14ac:dyDescent="0.3">
       <c r="E225" s="3" t="s">
         <v>246</v>
       </c>
       <c r="J225" s="3"/>
       <c r="O225" s="3"/>
     </row>
-    <row r="226" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="226" spans="4:19" x14ac:dyDescent="0.3">
       <c r="E226" s="3" t="s">
         <v>247</v>
       </c>
       <c r="J226" s="3"/>
       <c r="O226" s="3"/>
     </row>
-    <row r="227" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="227" spans="4:19" x14ac:dyDescent="0.3">
       <c r="E227" s="3" t="s">
         <v>248</v>
       </c>
       <c r="J227" s="3"/>
       <c r="O227" s="3"/>
     </row>
-    <row r="228" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="228" spans="4:19" x14ac:dyDescent="0.3">
       <c r="E228" s="3" t="s">
         <v>249</v>
       </c>
       <c r="J228" s="3"/>
       <c r="O228" s="3"/>
     </row>
-    <row r="229" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="229" spans="4:19" x14ac:dyDescent="0.3">
       <c r="E229" s="3" t="s">
         <v>234</v>
       </c>
       <c r="J229" s="3"/>
       <c r="O229" s="3"/>
     </row>
-    <row r="230" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="230" spans="4:19" x14ac:dyDescent="0.3">
       <c r="E230" s="3" t="s">
         <v>215</v>
       </c>
       <c r="J230" s="3"/>
       <c r="O230" s="3"/>
     </row>
-    <row r="231" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="231" spans="4:19" x14ac:dyDescent="0.3">
       <c r="D231" s="2" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="232" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="232" spans="4:19" x14ac:dyDescent="0.3">
       <c r="E232" s="3" t="s">
         <v>340</v>
       </c>
@@ -7973,7 +8061,7 @@
       <c r="O232" s="3"/>
       <c r="S232" s="3"/>
     </row>
-    <row r="233" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="233" spans="4:19" x14ac:dyDescent="0.3">
       <c r="E233" s="3" t="s">
         <v>242</v>
       </c>
@@ -7981,7 +8069,7 @@
       <c r="O233" s="3"/>
       <c r="S233" s="3"/>
     </row>
-    <row r="234" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="234" spans="4:19" x14ac:dyDescent="0.3">
       <c r="E234" s="3" t="s">
         <v>341</v>
       </c>
@@ -7989,7 +8077,7 @@
       <c r="O234" s="3"/>
       <c r="S234" s="3"/>
     </row>
-    <row r="235" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="235" spans="4:19" x14ac:dyDescent="0.3">
       <c r="E235" s="3" t="s">
         <v>342</v>
       </c>
@@ -7997,7 +8085,7 @@
       <c r="O235" s="3"/>
       <c r="S235" s="3"/>
     </row>
-    <row r="236" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="236" spans="4:19" x14ac:dyDescent="0.3">
       <c r="E236" s="3" t="s">
         <v>246</v>
       </c>
@@ -8005,7 +8093,7 @@
       <c r="O236" s="3"/>
       <c r="S236" s="3"/>
     </row>
-    <row r="237" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="237" spans="4:19" x14ac:dyDescent="0.3">
       <c r="E237" s="3" t="s">
         <v>247</v>
       </c>
@@ -8013,7 +8101,7 @@
       <c r="O237" s="3"/>
       <c r="S237" s="3"/>
     </row>
-    <row r="238" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="238" spans="4:19" x14ac:dyDescent="0.3">
       <c r="E238" s="3" t="s">
         <v>248</v>
       </c>
@@ -8021,7 +8109,7 @@
       <c r="O238" s="3"/>
       <c r="S238" s="3"/>
     </row>
-    <row r="239" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="239" spans="4:19" x14ac:dyDescent="0.3">
       <c r="E239" s="3" t="s">
         <v>249</v>
       </c>
@@ -8029,7 +8117,7 @@
       <c r="O239" s="3"/>
       <c r="S239" s="3"/>
     </row>
-    <row r="240" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="240" spans="4:19" x14ac:dyDescent="0.3">
       <c r="E240" s="3" t="s">
         <v>234</v>
       </c>
@@ -8037,7 +8125,7 @@
       <c r="O240" s="3"/>
       <c r="S240" s="3"/>
     </row>
-    <row r="241" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="241" spans="4:19" x14ac:dyDescent="0.3">
       <c r="E241" s="3" t="s">
         <v>215</v>
       </c>
@@ -8045,12 +8133,12 @@
       <c r="O241" s="3"/>
       <c r="S241" s="3"/>
     </row>
-    <row r="242" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="242" spans="4:19" x14ac:dyDescent="0.3">
       <c r="D242" s="2" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="243" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="243" spans="4:19" x14ac:dyDescent="0.3">
       <c r="E243" s="3" t="s">
         <v>343</v>
       </c>
@@ -8058,7 +8146,7 @@
       <c r="O243" s="3"/>
       <c r="S243" s="3"/>
     </row>
-    <row r="244" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="244" spans="4:19" x14ac:dyDescent="0.3">
       <c r="E244" s="3" t="s">
         <v>250</v>
       </c>
@@ -8066,7 +8154,7 @@
       <c r="O244" s="3"/>
       <c r="S244" s="3"/>
     </row>
-    <row r="245" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="245" spans="4:19" x14ac:dyDescent="0.3">
       <c r="E245" s="3" t="s">
         <v>344</v>
       </c>
@@ -8074,7 +8162,7 @@
       <c r="O245" s="3"/>
       <c r="S245" s="3"/>
     </row>
-    <row r="246" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="246" spans="4:19" x14ac:dyDescent="0.3">
       <c r="E246" s="3" t="s">
         <v>251</v>
       </c>
@@ -8082,7 +8170,7 @@
       <c r="O246" s="3"/>
       <c r="S246" s="3"/>
     </row>
-    <row r="247" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="247" spans="4:19" x14ac:dyDescent="0.3">
       <c r="E247" s="3" t="s">
         <v>252</v>
       </c>
@@ -8090,7 +8178,7 @@
       <c r="O247" s="3"/>
       <c r="S247" s="3"/>
     </row>
-    <row r="248" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="248" spans="4:19" x14ac:dyDescent="0.3">
       <c r="E248" s="3" t="s">
         <v>247</v>
       </c>
@@ -8098,7 +8186,7 @@
       <c r="O248" s="3"/>
       <c r="S248" s="3"/>
     </row>
-    <row r="249" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="249" spans="4:19" x14ac:dyDescent="0.3">
       <c r="E249" s="3" t="s">
         <v>248</v>
       </c>
@@ -8106,7 +8194,7 @@
       <c r="O249" s="3"/>
       <c r="S249" s="3"/>
     </row>
-    <row r="250" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="250" spans="4:19" x14ac:dyDescent="0.3">
       <c r="E250" s="3" t="s">
         <v>249</v>
       </c>
@@ -8114,7 +8202,7 @@
       <c r="O250" s="3"/>
       <c r="S250" s="3"/>
     </row>
-    <row r="251" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="251" spans="4:19" x14ac:dyDescent="0.3">
       <c r="E251" s="3" t="s">
         <v>234</v>
       </c>
@@ -8122,7 +8210,7 @@
       <c r="O251" s="3"/>
       <c r="S251" s="3"/>
     </row>
-    <row r="252" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="252" spans="4:19" x14ac:dyDescent="0.3">
       <c r="E252" s="3" t="s">
         <v>215</v>
       </c>
@@ -8130,12 +8218,12 @@
       <c r="O252" s="3"/>
       <c r="S252" s="3"/>
     </row>
-    <row r="253" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="253" spans="4:19" x14ac:dyDescent="0.3">
       <c r="D253" s="2" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="254" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="254" spans="4:19" x14ac:dyDescent="0.3">
       <c r="E254" s="4" t="s">
         <v>328</v>
       </c>
@@ -8143,7 +8231,7 @@
       <c r="O254" s="4"/>
       <c r="S254" s="4"/>
     </row>
-    <row r="255" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="255" spans="4:19" x14ac:dyDescent="0.3">
       <c r="E255" s="4" t="s">
         <v>365</v>
       </c>
@@ -8151,7 +8239,7 @@
       <c r="O255" s="4"/>
       <c r="S255" s="4"/>
     </row>
-    <row r="256" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="256" spans="4:19" x14ac:dyDescent="0.3">
       <c r="E256" s="4" t="s">
         <v>345</v>
       </c>
@@ -8159,7 +8247,7 @@
       <c r="O256" s="4"/>
       <c r="S256" s="4"/>
     </row>
-    <row r="257" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="257" spans="3:19" x14ac:dyDescent="0.3">
       <c r="E257" s="4" t="s">
         <v>346</v>
       </c>
@@ -8167,7 +8255,7 @@
       <c r="O257" s="4"/>
       <c r="S257" s="4"/>
     </row>
-    <row r="258" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="258" spans="3:19" x14ac:dyDescent="0.3">
       <c r="E258" s="4" t="s">
         <v>234</v>
       </c>
@@ -8175,7 +8263,7 @@
       <c r="O258" s="4"/>
       <c r="S258" s="4"/>
     </row>
-    <row r="259" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="259" spans="3:19" x14ac:dyDescent="0.3">
       <c r="E259" s="4" t="s">
         <v>331</v>
       </c>
@@ -8183,7 +8271,7 @@
       <c r="O259" s="4"/>
       <c r="S259" s="4"/>
     </row>
-    <row r="260" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="260" spans="3:19" x14ac:dyDescent="0.3">
       <c r="E260" s="4" t="s">
         <v>215</v>
       </c>
@@ -8191,62 +8279,62 @@
       <c r="O260" s="4"/>
       <c r="S260" s="4"/>
     </row>
-    <row r="261" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="261" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C261" s="2" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="262" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="262" spans="3:19" x14ac:dyDescent="0.3">
       <c r="D262" s="2" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="263" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="263" spans="3:19" x14ac:dyDescent="0.3">
       <c r="E263" s="2" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="264" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="264" spans="3:19" x14ac:dyDescent="0.3">
       <c r="F264" s="3" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="265" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="265" spans="3:19" x14ac:dyDescent="0.3">
       <c r="E265" s="2" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="266" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="266" spans="3:19" x14ac:dyDescent="0.3">
       <c r="F266" s="3" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="267" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="267" spans="3:19" x14ac:dyDescent="0.3">
       <c r="E267" s="2" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="268" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="268" spans="3:19" x14ac:dyDescent="0.3">
       <c r="F268" s="3" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="269" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="269" spans="3:19" x14ac:dyDescent="0.3">
       <c r="E269" s="2" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="270" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="270" spans="3:19" x14ac:dyDescent="0.3">
       <c r="F270" s="3" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="271" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="271" spans="3:19" x14ac:dyDescent="0.3">
       <c r="D271" s="2" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="272" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="272" spans="3:19" x14ac:dyDescent="0.3">
       <c r="E272" s="3" t="s">
         <v>349</v>
       </c>
@@ -8254,7 +8342,7 @@
       <c r="N272" s="3"/>
       <c r="R272" s="3"/>
     </row>
-    <row r="273" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="273" spans="3:18" x14ac:dyDescent="0.3">
       <c r="E273" s="3" t="s">
         <v>350</v>
       </c>
@@ -8262,97 +8350,97 @@
       <c r="N273" s="3"/>
       <c r="R273" s="3"/>
     </row>
-    <row r="274" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="274" spans="3:18" x14ac:dyDescent="0.3">
       <c r="D274" s="2" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="275" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="275" spans="3:18" x14ac:dyDescent="0.3">
       <c r="E275" s="3" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="276" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="276" spans="3:18" x14ac:dyDescent="0.3">
       <c r="D276" s="2" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="277" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="277" spans="3:18" x14ac:dyDescent="0.3">
       <c r="E277" s="3" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="278" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="278" spans="3:18" x14ac:dyDescent="0.3">
       <c r="D278" s="2" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="279" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="279" spans="3:18" x14ac:dyDescent="0.3">
       <c r="E279" s="3" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="280" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="280" spans="3:18" x14ac:dyDescent="0.3">
       <c r="D280" s="2" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="281" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="281" spans="3:18" x14ac:dyDescent="0.3">
       <c r="E281" s="3" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="282" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="282" spans="3:18" x14ac:dyDescent="0.3">
       <c r="D282" s="2" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="283" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="283" spans="3:18" x14ac:dyDescent="0.3">
       <c r="E283" s="3" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="284" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="284" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C284" s="2" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="285" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="285" spans="3:18" x14ac:dyDescent="0.3">
       <c r="D285" s="2" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="286" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="286" spans="3:18" x14ac:dyDescent="0.3">
       <c r="E286" s="3" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="287" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="287" spans="3:18" x14ac:dyDescent="0.3">
       <c r="D287" s="2" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="288" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="288" spans="3:18" x14ac:dyDescent="0.3">
       <c r="E288" s="3" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="289" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="289" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B289" s="2" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="290" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="290" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D290" s="2" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="292" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="292" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D292" s="2" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="294" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="294" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D294" s="2" t="s">
         <v>362</v>
       </c>
@@ -8362,4 +8450,214 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="35.21875" customWidth="1"/>
+    <col min="2" max="2" width="30.109375" customWidth="1"/>
+    <col min="3" max="3" width="28.21875" customWidth="1"/>
+    <col min="4" max="4" width="33.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="6"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="6"/>
+      <c r="B10" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+    </row>
+    <row r="11" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="D15" s="7"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="8" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="8" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="8" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>390</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A6:D6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Project-MRA/Project MRA.xlsx
+++ b/Project-MRA/Project MRA.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="6"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140"/>
   </bookViews>
   <sheets>
     <sheet name="Public" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="395">
   <si>
     <t>Contact details</t>
   </si>
@@ -1992,6 +1992,15 @@
   <si>
     <t>#32
 Prepare text elements for variable content, in all pages</t>
+  </si>
+  <si>
+    <t>mrallroung5@gmail.com</t>
+  </si>
+  <si>
+    <t>mongodb un:</t>
+  </si>
+  <si>
+    <t>mrallround</t>
   </si>
 </sst>
 </file>
@@ -2081,7 +2090,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
@@ -2097,10 +2106,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -5780,75 +5792,90 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:E30"/>
+  <dimension ref="B4:N30"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.3">
       <c r="D6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="M6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="D7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="N7" s="1" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
       <c r="D8" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="N8" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="M9" s="9" t="s">
+        <v>393</v>
+      </c>
+      <c r="N9" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="D10" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="D11" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="D12" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="D14" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="E15" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="E16" t="s">
         <v>7</v>
       </c>
@@ -5924,6 +5951,9 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="N7" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -8456,7 +8486,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+    <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
@@ -8469,59 +8499,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>366</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="8" t="s">
         <v>367</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="8" t="s">
         <v>368</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="8" t="s">
         <v>369</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="8" t="s">
         <v>370</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="8" t="s">
         <v>371</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="8" t="s">
         <v>372</v>
       </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
       <c r="D7" s="6"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -8540,11 +8570,11 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="6"/>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="8" t="s">
         <v>374</v>
       </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
     </row>
     <row r="11" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A11" s="6"/>
@@ -8581,13 +8611,13 @@
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="8" t="s">
         <v>379</v>
       </c>
-      <c r="D15" s="7"/>
+      <c r="D15" s="8"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="7" t="s">
         <v>383</v>
       </c>
     </row>
@@ -8607,7 +8637,7 @@
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="8" t="s">
+      <c r="A22" s="7" t="s">
         <v>387</v>
       </c>
     </row>
@@ -8627,7 +8657,7 @@
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="8" t="s">
+      <c r="A26" s="7" t="s">
         <v>391</v>
       </c>
     </row>

--- a/Project-MRA/Project MRA.xlsx
+++ b/Project-MRA/Project MRA.xlsx
@@ -16,8 +16,8 @@
     <sheet name="Private" sheetId="2" r:id="rId2"/>
     <sheet name="DB" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
-    <sheet name="MyProject" sheetId="5" r:id="rId5"/>
-    <sheet name="mraMongoose" sheetId="6" r:id="rId6"/>
+    <sheet name="mraMongoose" sheetId="6" r:id="rId5"/>
+    <sheet name="contactPage" sheetId="5" r:id="rId6"/>
     <sheet name="multilingual" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="390">
   <si>
     <t>Contact details</t>
   </si>
@@ -1025,31 +1025,10 @@
     <t>json kade kje se cuvaat porakite</t>
   </si>
   <si>
-    <t>1. multilanguage dropdown</t>
-  </si>
-  <si>
-    <t>Integrate dropdown in navbar</t>
-  </si>
-  <si>
-    <t>Make dropdown for switching content languages via localStorage</t>
-  </si>
-  <si>
-    <t>Read multilingual content from JSON file on MongoDB</t>
-  </si>
-  <si>
-    <t>Fill JSON with all multilingual content</t>
-  </si>
-  <si>
-    <t>Prepare text elements for variable content, in all pages</t>
-  </si>
-  <si>
     <t>mrallround5@gmail.com</t>
   </si>
   <si>
     <t>qinshift2025</t>
-  </si>
-  <si>
-    <t>GMAIL, MongoDB</t>
   </si>
   <si>
     <t>mrallround5</t>
@@ -2001,6 +1980,12 @@
   </si>
   <si>
     <t>mrallround</t>
+  </si>
+  <si>
+    <t>GMAIL, MongoDB, Postman</t>
+  </si>
+  <si>
+    <t>.</t>
   </si>
 </sst>
 </file>
@@ -2108,10 +2093,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -5795,7 +5780,7 @@
   <dimension ref="B4:N30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5815,7 +5800,7 @@
         <v>5</v>
       </c>
       <c r="M6" t="s">
-        <v>122</v>
+        <v>388</v>
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.3">
@@ -5823,7 +5808,7 @@
         <v>6</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.3">
@@ -5831,23 +5816,26 @@
         <v>23</v>
       </c>
       <c r="N8" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>2</v>
       </c>
-      <c r="M9" s="9" t="s">
-        <v>393</v>
+      <c r="M9" s="8" t="s">
+        <v>386</v>
       </c>
       <c r="N9" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="D10" t="s">
         <v>18</v>
+      </c>
+      <c r="N10" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.3">
@@ -6463,7 +6451,7 @@
   <dimension ref="A3:B24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6519,45 +6507,45 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>122</v>
+        <v>388</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B17" s="1" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B22" s="1" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="B23" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -6577,71 +6565,6 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C4" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C5" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C14" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D15" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D16" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D17" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D18" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="19" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D19" t="s">
-        <v>119</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:T294"/>
   <sheetViews>
     <sheetView topLeftCell="A241" zoomScaleNormal="100" workbookViewId="0">
@@ -6655,533 +6578,533 @@
   <sheetData>
     <row r="3" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C4" s="2" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.3">
       <c r="D5" s="2" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.3">
       <c r="D6" s="2" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.3">
       <c r="D7" s="2" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.3">
       <c r="E8" s="2" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.3">
       <c r="F9" s="2" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.3">
       <c r="E10" s="2" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.3">
       <c r="E11" s="2" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.3">
       <c r="E12" s="2" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.3">
       <c r="F13" s="2" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.3">
       <c r="E14" s="2" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.3">
       <c r="E15" s="2" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C16" s="2" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D17" s="3" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C18" s="2" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D19" s="3" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="E19" s="3"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D20" s="3" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="E20" s="3"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D21" s="3"/>
       <c r="E21" s="3" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D22" s="3"/>
       <c r="E22" s="3" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C23" s="2" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D24" s="3" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D25" s="3" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D26" s="3" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D27" s="3" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D28" s="3" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B29" s="2" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C30" s="2" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D31" s="2" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.3">
       <c r="E32" s="3" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="33" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E33" s="3" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="34" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E34" s="3" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="35" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E35" s="3" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="36" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E36" s="3" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="37" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E37" s="3" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="38" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E38" s="3" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="39" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E39" s="3" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="40" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E40" s="3" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="41" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E41" s="3" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="42" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E42" s="3" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="43" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C43" s="2" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
     </row>
     <row r="44" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D44" s="2" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
     </row>
     <row r="45" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E45" s="3" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="46" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D46" s="2" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="47" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E47" s="3" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="48" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E48" s="3" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
     </row>
     <row r="49" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C49" s="2" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
     </row>
     <row r="50" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D50" s="2" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
     </row>
     <row r="51" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E51" s="3" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
     </row>
     <row r="52" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E52" s="3" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
     </row>
     <row r="53" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E53" s="3" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
     </row>
     <row r="54" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E54" s="3" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
     </row>
     <row r="55" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D55" s="2" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="E55" s="3"/>
     </row>
     <row r="56" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E56" s="3" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
     <row r="57" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E57" s="3" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
     </row>
     <row r="58" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C58" s="3"/>
       <c r="E58" s="3" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
     </row>
     <row r="59" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C59" s="3"/>
       <c r="D59" s="2" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="E59" s="3"/>
     </row>
     <row r="60" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C60" s="3"/>
       <c r="E60" s="3" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
     </row>
     <row r="61" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C61" s="3"/>
       <c r="D61" s="2" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="E61" s="3"/>
     </row>
     <row r="62" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C62" s="3"/>
       <c r="E62" s="3" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
     </row>
     <row r="63" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C63" s="3"/>
       <c r="D63" s="2" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
     </row>
     <row r="64" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C64" s="3"/>
       <c r="E64" s="3" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
     </row>
     <row r="65" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C65" s="2" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
     </row>
     <row r="66" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C66" s="3"/>
       <c r="D66" s="3" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
     </row>
     <row r="67" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C67" s="3"/>
       <c r="D67" s="3" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
     </row>
     <row r="68" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C68" s="3"/>
       <c r="D68" s="3" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
     </row>
     <row r="69" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C69" s="3"/>
       <c r="D69" s="3" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
     </row>
     <row r="70" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D70" s="3" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
     </row>
     <row r="71" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D71" s="3" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
     </row>
     <row r="72" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C72" s="2" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
     </row>
     <row r="73" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D73" s="3" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
     </row>
     <row r="74" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D74" s="3" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
     </row>
     <row r="75" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D75" s="3" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
     </row>
     <row r="76" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D76" s="3" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
     </row>
     <row r="77" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D77" s="3" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="78" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D78" s="3" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
     </row>
     <row r="79" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C79" s="2" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
     </row>
     <row r="80" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D80" s="2" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
     </row>
     <row r="81" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C81" s="2" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
     </row>
     <row r="82" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D82" s="3" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
     </row>
     <row r="83" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D83" s="3" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="84" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D84" s="3" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
     </row>
     <row r="85" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D85" s="3" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
     </row>
     <row r="86" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D86" s="3" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
     </row>
     <row r="87" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D87" s="3" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="88" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D88" s="3" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
     </row>
     <row r="89" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D89" s="3" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
     </row>
     <row r="90" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D90" s="3" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
     </row>
     <row r="91" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D91" s="3" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
     </row>
     <row r="92" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B92" s="2" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
     </row>
     <row r="93" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B93" s="2" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
     </row>
     <row r="94" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D94" s="2" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
     </row>
     <row r="95" spans="2:5" x14ac:dyDescent="0.3">
       <c r="E95" s="3" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
     </row>
     <row r="96" spans="2:5" x14ac:dyDescent="0.3">
       <c r="E96" s="3" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
     </row>
     <row r="97" spans="3:17" x14ac:dyDescent="0.3">
       <c r="E97" s="3" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
     </row>
     <row r="98" spans="3:17" x14ac:dyDescent="0.3">
       <c r="E98" s="3" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
     </row>
     <row r="99" spans="3:17" x14ac:dyDescent="0.3">
       <c r="E99" s="3" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
     </row>
     <row r="100" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C100" s="2" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
     </row>
     <row r="101" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C101" s="2" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
     </row>
     <row r="102" spans="3:17" x14ac:dyDescent="0.3">
       <c r="D102" s="3" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
     </row>
     <row r="103" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C103" s="2" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
     </row>
     <row r="104" spans="3:17" x14ac:dyDescent="0.3">
       <c r="D104" s="5" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="H104" s="3"/>
       <c r="M104" s="3"/>
@@ -7189,7 +7112,7 @@
     </row>
     <row r="105" spans="3:17" x14ac:dyDescent="0.3">
       <c r="D105" s="5" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="H105" s="3"/>
       <c r="M105" s="3"/>
@@ -7197,7 +7120,7 @@
     </row>
     <row r="106" spans="3:17" x14ac:dyDescent="0.3">
       <c r="D106" s="5" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="H106" s="3"/>
       <c r="M106" s="3"/>
@@ -7205,7 +7128,7 @@
     </row>
     <row r="107" spans="3:17" x14ac:dyDescent="0.3">
       <c r="D107" s="5" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="H107" s="3"/>
       <c r="M107" s="3"/>
@@ -7213,7 +7136,7 @@
     </row>
     <row r="108" spans="3:17" x14ac:dyDescent="0.3">
       <c r="D108" s="5" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="H108" s="3"/>
       <c r="M108" s="3"/>
@@ -7221,7 +7144,7 @@
     </row>
     <row r="109" spans="3:17" x14ac:dyDescent="0.3">
       <c r="D109" s="5" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="H109" s="3"/>
       <c r="M109" s="3"/>
@@ -7229,7 +7152,7 @@
     </row>
     <row r="110" spans="3:17" x14ac:dyDescent="0.3">
       <c r="D110" s="5" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="H110" s="3"/>
       <c r="M110" s="3"/>
@@ -7237,7 +7160,7 @@
     </row>
     <row r="111" spans="3:17" x14ac:dyDescent="0.3">
       <c r="D111" s="5" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="H111" s="3"/>
       <c r="M111" s="3"/>
@@ -7245,7 +7168,7 @@
     </row>
     <row r="112" spans="3:17" x14ac:dyDescent="0.3">
       <c r="D112" s="5" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="H112" s="3"/>
       <c r="M112" s="3"/>
@@ -7253,7 +7176,7 @@
     </row>
     <row r="113" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D113" s="5" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="H113" s="3"/>
       <c r="M113" s="3"/>
@@ -7261,7 +7184,7 @@
     </row>
     <row r="114" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D114" s="5" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="H114" s="3"/>
       <c r="M114" s="3"/>
@@ -7269,7 +7192,7 @@
     </row>
     <row r="115" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D115" s="5" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="H115" s="3"/>
       <c r="M115" s="3"/>
@@ -7277,7 +7200,7 @@
     </row>
     <row r="116" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D116" s="5" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="H116" s="3"/>
       <c r="M116" s="3"/>
@@ -7285,7 +7208,7 @@
     </row>
     <row r="117" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D117" s="5" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="H117" s="3"/>
       <c r="M117" s="3"/>
@@ -7293,7 +7216,7 @@
     </row>
     <row r="118" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D118" s="5" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="H118" s="3"/>
       <c r="M118" s="3"/>
@@ -7301,7 +7224,7 @@
     </row>
     <row r="119" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D119" s="5" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="H119" s="3"/>
       <c r="M119" s="3"/>
@@ -7309,7 +7232,7 @@
     </row>
     <row r="120" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D120" s="5" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="H120" s="3"/>
       <c r="M120" s="3"/>
@@ -7317,7 +7240,7 @@
     </row>
     <row r="121" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D121" s="5" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="H121" s="3"/>
       <c r="M121" s="3"/>
@@ -7325,7 +7248,7 @@
     </row>
     <row r="122" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D122" s="5" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="H122" s="3"/>
       <c r="M122" s="3"/>
@@ -7333,121 +7256,121 @@
     </row>
     <row r="123" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D123" s="5" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="H123" s="3"/>
       <c r="Q123" s="3"/>
     </row>
     <row r="124" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D124" s="5" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="H124" s="3"/>
       <c r="Q124" s="3"/>
     </row>
     <row r="125" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D125" s="5" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="H125" s="3"/>
       <c r="Q125" s="3"/>
     </row>
     <row r="126" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D126" s="5" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="Q126" s="3"/>
     </row>
     <row r="127" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D127" s="5" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="Q127" s="3"/>
     </row>
     <row r="128" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D128" s="5" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="Q128" s="3"/>
     </row>
     <row r="129" spans="2:20" x14ac:dyDescent="0.3">
       <c r="D129" s="5" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="Q129" s="3"/>
     </row>
     <row r="130" spans="2:20" x14ac:dyDescent="0.3">
       <c r="D130" s="5" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="Q130" s="3"/>
     </row>
     <row r="131" spans="2:20" x14ac:dyDescent="0.3">
       <c r="D131" s="5" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="Q131" s="3"/>
     </row>
     <row r="132" spans="2:20" x14ac:dyDescent="0.3">
       <c r="D132" s="5" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="Q132" s="3"/>
     </row>
     <row r="133" spans="2:20" x14ac:dyDescent="0.3">
       <c r="D133" s="5" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="Q133" s="3"/>
     </row>
     <row r="134" spans="2:20" x14ac:dyDescent="0.3">
       <c r="C134" s="2" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
     </row>
     <row r="135" spans="2:20" x14ac:dyDescent="0.3">
       <c r="D135" s="5" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
     </row>
     <row r="136" spans="2:20" x14ac:dyDescent="0.3">
       <c r="D136" s="5" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
     </row>
     <row r="137" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B137" s="2" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
     </row>
     <row r="138" spans="2:20" x14ac:dyDescent="0.3">
       <c r="C138" s="2" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
     </row>
     <row r="139" spans="2:20" x14ac:dyDescent="0.3">
       <c r="C139" s="2" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
     </row>
     <row r="140" spans="2:20" x14ac:dyDescent="0.3">
       <c r="D140" s="3" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
     </row>
     <row r="141" spans="2:20" x14ac:dyDescent="0.3">
       <c r="C141" s="2" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
     </row>
     <row r="142" spans="2:20" x14ac:dyDescent="0.3">
       <c r="D142" s="2" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
     </row>
     <row r="143" spans="2:20" x14ac:dyDescent="0.3">
       <c r="D143" s="5" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="I143" s="3"/>
       <c r="O143" s="3"/>
@@ -7455,7 +7378,7 @@
     </row>
     <row r="144" spans="2:20" x14ac:dyDescent="0.3">
       <c r="D144" s="5" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="I144" s="3"/>
       <c r="O144" s="3"/>
@@ -7463,7 +7386,7 @@
     </row>
     <row r="145" spans="2:20" x14ac:dyDescent="0.3">
       <c r="D145" s="5" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="I145" s="3"/>
       <c r="O145" s="3"/>
@@ -7471,7 +7394,7 @@
     </row>
     <row r="146" spans="2:20" x14ac:dyDescent="0.3">
       <c r="D146" s="5" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="I146" s="3"/>
       <c r="O146" s="3"/>
@@ -7479,7 +7402,7 @@
     </row>
     <row r="147" spans="2:20" x14ac:dyDescent="0.3">
       <c r="D147" s="5" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="I147" s="3"/>
       <c r="O147" s="3"/>
@@ -7487,7 +7410,7 @@
     </row>
     <row r="148" spans="2:20" x14ac:dyDescent="0.3">
       <c r="D148" s="5" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="I148" s="3"/>
       <c r="O148" s="3"/>
@@ -7495,7 +7418,7 @@
     </row>
     <row r="149" spans="2:20" x14ac:dyDescent="0.3">
       <c r="D149" s="5" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="I149" s="3"/>
       <c r="O149" s="3"/>
@@ -7503,7 +7426,7 @@
     </row>
     <row r="150" spans="2:20" x14ac:dyDescent="0.3">
       <c r="D150" s="5" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="I150" s="3"/>
       <c r="O150" s="3"/>
@@ -7511,7 +7434,7 @@
     </row>
     <row r="151" spans="2:20" x14ac:dyDescent="0.3">
       <c r="D151" s="5" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="I151" s="3"/>
       <c r="O151" s="3"/>
@@ -7519,7 +7442,7 @@
     </row>
     <row r="152" spans="2:20" x14ac:dyDescent="0.3">
       <c r="D152" s="5" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="I152" s="3"/>
       <c r="O152" s="3"/>
@@ -7527,7 +7450,7 @@
     </row>
     <row r="153" spans="2:20" x14ac:dyDescent="0.3">
       <c r="D153" s="5" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="I153" s="3"/>
       <c r="O153" s="3"/>
@@ -7535,7 +7458,7 @@
     </row>
     <row r="154" spans="2:20" x14ac:dyDescent="0.3">
       <c r="D154" s="5" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="I154" s="3"/>
       <c r="O154" s="3"/>
@@ -7543,7 +7466,7 @@
     </row>
     <row r="155" spans="2:20" x14ac:dyDescent="0.3">
       <c r="D155" s="5" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="I155" s="3"/>
       <c r="O155" s="3"/>
@@ -7551,7 +7474,7 @@
     </row>
     <row r="156" spans="2:20" x14ac:dyDescent="0.3">
       <c r="D156" s="5" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="I156" s="3"/>
       <c r="O156" s="3"/>
@@ -7559,7 +7482,7 @@
     </row>
     <row r="157" spans="2:20" x14ac:dyDescent="0.3">
       <c r="D157" s="5" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="I157" s="3"/>
       <c r="O157" s="3"/>
@@ -7567,54 +7490,54 @@
     </row>
     <row r="158" spans="2:20" x14ac:dyDescent="0.3">
       <c r="D158" s="5" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="I158" s="3"/>
       <c r="T158" s="3"/>
     </row>
     <row r="159" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B159" s="2" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
     </row>
     <row r="160" spans="2:20" x14ac:dyDescent="0.3">
       <c r="C160" s="2" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
     </row>
     <row r="161" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C161" s="2" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
     </row>
     <row r="162" spans="3:20" x14ac:dyDescent="0.3">
       <c r="D162" s="2" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
     </row>
     <row r="163" spans="3:20" x14ac:dyDescent="0.3">
       <c r="E163" s="4" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
     </row>
     <row r="164" spans="3:20" x14ac:dyDescent="0.3">
       <c r="E164" s="3" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
     </row>
     <row r="165" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C165" s="2" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
     </row>
     <row r="166" spans="3:20" x14ac:dyDescent="0.3">
       <c r="D166" s="2" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
     </row>
     <row r="167" spans="3:20" x14ac:dyDescent="0.3">
       <c r="E167" s="3" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="J167" s="3"/>
       <c r="O167" s="3"/>
@@ -7622,7 +7545,7 @@
     </row>
     <row r="168" spans="3:20" x14ac:dyDescent="0.3">
       <c r="E168" s="3" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="J168" s="3"/>
       <c r="O168" s="3"/>
@@ -7630,7 +7553,7 @@
     </row>
     <row r="169" spans="3:20" x14ac:dyDescent="0.3">
       <c r="E169" s="3" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="J169" s="3"/>
       <c r="O169" s="3"/>
@@ -7638,7 +7561,7 @@
     </row>
     <row r="170" spans="3:20" x14ac:dyDescent="0.3">
       <c r="E170" s="3" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="J170" s="3"/>
       <c r="O170" s="3"/>
@@ -7646,7 +7569,7 @@
     </row>
     <row r="171" spans="3:20" x14ac:dyDescent="0.3">
       <c r="E171" s="3" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="J171" s="3"/>
       <c r="O171" s="3"/>
@@ -7654,7 +7577,7 @@
     </row>
     <row r="172" spans="3:20" x14ac:dyDescent="0.3">
       <c r="E172" s="3" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="J172" s="3"/>
       <c r="O172" s="3"/>
@@ -7662,7 +7585,7 @@
     </row>
     <row r="173" spans="3:20" x14ac:dyDescent="0.3">
       <c r="E173" s="3" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="J173" s="3"/>
       <c r="O173" s="3"/>
@@ -7670,66 +7593,66 @@
     </row>
     <row r="174" spans="3:20" x14ac:dyDescent="0.3">
       <c r="D174" s="2" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
     </row>
     <row r="175" spans="3:20" x14ac:dyDescent="0.3">
       <c r="E175" s="3" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="L175" s="3"/>
       <c r="R175" s="3"/>
     </row>
     <row r="176" spans="3:20" x14ac:dyDescent="0.3">
       <c r="E176" s="3" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="L176" s="3"/>
       <c r="R176" s="3"/>
     </row>
     <row r="177" spans="4:18" x14ac:dyDescent="0.3">
       <c r="E177" s="3" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="L177" s="3"/>
       <c r="R177" s="3"/>
     </row>
     <row r="178" spans="4:18" x14ac:dyDescent="0.3">
       <c r="E178" s="3" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="L178" s="3"/>
       <c r="R178" s="3"/>
     </row>
     <row r="179" spans="4:18" x14ac:dyDescent="0.3">
       <c r="E179" s="3" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="L179" s="3"/>
       <c r="R179" s="3"/>
     </row>
     <row r="180" spans="4:18" x14ac:dyDescent="0.3">
       <c r="E180" s="3" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="L180" s="3"/>
       <c r="R180" s="3"/>
     </row>
     <row r="181" spans="4:18" x14ac:dyDescent="0.3">
       <c r="E181" s="3" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="L181" s="3"/>
       <c r="R181" s="3"/>
     </row>
     <row r="182" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D182" s="2" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
     </row>
     <row r="183" spans="4:18" x14ac:dyDescent="0.3">
       <c r="E183" s="3" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="I183" s="3"/>
       <c r="N183" s="3"/>
@@ -7737,7 +7660,7 @@
     </row>
     <row r="184" spans="4:18" x14ac:dyDescent="0.3">
       <c r="E184" s="3" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="I184" s="3"/>
       <c r="N184" s="3"/>
@@ -7745,7 +7668,7 @@
     </row>
     <row r="185" spans="4:18" x14ac:dyDescent="0.3">
       <c r="E185" s="3" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="I185" s="3"/>
       <c r="N185" s="3"/>
@@ -7753,7 +7676,7 @@
     </row>
     <row r="186" spans="4:18" x14ac:dyDescent="0.3">
       <c r="E186" s="3" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="I186" s="3"/>
       <c r="N186" s="3"/>
@@ -7761,7 +7684,7 @@
     </row>
     <row r="187" spans="4:18" x14ac:dyDescent="0.3">
       <c r="E187" s="3" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="I187" s="3"/>
       <c r="N187" s="3"/>
@@ -7769,7 +7692,7 @@
     </row>
     <row r="188" spans="4:18" x14ac:dyDescent="0.3">
       <c r="E188" s="3" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="I188" s="3"/>
       <c r="N188" s="3"/>
@@ -7777,7 +7700,7 @@
     </row>
     <row r="189" spans="4:18" x14ac:dyDescent="0.3">
       <c r="E189" s="3" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="I189" s="3"/>
       <c r="N189" s="3"/>
@@ -7785,7 +7708,7 @@
     </row>
     <row r="190" spans="4:18" x14ac:dyDescent="0.3">
       <c r="E190" s="3" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="I190" s="3"/>
       <c r="N190" s="3"/>
@@ -7793,7 +7716,7 @@
     </row>
     <row r="191" spans="4:18" x14ac:dyDescent="0.3">
       <c r="E191" s="3" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="I191" s="3"/>
       <c r="N191" s="3"/>
@@ -7801,7 +7724,7 @@
     </row>
     <row r="192" spans="4:18" x14ac:dyDescent="0.3">
       <c r="E192" s="3" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="I192" s="3"/>
       <c r="N192" s="3"/>
@@ -7809,7 +7732,7 @@
     </row>
     <row r="193" spans="3:19" x14ac:dyDescent="0.3">
       <c r="E193" s="3" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="I193" s="3"/>
       <c r="N193" s="3"/>
@@ -7817,7 +7740,7 @@
     </row>
     <row r="194" spans="3:19" x14ac:dyDescent="0.3">
       <c r="E194" s="3" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="I194" s="3"/>
       <c r="N194" s="3"/>
@@ -7825,7 +7748,7 @@
     </row>
     <row r="195" spans="3:19" x14ac:dyDescent="0.3">
       <c r="E195" s="3" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="I195" s="3"/>
       <c r="N195" s="3"/>
@@ -7833,12 +7756,12 @@
     </row>
     <row r="196" spans="3:19" x14ac:dyDescent="0.3">
       <c r="D196" s="2" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
     </row>
     <row r="197" spans="3:19" x14ac:dyDescent="0.3">
       <c r="E197" s="3" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="I197" s="3"/>
       <c r="N197" s="3"/>
@@ -7846,7 +7769,7 @@
     </row>
     <row r="198" spans="3:19" x14ac:dyDescent="0.3">
       <c r="E198" s="3" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="I198" s="3"/>
       <c r="N198" s="3"/>
@@ -7854,7 +7777,7 @@
     </row>
     <row r="199" spans="3:19" x14ac:dyDescent="0.3">
       <c r="E199" s="3" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="I199" s="3"/>
       <c r="N199" s="3"/>
@@ -7862,7 +7785,7 @@
     </row>
     <row r="200" spans="3:19" x14ac:dyDescent="0.3">
       <c r="E200" s="3" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="I200" s="3"/>
       <c r="N200" s="3"/>
@@ -7870,12 +7793,12 @@
     </row>
     <row r="201" spans="3:19" x14ac:dyDescent="0.3">
       <c r="D201" s="2" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
     </row>
     <row r="202" spans="3:19" x14ac:dyDescent="0.3">
       <c r="E202" s="3" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="I202" s="3"/>
       <c r="N202" s="3"/>
@@ -7883,7 +7806,7 @@
     </row>
     <row r="203" spans="3:19" x14ac:dyDescent="0.3">
       <c r="E203" s="3" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="I203" s="3"/>
       <c r="N203" s="3"/>
@@ -7891,7 +7814,7 @@
     </row>
     <row r="204" spans="3:19" x14ac:dyDescent="0.3">
       <c r="E204" s="3" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="I204" s="3"/>
       <c r="N204" s="3"/>
@@ -7899,7 +7822,7 @@
     </row>
     <row r="205" spans="3:19" x14ac:dyDescent="0.3">
       <c r="E205" s="3" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="I205" s="3"/>
       <c r="N205" s="3"/>
@@ -7907,28 +7830,28 @@
     </row>
     <row r="206" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C206" s="2" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
     </row>
     <row r="207" spans="3:19" x14ac:dyDescent="0.3">
       <c r="D207" s="2" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
     </row>
     <row r="208" spans="3:19" x14ac:dyDescent="0.3">
       <c r="E208" s="3" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
     </row>
     <row r="209" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D209" s="2" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="F209" s="3"/>
     </row>
     <row r="210" spans="4:20" x14ac:dyDescent="0.3">
       <c r="E210" s="3" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="J210" s="3"/>
       <c r="O210" s="3"/>
@@ -7936,7 +7859,7 @@
     </row>
     <row r="211" spans="4:20" x14ac:dyDescent="0.3">
       <c r="E211" s="3" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="J211" s="3"/>
       <c r="O211" s="3"/>
@@ -7944,7 +7867,7 @@
     </row>
     <row r="212" spans="4:20" x14ac:dyDescent="0.3">
       <c r="E212" s="3" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="J212" s="3"/>
       <c r="O212" s="3"/>
@@ -7952,7 +7875,7 @@
     </row>
     <row r="213" spans="4:20" x14ac:dyDescent="0.3">
       <c r="E213" s="3" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="J213" s="3"/>
       <c r="O213" s="3"/>
@@ -7960,7 +7883,7 @@
     </row>
     <row r="214" spans="4:20" x14ac:dyDescent="0.3">
       <c r="E214" s="3" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="J214" s="3"/>
       <c r="O214" s="3"/>
@@ -7968,7 +7891,7 @@
     </row>
     <row r="215" spans="4:20" x14ac:dyDescent="0.3">
       <c r="E215" s="3" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="J215" s="3"/>
       <c r="O215" s="3"/>
@@ -7976,7 +7899,7 @@
     </row>
     <row r="216" spans="4:20" x14ac:dyDescent="0.3">
       <c r="E216" s="3" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="J216" s="3"/>
       <c r="O216" s="3"/>
@@ -7984,108 +7907,108 @@
     </row>
     <row r="217" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D217" s="2" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
     </row>
     <row r="218" spans="4:20" x14ac:dyDescent="0.3">
       <c r="E218" s="3" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="J218" s="3"/>
       <c r="O218" s="3"/>
     </row>
     <row r="219" spans="4:20" x14ac:dyDescent="0.3">
       <c r="E219" s="3" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="J219" s="3"/>
       <c r="O219" s="3"/>
     </row>
     <row r="220" spans="4:20" x14ac:dyDescent="0.3">
       <c r="E220" s="3" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="J220" s="3"/>
       <c r="O220" s="3"/>
     </row>
     <row r="221" spans="4:20" x14ac:dyDescent="0.3">
       <c r="E221" s="3" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="J221" s="3"/>
       <c r="O221" s="3"/>
     </row>
     <row r="222" spans="4:20" x14ac:dyDescent="0.3">
       <c r="E222" s="3" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="J222" s="3"/>
       <c r="O222" s="3"/>
     </row>
     <row r="223" spans="4:20" x14ac:dyDescent="0.3">
       <c r="E223" s="3" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="J223" s="3"/>
       <c r="O223" s="3"/>
     </row>
     <row r="224" spans="4:20" x14ac:dyDescent="0.3">
       <c r="E224" s="3" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="J224" s="3"/>
       <c r="O224" s="3"/>
     </row>
     <row r="225" spans="4:19" x14ac:dyDescent="0.3">
       <c r="E225" s="3" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="J225" s="3"/>
       <c r="O225" s="3"/>
     </row>
     <row r="226" spans="4:19" x14ac:dyDescent="0.3">
       <c r="E226" s="3" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="J226" s="3"/>
       <c r="O226" s="3"/>
     </row>
     <row r="227" spans="4:19" x14ac:dyDescent="0.3">
       <c r="E227" s="3" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="J227" s="3"/>
       <c r="O227" s="3"/>
     </row>
     <row r="228" spans="4:19" x14ac:dyDescent="0.3">
       <c r="E228" s="3" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="J228" s="3"/>
       <c r="O228" s="3"/>
     </row>
     <row r="229" spans="4:19" x14ac:dyDescent="0.3">
       <c r="E229" s="3" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="J229" s="3"/>
       <c r="O229" s="3"/>
     </row>
     <row r="230" spans="4:19" x14ac:dyDescent="0.3">
       <c r="E230" s="3" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="J230" s="3"/>
       <c r="O230" s="3"/>
     </row>
     <row r="231" spans="4:19" x14ac:dyDescent="0.3">
       <c r="D231" s="2" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
     </row>
     <row r="232" spans="4:19" x14ac:dyDescent="0.3">
       <c r="E232" s="3" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="J232" s="3"/>
       <c r="O232" s="3"/>
@@ -8093,7 +8016,7 @@
     </row>
     <row r="233" spans="4:19" x14ac:dyDescent="0.3">
       <c r="E233" s="3" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="J233" s="3"/>
       <c r="O233" s="3"/>
@@ -8101,7 +8024,7 @@
     </row>
     <row r="234" spans="4:19" x14ac:dyDescent="0.3">
       <c r="E234" s="3" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="J234" s="3"/>
       <c r="O234" s="3"/>
@@ -8109,7 +8032,7 @@
     </row>
     <row r="235" spans="4:19" x14ac:dyDescent="0.3">
       <c r="E235" s="3" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="J235" s="3"/>
       <c r="O235" s="3"/>
@@ -8117,7 +8040,7 @@
     </row>
     <row r="236" spans="4:19" x14ac:dyDescent="0.3">
       <c r="E236" s="3" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="J236" s="3"/>
       <c r="O236" s="3"/>
@@ -8125,7 +8048,7 @@
     </row>
     <row r="237" spans="4:19" x14ac:dyDescent="0.3">
       <c r="E237" s="3" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="J237" s="3"/>
       <c r="O237" s="3"/>
@@ -8133,7 +8056,7 @@
     </row>
     <row r="238" spans="4:19" x14ac:dyDescent="0.3">
       <c r="E238" s="3" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="J238" s="3"/>
       <c r="O238" s="3"/>
@@ -8141,7 +8064,7 @@
     </row>
     <row r="239" spans="4:19" x14ac:dyDescent="0.3">
       <c r="E239" s="3" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="J239" s="3"/>
       <c r="O239" s="3"/>
@@ -8149,7 +8072,7 @@
     </row>
     <row r="240" spans="4:19" x14ac:dyDescent="0.3">
       <c r="E240" s="3" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="J240" s="3"/>
       <c r="O240" s="3"/>
@@ -8157,7 +8080,7 @@
     </row>
     <row r="241" spans="4:19" x14ac:dyDescent="0.3">
       <c r="E241" s="3" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="J241" s="3"/>
       <c r="O241" s="3"/>
@@ -8165,12 +8088,12 @@
     </row>
     <row r="242" spans="4:19" x14ac:dyDescent="0.3">
       <c r="D242" s="2" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
     </row>
     <row r="243" spans="4:19" x14ac:dyDescent="0.3">
       <c r="E243" s="3" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="J243" s="3"/>
       <c r="O243" s="3"/>
@@ -8178,7 +8101,7 @@
     </row>
     <row r="244" spans="4:19" x14ac:dyDescent="0.3">
       <c r="E244" s="3" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="J244" s="3"/>
       <c r="O244" s="3"/>
@@ -8186,7 +8109,7 @@
     </row>
     <row r="245" spans="4:19" x14ac:dyDescent="0.3">
       <c r="E245" s="3" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="J245" s="3"/>
       <c r="O245" s="3"/>
@@ -8194,7 +8117,7 @@
     </row>
     <row r="246" spans="4:19" x14ac:dyDescent="0.3">
       <c r="E246" s="3" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="J246" s="3"/>
       <c r="O246" s="3"/>
@@ -8202,7 +8125,7 @@
     </row>
     <row r="247" spans="4:19" x14ac:dyDescent="0.3">
       <c r="E247" s="3" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="J247" s="3"/>
       <c r="O247" s="3"/>
@@ -8210,7 +8133,7 @@
     </row>
     <row r="248" spans="4:19" x14ac:dyDescent="0.3">
       <c r="E248" s="3" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="J248" s="3"/>
       <c r="O248" s="3"/>
@@ -8218,7 +8141,7 @@
     </row>
     <row r="249" spans="4:19" x14ac:dyDescent="0.3">
       <c r="E249" s="3" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="J249" s="3"/>
       <c r="O249" s="3"/>
@@ -8226,7 +8149,7 @@
     </row>
     <row r="250" spans="4:19" x14ac:dyDescent="0.3">
       <c r="E250" s="3" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="J250" s="3"/>
       <c r="O250" s="3"/>
@@ -8234,7 +8157,7 @@
     </row>
     <row r="251" spans="4:19" x14ac:dyDescent="0.3">
       <c r="E251" s="3" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="J251" s="3"/>
       <c r="O251" s="3"/>
@@ -8242,7 +8165,7 @@
     </row>
     <row r="252" spans="4:19" x14ac:dyDescent="0.3">
       <c r="E252" s="3" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="J252" s="3"/>
       <c r="O252" s="3"/>
@@ -8250,12 +8173,12 @@
     </row>
     <row r="253" spans="4:19" x14ac:dyDescent="0.3">
       <c r="D253" s="2" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
     </row>
     <row r="254" spans="4:19" x14ac:dyDescent="0.3">
       <c r="E254" s="4" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="J254" s="4"/>
       <c r="O254" s="4"/>
@@ -8263,7 +8186,7 @@
     </row>
     <row r="255" spans="4:19" x14ac:dyDescent="0.3">
       <c r="E255" s="4" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="J255" s="4"/>
       <c r="O255" s="4"/>
@@ -8271,7 +8194,7 @@
     </row>
     <row r="256" spans="4:19" x14ac:dyDescent="0.3">
       <c r="E256" s="4" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="J256" s="4"/>
       <c r="O256" s="4"/>
@@ -8279,7 +8202,7 @@
     </row>
     <row r="257" spans="3:19" x14ac:dyDescent="0.3">
       <c r="E257" s="4" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="J257" s="4"/>
       <c r="O257" s="4"/>
@@ -8287,7 +8210,7 @@
     </row>
     <row r="258" spans="3:19" x14ac:dyDescent="0.3">
       <c r="E258" s="4" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="J258" s="4"/>
       <c r="O258" s="4"/>
@@ -8295,7 +8218,7 @@
     </row>
     <row r="259" spans="3:19" x14ac:dyDescent="0.3">
       <c r="E259" s="4" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="J259" s="4"/>
       <c r="O259" s="4"/>
@@ -8303,7 +8226,7 @@
     </row>
     <row r="260" spans="3:19" x14ac:dyDescent="0.3">
       <c r="E260" s="4" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="J260" s="4"/>
       <c r="O260" s="4"/>
@@ -8311,62 +8234,62 @@
     </row>
     <row r="261" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C261" s="2" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
     </row>
     <row r="262" spans="3:19" x14ac:dyDescent="0.3">
       <c r="D262" s="2" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
     </row>
     <row r="263" spans="3:19" x14ac:dyDescent="0.3">
       <c r="E263" s="2" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
     </row>
     <row r="264" spans="3:19" x14ac:dyDescent="0.3">
       <c r="F264" s="3" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
     </row>
     <row r="265" spans="3:19" x14ac:dyDescent="0.3">
       <c r="E265" s="2" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
     </row>
     <row r="266" spans="3:19" x14ac:dyDescent="0.3">
       <c r="F266" s="3" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
     </row>
     <row r="267" spans="3:19" x14ac:dyDescent="0.3">
       <c r="E267" s="2" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
     </row>
     <row r="268" spans="3:19" x14ac:dyDescent="0.3">
       <c r="F268" s="3" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
     </row>
     <row r="269" spans="3:19" x14ac:dyDescent="0.3">
       <c r="E269" s="2" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
     </row>
     <row r="270" spans="3:19" x14ac:dyDescent="0.3">
       <c r="F270" s="3" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
     </row>
     <row r="271" spans="3:19" x14ac:dyDescent="0.3">
       <c r="D271" s="2" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
     </row>
     <row r="272" spans="3:19" x14ac:dyDescent="0.3">
       <c r="E272" s="3" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="I272" s="3"/>
       <c r="N272" s="3"/>
@@ -8374,7 +8297,7 @@
     </row>
     <row r="273" spans="3:18" x14ac:dyDescent="0.3">
       <c r="E273" s="3" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="I273" s="3"/>
       <c r="N273" s="3"/>
@@ -8382,97 +8305,97 @@
     </row>
     <row r="274" spans="3:18" x14ac:dyDescent="0.3">
       <c r="D274" s="2" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
     </row>
     <row r="275" spans="3:18" x14ac:dyDescent="0.3">
       <c r="E275" s="3" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
     </row>
     <row r="276" spans="3:18" x14ac:dyDescent="0.3">
       <c r="D276" s="2" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
     </row>
     <row r="277" spans="3:18" x14ac:dyDescent="0.3">
       <c r="E277" s="3" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
     </row>
     <row r="278" spans="3:18" x14ac:dyDescent="0.3">
       <c r="D278" s="2" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
     </row>
     <row r="279" spans="3:18" x14ac:dyDescent="0.3">
       <c r="E279" s="3" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
     </row>
     <row r="280" spans="3:18" x14ac:dyDescent="0.3">
       <c r="D280" s="2" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
     </row>
     <row r="281" spans="3:18" x14ac:dyDescent="0.3">
       <c r="E281" s="3" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
     </row>
     <row r="282" spans="3:18" x14ac:dyDescent="0.3">
       <c r="D282" s="2" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
     </row>
     <row r="283" spans="3:18" x14ac:dyDescent="0.3">
       <c r="E283" s="3" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
     </row>
     <row r="284" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C284" s="2" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
     </row>
     <row r="285" spans="3:18" x14ac:dyDescent="0.3">
       <c r="D285" s="2" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
     </row>
     <row r="286" spans="3:18" x14ac:dyDescent="0.3">
       <c r="E286" s="3" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
     </row>
     <row r="287" spans="3:18" x14ac:dyDescent="0.3">
       <c r="D287" s="2" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
     </row>
     <row r="288" spans="3:18" x14ac:dyDescent="0.3">
       <c r="E288" s="3" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
     </row>
     <row r="289" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B289" s="2" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
     </row>
     <row r="290" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D290" s="2" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
     </row>
     <row r="292" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D292" s="2" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
     </row>
     <row r="294" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D294" s="2" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
     </row>
   </sheetData>
@@ -8482,11 +8405,46 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
@@ -8499,59 +8457,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
-        <v>366</v>
-      </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
+      <c r="A1" s="9" t="s">
+        <v>359</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
-        <v>367</v>
-      </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
+      <c r="A2" s="9" t="s">
+        <v>360</v>
+      </c>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
-        <v>368</v>
-      </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
+      <c r="A3" s="9" t="s">
+        <v>361</v>
+      </c>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
-        <v>369</v>
-      </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
+      <c r="A4" s="9" t="s">
+        <v>362</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
-        <v>370</v>
-      </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
+      <c r="A5" s="9" t="s">
+        <v>363</v>
+      </c>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
-        <v>371</v>
-      </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
+      <c r="A6" s="9" t="s">
+        <v>364</v>
+      </c>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="s">
-        <v>372</v>
-      </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
+      <c r="A7" s="9" t="s">
+        <v>365</v>
+      </c>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
       <c r="D7" s="6"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -8562,7 +8520,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -8570,18 +8528,18 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="6"/>
-      <c r="B10" s="8" t="s">
-        <v>374</v>
-      </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
+      <c r="B10" s="9" t="s">
+        <v>367</v>
+      </c>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
     </row>
     <row r="11" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
       <c r="D11" s="6" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -8589,7 +8547,7 @@
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
       <c r="D12" s="6" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -8597,7 +8555,7 @@
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
       <c r="D13" s="6" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -8605,75 +8563,75 @@
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
       <c r="D14" s="6" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
-      <c r="C15" s="8" t="s">
-        <v>379</v>
-      </c>
-      <c r="D15" s="8"/>
+      <c r="C15" s="9" t="s">
+        <v>372</v>
+      </c>
+      <c r="D15" s="9"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
     </row>
   </sheetData>

--- a/Project-MRA/Project MRA.xlsx
+++ b/Project-MRA/Project MRA.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Programming\GIT\Qinshift-homeworks\Project-MRA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Viktor\Desktop\Tenderi\WEB\GIT\Qinshift-homeworks\Project-MRA\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A82902E8-56A8-4FA7-AE03-F60DF7F8C520}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Public" sheetId="1" r:id="rId1"/>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="392">
   <si>
     <t>Contact details</t>
   </si>
@@ -1987,11 +1988,17 @@
   <si>
     <t>.</t>
   </si>
+  <si>
+    <t>1. integrate multilingual.js and main.css in each page.</t>
+  </si>
+  <si>
+    <t>2. Make sure each element that has innerText for translation to have classList "onscreenText nameOfPagehtml nameOfElement"</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2075,7 +2082,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
@@ -2091,7 +2098,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2102,7 +2108,7 @@
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2145,8 +2151,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4631055" y="691516"/>
-          <a:ext cx="10302240" cy="4004309"/>
+          <a:off x="4524375" y="714376"/>
+          <a:ext cx="10058400" cy="4171949"/>
           <a:chOff x="1790700" y="1339734"/>
           <a:chExt cx="12915900" cy="5575416"/>
         </a:xfrm>
@@ -5776,26 +5782,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B4:N30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
         <v>5</v>
       </c>
@@ -5803,7 +5809,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
         <v>6</v>
       </c>
@@ -5811,7 +5817,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
         <v>23</v>
       </c>
@@ -5819,18 +5825,18 @@
         <v>115</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>2</v>
       </c>
-      <c r="M9" s="8" t="s">
+      <c r="M9" s="7" t="s">
         <v>386</v>
       </c>
       <c r="N9" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
         <v>18</v>
       </c>
@@ -5838,125 +5844,125 @@
         <v>389</v>
       </c>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="E15" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="E16" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E17" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D19" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D22" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D23" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D24" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D26" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D27" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D28" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D29" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D30" t="s">
         <v>48</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="N7" r:id="rId1"/>
+    <hyperlink ref="N7" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="C4:N27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="Q24" sqref="Q24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="4" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>35</v>
       </c>
@@ -5964,22 +5970,22 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:14" x14ac:dyDescent="0.25">
       <c r="M5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:14" x14ac:dyDescent="0.25">
       <c r="N6" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:14" x14ac:dyDescent="0.25">
       <c r="N7" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:14" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
         <v>28</v>
       </c>
@@ -5987,7 +5993,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:14" x14ac:dyDescent="0.25">
       <c r="E9" t="s">
         <v>60</v>
       </c>
@@ -5995,7 +6001,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:14" x14ac:dyDescent="0.25">
       <c r="E10" t="s">
         <v>61</v>
       </c>
@@ -6003,7 +6009,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:14" x14ac:dyDescent="0.25">
       <c r="E11" t="s">
         <v>27</v>
       </c>
@@ -6011,7 +6017,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:14" x14ac:dyDescent="0.25">
       <c r="E12" t="s">
         <v>30</v>
       </c>
@@ -6019,7 +6025,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:14" x14ac:dyDescent="0.25">
       <c r="E13" t="s">
         <v>29</v>
       </c>
@@ -6027,7 +6033,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="3:14" x14ac:dyDescent="0.25">
       <c r="E14" t="s">
         <v>58</v>
       </c>
@@ -6035,7 +6041,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="3:14" x14ac:dyDescent="0.25">
       <c r="E15" t="s">
         <v>26</v>
       </c>
@@ -6043,7 +6049,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="3:14" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
         <v>59</v>
       </c>
@@ -6051,7 +6057,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="5:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E17" t="s">
         <v>32</v>
       </c>
@@ -6059,7 +6065,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="5:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E18" t="s">
         <v>33</v>
       </c>
@@ -6067,7 +6073,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="5:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E19" t="s">
         <v>31</v>
       </c>
@@ -6075,7 +6081,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="5:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E20" t="s">
         <v>34</v>
       </c>
@@ -6083,7 +6089,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="5:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="5:14" x14ac:dyDescent="0.25">
       <c r="F21" t="s">
         <v>54</v>
       </c>
@@ -6091,7 +6097,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="5:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="5:14" x14ac:dyDescent="0.25">
       <c r="F22" t="s">
         <v>55</v>
       </c>
@@ -6099,7 +6105,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="5:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="5:14" x14ac:dyDescent="0.25">
       <c r="F23" t="s">
         <v>62</v>
       </c>
@@ -6107,7 +6113,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="5:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="5:14" x14ac:dyDescent="0.25">
       <c r="F24" t="s">
         <v>56</v>
       </c>
@@ -6115,7 +6121,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="5:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="5:14" x14ac:dyDescent="0.25">
       <c r="F25" t="s">
         <v>57</v>
       </c>
@@ -6123,12 +6129,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="5:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="5:14" x14ac:dyDescent="0.25">
       <c r="N26" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="27" spans="5:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="5:14" x14ac:dyDescent="0.25">
       <c r="N27" t="s">
         <v>41</v>
       </c>
@@ -6139,20 +6145,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:S29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="R20" sqref="R20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>25</v>
       </c>
@@ -6172,7 +6178,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
         <v>67</v>
       </c>
@@ -6183,7 +6189,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>66</v>
       </c>
@@ -6194,7 +6200,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="4" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>68</v>
       </c>
@@ -6205,7 +6211,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="5" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>69</v>
       </c>
@@ -6216,7 +6222,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>71</v>
       </c>
@@ -6227,7 +6233,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="7" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>50</v>
       </c>
@@ -6238,7 +6244,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="8" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>49</v>
       </c>
@@ -6249,7 +6255,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="9" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>70</v>
       </c>
@@ -6260,7 +6266,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="10" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:19" x14ac:dyDescent="0.25">
       <c r="K10" t="s">
         <v>79</v>
       </c>
@@ -6268,7 +6274,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="11" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>63</v>
       </c>
@@ -6282,7 +6288,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="12" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>67</v>
       </c>
@@ -6293,7 +6299,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="13" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>66</v>
       </c>
@@ -6301,7 +6307,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>72</v>
       </c>
@@ -6315,7 +6321,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>69</v>
       </c>
@@ -6326,7 +6332,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>71</v>
       </c>
@@ -6334,7 +6340,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="17" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>50</v>
       </c>
@@ -6348,7 +6354,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="18" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>73</v>
       </c>
@@ -6356,7 +6362,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="19" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>74</v>
       </c>
@@ -6364,7 +6370,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="20" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>70</v>
       </c>
@@ -6372,12 +6378,12 @@
         <v>85</v>
       </c>
     </row>
-    <row r="21" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:19" x14ac:dyDescent="0.25">
       <c r="K21" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="22" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>19</v>
       </c>
@@ -6388,7 +6394,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>67</v>
       </c>
@@ -6396,7 +6402,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="24" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>66</v>
       </c>
@@ -6404,7 +6410,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="25" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>75</v>
       </c>
@@ -6412,7 +6418,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="26" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>72</v>
       </c>
@@ -6420,7 +6426,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="27" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>78</v>
       </c>
@@ -6428,7 +6434,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="28" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>70</v>
       </c>
@@ -6436,7 +6442,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="29" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:19" x14ac:dyDescent="0.25">
       <c r="K29" t="s">
         <v>83</v>
       </c>
@@ -6447,36 +6453,36 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A3:B24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>105</v>
       </c>
@@ -6484,7 +6490,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>109</v>
       </c>
@@ -6492,7 +6498,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>105</v>
       </c>
@@ -6500,42 +6506,42 @@
         <v>107</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>119</v>
       </c>
@@ -6543,20 +6549,20 @@
         <v>115</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>117</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1"/>
-    <hyperlink ref="B5" r:id="rId2"/>
-    <hyperlink ref="B10" r:id="rId3"/>
-    <hyperlink ref="B11" r:id="rId4"/>
-    <hyperlink ref="B12" r:id="rId5"/>
-    <hyperlink ref="B17" r:id="rId6"/>
-    <hyperlink ref="B22" r:id="rId7"/>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="B5" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
+    <hyperlink ref="B10" r:id="rId3" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
+    <hyperlink ref="B11" r:id="rId4" xr:uid="{00000000-0004-0000-0300-000003000000}"/>
+    <hyperlink ref="B12" r:id="rId5" xr:uid="{00000000-0004-0000-0300-000004000000}"/>
+    <hyperlink ref="B17" r:id="rId6" xr:uid="{00000000-0004-0000-0300-000005000000}"/>
+    <hyperlink ref="B22" r:id="rId7" xr:uid="{00000000-0004-0000-0300-000006000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId8"/>
@@ -6564,492 +6570,492 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B3:T294"/>
   <sheetViews>
     <sheetView topLeftCell="A241" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="N249" sqref="N249"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.109375" style="2"/>
+    <col min="1" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C4" s="2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D5" s="2" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D6" s="2" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D7" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="E8" s="2" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="F9" s="2" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="E10" s="2" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="E11" s="2" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="E12" s="2" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="F13" s="2" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="E14" s="2" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="E15" s="2" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C16" s="2" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D17" s="3" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C18" s="2" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D19" s="3" t="s">
         <v>136</v>
       </c>
       <c r="E19" s="3"/>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D20" s="3" t="s">
         <v>137</v>
       </c>
       <c r="E20" s="3"/>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D21" s="3"/>
       <c r="E21" s="3" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D22" s="3"/>
       <c r="E22" s="3" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C23" s="2" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D24" s="3" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D25" s="3" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D26" s="3" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D27" s="3" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D28" s="3" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B29" s="2" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C30" s="2" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D31" s="2" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E32" s="3" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="33" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E33" s="3" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="34" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E34" s="3" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="35" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E35" s="3" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="36" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E36" s="3" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="37" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E37" s="3" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="38" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E38" s="3" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="39" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E39" s="3" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="40" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E40" s="3" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="41" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E41" s="3" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="42" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E42" s="3" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="43" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C43" s="2" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="44" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D44" s="2" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="45" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E45" s="3" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="46" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D46" s="2" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="47" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E47" s="3" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="48" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E48" s="3" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="49" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C49" s="2" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="50" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D50" s="2" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="51" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E51" s="3" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="52" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E52" s="3" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="53" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E53" s="3" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="54" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E54" s="3" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="55" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D55" s="2" t="s">
         <v>172</v>
       </c>
       <c r="E55" s="3"/>
     </row>
-    <row r="56" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E56" s="3" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="57" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E57" s="3" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="58" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C58" s="3"/>
       <c r="E58" s="3" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="59" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C59" s="3"/>
       <c r="D59" s="2" t="s">
         <v>176</v>
       </c>
       <c r="E59" s="3"/>
     </row>
-    <row r="60" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C60" s="3"/>
       <c r="E60" s="3" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="61" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C61" s="3"/>
       <c r="D61" s="2" t="s">
         <v>178</v>
       </c>
       <c r="E61" s="3"/>
     </row>
-    <row r="62" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C62" s="3"/>
       <c r="E62" s="3" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="63" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C63" s="3"/>
       <c r="D63" s="2" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="64" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C64" s="3"/>
       <c r="E64" s="3" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="65" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C65" s="2" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="66" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C66" s="3"/>
       <c r="D66" s="3" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="67" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C67" s="3"/>
       <c r="D67" s="3" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="68" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C68" s="3"/>
       <c r="D68" s="3" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="69" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C69" s="3"/>
       <c r="D69" s="3" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="70" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D70" s="3" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="71" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D71" s="3" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="72" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C72" s="2" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="73" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D73" s="3" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="74" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D74" s="3" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="75" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D75" s="3" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="76" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D76" s="3" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="77" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D77" s="3" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="78" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D78" s="3" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="79" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C79" s="2" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="80" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D80" s="2" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C81" s="2" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D82" s="3" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D83" s="3" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D84" s="3" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D85" s="3" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D86" s="3" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D87" s="3" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D88" s="3" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D89" s="3" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="90" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D90" s="3" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="91" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D91" s="3" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="92" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B92" s="2" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="93" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B93" s="2" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="94" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D94" s="2" t="s">
         <v>265</v>
       </c>
@@ -7057,52 +7063,52 @@
         <v>266</v>
       </c>
     </row>
-    <row r="95" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E95" s="3" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="96" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E96" s="3" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="97" spans="3:17" x14ac:dyDescent="0.25">
       <c r="E97" s="3" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="98" spans="3:17" x14ac:dyDescent="0.25">
       <c r="E98" s="3" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="99" spans="3:17" x14ac:dyDescent="0.25">
       <c r="E99" s="3" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="100" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C100" s="2" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="101" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C101" s="2" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="102" spans="3:17" x14ac:dyDescent="0.25">
       <c r="D102" s="3" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="103" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="103" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C103" s="2" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="104" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="104" spans="3:17" x14ac:dyDescent="0.25">
       <c r="D104" s="5" t="s">
         <v>204</v>
       </c>
@@ -7110,7 +7116,7 @@
       <c r="M104" s="3"/>
       <c r="Q104" s="3"/>
     </row>
-    <row r="105" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="105" spans="3:17" x14ac:dyDescent="0.25">
       <c r="D105" s="5" t="s">
         <v>276</v>
       </c>
@@ -7118,7 +7124,7 @@
       <c r="M105" s="3"/>
       <c r="Q105" s="3"/>
     </row>
-    <row r="106" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="106" spans="3:17" x14ac:dyDescent="0.25">
       <c r="D106" s="5" t="s">
         <v>277</v>
       </c>
@@ -7126,7 +7132,7 @@
       <c r="M106" s="3"/>
       <c r="Q106" s="3"/>
     </row>
-    <row r="107" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="107" spans="3:17" x14ac:dyDescent="0.25">
       <c r="D107" s="5" t="s">
         <v>206</v>
       </c>
@@ -7134,7 +7140,7 @@
       <c r="M107" s="3"/>
       <c r="Q107" s="3"/>
     </row>
-    <row r="108" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="108" spans="3:17" x14ac:dyDescent="0.25">
       <c r="D108" s="5" t="s">
         <v>207</v>
       </c>
@@ -7142,7 +7148,7 @@
       <c r="M108" s="3"/>
       <c r="Q108" s="3"/>
     </row>
-    <row r="109" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="109" spans="3:17" x14ac:dyDescent="0.25">
       <c r="D109" s="5" t="s">
         <v>208</v>
       </c>
@@ -7150,7 +7156,7 @@
       <c r="M109" s="3"/>
       <c r="Q109" s="3"/>
     </row>
-    <row r="110" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="110" spans="3:17" x14ac:dyDescent="0.25">
       <c r="D110" s="5" t="s">
         <v>278</v>
       </c>
@@ -7158,7 +7164,7 @@
       <c r="M110" s="3"/>
       <c r="Q110" s="3"/>
     </row>
-    <row r="111" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="111" spans="3:17" x14ac:dyDescent="0.25">
       <c r="D111" s="5" t="s">
         <v>206</v>
       </c>
@@ -7166,7 +7172,7 @@
       <c r="M111" s="3"/>
       <c r="Q111" s="3"/>
     </row>
-    <row r="112" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="112" spans="3:17" x14ac:dyDescent="0.25">
       <c r="D112" s="5" t="s">
         <v>207</v>
       </c>
@@ -7174,7 +7180,7 @@
       <c r="M112" s="3"/>
       <c r="Q112" s="3"/>
     </row>
-    <row r="113" spans="4:17" x14ac:dyDescent="0.3">
+    <row r="113" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D113" s="5" t="s">
         <v>208</v>
       </c>
@@ -7182,7 +7188,7 @@
       <c r="M113" s="3"/>
       <c r="Q113" s="3"/>
     </row>
-    <row r="114" spans="4:17" x14ac:dyDescent="0.3">
+    <row r="114" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D114" s="5" t="s">
         <v>279</v>
       </c>
@@ -7190,7 +7196,7 @@
       <c r="M114" s="3"/>
       <c r="Q114" s="3"/>
     </row>
-    <row r="115" spans="4:17" x14ac:dyDescent="0.3">
+    <row r="115" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D115" s="5" t="s">
         <v>206</v>
       </c>
@@ -7198,7 +7204,7 @@
       <c r="M115" s="3"/>
       <c r="Q115" s="3"/>
     </row>
-    <row r="116" spans="4:17" x14ac:dyDescent="0.3">
+    <row r="116" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D116" s="5" t="s">
         <v>207</v>
       </c>
@@ -7206,7 +7212,7 @@
       <c r="M116" s="3"/>
       <c r="Q116" s="3"/>
     </row>
-    <row r="117" spans="4:17" x14ac:dyDescent="0.3">
+    <row r="117" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D117" s="5" t="s">
         <v>208</v>
       </c>
@@ -7214,7 +7220,7 @@
       <c r="M117" s="3"/>
       <c r="Q117" s="3"/>
     </row>
-    <row r="118" spans="4:17" x14ac:dyDescent="0.3">
+    <row r="118" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D118" s="5" t="s">
         <v>280</v>
       </c>
@@ -7222,7 +7228,7 @@
       <c r="M118" s="3"/>
       <c r="Q118" s="3"/>
     </row>
-    <row r="119" spans="4:17" x14ac:dyDescent="0.3">
+    <row r="119" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D119" s="5" t="s">
         <v>206</v>
       </c>
@@ -7230,7 +7236,7 @@
       <c r="M119" s="3"/>
       <c r="Q119" s="3"/>
     </row>
-    <row r="120" spans="4:17" x14ac:dyDescent="0.3">
+    <row r="120" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D120" s="5" t="s">
         <v>207</v>
       </c>
@@ -7238,7 +7244,7 @@
       <c r="M120" s="3"/>
       <c r="Q120" s="3"/>
     </row>
-    <row r="121" spans="4:17" x14ac:dyDescent="0.3">
+    <row r="121" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D121" s="5" t="s">
         <v>208</v>
       </c>
@@ -7246,7 +7252,7 @@
       <c r="M121" s="3"/>
       <c r="Q121" s="3"/>
     </row>
-    <row r="122" spans="4:17" x14ac:dyDescent="0.3">
+    <row r="122" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D122" s="5" t="s">
         <v>281</v>
       </c>
@@ -7254,121 +7260,121 @@
       <c r="M122" s="3"/>
       <c r="Q122" s="3"/>
     </row>
-    <row r="123" spans="4:17" x14ac:dyDescent="0.3">
+    <row r="123" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D123" s="5" t="s">
         <v>206</v>
       </c>
       <c r="H123" s="3"/>
       <c r="Q123" s="3"/>
     </row>
-    <row r="124" spans="4:17" x14ac:dyDescent="0.3">
+    <row r="124" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D124" s="5" t="s">
         <v>207</v>
       </c>
       <c r="H124" s="3"/>
       <c r="Q124" s="3"/>
     </row>
-    <row r="125" spans="4:17" x14ac:dyDescent="0.3">
+    <row r="125" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D125" s="5" t="s">
         <v>208</v>
       </c>
       <c r="H125" s="3"/>
       <c r="Q125" s="3"/>
     </row>
-    <row r="126" spans="4:17" x14ac:dyDescent="0.3">
+    <row r="126" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D126" s="5" t="s">
         <v>282</v>
       </c>
       <c r="Q126" s="3"/>
     </row>
-    <row r="127" spans="4:17" x14ac:dyDescent="0.3">
+    <row r="127" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D127" s="5" t="s">
         <v>206</v>
       </c>
       <c r="Q127" s="3"/>
     </row>
-    <row r="128" spans="4:17" x14ac:dyDescent="0.3">
+    <row r="128" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D128" s="5" t="s">
         <v>207</v>
       </c>
       <c r="Q128" s="3"/>
     </row>
-    <row r="129" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:20" x14ac:dyDescent="0.25">
       <c r="D129" s="5" t="s">
         <v>208</v>
       </c>
       <c r="Q129" s="3"/>
     </row>
-    <row r="130" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:20" x14ac:dyDescent="0.25">
       <c r="D130" s="5" t="s">
         <v>209</v>
       </c>
       <c r="Q130" s="3"/>
     </row>
-    <row r="131" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:20" x14ac:dyDescent="0.25">
       <c r="D131" s="5" t="s">
         <v>274</v>
       </c>
       <c r="Q131" s="3"/>
     </row>
-    <row r="132" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:20" x14ac:dyDescent="0.25">
       <c r="D132" s="5" t="s">
         <v>283</v>
       </c>
       <c r="Q132" s="3"/>
     </row>
-    <row r="133" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="133" spans="2:20" x14ac:dyDescent="0.25">
       <c r="D133" s="5" t="s">
         <v>275</v>
       </c>
       <c r="Q133" s="3"/>
     </row>
-    <row r="134" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C134" s="2" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="135" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="135" spans="2:20" x14ac:dyDescent="0.25">
       <c r="D135" s="5" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="136" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="136" spans="2:20" x14ac:dyDescent="0.25">
       <c r="D136" s="5" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="137" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="137" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B137" s="2" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="138" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="138" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C138" s="2" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="139" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C139" s="2" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="140" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="140" spans="2:20" x14ac:dyDescent="0.25">
       <c r="D140" s="3" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="141" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="141" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C141" s="2" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="142" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="142" spans="2:20" x14ac:dyDescent="0.25">
       <c r="D142" s="2" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="143" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="143" spans="2:20" x14ac:dyDescent="0.25">
       <c r="D143" s="5" t="s">
         <v>215</v>
       </c>
@@ -7376,7 +7382,7 @@
       <c r="O143" s="3"/>
       <c r="T143" s="3"/>
     </row>
-    <row r="144" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="144" spans="2:20" x14ac:dyDescent="0.25">
       <c r="D144" s="5" t="s">
         <v>287</v>
       </c>
@@ -7384,7 +7390,7 @@
       <c r="O144" s="3"/>
       <c r="T144" s="3"/>
     </row>
-    <row r="145" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="145" spans="2:20" x14ac:dyDescent="0.25">
       <c r="D145" s="5" t="s">
         <v>288</v>
       </c>
@@ -7392,7 +7398,7 @@
       <c r="O145" s="3"/>
       <c r="T145" s="3"/>
     </row>
-    <row r="146" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="146" spans="2:20" x14ac:dyDescent="0.25">
       <c r="D146" s="5" t="s">
         <v>289</v>
       </c>
@@ -7400,7 +7406,7 @@
       <c r="O146" s="3"/>
       <c r="T146" s="3"/>
     </row>
-    <row r="147" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="147" spans="2:20" x14ac:dyDescent="0.25">
       <c r="D147" s="5" t="s">
         <v>290</v>
       </c>
@@ -7408,7 +7414,7 @@
       <c r="O147" s="3"/>
       <c r="T147" s="3"/>
     </row>
-    <row r="148" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="148" spans="2:20" x14ac:dyDescent="0.25">
       <c r="D148" s="5" t="s">
         <v>289</v>
       </c>
@@ -7416,7 +7422,7 @@
       <c r="O148" s="3"/>
       <c r="T148" s="3"/>
     </row>
-    <row r="149" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="149" spans="2:20" x14ac:dyDescent="0.25">
       <c r="D149" s="5" t="s">
         <v>291</v>
       </c>
@@ -7424,7 +7430,7 @@
       <c r="O149" s="3"/>
       <c r="T149" s="3"/>
     </row>
-    <row r="150" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="150" spans="2:20" x14ac:dyDescent="0.25">
       <c r="D150" s="5" t="s">
         <v>289</v>
       </c>
@@ -7432,7 +7438,7 @@
       <c r="O150" s="3"/>
       <c r="T150" s="3"/>
     </row>
-    <row r="151" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="151" spans="2:20" x14ac:dyDescent="0.25">
       <c r="D151" s="5" t="s">
         <v>292</v>
       </c>
@@ -7440,7 +7446,7 @@
       <c r="O151" s="3"/>
       <c r="T151" s="3"/>
     </row>
-    <row r="152" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="152" spans="2:20" x14ac:dyDescent="0.25">
       <c r="D152" s="5" t="s">
         <v>289</v>
       </c>
@@ -7448,7 +7454,7 @@
       <c r="O152" s="3"/>
       <c r="T152" s="3"/>
     </row>
-    <row r="153" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="153" spans="2:20" x14ac:dyDescent="0.25">
       <c r="D153" s="5" t="s">
         <v>293</v>
       </c>
@@ -7456,7 +7462,7 @@
       <c r="O153" s="3"/>
       <c r="T153" s="3"/>
     </row>
-    <row r="154" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="154" spans="2:20" x14ac:dyDescent="0.25">
       <c r="D154" s="5" t="s">
         <v>289</v>
       </c>
@@ -7464,7 +7470,7 @@
       <c r="O154" s="3"/>
       <c r="T154" s="3"/>
     </row>
-    <row r="155" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="155" spans="2:20" x14ac:dyDescent="0.25">
       <c r="D155" s="5" t="s">
         <v>294</v>
       </c>
@@ -7472,7 +7478,7 @@
       <c r="O155" s="3"/>
       <c r="T155" s="3"/>
     </row>
-    <row r="156" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="156" spans="2:20" x14ac:dyDescent="0.25">
       <c r="D156" s="5" t="s">
         <v>289</v>
       </c>
@@ -7480,7 +7486,7 @@
       <c r="O156" s="3"/>
       <c r="T156" s="3"/>
     </row>
-    <row r="157" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="157" spans="2:20" x14ac:dyDescent="0.25">
       <c r="D157" s="5" t="s">
         <v>210</v>
       </c>
@@ -7488,54 +7494,54 @@
       <c r="O157" s="3"/>
       <c r="T157" s="3"/>
     </row>
-    <row r="158" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="158" spans="2:20" x14ac:dyDescent="0.25">
       <c r="D158" s="5" t="s">
         <v>295</v>
       </c>
       <c r="I158" s="3"/>
       <c r="T158" s="3"/>
     </row>
-    <row r="159" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="159" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B159" s="2" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="160" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="160" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C160" s="2" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="161" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="161" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C161" s="2" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="162" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="162" spans="3:20" x14ac:dyDescent="0.25">
       <c r="D162" s="2" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="163" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="163" spans="3:20" x14ac:dyDescent="0.25">
       <c r="E163" s="4" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="164" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="164" spans="3:20" x14ac:dyDescent="0.25">
       <c r="E164" s="3" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="165" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="165" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C165" s="2" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="166" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="166" spans="3:20" x14ac:dyDescent="0.25">
       <c r="D166" s="2" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="167" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="167" spans="3:20" x14ac:dyDescent="0.25">
       <c r="E167" s="3" t="s">
         <v>298</v>
       </c>
@@ -7543,7 +7549,7 @@
       <c r="O167" s="3"/>
       <c r="T167" s="3"/>
     </row>
-    <row r="168" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="168" spans="3:20" x14ac:dyDescent="0.25">
       <c r="E168" s="3" t="s">
         <v>299</v>
       </c>
@@ -7551,7 +7557,7 @@
       <c r="O168" s="3"/>
       <c r="T168" s="3"/>
     </row>
-    <row r="169" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="169" spans="3:20" x14ac:dyDescent="0.25">
       <c r="E169" s="3" t="s">
         <v>300</v>
       </c>
@@ -7559,7 +7565,7 @@
       <c r="O169" s="3"/>
       <c r="T169" s="3"/>
     </row>
-    <row r="170" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="170" spans="3:20" x14ac:dyDescent="0.25">
       <c r="E170" s="3" t="s">
         <v>301</v>
       </c>
@@ -7567,7 +7573,7 @@
       <c r="O170" s="3"/>
       <c r="T170" s="3"/>
     </row>
-    <row r="171" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="171" spans="3:20" x14ac:dyDescent="0.25">
       <c r="E171" s="3" t="s">
         <v>208</v>
       </c>
@@ -7575,7 +7581,7 @@
       <c r="O171" s="3"/>
       <c r="T171" s="3"/>
     </row>
-    <row r="172" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="172" spans="3:20" x14ac:dyDescent="0.25">
       <c r="E172" s="3" t="s">
         <v>158</v>
       </c>
@@ -7583,7 +7589,7 @@
       <c r="O172" s="3"/>
       <c r="T172" s="3"/>
     </row>
-    <row r="173" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="173" spans="3:20" x14ac:dyDescent="0.25">
       <c r="E173" s="3" t="s">
         <v>302</v>
       </c>
@@ -7591,66 +7597,66 @@
       <c r="O173" s="3"/>
       <c r="T173" s="3"/>
     </row>
-    <row r="174" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="174" spans="3:20" x14ac:dyDescent="0.25">
       <c r="D174" s="2" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="175" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="175" spans="3:20" x14ac:dyDescent="0.25">
       <c r="E175" s="3" t="s">
         <v>304</v>
       </c>
       <c r="L175" s="3"/>
       <c r="R175" s="3"/>
     </row>
-    <row r="176" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="176" spans="3:20" x14ac:dyDescent="0.25">
       <c r="E176" s="3" t="s">
         <v>305</v>
       </c>
       <c r="L176" s="3"/>
       <c r="R176" s="3"/>
     </row>
-    <row r="177" spans="4:18" x14ac:dyDescent="0.3">
+    <row r="177" spans="4:18" x14ac:dyDescent="0.25">
       <c r="E177" s="3" t="s">
         <v>224</v>
       </c>
       <c r="L177" s="3"/>
       <c r="R177" s="3"/>
     </row>
-    <row r="178" spans="4:18" x14ac:dyDescent="0.3">
+    <row r="178" spans="4:18" x14ac:dyDescent="0.25">
       <c r="E178" s="3" t="s">
         <v>225</v>
       </c>
       <c r="L178" s="3"/>
       <c r="R178" s="3"/>
     </row>
-    <row r="179" spans="4:18" x14ac:dyDescent="0.3">
+    <row r="179" spans="4:18" x14ac:dyDescent="0.25">
       <c r="E179" s="3" t="s">
         <v>226</v>
       </c>
       <c r="L179" s="3"/>
       <c r="R179" s="3"/>
     </row>
-    <row r="180" spans="4:18" x14ac:dyDescent="0.3">
+    <row r="180" spans="4:18" x14ac:dyDescent="0.25">
       <c r="E180" s="3" t="s">
         <v>306</v>
       </c>
       <c r="L180" s="3"/>
       <c r="R180" s="3"/>
     </row>
-    <row r="181" spans="4:18" x14ac:dyDescent="0.3">
+    <row r="181" spans="4:18" x14ac:dyDescent="0.25">
       <c r="E181" s="3" t="s">
         <v>208</v>
       </c>
       <c r="L181" s="3"/>
       <c r="R181" s="3"/>
     </row>
-    <row r="182" spans="4:18" x14ac:dyDescent="0.3">
+    <row r="182" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D182" s="2" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="183" spans="4:18" x14ac:dyDescent="0.3">
+    <row r="183" spans="4:18" x14ac:dyDescent="0.25">
       <c r="E183" s="3" t="s">
         <v>314</v>
       </c>
@@ -7658,7 +7664,7 @@
       <c r="N183" s="3"/>
       <c r="R183" s="4"/>
     </row>
-    <row r="184" spans="4:18" x14ac:dyDescent="0.3">
+    <row r="184" spans="4:18" x14ac:dyDescent="0.25">
       <c r="E184" s="3" t="s">
         <v>307</v>
       </c>
@@ -7666,7 +7672,7 @@
       <c r="N184" s="3"/>
       <c r="R184" s="4"/>
     </row>
-    <row r="185" spans="4:18" x14ac:dyDescent="0.3">
+    <row r="185" spans="4:18" x14ac:dyDescent="0.25">
       <c r="E185" s="3" t="s">
         <v>315</v>
       </c>
@@ -7674,7 +7680,7 @@
       <c r="N185" s="3"/>
       <c r="R185" s="4"/>
     </row>
-    <row r="186" spans="4:18" x14ac:dyDescent="0.3">
+    <row r="186" spans="4:18" x14ac:dyDescent="0.25">
       <c r="E186" s="3" t="s">
         <v>308</v>
       </c>
@@ -7682,7 +7688,7 @@
       <c r="N186" s="3"/>
       <c r="R186" s="4"/>
     </row>
-    <row r="187" spans="4:18" x14ac:dyDescent="0.3">
+    <row r="187" spans="4:18" x14ac:dyDescent="0.25">
       <c r="E187" s="3" t="s">
         <v>309</v>
       </c>
@@ -7690,7 +7696,7 @@
       <c r="N187" s="3"/>
       <c r="R187" s="4"/>
     </row>
-    <row r="188" spans="4:18" x14ac:dyDescent="0.3">
+    <row r="188" spans="4:18" x14ac:dyDescent="0.25">
       <c r="E188" s="3" t="s">
         <v>310</v>
       </c>
@@ -7698,7 +7704,7 @@
       <c r="N188" s="3"/>
       <c r="R188" s="4"/>
     </row>
-    <row r="189" spans="4:18" x14ac:dyDescent="0.3">
+    <row r="189" spans="4:18" x14ac:dyDescent="0.25">
       <c r="E189" s="3" t="s">
         <v>311</v>
       </c>
@@ -7706,7 +7712,7 @@
       <c r="N189" s="3"/>
       <c r="R189" s="4"/>
     </row>
-    <row r="190" spans="4:18" x14ac:dyDescent="0.3">
+    <row r="190" spans="4:18" x14ac:dyDescent="0.25">
       <c r="E190" s="3" t="s">
         <v>312</v>
       </c>
@@ -7714,7 +7720,7 @@
       <c r="N190" s="3"/>
       <c r="R190" s="4"/>
     </row>
-    <row r="191" spans="4:18" x14ac:dyDescent="0.3">
+    <row r="191" spans="4:18" x14ac:dyDescent="0.25">
       <c r="E191" s="3" t="s">
         <v>313</v>
       </c>
@@ -7722,7 +7728,7 @@
       <c r="N191" s="3"/>
       <c r="R191" s="4"/>
     </row>
-    <row r="192" spans="4:18" x14ac:dyDescent="0.3">
+    <row r="192" spans="4:18" x14ac:dyDescent="0.25">
       <c r="E192" s="3" t="s">
         <v>156</v>
       </c>
@@ -7730,7 +7736,7 @@
       <c r="N192" s="3"/>
       <c r="R192" s="4"/>
     </row>
-    <row r="193" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="193" spans="3:19" x14ac:dyDescent="0.25">
       <c r="E193" s="3" t="s">
         <v>316</v>
       </c>
@@ -7738,7 +7744,7 @@
       <c r="N193" s="3"/>
       <c r="R193" s="4"/>
     </row>
-    <row r="194" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="194" spans="3:19" x14ac:dyDescent="0.25">
       <c r="E194" s="3" t="s">
         <v>317</v>
       </c>
@@ -7746,7 +7752,7 @@
       <c r="N194" s="3"/>
       <c r="R194" s="4"/>
     </row>
-    <row r="195" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="195" spans="3:19" x14ac:dyDescent="0.25">
       <c r="E195" s="3" t="s">
         <v>157</v>
       </c>
@@ -7754,12 +7760,12 @@
       <c r="N195" s="3"/>
       <c r="R195" s="4"/>
     </row>
-    <row r="196" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="196" spans="3:19" x14ac:dyDescent="0.25">
       <c r="D196" s="2" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="197" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="197" spans="3:19" x14ac:dyDescent="0.25">
       <c r="E197" s="3" t="s">
         <v>318</v>
       </c>
@@ -7767,7 +7773,7 @@
       <c r="N197" s="3"/>
       <c r="S197" s="4"/>
     </row>
-    <row r="198" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="198" spans="3:19" x14ac:dyDescent="0.25">
       <c r="E198" s="3" t="s">
         <v>319</v>
       </c>
@@ -7775,7 +7781,7 @@
       <c r="N198" s="3"/>
       <c r="S198" s="4"/>
     </row>
-    <row r="199" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="199" spans="3:19" x14ac:dyDescent="0.25">
       <c r="E199" s="3" t="s">
         <v>320</v>
       </c>
@@ -7783,7 +7789,7 @@
       <c r="N199" s="3"/>
       <c r="S199" s="4"/>
     </row>
-    <row r="200" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="200" spans="3:19" x14ac:dyDescent="0.25">
       <c r="E200" s="3" t="s">
         <v>157</v>
       </c>
@@ -7791,12 +7797,12 @@
       <c r="N200" s="3"/>
       <c r="S200" s="4"/>
     </row>
-    <row r="201" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="201" spans="3:19" x14ac:dyDescent="0.25">
       <c r="D201" s="2" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="202" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="202" spans="3:19" x14ac:dyDescent="0.25">
       <c r="E202" s="3" t="s">
         <v>321</v>
       </c>
@@ -7804,7 +7810,7 @@
       <c r="N202" s="3"/>
       <c r="S202" s="3"/>
     </row>
-    <row r="203" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="203" spans="3:19" x14ac:dyDescent="0.25">
       <c r="E203" s="3" t="s">
         <v>323</v>
       </c>
@@ -7812,7 +7818,7 @@
       <c r="N203" s="3"/>
       <c r="S203" s="3"/>
     </row>
-    <row r="204" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="204" spans="3:19" x14ac:dyDescent="0.25">
       <c r="E204" s="3" t="s">
         <v>324</v>
       </c>
@@ -7820,7 +7826,7 @@
       <c r="N204" s="3"/>
       <c r="S204" s="3"/>
     </row>
-    <row r="205" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="205" spans="3:19" x14ac:dyDescent="0.25">
       <c r="E205" s="3" t="s">
         <v>208</v>
       </c>
@@ -7828,28 +7834,28 @@
       <c r="N205" s="3"/>
       <c r="S205" s="3"/>
     </row>
-    <row r="206" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="206" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C206" s="2" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="207" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="207" spans="3:19" x14ac:dyDescent="0.25">
       <c r="D207" s="2" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="208" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="208" spans="3:19" x14ac:dyDescent="0.25">
       <c r="E208" s="3" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="209" spans="4:20" x14ac:dyDescent="0.3">
+    <row r="209" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D209" s="2" t="s">
         <v>233</v>
       </c>
       <c r="F209" s="3"/>
     </row>
-    <row r="210" spans="4:20" x14ac:dyDescent="0.3">
+    <row r="210" spans="4:20" x14ac:dyDescent="0.25">
       <c r="E210" s="3" t="s">
         <v>325</v>
       </c>
@@ -7857,7 +7863,7 @@
       <c r="O210" s="3"/>
       <c r="T210" s="3"/>
     </row>
-    <row r="211" spans="4:20" x14ac:dyDescent="0.3">
+    <row r="211" spans="4:20" x14ac:dyDescent="0.25">
       <c r="E211" s="3" t="s">
         <v>326</v>
       </c>
@@ -7865,7 +7871,7 @@
       <c r="O211" s="3"/>
       <c r="T211" s="3"/>
     </row>
-    <row r="212" spans="4:20" x14ac:dyDescent="0.3">
+    <row r="212" spans="4:20" x14ac:dyDescent="0.25">
       <c r="E212" s="3" t="s">
         <v>327</v>
       </c>
@@ -7873,7 +7879,7 @@
       <c r="O212" s="3"/>
       <c r="T212" s="3"/>
     </row>
-    <row r="213" spans="4:20" x14ac:dyDescent="0.3">
+    <row r="213" spans="4:20" x14ac:dyDescent="0.25">
       <c r="E213" s="3" t="s">
         <v>328</v>
       </c>
@@ -7881,7 +7887,7 @@
       <c r="O213" s="3"/>
       <c r="T213" s="3"/>
     </row>
-    <row r="214" spans="4:20" x14ac:dyDescent="0.3">
+    <row r="214" spans="4:20" x14ac:dyDescent="0.25">
       <c r="E214" s="3" t="s">
         <v>157</v>
       </c>
@@ -7889,7 +7895,7 @@
       <c r="O214" s="3"/>
       <c r="T214" s="3"/>
     </row>
-    <row r="215" spans="4:20" x14ac:dyDescent="0.3">
+    <row r="215" spans="4:20" x14ac:dyDescent="0.25">
       <c r="E215" s="3" t="s">
         <v>211</v>
       </c>
@@ -7897,7 +7903,7 @@
       <c r="O215" s="3"/>
       <c r="T215" s="3"/>
     </row>
-    <row r="216" spans="4:20" x14ac:dyDescent="0.3">
+    <row r="216" spans="4:20" x14ac:dyDescent="0.25">
       <c r="E216" s="3" t="s">
         <v>329</v>
       </c>
@@ -7905,108 +7911,108 @@
       <c r="O216" s="3"/>
       <c r="T216" s="3"/>
     </row>
-    <row r="217" spans="4:20" x14ac:dyDescent="0.3">
+    <row r="217" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D217" s="2" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="218" spans="4:20" x14ac:dyDescent="0.3">
+    <row r="218" spans="4:20" x14ac:dyDescent="0.25">
       <c r="E218" s="3" t="s">
         <v>330</v>
       </c>
       <c r="J218" s="3"/>
       <c r="O218" s="3"/>
     </row>
-    <row r="219" spans="4:20" x14ac:dyDescent="0.3">
+    <row r="219" spans="4:20" x14ac:dyDescent="0.25">
       <c r="E219" s="3" t="s">
         <v>235</v>
       </c>
       <c r="J219" s="3"/>
       <c r="O219" s="3"/>
     </row>
-    <row r="220" spans="4:20" x14ac:dyDescent="0.3">
+    <row r="220" spans="4:20" x14ac:dyDescent="0.25">
       <c r="E220" s="3" t="s">
         <v>331</v>
       </c>
       <c r="J220" s="3"/>
       <c r="O220" s="3"/>
     </row>
-    <row r="221" spans="4:20" x14ac:dyDescent="0.3">
+    <row r="221" spans="4:20" x14ac:dyDescent="0.25">
       <c r="E221" s="3" t="s">
         <v>236</v>
       </c>
       <c r="J221" s="3"/>
       <c r="O221" s="3"/>
     </row>
-    <row r="222" spans="4:20" x14ac:dyDescent="0.3">
+    <row r="222" spans="4:20" x14ac:dyDescent="0.25">
       <c r="E222" s="3" t="s">
         <v>237</v>
       </c>
       <c r="J222" s="3"/>
       <c r="O222" s="3"/>
     </row>
-    <row r="223" spans="4:20" x14ac:dyDescent="0.3">
+    <row r="223" spans="4:20" x14ac:dyDescent="0.25">
       <c r="E223" s="3" t="s">
         <v>238</v>
       </c>
       <c r="J223" s="3"/>
       <c r="O223" s="3"/>
     </row>
-    <row r="224" spans="4:20" x14ac:dyDescent="0.3">
+    <row r="224" spans="4:20" x14ac:dyDescent="0.25">
       <c r="E224" s="3" t="s">
         <v>332</v>
       </c>
       <c r="J224" s="3"/>
       <c r="O224" s="3"/>
     </row>
-    <row r="225" spans="4:19" x14ac:dyDescent="0.3">
+    <row r="225" spans="4:19" x14ac:dyDescent="0.25">
       <c r="E225" s="3" t="s">
         <v>239</v>
       </c>
       <c r="J225" s="3"/>
       <c r="O225" s="3"/>
     </row>
-    <row r="226" spans="4:19" x14ac:dyDescent="0.3">
+    <row r="226" spans="4:19" x14ac:dyDescent="0.25">
       <c r="E226" s="3" t="s">
         <v>240</v>
       </c>
       <c r="J226" s="3"/>
       <c r="O226" s="3"/>
     </row>
-    <row r="227" spans="4:19" x14ac:dyDescent="0.3">
+    <row r="227" spans="4:19" x14ac:dyDescent="0.25">
       <c r="E227" s="3" t="s">
         <v>241</v>
       </c>
       <c r="J227" s="3"/>
       <c r="O227" s="3"/>
     </row>
-    <row r="228" spans="4:19" x14ac:dyDescent="0.3">
+    <row r="228" spans="4:19" x14ac:dyDescent="0.25">
       <c r="E228" s="3" t="s">
         <v>242</v>
       </c>
       <c r="J228" s="3"/>
       <c r="O228" s="3"/>
     </row>
-    <row r="229" spans="4:19" x14ac:dyDescent="0.3">
+    <row r="229" spans="4:19" x14ac:dyDescent="0.25">
       <c r="E229" s="3" t="s">
         <v>227</v>
       </c>
       <c r="J229" s="3"/>
       <c r="O229" s="3"/>
     </row>
-    <row r="230" spans="4:19" x14ac:dyDescent="0.3">
+    <row r="230" spans="4:19" x14ac:dyDescent="0.25">
       <c r="E230" s="3" t="s">
         <v>208</v>
       </c>
       <c r="J230" s="3"/>
       <c r="O230" s="3"/>
     </row>
-    <row r="231" spans="4:19" x14ac:dyDescent="0.3">
+    <row r="231" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D231" s="2" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="232" spans="4:19" x14ac:dyDescent="0.3">
+    <row r="232" spans="4:19" x14ac:dyDescent="0.25">
       <c r="E232" s="3" t="s">
         <v>333</v>
       </c>
@@ -8014,7 +8020,7 @@
       <c r="O232" s="3"/>
       <c r="S232" s="3"/>
     </row>
-    <row r="233" spans="4:19" x14ac:dyDescent="0.3">
+    <row r="233" spans="4:19" x14ac:dyDescent="0.25">
       <c r="E233" s="3" t="s">
         <v>235</v>
       </c>
@@ -8022,7 +8028,7 @@
       <c r="O233" s="3"/>
       <c r="S233" s="3"/>
     </row>
-    <row r="234" spans="4:19" x14ac:dyDescent="0.3">
+    <row r="234" spans="4:19" x14ac:dyDescent="0.25">
       <c r="E234" s="3" t="s">
         <v>334</v>
       </c>
@@ -8030,7 +8036,7 @@
       <c r="O234" s="3"/>
       <c r="S234" s="3"/>
     </row>
-    <row r="235" spans="4:19" x14ac:dyDescent="0.3">
+    <row r="235" spans="4:19" x14ac:dyDescent="0.25">
       <c r="E235" s="3" t="s">
         <v>335</v>
       </c>
@@ -8038,7 +8044,7 @@
       <c r="O235" s="3"/>
       <c r="S235" s="3"/>
     </row>
-    <row r="236" spans="4:19" x14ac:dyDescent="0.3">
+    <row r="236" spans="4:19" x14ac:dyDescent="0.25">
       <c r="E236" s="3" t="s">
         <v>239</v>
       </c>
@@ -8046,7 +8052,7 @@
       <c r="O236" s="3"/>
       <c r="S236" s="3"/>
     </row>
-    <row r="237" spans="4:19" x14ac:dyDescent="0.3">
+    <row r="237" spans="4:19" x14ac:dyDescent="0.25">
       <c r="E237" s="3" t="s">
         <v>240</v>
       </c>
@@ -8054,7 +8060,7 @@
       <c r="O237" s="3"/>
       <c r="S237" s="3"/>
     </row>
-    <row r="238" spans="4:19" x14ac:dyDescent="0.3">
+    <row r="238" spans="4:19" x14ac:dyDescent="0.25">
       <c r="E238" s="3" t="s">
         <v>241</v>
       </c>
@@ -8062,7 +8068,7 @@
       <c r="O238" s="3"/>
       <c r="S238" s="3"/>
     </row>
-    <row r="239" spans="4:19" x14ac:dyDescent="0.3">
+    <row r="239" spans="4:19" x14ac:dyDescent="0.25">
       <c r="E239" s="3" t="s">
         <v>242</v>
       </c>
@@ -8070,7 +8076,7 @@
       <c r="O239" s="3"/>
       <c r="S239" s="3"/>
     </row>
-    <row r="240" spans="4:19" x14ac:dyDescent="0.3">
+    <row r="240" spans="4:19" x14ac:dyDescent="0.25">
       <c r="E240" s="3" t="s">
         <v>227</v>
       </c>
@@ -8078,7 +8084,7 @@
       <c r="O240" s="3"/>
       <c r="S240" s="3"/>
     </row>
-    <row r="241" spans="4:19" x14ac:dyDescent="0.3">
+    <row r="241" spans="4:19" x14ac:dyDescent="0.25">
       <c r="E241" s="3" t="s">
         <v>208</v>
       </c>
@@ -8086,12 +8092,12 @@
       <c r="O241" s="3"/>
       <c r="S241" s="3"/>
     </row>
-    <row r="242" spans="4:19" x14ac:dyDescent="0.3">
+    <row r="242" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D242" s="2" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="243" spans="4:19" x14ac:dyDescent="0.3">
+    <row r="243" spans="4:19" x14ac:dyDescent="0.25">
       <c r="E243" s="3" t="s">
         <v>336</v>
       </c>
@@ -8099,7 +8105,7 @@
       <c r="O243" s="3"/>
       <c r="S243" s="3"/>
     </row>
-    <row r="244" spans="4:19" x14ac:dyDescent="0.3">
+    <row r="244" spans="4:19" x14ac:dyDescent="0.25">
       <c r="E244" s="3" t="s">
         <v>243</v>
       </c>
@@ -8107,7 +8113,7 @@
       <c r="O244" s="3"/>
       <c r="S244" s="3"/>
     </row>
-    <row r="245" spans="4:19" x14ac:dyDescent="0.3">
+    <row r="245" spans="4:19" x14ac:dyDescent="0.25">
       <c r="E245" s="3" t="s">
         <v>337</v>
       </c>
@@ -8115,7 +8121,7 @@
       <c r="O245" s="3"/>
       <c r="S245" s="3"/>
     </row>
-    <row r="246" spans="4:19" x14ac:dyDescent="0.3">
+    <row r="246" spans="4:19" x14ac:dyDescent="0.25">
       <c r="E246" s="3" t="s">
         <v>244</v>
       </c>
@@ -8123,7 +8129,7 @@
       <c r="O246" s="3"/>
       <c r="S246" s="3"/>
     </row>
-    <row r="247" spans="4:19" x14ac:dyDescent="0.3">
+    <row r="247" spans="4:19" x14ac:dyDescent="0.25">
       <c r="E247" s="3" t="s">
         <v>245</v>
       </c>
@@ -8131,7 +8137,7 @@
       <c r="O247" s="3"/>
       <c r="S247" s="3"/>
     </row>
-    <row r="248" spans="4:19" x14ac:dyDescent="0.3">
+    <row r="248" spans="4:19" x14ac:dyDescent="0.25">
       <c r="E248" s="3" t="s">
         <v>240</v>
       </c>
@@ -8139,7 +8145,7 @@
       <c r="O248" s="3"/>
       <c r="S248" s="3"/>
     </row>
-    <row r="249" spans="4:19" x14ac:dyDescent="0.3">
+    <row r="249" spans="4:19" x14ac:dyDescent="0.25">
       <c r="E249" s="3" t="s">
         <v>241</v>
       </c>
@@ -8147,7 +8153,7 @@
       <c r="O249" s="3"/>
       <c r="S249" s="3"/>
     </row>
-    <row r="250" spans="4:19" x14ac:dyDescent="0.3">
+    <row r="250" spans="4:19" x14ac:dyDescent="0.25">
       <c r="E250" s="3" t="s">
         <v>242</v>
       </c>
@@ -8155,7 +8161,7 @@
       <c r="O250" s="3"/>
       <c r="S250" s="3"/>
     </row>
-    <row r="251" spans="4:19" x14ac:dyDescent="0.3">
+    <row r="251" spans="4:19" x14ac:dyDescent="0.25">
       <c r="E251" s="3" t="s">
         <v>227</v>
       </c>
@@ -8163,7 +8169,7 @@
       <c r="O251" s="3"/>
       <c r="S251" s="3"/>
     </row>
-    <row r="252" spans="4:19" x14ac:dyDescent="0.3">
+    <row r="252" spans="4:19" x14ac:dyDescent="0.25">
       <c r="E252" s="3" t="s">
         <v>208</v>
       </c>
@@ -8171,12 +8177,12 @@
       <c r="O252" s="3"/>
       <c r="S252" s="3"/>
     </row>
-    <row r="253" spans="4:19" x14ac:dyDescent="0.3">
+    <row r="253" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D253" s="2" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="254" spans="4:19" x14ac:dyDescent="0.3">
+    <row r="254" spans="4:19" x14ac:dyDescent="0.25">
       <c r="E254" s="4" t="s">
         <v>321</v>
       </c>
@@ -8184,7 +8190,7 @@
       <c r="O254" s="4"/>
       <c r="S254" s="4"/>
     </row>
-    <row r="255" spans="4:19" x14ac:dyDescent="0.3">
+    <row r="255" spans="4:19" x14ac:dyDescent="0.25">
       <c r="E255" s="4" t="s">
         <v>358</v>
       </c>
@@ -8192,7 +8198,7 @@
       <c r="O255" s="4"/>
       <c r="S255" s="4"/>
     </row>
-    <row r="256" spans="4:19" x14ac:dyDescent="0.3">
+    <row r="256" spans="4:19" x14ac:dyDescent="0.25">
       <c r="E256" s="4" t="s">
         <v>338</v>
       </c>
@@ -8200,7 +8206,7 @@
       <c r="O256" s="4"/>
       <c r="S256" s="4"/>
     </row>
-    <row r="257" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="257" spans="3:19" x14ac:dyDescent="0.25">
       <c r="E257" s="4" t="s">
         <v>339</v>
       </c>
@@ -8208,7 +8214,7 @@
       <c r="O257" s="4"/>
       <c r="S257" s="4"/>
     </row>
-    <row r="258" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="258" spans="3:19" x14ac:dyDescent="0.25">
       <c r="E258" s="4" t="s">
         <v>227</v>
       </c>
@@ -8216,7 +8222,7 @@
       <c r="O258" s="4"/>
       <c r="S258" s="4"/>
     </row>
-    <row r="259" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="259" spans="3:19" x14ac:dyDescent="0.25">
       <c r="E259" s="4" t="s">
         <v>324</v>
       </c>
@@ -8224,7 +8230,7 @@
       <c r="O259" s="4"/>
       <c r="S259" s="4"/>
     </row>
-    <row r="260" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="260" spans="3:19" x14ac:dyDescent="0.25">
       <c r="E260" s="4" t="s">
         <v>208</v>
       </c>
@@ -8232,62 +8238,62 @@
       <c r="O260" s="4"/>
       <c r="S260" s="4"/>
     </row>
-    <row r="261" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="261" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C261" s="2" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="262" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="262" spans="3:19" x14ac:dyDescent="0.25">
       <c r="D262" s="2" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="263" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="263" spans="3:19" x14ac:dyDescent="0.25">
       <c r="E263" s="2" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="264" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="264" spans="3:19" x14ac:dyDescent="0.25">
       <c r="F264" s="3" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="265" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="265" spans="3:19" x14ac:dyDescent="0.25">
       <c r="E265" s="2" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="266" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="266" spans="3:19" x14ac:dyDescent="0.25">
       <c r="F266" s="3" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="267" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="267" spans="3:19" x14ac:dyDescent="0.25">
       <c r="E267" s="2" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="268" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="268" spans="3:19" x14ac:dyDescent="0.25">
       <c r="F268" s="3" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="269" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="269" spans="3:19" x14ac:dyDescent="0.25">
       <c r="E269" s="2" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="270" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="270" spans="3:19" x14ac:dyDescent="0.25">
       <c r="F270" s="3" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="271" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="271" spans="3:19" x14ac:dyDescent="0.25">
       <c r="D271" s="2" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="272" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="272" spans="3:19" x14ac:dyDescent="0.25">
       <c r="E272" s="3" t="s">
         <v>342</v>
       </c>
@@ -8295,7 +8301,7 @@
       <c r="N272" s="3"/>
       <c r="R272" s="3"/>
     </row>
-    <row r="273" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="273" spans="3:18" x14ac:dyDescent="0.25">
       <c r="E273" s="3" t="s">
         <v>343</v>
       </c>
@@ -8303,97 +8309,97 @@
       <c r="N273" s="3"/>
       <c r="R273" s="3"/>
     </row>
-    <row r="274" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="274" spans="3:18" x14ac:dyDescent="0.25">
       <c r="D274" s="2" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="275" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="275" spans="3:18" x14ac:dyDescent="0.25">
       <c r="E275" s="3" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="276" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="276" spans="3:18" x14ac:dyDescent="0.25">
       <c r="D276" s="2" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="277" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="277" spans="3:18" x14ac:dyDescent="0.25">
       <c r="E277" s="3" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="278" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="278" spans="3:18" x14ac:dyDescent="0.25">
       <c r="D278" s="2" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="279" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="279" spans="3:18" x14ac:dyDescent="0.25">
       <c r="E279" s="3" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="280" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="280" spans="3:18" x14ac:dyDescent="0.25">
       <c r="D280" s="2" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="281" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="281" spans="3:18" x14ac:dyDescent="0.25">
       <c r="E281" s="3" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="282" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="282" spans="3:18" x14ac:dyDescent="0.25">
       <c r="D282" s="2" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="283" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="283" spans="3:18" x14ac:dyDescent="0.25">
       <c r="E283" s="3" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="284" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="284" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C284" s="2" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="285" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="285" spans="3:18" x14ac:dyDescent="0.25">
       <c r="D285" s="2" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="286" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="286" spans="3:18" x14ac:dyDescent="0.25">
       <c r="E286" s="3" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="287" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="287" spans="3:18" x14ac:dyDescent="0.25">
       <c r="D287" s="2" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="288" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="288" spans="3:18" x14ac:dyDescent="0.25">
       <c r="E288" s="3" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="289" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="289" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B289" s="2" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="290" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="290" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D290" s="2" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="292" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="292" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D292" s="2" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="294" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="294" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D294" s="2" t="s">
         <v>355</v>
       </c>
@@ -8406,31 +8412,31 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B2:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>113</v>
       </c>
@@ -8441,84 +8447,84 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.21875" customWidth="1"/>
-    <col min="2" max="2" width="30.109375" customWidth="1"/>
-    <col min="3" max="3" width="28.21875" customWidth="1"/>
-    <col min="4" max="4" width="33.77734375" customWidth="1"/>
+    <col min="1" max="1" width="35.28515625" customWidth="1"/>
+    <col min="2" max="2" width="30.140625" customWidth="1"/>
+    <col min="3" max="3" width="28.28515625" customWidth="1"/>
+    <col min="4" max="4" width="33.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
         <v>359</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
         <v>360</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
         <v>361</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
         <v>362</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="9" t="s">
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
         <v>363</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="9" t="s">
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
         <v>364</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="9" t="s">
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
         <v>365</v>
       </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
       <c r="D7" s="6"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>366</v>
       </c>
@@ -8526,15 +8532,15 @@
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="8" t="s">
         <v>367</v>
       </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-    </row>
-    <row r="11" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+    </row>
+    <row r="11" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -8542,7 +8548,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -8550,7 +8556,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -8558,7 +8564,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -8566,72 +8572,82 @@
         <v>371</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="8" t="s">
         <v>372</v>
       </c>
-      <c r="D15" s="9"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="7" t="s">
+      <c r="D15" s="8"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="7" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="7" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>383</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>391</v>
       </c>
     </row>
   </sheetData>

--- a/Project-MRA/Project MRA.xlsx
+++ b/Project-MRA/Project MRA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Viktor\Desktop\Tenderi\WEB\GIT\Qinshift-homeworks\Project-MRA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A82902E8-56A8-4FA7-AE03-F60DF7F8C520}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D5B5102-A9E1-4492-8C46-F9EFBD320C12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Public" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="393">
   <si>
     <t>Contact details</t>
   </si>
@@ -1974,9 +1974,6 @@
 Prepare text elements for variable content, in all pages</t>
   </si>
   <si>
-    <t>mrallroung5@gmail.com</t>
-  </si>
-  <si>
     <t>mongodb un:</t>
   </si>
   <si>
@@ -1993,6 +1990,12 @@
   </si>
   <si>
     <t>2. Make sure each element that has innerText for translation to have classList "onscreenText nameOfPagehtml nameOfElement"</t>
+  </si>
+  <si>
+    <t>google app password</t>
+  </si>
+  <si>
+    <t>sbgv vaoy jrnp euva</t>
   </si>
 </sst>
 </file>
@@ -5785,8 +5788,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B4:N30"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5806,7 +5809,7 @@
         <v>5</v>
       </c>
       <c r="M6" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.25">
@@ -5814,7 +5817,7 @@
         <v>6</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>385</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.25">
@@ -5830,10 +5833,10 @@
         <v>2</v>
       </c>
       <c r="M9" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="N9" t="s">
         <v>386</v>
-      </c>
-      <c r="N9" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.25">
@@ -5841,17 +5844,23 @@
         <v>18</v>
       </c>
       <c r="N10" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
         <v>19</v>
       </c>
+      <c r="N11" t="s">
+        <v>391</v>
+      </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
         <v>2</v>
+      </c>
+      <c r="N12" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.25">
@@ -6513,7 +6522,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -8450,7 +8459,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+    <sheetView topLeftCell="A17" workbookViewId="0">
       <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
@@ -8642,12 +8651,12 @@
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
   </sheetData>

--- a/Project-MRA/Project MRA.xlsx
+++ b/Project-MRA/Project MRA.xlsx
@@ -8,20 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Viktor\Desktop\Tenderi\WEB\GIT\Qinshift-homeworks\Project-MRA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D5B5102-A9E1-4492-8C46-F9EFBD320C12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40131963-F4CD-48B4-9100-0E948EB6FA00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Public" sheetId="1" r:id="rId1"/>
-    <sheet name="Private" sheetId="2" r:id="rId2"/>
-    <sheet name="DB" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
-    <sheet name="mraMongoose" sheetId="6" r:id="rId5"/>
-    <sheet name="contactPage" sheetId="5" r:id="rId6"/>
-    <sheet name="multilingual" sheetId="7" r:id="rId7"/>
+    <sheet name="Q" sheetId="8" r:id="rId2"/>
+    <sheet name="Responsiveness" sheetId="9" r:id="rId3"/>
+    <sheet name="Private" sheetId="2" r:id="rId4"/>
+    <sheet name="DB" sheetId="3" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId6"/>
+    <sheet name="mraMongoose" sheetId="6" r:id="rId7"/>
+    <sheet name="contactPage" sheetId="5" r:id="rId8"/>
+    <sheet name="multilingual" sheetId="7" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="457">
   <si>
     <t>Contact details</t>
   </si>
@@ -1997,12 +1999,389 @@
   <si>
     <t>sbgv vaoy jrnp euva</t>
   </si>
+  <si>
+    <t>Admin panel</t>
+  </si>
+  <si>
+    <t>Sto se treba da ima?</t>
+  </si>
+  <si>
+    <t>Ima gledanje I izmena na sodrzina</t>
+  </si>
+  <si>
+    <t>Ima gledanje na mejlovi</t>
+  </si>
+  <si>
+    <t>Dali kje se pristapuva so posebna ruta I eden admin mejl ili so klik vo navbar koj otvora modal login?</t>
+  </si>
+  <si>
+    <t>Ako e so posebna ruta, klientot kje zavisi od nas za reset na password vo slucaj ako nekoj koj imal pravo na pristap treba povekje da nema.</t>
+  </si>
+  <si>
+    <t>Ako e so klik od navbar do modal, vo takov slucaj klientot sam kje moze da se pravi activate I deactivate na account.</t>
+  </si>
+  <si>
+    <t>Vo ovoj slucaj vo admin panel kje moze da se gledaat I promenuvaat user informaciite.</t>
+  </si>
+  <si>
+    <t>Multilingual</t>
+  </si>
+  <si>
+    <t>Postoi ticket za polnenje na json bazata so sodrzina koj kje treba da se sraboti otkako celata aplikacija kje bide gotova.</t>
+  </si>
+  <si>
+    <t>Fonts</t>
+  </si>
+  <si>
+    <t>Dali, ako koristime poseben font, kje moze istiot da se koristi od sekoj posetitel ili toa zavisi od browserot na posetitelot?</t>
+  </si>
+  <si>
+    <t>Bidejki ako ne moze, kje se pojavuva nekoj standarden font koj mozebi nema da izgleda dobro, responsivno.</t>
+  </si>
+  <si>
+    <t>Ako se koristi specijalen font, treba da se dogovori koj, bidejki od nego kje zavisi I responsiveness na stranata koja ja rabotime.</t>
+  </si>
+  <si>
+    <t>Toj treba da podrazbira I adaptiranje na cela aplikacija za multilanguage</t>
+  </si>
+  <si>
+    <t>i have div inside of body, and have form inside of div, and have textarea inside of form. i want height and width of div to be 50% of screen, form to be 90% of div's height and width, and textarea to be 50% of form's width and height, how to set css?</t>
+  </si>
+  <si>
+    <t>ChatGPT said:</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">You can achieve this layout by using </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>percentage-based widths and heights</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> with CSS. Here's how you can structure the CSS to make each element size relative to its parent, as you described:</t>
+    </r>
+  </si>
+  <si>
+    <t>HTML Structure</t>
+  </si>
+  <si>
+    <t>html</t>
+  </si>
+  <si>
+    <t>CopyEdit</t>
+  </si>
+  <si>
+    <t>&lt;body&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;div class="container"&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    &lt;form&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      &lt;textarea&gt;&lt;/textarea&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    &lt;/form&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/body&gt;</t>
+  </si>
+  <si>
+    <t>CSS Styling</t>
+  </si>
+  <si>
+    <t>We'll use the following logic:</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Set the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>div</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to take up </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>50%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> of the screen width and height.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2. Set the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>form</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to take </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>90%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> of the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>div</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'s width and height.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3. Set the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>textarea</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to take </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>50%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> of the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>form</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'s width and height.</t>
+    </r>
+  </si>
+  <si>
+    <t>css</t>
+  </si>
+  <si>
+    <t>/* Ensure body takes full height of the screen */</t>
+  </si>
+  <si>
+    <t>body {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  margin: 0;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  padding: 0;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  height: 100vh;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  display: flex;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  justify-content: center;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  align-items: center;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  background-color: #f4f4f4;</t>
+  </si>
+  <si>
+    <t>/* Container div takes 50% of the screen width and height */</t>
+  </si>
+  <si>
+    <t>.container {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  width: 50vw; /* 50% of the viewport width */</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  height: 50vh; /* 50% of the viewport height */</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  background-color: #fff;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  border: 2px solid #ccc;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  border-radius: 8px;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  padding: 10px;</t>
+  </si>
+  <si>
+    <t>/* Form takes 90% of the container's width and height */</t>
+  </si>
+  <si>
+    <t>form {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  width: 90%;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  height: 90%;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  flex-direction: column;</t>
+  </si>
+  <si>
+    <t>/* Textarea takes 50% of the form's width and height */</t>
+  </si>
+  <si>
+    <t>textarea {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  width: 50%;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  height: 50%;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  font-size: 16px;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  resize: none; /* Disable resizing */</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  border: 1px solid #ccc;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  border-radius: 4px;</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2062,6 +2441,41 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="7.5"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13.5"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2085,7 +2499,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
@@ -2107,6 +2521,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2127,6 +2556,143 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>99154</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7022CA3A-7473-B285-4D4F-5E88D79A0F69}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4533900" y="219075"/>
+          <a:ext cx="5318854" cy="2733675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>233162</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7927F6EA-EA3D-E139-0430-7B96317105FF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="190500"/>
+          <a:ext cx="4500362" cy="3095625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>171451</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>256373</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D4B9E5A-D77E-45C2-21A7-DED83D4BFAFC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9877425" y="171451"/>
+          <a:ext cx="2570948" cy="3505200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5788,23 +6354,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B4:N30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14">
       <c r="B4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:14">
       <c r="C5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:14">
       <c r="D6" t="s">
         <v>5</v>
       </c>
@@ -5812,7 +6378,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14">
       <c r="D7" t="s">
         <v>6</v>
       </c>
@@ -5820,7 +6386,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14">
       <c r="D8" t="s">
         <v>23</v>
       </c>
@@ -5828,7 +6394,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14">
       <c r="C9" t="s">
         <v>2</v>
       </c>
@@ -5839,7 +6405,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14">
       <c r="D10" t="s">
         <v>18</v>
       </c>
@@ -5847,7 +6413,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:14">
       <c r="D11" t="s">
         <v>19</v>
       </c>
@@ -5855,7 +6421,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:14">
       <c r="D12" t="s">
         <v>2</v>
       </c>
@@ -5863,92 +6429,92 @@
         <v>392</v>
       </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:14">
       <c r="C13" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:14">
       <c r="D14" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:14">
       <c r="E15" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:14">
       <c r="E16" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:5">
       <c r="E17" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:5">
       <c r="C18" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:5">
       <c r="D19" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:5">
       <c r="D20" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:5">
       <c r="C21" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:5">
       <c r="D22" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:5">
       <c r="D23" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:5">
       <c r="D24" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:5">
       <c r="C25" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:5">
       <c r="D26" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:5">
       <c r="D27" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:5">
       <c r="D28" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:5">
       <c r="D29" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:5">
       <c r="D30" t="s">
         <v>48</v>
       </c>
@@ -5962,6 +6528,441 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5996D73-8D28-4D05-A673-364582B3C70D}">
+  <dimension ref="B4:E18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="4" spans="2:5">
+      <c r="B4" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5">
+      <c r="C5" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5">
+      <c r="D6" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5">
+      <c r="D7" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5">
+      <c r="C8" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5">
+      <c r="D9" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5">
+      <c r="D10" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5">
+      <c r="E11" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5">
+      <c r="B12" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5">
+      <c r="C13" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5">
+      <c r="D14" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5">
+      <c r="B15" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5">
+      <c r="C16" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4">
+      <c r="D17" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4">
+      <c r="C18" t="s">
+        <v>406</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD732592-D9B0-4B73-AEFC-8BCEBF2F1C3F}">
+  <dimension ref="B20:B93"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20:B93"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="20" spans="2:2">
+      <c r="B20" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" s="10" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2">
+      <c r="B24" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" ht="18">
+      <c r="B26" s="11" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27" s="9"/>
+    </row>
+    <row r="28" spans="2:2">
+      <c r="B28" s="12" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2">
+      <c r="B29" s="12" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2">
+      <c r="B30" s="12" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2">
+      <c r="B31" s="12" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2">
+      <c r="B32" s="12" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" s="12" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" s="12" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2">
+      <c r="B35" s="12" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2">
+      <c r="B36" s="12" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" ht="18">
+      <c r="B38" s="11" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2">
+      <c r="B40" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2">
+      <c r="B41" s="13"/>
+    </row>
+    <row r="42" spans="2:2">
+      <c r="B42" s="13" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2">
+      <c r="B43" s="13"/>
+    </row>
+    <row r="44" spans="2:2">
+      <c r="B44" s="13" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2">
+      <c r="B45" s="13"/>
+    </row>
+    <row r="46" spans="2:2">
+      <c r="B46" s="13" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2">
+      <c r="B47" s="9"/>
+    </row>
+    <row r="48" spans="2:2">
+      <c r="B48" s="12" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2">
+      <c r="B49" s="12" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2">
+      <c r="B50" s="12" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2">
+      <c r="B51" s="12" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2">
+      <c r="B52" s="12" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2">
+      <c r="B53" s="12" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2">
+      <c r="B54" s="12" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2">
+      <c r="B55" s="12" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2">
+      <c r="B56" s="12" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2">
+      <c r="B57" s="12" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2">
+      <c r="B58" s="12" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2">
+      <c r="B59" s="12" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2">
+      <c r="B60" s="9"/>
+    </row>
+    <row r="61" spans="2:2">
+      <c r="B61" s="12" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2">
+      <c r="B62" s="12" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2">
+      <c r="B63" s="12" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="64" spans="2:2">
+      <c r="B64" s="12" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2">
+      <c r="B65" s="12" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2">
+      <c r="B66" s="12" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2">
+      <c r="B67" s="12" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2">
+      <c r="B68" s="12" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2">
+      <c r="B69" s="12" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2">
+      <c r="B70" s="12" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2">
+      <c r="B71" s="12" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="72" spans="2:2">
+      <c r="B72" s="12" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2">
+      <c r="B73" s="9"/>
+    </row>
+    <row r="74" spans="2:2">
+      <c r="B74" s="12" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="75" spans="2:2">
+      <c r="B75" s="12" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="76" spans="2:2">
+      <c r="B76" s="12" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2">
+      <c r="B77" s="12" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="78" spans="2:2">
+      <c r="B78" s="12" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="79" spans="2:2">
+      <c r="B79" s="12" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="80" spans="2:2">
+      <c r="B80" s="12" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2">
+      <c r="B81" s="12" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2">
+      <c r="B82" s="12" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2">
+      <c r="B83" s="9"/>
+    </row>
+    <row r="84" spans="2:2">
+      <c r="B84" s="12" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="85" spans="2:2">
+      <c r="B85" s="12" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="86" spans="2:2">
+      <c r="B86" s="12" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="87" spans="2:2">
+      <c r="B87" s="12" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="88" spans="2:2">
+      <c r="B88" s="12" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="89" spans="2:2">
+      <c r="B89" s="12" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="90" spans="2:2">
+      <c r="B90" s="12" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="91" spans="2:2">
+      <c r="B91" s="12" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="92" spans="2:2">
+      <c r="B92" s="12" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="93" spans="2:2">
+      <c r="B93" s="12" t="s">
+        <v>211</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="C4:N27"/>
   <sheetViews>
@@ -5969,9 +6970,9 @@
       <selection activeCell="Q24" sqref="Q24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="4" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:14">
       <c r="C4" t="s">
         <v>35</v>
       </c>
@@ -5979,22 +6980,22 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:14">
       <c r="M5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:14">
       <c r="N6" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:14">
       <c r="N7" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:14">
       <c r="D8" t="s">
         <v>28</v>
       </c>
@@ -6002,7 +7003,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:14">
       <c r="E9" t="s">
         <v>60</v>
       </c>
@@ -6010,7 +7011,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:14">
       <c r="E10" t="s">
         <v>61</v>
       </c>
@@ -6018,7 +7019,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:14">
       <c r="E11" t="s">
         <v>27</v>
       </c>
@@ -6026,7 +7027,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:14">
       <c r="E12" t="s">
         <v>30</v>
       </c>
@@ -6034,7 +7035,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:14">
       <c r="E13" t="s">
         <v>29</v>
       </c>
@@ -6042,7 +7043,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:14">
       <c r="E14" t="s">
         <v>58</v>
       </c>
@@ -6050,7 +7051,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:14">
       <c r="E15" t="s">
         <v>26</v>
       </c>
@@ -6058,7 +7059,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:14">
       <c r="D16" t="s">
         <v>59</v>
       </c>
@@ -6066,7 +7067,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="5:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="5:14">
       <c r="E17" t="s">
         <v>32</v>
       </c>
@@ -6074,7 +7075,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="5:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="5:14">
       <c r="E18" t="s">
         <v>33</v>
       </c>
@@ -6082,7 +7083,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="5:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="5:14">
       <c r="E19" t="s">
         <v>31</v>
       </c>
@@ -6090,7 +7091,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="5:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="5:14">
       <c r="E20" t="s">
         <v>34</v>
       </c>
@@ -6098,7 +7099,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="5:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="5:14">
       <c r="F21" t="s">
         <v>54</v>
       </c>
@@ -6106,7 +7107,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="5:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="5:14">
       <c r="F22" t="s">
         <v>55</v>
       </c>
@@ -6114,7 +7115,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="5:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="5:14">
       <c r="F23" t="s">
         <v>62</v>
       </c>
@@ -6122,7 +7123,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="5:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="5:14">
       <c r="F24" t="s">
         <v>56</v>
       </c>
@@ -6130,7 +7131,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="5:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="5:14">
       <c r="F25" t="s">
         <v>57</v>
       </c>
@@ -6138,12 +7139,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="5:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="5:14">
       <c r="N26" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="27" spans="5:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="5:14">
       <c r="N27" t="s">
         <v>41</v>
       </c>
@@ -6153,7 +7154,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:S29"/>
   <sheetViews>
@@ -6161,13 +7162,13 @@
       <selection activeCell="R20" sqref="R20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:19">
       <c r="B1" t="s">
         <v>25</v>
       </c>
@@ -6187,7 +7188,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:19">
       <c r="C2" t="s">
         <v>67</v>
       </c>
@@ -6198,7 +7199,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:19">
       <c r="C3" t="s">
         <v>66</v>
       </c>
@@ -6209,7 +7210,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="4" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:19">
       <c r="C4" t="s">
         <v>68</v>
       </c>
@@ -6220,7 +7221,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="5" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:19">
       <c r="C5" t="s">
         <v>69</v>
       </c>
@@ -6231,7 +7232,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:19">
       <c r="C6" t="s">
         <v>71</v>
       </c>
@@ -6242,7 +7243,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="7" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:19">
       <c r="C7" t="s">
         <v>50</v>
       </c>
@@ -6253,7 +7254,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="8" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:19">
       <c r="C8" t="s">
         <v>49</v>
       </c>
@@ -6264,7 +7265,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="9" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:19">
       <c r="C9" t="s">
         <v>70</v>
       </c>
@@ -6275,7 +7276,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="10" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:19">
       <c r="K10" t="s">
         <v>79</v>
       </c>
@@ -6283,7 +7284,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="11" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:19">
       <c r="B11" t="s">
         <v>63</v>
       </c>
@@ -6297,7 +7298,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="12" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:19">
       <c r="C12" t="s">
         <v>67</v>
       </c>
@@ -6308,7 +7309,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="13" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:19">
       <c r="C13" t="s">
         <v>66</v>
       </c>
@@ -6316,7 +7317,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:19">
       <c r="C14" t="s">
         <v>72</v>
       </c>
@@ -6330,7 +7331,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:19">
       <c r="C15" t="s">
         <v>69</v>
       </c>
@@ -6341,7 +7342,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:19">
       <c r="C16" t="s">
         <v>71</v>
       </c>
@@ -6349,7 +7350,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="17" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:19">
       <c r="C17" t="s">
         <v>50</v>
       </c>
@@ -6363,7 +7364,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="18" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:19">
       <c r="C18" t="s">
         <v>73</v>
       </c>
@@ -6371,7 +7372,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="19" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:19">
       <c r="C19" t="s">
         <v>74</v>
       </c>
@@ -6379,7 +7380,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="20" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:19">
       <c r="C20" t="s">
         <v>70</v>
       </c>
@@ -6387,12 +7388,12 @@
         <v>85</v>
       </c>
     </row>
-    <row r="21" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:19">
       <c r="K21" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="22" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:19">
       <c r="B22" t="s">
         <v>19</v>
       </c>
@@ -6403,7 +7404,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:19">
       <c r="C23" t="s">
         <v>67</v>
       </c>
@@ -6411,7 +7412,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="24" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:19">
       <c r="C24" t="s">
         <v>66</v>
       </c>
@@ -6419,7 +7420,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="25" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:19">
       <c r="C25" t="s">
         <v>75</v>
       </c>
@@ -6427,7 +7428,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="26" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:19">
       <c r="C26" t="s">
         <v>72</v>
       </c>
@@ -6435,7 +7436,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="27" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:19">
       <c r="C27" t="s">
         <v>78</v>
       </c>
@@ -6443,7 +7444,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="28" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:19">
       <c r="C28" t="s">
         <v>70</v>
       </c>
@@ -6451,7 +7452,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="29" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:19">
       <c r="K29" t="s">
         <v>83</v>
       </c>
@@ -6461,7 +7462,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A3:B24"/>
   <sheetViews>
@@ -6469,29 +7470,29 @@
       <selection activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="B3" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="B5" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="B7" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2">
       <c r="B9" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>105</v>
       </c>
@@ -6499,7 +7500,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>109</v>
       </c>
@@ -6507,7 +7508,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>105</v>
       </c>
@@ -6515,42 +7516,42 @@
         <v>107</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2">
       <c r="B17" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2">
       <c r="B18" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2">
       <c r="A20" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2">
       <c r="B21" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2">
       <c r="B22" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2">
       <c r="A23" t="s">
         <v>119</v>
       </c>
@@ -6558,7 +7559,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2">
       <c r="B24" t="s">
         <v>117</v>
       </c>
@@ -6578,7 +7579,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B3:T294"/>
   <sheetViews>
@@ -6586,485 +7587,485 @@
       <selection activeCell="N249" sqref="N249"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:6">
       <c r="B3" s="2" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:6">
       <c r="C4" s="2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:6">
       <c r="D5" s="2" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:6">
       <c r="D6" s="2" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:6">
       <c r="D7" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:6">
       <c r="E8" s="2" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:6">
       <c r="F9" s="2" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:6">
       <c r="E10" s="2" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:6">
       <c r="E11" s="2" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:6">
       <c r="E12" s="2" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:6">
       <c r="F13" s="2" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:6">
       <c r="E14" s="2" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:6">
       <c r="E15" s="2" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:6">
       <c r="C16" s="2" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:5">
       <c r="D17" s="3" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:5">
       <c r="C18" s="2" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:5">
       <c r="D19" s="3" t="s">
         <v>136</v>
       </c>
       <c r="E19" s="3"/>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:5">
       <c r="D20" s="3" t="s">
         <v>137</v>
       </c>
       <c r="E20" s="3"/>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:5">
       <c r="D21" s="3"/>
       <c r="E21" s="3" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:5">
       <c r="D22" s="3"/>
       <c r="E22" s="3" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:5">
       <c r="C23" s="2" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:5">
       <c r="D24" s="3" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:5">
       <c r="D25" s="3" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:5">
       <c r="D26" s="3" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:5">
       <c r="D27" s="3" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:5">
       <c r="D28" s="3" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:5">
       <c r="B29" s="2" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:5">
       <c r="C30" s="2" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:5">
       <c r="D31" s="2" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:5">
       <c r="E32" s="3" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="33" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:5">
       <c r="E33" s="3" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="34" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:5">
       <c r="E34" s="3" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="35" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:5">
       <c r="E35" s="3" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="36" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:5">
       <c r="E36" s="3" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="37" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:5">
       <c r="E37" s="3" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="38" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:5">
       <c r="E38" s="3" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="39" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:5">
       <c r="E39" s="3" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="40" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:5">
       <c r="E40" s="3" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="41" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:5">
       <c r="E41" s="3" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="42" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:5">
       <c r="E42" s="3" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="43" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:5">
       <c r="C43" s="2" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="44" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:5">
       <c r="D44" s="2" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="45" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:5">
       <c r="E45" s="3" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="46" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:5">
       <c r="D46" s="2" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="47" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:5">
       <c r="E47" s="3" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="48" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:5">
       <c r="E48" s="3" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="49" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:5">
       <c r="C49" s="2" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="50" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:5">
       <c r="D50" s="2" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="51" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:5">
       <c r="E51" s="3" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="52" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:5">
       <c r="E52" s="3" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="53" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:5">
       <c r="E53" s="3" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="54" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:5">
       <c r="E54" s="3" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="55" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:5">
       <c r="D55" s="2" t="s">
         <v>172</v>
       </c>
       <c r="E55" s="3"/>
     </row>
-    <row r="56" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:5">
       <c r="E56" s="3" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="57" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:5">
       <c r="E57" s="3" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="58" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:5">
       <c r="C58" s="3"/>
       <c r="E58" s="3" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="59" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:5">
       <c r="C59" s="3"/>
       <c r="D59" s="2" t="s">
         <v>176</v>
       </c>
       <c r="E59" s="3"/>
     </row>
-    <row r="60" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:5">
       <c r="C60" s="3"/>
       <c r="E60" s="3" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="61" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:5">
       <c r="C61" s="3"/>
       <c r="D61" s="2" t="s">
         <v>178</v>
       </c>
       <c r="E61" s="3"/>
     </row>
-    <row r="62" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:5">
       <c r="C62" s="3"/>
       <c r="E62" s="3" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="63" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:5">
       <c r="C63" s="3"/>
       <c r="D63" s="2" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="64" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:5">
       <c r="C64" s="3"/>
       <c r="E64" s="3" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="65" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:4">
       <c r="C65" s="2" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="66" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:4">
       <c r="C66" s="3"/>
       <c r="D66" s="3" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="67" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:4">
       <c r="C67" s="3"/>
       <c r="D67" s="3" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="68" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="3:4">
       <c r="C68" s="3"/>
       <c r="D68" s="3" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="69" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="3:4">
       <c r="C69" s="3"/>
       <c r="D69" s="3" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="70" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="3:4">
       <c r="D70" s="3" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="71" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="3:4">
       <c r="D71" s="3" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="72" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="3:4">
       <c r="C72" s="2" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="73" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="3:4">
       <c r="D73" s="3" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="74" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="3:4">
       <c r="D74" s="3" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="75" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="3:4">
       <c r="D75" s="3" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="76" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="3:4">
       <c r="D76" s="3" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="77" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="3:4">
       <c r="D77" s="3" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="78" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="3:4">
       <c r="D78" s="3" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="79" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="3:4">
       <c r="C79" s="2" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="80" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="3:4">
       <c r="D80" s="2" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:5">
       <c r="C81" s="2" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:5">
       <c r="D82" s="3" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:5">
       <c r="D83" s="3" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:5">
       <c r="D84" s="3" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:5">
       <c r="D85" s="3" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:5">
       <c r="D86" s="3" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:5">
       <c r="D87" s="3" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:5">
       <c r="D88" s="3" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:5">
       <c r="D89" s="3" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="90" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:5">
       <c r="D90" s="3" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="91" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:5">
       <c r="D91" s="3" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="92" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:5">
       <c r="B92" s="2" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="93" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:5">
       <c r="B93" s="2" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="94" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:5">
       <c r="D94" s="2" t="s">
         <v>265</v>
       </c>
@@ -7072,52 +8073,52 @@
         <v>266</v>
       </c>
     </row>
-    <row r="95" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:5">
       <c r="E95" s="3" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="96" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:5">
       <c r="E96" s="3" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="97" spans="3:17">
       <c r="E97" s="3" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="98" spans="3:17">
       <c r="E98" s="3" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="99" spans="3:17">
       <c r="E99" s="3" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="100" spans="3:17">
       <c r="C100" s="2" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="101" spans="3:17">
       <c r="C101" s="2" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="102" spans="3:17">
       <c r="D102" s="3" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="103" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="103" spans="3:17">
       <c r="C103" s="2" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="104" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="104" spans="3:17">
       <c r="D104" s="5" t="s">
         <v>204</v>
       </c>
@@ -7125,7 +8126,7 @@
       <c r="M104" s="3"/>
       <c r="Q104" s="3"/>
     </row>
-    <row r="105" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="105" spans="3:17">
       <c r="D105" s="5" t="s">
         <v>276</v>
       </c>
@@ -7133,7 +8134,7 @@
       <c r="M105" s="3"/>
       <c r="Q105" s="3"/>
     </row>
-    <row r="106" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="106" spans="3:17">
       <c r="D106" s="5" t="s">
         <v>277</v>
       </c>
@@ -7141,7 +8142,7 @@
       <c r="M106" s="3"/>
       <c r="Q106" s="3"/>
     </row>
-    <row r="107" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="107" spans="3:17">
       <c r="D107" s="5" t="s">
         <v>206</v>
       </c>
@@ -7149,7 +8150,7 @@
       <c r="M107" s="3"/>
       <c r="Q107" s="3"/>
     </row>
-    <row r="108" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="108" spans="3:17">
       <c r="D108" s="5" t="s">
         <v>207</v>
       </c>
@@ -7157,7 +8158,7 @@
       <c r="M108" s="3"/>
       <c r="Q108" s="3"/>
     </row>
-    <row r="109" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="109" spans="3:17">
       <c r="D109" s="5" t="s">
         <v>208</v>
       </c>
@@ -7165,7 +8166,7 @@
       <c r="M109" s="3"/>
       <c r="Q109" s="3"/>
     </row>
-    <row r="110" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="110" spans="3:17">
       <c r="D110" s="5" t="s">
         <v>278</v>
       </c>
@@ -7173,7 +8174,7 @@
       <c r="M110" s="3"/>
       <c r="Q110" s="3"/>
     </row>
-    <row r="111" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="111" spans="3:17">
       <c r="D111" s="5" t="s">
         <v>206</v>
       </c>
@@ -7181,7 +8182,7 @@
       <c r="M111" s="3"/>
       <c r="Q111" s="3"/>
     </row>
-    <row r="112" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="112" spans="3:17">
       <c r="D112" s="5" t="s">
         <v>207</v>
       </c>
@@ -7189,7 +8190,7 @@
       <c r="M112" s="3"/>
       <c r="Q112" s="3"/>
     </row>
-    <row r="113" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="113" spans="4:17">
       <c r="D113" s="5" t="s">
         <v>208</v>
       </c>
@@ -7197,7 +8198,7 @@
       <c r="M113" s="3"/>
       <c r="Q113" s="3"/>
     </row>
-    <row r="114" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="114" spans="4:17">
       <c r="D114" s="5" t="s">
         <v>279</v>
       </c>
@@ -7205,7 +8206,7 @@
       <c r="M114" s="3"/>
       <c r="Q114" s="3"/>
     </row>
-    <row r="115" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="115" spans="4:17">
       <c r="D115" s="5" t="s">
         <v>206</v>
       </c>
@@ -7213,7 +8214,7 @@
       <c r="M115" s="3"/>
       <c r="Q115" s="3"/>
     </row>
-    <row r="116" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="116" spans="4:17">
       <c r="D116" s="5" t="s">
         <v>207</v>
       </c>
@@ -7221,7 +8222,7 @@
       <c r="M116" s="3"/>
       <c r="Q116" s="3"/>
     </row>
-    <row r="117" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="117" spans="4:17">
       <c r="D117" s="5" t="s">
         <v>208</v>
       </c>
@@ -7229,7 +8230,7 @@
       <c r="M117" s="3"/>
       <c r="Q117" s="3"/>
     </row>
-    <row r="118" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="118" spans="4:17">
       <c r="D118" s="5" t="s">
         <v>280</v>
       </c>
@@ -7237,7 +8238,7 @@
       <c r="M118" s="3"/>
       <c r="Q118" s="3"/>
     </row>
-    <row r="119" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="119" spans="4:17">
       <c r="D119" s="5" t="s">
         <v>206</v>
       </c>
@@ -7245,7 +8246,7 @@
       <c r="M119" s="3"/>
       <c r="Q119" s="3"/>
     </row>
-    <row r="120" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="120" spans="4:17">
       <c r="D120" s="5" t="s">
         <v>207</v>
       </c>
@@ -7253,7 +8254,7 @@
       <c r="M120" s="3"/>
       <c r="Q120" s="3"/>
     </row>
-    <row r="121" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="121" spans="4:17">
       <c r="D121" s="5" t="s">
         <v>208</v>
       </c>
@@ -7261,7 +8262,7 @@
       <c r="M121" s="3"/>
       <c r="Q121" s="3"/>
     </row>
-    <row r="122" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="122" spans="4:17">
       <c r="D122" s="5" t="s">
         <v>281</v>
       </c>
@@ -7269,121 +8270,121 @@
       <c r="M122" s="3"/>
       <c r="Q122" s="3"/>
     </row>
-    <row r="123" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="123" spans="4:17">
       <c r="D123" s="5" t="s">
         <v>206</v>
       </c>
       <c r="H123" s="3"/>
       <c r="Q123" s="3"/>
     </row>
-    <row r="124" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="124" spans="4:17">
       <c r="D124" s="5" t="s">
         <v>207</v>
       </c>
       <c r="H124" s="3"/>
       <c r="Q124" s="3"/>
     </row>
-    <row r="125" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="125" spans="4:17">
       <c r="D125" s="5" t="s">
         <v>208</v>
       </c>
       <c r="H125" s="3"/>
       <c r="Q125" s="3"/>
     </row>
-    <row r="126" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="126" spans="4:17">
       <c r="D126" s="5" t="s">
         <v>282</v>
       </c>
       <c r="Q126" s="3"/>
     </row>
-    <row r="127" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="127" spans="4:17">
       <c r="D127" s="5" t="s">
         <v>206</v>
       </c>
       <c r="Q127" s="3"/>
     </row>
-    <row r="128" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="128" spans="4:17">
       <c r="D128" s="5" t="s">
         <v>207</v>
       </c>
       <c r="Q128" s="3"/>
     </row>
-    <row r="129" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:20">
       <c r="D129" s="5" t="s">
         <v>208</v>
       </c>
       <c r="Q129" s="3"/>
     </row>
-    <row r="130" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:20">
       <c r="D130" s="5" t="s">
         <v>209</v>
       </c>
       <c r="Q130" s="3"/>
     </row>
-    <row r="131" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:20">
       <c r="D131" s="5" t="s">
         <v>274</v>
       </c>
       <c r="Q131" s="3"/>
     </row>
-    <row r="132" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:20">
       <c r="D132" s="5" t="s">
         <v>283</v>
       </c>
       <c r="Q132" s="3"/>
     </row>
-    <row r="133" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:20">
       <c r="D133" s="5" t="s">
         <v>275</v>
       </c>
       <c r="Q133" s="3"/>
     </row>
-    <row r="134" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:20">
       <c r="C134" s="2" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="135" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:20">
       <c r="D135" s="5" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="136" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:20">
       <c r="D136" s="5" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="137" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:20">
       <c r="B137" s="2" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="138" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:20">
       <c r="C138" s="2" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="139" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:20">
       <c r="C139" s="2" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="140" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:20">
       <c r="D140" s="3" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="141" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:20">
       <c r="C141" s="2" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="142" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:20">
       <c r="D142" s="2" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="143" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:20">
       <c r="D143" s="5" t="s">
         <v>215</v>
       </c>
@@ -7391,7 +8392,7 @@
       <c r="O143" s="3"/>
       <c r="T143" s="3"/>
     </row>
-    <row r="144" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:20">
       <c r="D144" s="5" t="s">
         <v>287</v>
       </c>
@@ -7399,7 +8400,7 @@
       <c r="O144" s="3"/>
       <c r="T144" s="3"/>
     </row>
-    <row r="145" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:20">
       <c r="D145" s="5" t="s">
         <v>288</v>
       </c>
@@ -7407,7 +8408,7 @@
       <c r="O145" s="3"/>
       <c r="T145" s="3"/>
     </row>
-    <row r="146" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:20">
       <c r="D146" s="5" t="s">
         <v>289</v>
       </c>
@@ -7415,7 +8416,7 @@
       <c r="O146" s="3"/>
       <c r="T146" s="3"/>
     </row>
-    <row r="147" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:20">
       <c r="D147" s="5" t="s">
         <v>290</v>
       </c>
@@ -7423,7 +8424,7 @@
       <c r="O147" s="3"/>
       <c r="T147" s="3"/>
     </row>
-    <row r="148" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:20">
       <c r="D148" s="5" t="s">
         <v>289</v>
       </c>
@@ -7431,7 +8432,7 @@
       <c r="O148" s="3"/>
       <c r="T148" s="3"/>
     </row>
-    <row r="149" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:20">
       <c r="D149" s="5" t="s">
         <v>291</v>
       </c>
@@ -7439,7 +8440,7 @@
       <c r="O149" s="3"/>
       <c r="T149" s="3"/>
     </row>
-    <row r="150" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:20">
       <c r="D150" s="5" t="s">
         <v>289</v>
       </c>
@@ -7447,7 +8448,7 @@
       <c r="O150" s="3"/>
       <c r="T150" s="3"/>
     </row>
-    <row r="151" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:20">
       <c r="D151" s="5" t="s">
         <v>292</v>
       </c>
@@ -7455,7 +8456,7 @@
       <c r="O151" s="3"/>
       <c r="T151" s="3"/>
     </row>
-    <row r="152" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:20">
       <c r="D152" s="5" t="s">
         <v>289</v>
       </c>
@@ -7463,7 +8464,7 @@
       <c r="O152" s="3"/>
       <c r="T152" s="3"/>
     </row>
-    <row r="153" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:20">
       <c r="D153" s="5" t="s">
         <v>293</v>
       </c>
@@ -7471,7 +8472,7 @@
       <c r="O153" s="3"/>
       <c r="T153" s="3"/>
     </row>
-    <row r="154" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:20">
       <c r="D154" s="5" t="s">
         <v>289</v>
       </c>
@@ -7479,7 +8480,7 @@
       <c r="O154" s="3"/>
       <c r="T154" s="3"/>
     </row>
-    <row r="155" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:20">
       <c r="D155" s="5" t="s">
         <v>294</v>
       </c>
@@ -7487,7 +8488,7 @@
       <c r="O155" s="3"/>
       <c r="T155" s="3"/>
     </row>
-    <row r="156" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:20">
       <c r="D156" s="5" t="s">
         <v>289</v>
       </c>
@@ -7495,7 +8496,7 @@
       <c r="O156" s="3"/>
       <c r="T156" s="3"/>
     </row>
-    <row r="157" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:20">
       <c r="D157" s="5" t="s">
         <v>210</v>
       </c>
@@ -7503,54 +8504,54 @@
       <c r="O157" s="3"/>
       <c r="T157" s="3"/>
     </row>
-    <row r="158" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:20">
       <c r="D158" s="5" t="s">
         <v>295</v>
       </c>
       <c r="I158" s="3"/>
       <c r="T158" s="3"/>
     </row>
-    <row r="159" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:20">
       <c r="B159" s="2" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="160" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:20">
       <c r="C160" s="2" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="161" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="161" spans="3:20">
       <c r="C161" s="2" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="162" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="162" spans="3:20">
       <c r="D162" s="2" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="163" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="163" spans="3:20">
       <c r="E163" s="4" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="164" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="164" spans="3:20">
       <c r="E164" s="3" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="165" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="165" spans="3:20">
       <c r="C165" s="2" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="166" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="166" spans="3:20">
       <c r="D166" s="2" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="167" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="167" spans="3:20">
       <c r="E167" s="3" t="s">
         <v>298</v>
       </c>
@@ -7558,7 +8559,7 @@
       <c r="O167" s="3"/>
       <c r="T167" s="3"/>
     </row>
-    <row r="168" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="168" spans="3:20">
       <c r="E168" s="3" t="s">
         <v>299</v>
       </c>
@@ -7566,7 +8567,7 @@
       <c r="O168" s="3"/>
       <c r="T168" s="3"/>
     </row>
-    <row r="169" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="169" spans="3:20">
       <c r="E169" s="3" t="s">
         <v>300</v>
       </c>
@@ -7574,7 +8575,7 @@
       <c r="O169" s="3"/>
       <c r="T169" s="3"/>
     </row>
-    <row r="170" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="170" spans="3:20">
       <c r="E170" s="3" t="s">
         <v>301</v>
       </c>
@@ -7582,7 +8583,7 @@
       <c r="O170" s="3"/>
       <c r="T170" s="3"/>
     </row>
-    <row r="171" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="171" spans="3:20">
       <c r="E171" s="3" t="s">
         <v>208</v>
       </c>
@@ -7590,7 +8591,7 @@
       <c r="O171" s="3"/>
       <c r="T171" s="3"/>
     </row>
-    <row r="172" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="172" spans="3:20">
       <c r="E172" s="3" t="s">
         <v>158</v>
       </c>
@@ -7598,7 +8599,7 @@
       <c r="O172" s="3"/>
       <c r="T172" s="3"/>
     </row>
-    <row r="173" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="173" spans="3:20">
       <c r="E173" s="3" t="s">
         <v>302</v>
       </c>
@@ -7606,66 +8607,66 @@
       <c r="O173" s="3"/>
       <c r="T173" s="3"/>
     </row>
-    <row r="174" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="174" spans="3:20">
       <c r="D174" s="2" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="175" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="175" spans="3:20">
       <c r="E175" s="3" t="s">
         <v>304</v>
       </c>
       <c r="L175" s="3"/>
       <c r="R175" s="3"/>
     </row>
-    <row r="176" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="176" spans="3:20">
       <c r="E176" s="3" t="s">
         <v>305</v>
       </c>
       <c r="L176" s="3"/>
       <c r="R176" s="3"/>
     </row>
-    <row r="177" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="177" spans="4:18">
       <c r="E177" s="3" t="s">
         <v>224</v>
       </c>
       <c r="L177" s="3"/>
       <c r="R177" s="3"/>
     </row>
-    <row r="178" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="178" spans="4:18">
       <c r="E178" s="3" t="s">
         <v>225</v>
       </c>
       <c r="L178" s="3"/>
       <c r="R178" s="3"/>
     </row>
-    <row r="179" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="179" spans="4:18">
       <c r="E179" s="3" t="s">
         <v>226</v>
       </c>
       <c r="L179" s="3"/>
       <c r="R179" s="3"/>
     </row>
-    <row r="180" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="180" spans="4:18">
       <c r="E180" s="3" t="s">
         <v>306</v>
       </c>
       <c r="L180" s="3"/>
       <c r="R180" s="3"/>
     </row>
-    <row r="181" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="181" spans="4:18">
       <c r="E181" s="3" t="s">
         <v>208</v>
       </c>
       <c r="L181" s="3"/>
       <c r="R181" s="3"/>
     </row>
-    <row r="182" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="182" spans="4:18">
       <c r="D182" s="2" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="183" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="183" spans="4:18">
       <c r="E183" s="3" t="s">
         <v>314</v>
       </c>
@@ -7673,7 +8674,7 @@
       <c r="N183" s="3"/>
       <c r="R183" s="4"/>
     </row>
-    <row r="184" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="184" spans="4:18">
       <c r="E184" s="3" t="s">
         <v>307</v>
       </c>
@@ -7681,7 +8682,7 @@
       <c r="N184" s="3"/>
       <c r="R184" s="4"/>
     </row>
-    <row r="185" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="185" spans="4:18">
       <c r="E185" s="3" t="s">
         <v>315</v>
       </c>
@@ -7689,7 +8690,7 @@
       <c r="N185" s="3"/>
       <c r="R185" s="4"/>
     </row>
-    <row r="186" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="186" spans="4:18">
       <c r="E186" s="3" t="s">
         <v>308</v>
       </c>
@@ -7697,7 +8698,7 @@
       <c r="N186" s="3"/>
       <c r="R186" s="4"/>
     </row>
-    <row r="187" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="187" spans="4:18">
       <c r="E187" s="3" t="s">
         <v>309</v>
       </c>
@@ -7705,7 +8706,7 @@
       <c r="N187" s="3"/>
       <c r="R187" s="4"/>
     </row>
-    <row r="188" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="188" spans="4:18">
       <c r="E188" s="3" t="s">
         <v>310</v>
       </c>
@@ -7713,7 +8714,7 @@
       <c r="N188" s="3"/>
       <c r="R188" s="4"/>
     </row>
-    <row r="189" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="189" spans="4:18">
       <c r="E189" s="3" t="s">
         <v>311</v>
       </c>
@@ -7721,7 +8722,7 @@
       <c r="N189" s="3"/>
       <c r="R189" s="4"/>
     </row>
-    <row r="190" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="190" spans="4:18">
       <c r="E190" s="3" t="s">
         <v>312</v>
       </c>
@@ -7729,7 +8730,7 @@
       <c r="N190" s="3"/>
       <c r="R190" s="4"/>
     </row>
-    <row r="191" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="191" spans="4:18">
       <c r="E191" s="3" t="s">
         <v>313</v>
       </c>
@@ -7737,7 +8738,7 @@
       <c r="N191" s="3"/>
       <c r="R191" s="4"/>
     </row>
-    <row r="192" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="192" spans="4:18">
       <c r="E192" s="3" t="s">
         <v>156</v>
       </c>
@@ -7745,7 +8746,7 @@
       <c r="N192" s="3"/>
       <c r="R192" s="4"/>
     </row>
-    <row r="193" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="193" spans="3:19">
       <c r="E193" s="3" t="s">
         <v>316</v>
       </c>
@@ -7753,7 +8754,7 @@
       <c r="N193" s="3"/>
       <c r="R193" s="4"/>
     </row>
-    <row r="194" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="194" spans="3:19">
       <c r="E194" s="3" t="s">
         <v>317</v>
       </c>
@@ -7761,7 +8762,7 @@
       <c r="N194" s="3"/>
       <c r="R194" s="4"/>
     </row>
-    <row r="195" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="195" spans="3:19">
       <c r="E195" s="3" t="s">
         <v>157</v>
       </c>
@@ -7769,12 +8770,12 @@
       <c r="N195" s="3"/>
       <c r="R195" s="4"/>
     </row>
-    <row r="196" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="196" spans="3:19">
       <c r="D196" s="2" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="197" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="197" spans="3:19">
       <c r="E197" s="3" t="s">
         <v>318</v>
       </c>
@@ -7782,7 +8783,7 @@
       <c r="N197" s="3"/>
       <c r="S197" s="4"/>
     </row>
-    <row r="198" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="198" spans="3:19">
       <c r="E198" s="3" t="s">
         <v>319</v>
       </c>
@@ -7790,7 +8791,7 @@
       <c r="N198" s="3"/>
       <c r="S198" s="4"/>
     </row>
-    <row r="199" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="199" spans="3:19">
       <c r="E199" s="3" t="s">
         <v>320</v>
       </c>
@@ -7798,7 +8799,7 @@
       <c r="N199" s="3"/>
       <c r="S199" s="4"/>
     </row>
-    <row r="200" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="200" spans="3:19">
       <c r="E200" s="3" t="s">
         <v>157</v>
       </c>
@@ -7806,12 +8807,12 @@
       <c r="N200" s="3"/>
       <c r="S200" s="4"/>
     </row>
-    <row r="201" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="201" spans="3:19">
       <c r="D201" s="2" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="202" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="202" spans="3:19">
       <c r="E202" s="3" t="s">
         <v>321</v>
       </c>
@@ -7819,7 +8820,7 @@
       <c r="N202" s="3"/>
       <c r="S202" s="3"/>
     </row>
-    <row r="203" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="203" spans="3:19">
       <c r="E203" s="3" t="s">
         <v>323</v>
       </c>
@@ -7827,7 +8828,7 @@
       <c r="N203" s="3"/>
       <c r="S203" s="3"/>
     </row>
-    <row r="204" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="204" spans="3:19">
       <c r="E204" s="3" t="s">
         <v>324</v>
       </c>
@@ -7835,7 +8836,7 @@
       <c r="N204" s="3"/>
       <c r="S204" s="3"/>
     </row>
-    <row r="205" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="205" spans="3:19">
       <c r="E205" s="3" t="s">
         <v>208</v>
       </c>
@@ -7843,28 +8844,28 @@
       <c r="N205" s="3"/>
       <c r="S205" s="3"/>
     </row>
-    <row r="206" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="206" spans="3:19">
       <c r="C206" s="2" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="207" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="207" spans="3:19">
       <c r="D207" s="2" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="208" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="208" spans="3:19">
       <c r="E208" s="3" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="209" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="209" spans="4:20">
       <c r="D209" s="2" t="s">
         <v>233</v>
       </c>
       <c r="F209" s="3"/>
     </row>
-    <row r="210" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="210" spans="4:20">
       <c r="E210" s="3" t="s">
         <v>325</v>
       </c>
@@ -7872,7 +8873,7 @@
       <c r="O210" s="3"/>
       <c r="T210" s="3"/>
     </row>
-    <row r="211" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="211" spans="4:20">
       <c r="E211" s="3" t="s">
         <v>326</v>
       </c>
@@ -7880,7 +8881,7 @@
       <c r="O211" s="3"/>
       <c r="T211" s="3"/>
     </row>
-    <row r="212" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="212" spans="4:20">
       <c r="E212" s="3" t="s">
         <v>327</v>
       </c>
@@ -7888,7 +8889,7 @@
       <c r="O212" s="3"/>
       <c r="T212" s="3"/>
     </row>
-    <row r="213" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="213" spans="4:20">
       <c r="E213" s="3" t="s">
         <v>328</v>
       </c>
@@ -7896,7 +8897,7 @@
       <c r="O213" s="3"/>
       <c r="T213" s="3"/>
     </row>
-    <row r="214" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="214" spans="4:20">
       <c r="E214" s="3" t="s">
         <v>157</v>
       </c>
@@ -7904,7 +8905,7 @@
       <c r="O214" s="3"/>
       <c r="T214" s="3"/>
     </row>
-    <row r="215" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="215" spans="4:20">
       <c r="E215" s="3" t="s">
         <v>211</v>
       </c>
@@ -7912,7 +8913,7 @@
       <c r="O215" s="3"/>
       <c r="T215" s="3"/>
     </row>
-    <row r="216" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="216" spans="4:20">
       <c r="E216" s="3" t="s">
         <v>329</v>
       </c>
@@ -7920,108 +8921,108 @@
       <c r="O216" s="3"/>
       <c r="T216" s="3"/>
     </row>
-    <row r="217" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="217" spans="4:20">
       <c r="D217" s="2" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="218" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="218" spans="4:20">
       <c r="E218" s="3" t="s">
         <v>330</v>
       </c>
       <c r="J218" s="3"/>
       <c r="O218" s="3"/>
     </row>
-    <row r="219" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="219" spans="4:20">
       <c r="E219" s="3" t="s">
         <v>235</v>
       </c>
       <c r="J219" s="3"/>
       <c r="O219" s="3"/>
     </row>
-    <row r="220" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="220" spans="4:20">
       <c r="E220" s="3" t="s">
         <v>331</v>
       </c>
       <c r="J220" s="3"/>
       <c r="O220" s="3"/>
     </row>
-    <row r="221" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="221" spans="4:20">
       <c r="E221" s="3" t="s">
         <v>236</v>
       </c>
       <c r="J221" s="3"/>
       <c r="O221" s="3"/>
     </row>
-    <row r="222" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="222" spans="4:20">
       <c r="E222" s="3" t="s">
         <v>237</v>
       </c>
       <c r="J222" s="3"/>
       <c r="O222" s="3"/>
     </row>
-    <row r="223" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="223" spans="4:20">
       <c r="E223" s="3" t="s">
         <v>238</v>
       </c>
       <c r="J223" s="3"/>
       <c r="O223" s="3"/>
     </row>
-    <row r="224" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="224" spans="4:20">
       <c r="E224" s="3" t="s">
         <v>332</v>
       </c>
       <c r="J224" s="3"/>
       <c r="O224" s="3"/>
     </row>
-    <row r="225" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="225" spans="4:19">
       <c r="E225" s="3" t="s">
         <v>239</v>
       </c>
       <c r="J225" s="3"/>
       <c r="O225" s="3"/>
     </row>
-    <row r="226" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="226" spans="4:19">
       <c r="E226" s="3" t="s">
         <v>240</v>
       </c>
       <c r="J226" s="3"/>
       <c r="O226" s="3"/>
     </row>
-    <row r="227" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="227" spans="4:19">
       <c r="E227" s="3" t="s">
         <v>241</v>
       </c>
       <c r="J227" s="3"/>
       <c r="O227" s="3"/>
     </row>
-    <row r="228" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="228" spans="4:19">
       <c r="E228" s="3" t="s">
         <v>242</v>
       </c>
       <c r="J228" s="3"/>
       <c r="O228" s="3"/>
     </row>
-    <row r="229" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="229" spans="4:19">
       <c r="E229" s="3" t="s">
         <v>227</v>
       </c>
       <c r="J229" s="3"/>
       <c r="O229" s="3"/>
     </row>
-    <row r="230" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="230" spans="4:19">
       <c r="E230" s="3" t="s">
         <v>208</v>
       </c>
       <c r="J230" s="3"/>
       <c r="O230" s="3"/>
     </row>
-    <row r="231" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="231" spans="4:19">
       <c r="D231" s="2" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="232" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="232" spans="4:19">
       <c r="E232" s="3" t="s">
         <v>333</v>
       </c>
@@ -8029,7 +9030,7 @@
       <c r="O232" s="3"/>
       <c r="S232" s="3"/>
     </row>
-    <row r="233" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="233" spans="4:19">
       <c r="E233" s="3" t="s">
         <v>235</v>
       </c>
@@ -8037,7 +9038,7 @@
       <c r="O233" s="3"/>
       <c r="S233" s="3"/>
     </row>
-    <row r="234" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="234" spans="4:19">
       <c r="E234" s="3" t="s">
         <v>334</v>
       </c>
@@ -8045,7 +9046,7 @@
       <c r="O234" s="3"/>
       <c r="S234" s="3"/>
     </row>
-    <row r="235" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="235" spans="4:19">
       <c r="E235" s="3" t="s">
         <v>335</v>
       </c>
@@ -8053,7 +9054,7 @@
       <c r="O235" s="3"/>
       <c r="S235" s="3"/>
     </row>
-    <row r="236" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="236" spans="4:19">
       <c r="E236" s="3" t="s">
         <v>239</v>
       </c>
@@ -8061,7 +9062,7 @@
       <c r="O236" s="3"/>
       <c r="S236" s="3"/>
     </row>
-    <row r="237" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="237" spans="4:19">
       <c r="E237" s="3" t="s">
         <v>240</v>
       </c>
@@ -8069,7 +9070,7 @@
       <c r="O237" s="3"/>
       <c r="S237" s="3"/>
     </row>
-    <row r="238" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="238" spans="4:19">
       <c r="E238" s="3" t="s">
         <v>241</v>
       </c>
@@ -8077,7 +9078,7 @@
       <c r="O238" s="3"/>
       <c r="S238" s="3"/>
     </row>
-    <row r="239" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="239" spans="4:19">
       <c r="E239" s="3" t="s">
         <v>242</v>
       </c>
@@ -8085,7 +9086,7 @@
       <c r="O239" s="3"/>
       <c r="S239" s="3"/>
     </row>
-    <row r="240" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="240" spans="4:19">
       <c r="E240" s="3" t="s">
         <v>227</v>
       </c>
@@ -8093,7 +9094,7 @@
       <c r="O240" s="3"/>
       <c r="S240" s="3"/>
     </row>
-    <row r="241" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="241" spans="4:19">
       <c r="E241" s="3" t="s">
         <v>208</v>
       </c>
@@ -8101,12 +9102,12 @@
       <c r="O241" s="3"/>
       <c r="S241" s="3"/>
     </row>
-    <row r="242" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="242" spans="4:19">
       <c r="D242" s="2" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="243" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="243" spans="4:19">
       <c r="E243" s="3" t="s">
         <v>336</v>
       </c>
@@ -8114,7 +9115,7 @@
       <c r="O243" s="3"/>
       <c r="S243" s="3"/>
     </row>
-    <row r="244" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="244" spans="4:19">
       <c r="E244" s="3" t="s">
         <v>243</v>
       </c>
@@ -8122,7 +9123,7 @@
       <c r="O244" s="3"/>
       <c r="S244" s="3"/>
     </row>
-    <row r="245" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="245" spans="4:19">
       <c r="E245" s="3" t="s">
         <v>337</v>
       </c>
@@ -8130,7 +9131,7 @@
       <c r="O245" s="3"/>
       <c r="S245" s="3"/>
     </row>
-    <row r="246" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="246" spans="4:19">
       <c r="E246" s="3" t="s">
         <v>244</v>
       </c>
@@ -8138,7 +9139,7 @@
       <c r="O246" s="3"/>
       <c r="S246" s="3"/>
     </row>
-    <row r="247" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="247" spans="4:19">
       <c r="E247" s="3" t="s">
         <v>245</v>
       </c>
@@ -8146,7 +9147,7 @@
       <c r="O247" s="3"/>
       <c r="S247" s="3"/>
     </row>
-    <row r="248" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="248" spans="4:19">
       <c r="E248" s="3" t="s">
         <v>240</v>
       </c>
@@ -8154,7 +9155,7 @@
       <c r="O248" s="3"/>
       <c r="S248" s="3"/>
     </row>
-    <row r="249" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="249" spans="4:19">
       <c r="E249" s="3" t="s">
         <v>241</v>
       </c>
@@ -8162,7 +9163,7 @@
       <c r="O249" s="3"/>
       <c r="S249" s="3"/>
     </row>
-    <row r="250" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="250" spans="4:19">
       <c r="E250" s="3" t="s">
         <v>242</v>
       </c>
@@ -8170,7 +9171,7 @@
       <c r="O250" s="3"/>
       <c r="S250" s="3"/>
     </row>
-    <row r="251" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="251" spans="4:19">
       <c r="E251" s="3" t="s">
         <v>227</v>
       </c>
@@ -8178,7 +9179,7 @@
       <c r="O251" s="3"/>
       <c r="S251" s="3"/>
     </row>
-    <row r="252" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="252" spans="4:19">
       <c r="E252" s="3" t="s">
         <v>208</v>
       </c>
@@ -8186,12 +9187,12 @@
       <c r="O252" s="3"/>
       <c r="S252" s="3"/>
     </row>
-    <row r="253" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="253" spans="4:19">
       <c r="D253" s="2" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="254" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="254" spans="4:19">
       <c r="E254" s="4" t="s">
         <v>321</v>
       </c>
@@ -8199,7 +9200,7 @@
       <c r="O254" s="4"/>
       <c r="S254" s="4"/>
     </row>
-    <row r="255" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="255" spans="4:19">
       <c r="E255" s="4" t="s">
         <v>358</v>
       </c>
@@ -8207,7 +9208,7 @@
       <c r="O255" s="4"/>
       <c r="S255" s="4"/>
     </row>
-    <row r="256" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="256" spans="4:19">
       <c r="E256" s="4" t="s">
         <v>338</v>
       </c>
@@ -8215,7 +9216,7 @@
       <c r="O256" s="4"/>
       <c r="S256" s="4"/>
     </row>
-    <row r="257" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="257" spans="3:19">
       <c r="E257" s="4" t="s">
         <v>339</v>
       </c>
@@ -8223,7 +9224,7 @@
       <c r="O257" s="4"/>
       <c r="S257" s="4"/>
     </row>
-    <row r="258" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="258" spans="3:19">
       <c r="E258" s="4" t="s">
         <v>227</v>
       </c>
@@ -8231,7 +9232,7 @@
       <c r="O258" s="4"/>
       <c r="S258" s="4"/>
     </row>
-    <row r="259" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="259" spans="3:19">
       <c r="E259" s="4" t="s">
         <v>324</v>
       </c>
@@ -8239,7 +9240,7 @@
       <c r="O259" s="4"/>
       <c r="S259" s="4"/>
     </row>
-    <row r="260" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="260" spans="3:19">
       <c r="E260" s="4" t="s">
         <v>208</v>
       </c>
@@ -8247,62 +9248,62 @@
       <c r="O260" s="4"/>
       <c r="S260" s="4"/>
     </row>
-    <row r="261" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="261" spans="3:19">
       <c r="C261" s="2" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="262" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="262" spans="3:19">
       <c r="D262" s="2" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="263" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="263" spans="3:19">
       <c r="E263" s="2" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="264" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="264" spans="3:19">
       <c r="F264" s="3" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="265" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="265" spans="3:19">
       <c r="E265" s="2" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="266" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="266" spans="3:19">
       <c r="F266" s="3" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="267" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="267" spans="3:19">
       <c r="E267" s="2" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="268" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="268" spans="3:19">
       <c r="F268" s="3" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="269" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="269" spans="3:19">
       <c r="E269" s="2" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="270" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="270" spans="3:19">
       <c r="F270" s="3" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="271" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="271" spans="3:19">
       <c r="D271" s="2" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="272" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="272" spans="3:19">
       <c r="E272" s="3" t="s">
         <v>342</v>
       </c>
@@ -8310,7 +9311,7 @@
       <c r="N272" s="3"/>
       <c r="R272" s="3"/>
     </row>
-    <row r="273" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="273" spans="3:18">
       <c r="E273" s="3" t="s">
         <v>343</v>
       </c>
@@ -8318,97 +9319,97 @@
       <c r="N273" s="3"/>
       <c r="R273" s="3"/>
     </row>
-    <row r="274" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="274" spans="3:18">
       <c r="D274" s="2" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="275" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="275" spans="3:18">
       <c r="E275" s="3" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="276" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="276" spans="3:18">
       <c r="D276" s="2" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="277" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="277" spans="3:18">
       <c r="E277" s="3" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="278" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="278" spans="3:18">
       <c r="D278" s="2" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="279" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="279" spans="3:18">
       <c r="E279" s="3" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="280" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="280" spans="3:18">
       <c r="D280" s="2" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="281" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="281" spans="3:18">
       <c r="E281" s="3" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="282" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="282" spans="3:18">
       <c r="D282" s="2" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="283" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="283" spans="3:18">
       <c r="E283" s="3" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="284" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="284" spans="3:18">
       <c r="C284" s="2" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="285" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="285" spans="3:18">
       <c r="D285" s="2" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="286" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="286" spans="3:18">
       <c r="E286" s="3" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="287" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="287" spans="3:18">
       <c r="D287" s="2" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="288" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="288" spans="3:18">
       <c r="E288" s="3" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="289" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="289" spans="2:4">
       <c r="B289" s="2" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="290" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="290" spans="2:4">
       <c r="D290" s="2" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="292" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="292" spans="2:4">
       <c r="D292" s="2" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="294" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="294" spans="2:4">
       <c r="D294" s="2" t="s">
         <v>355</v>
       </c>
@@ -8420,7 +9421,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B2:C5"/>
   <sheetViews>
@@ -8428,24 +9429,24 @@
       <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:3">
       <c r="B2" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:3">
       <c r="C3" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:3">
       <c r="C4" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:3">
       <c r="C5" t="s">
         <v>113</v>
       </c>
@@ -8455,7 +9456,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D34"/>
   <sheetViews>
@@ -8463,7 +9464,7 @@
       <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="35.28515625" customWidth="1"/>
     <col min="2" max="2" width="30.140625" customWidth="1"/>
@@ -8471,7 +9472,7 @@
     <col min="4" max="4" width="33.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" s="8" t="s">
         <v>359</v>
       </c>
@@ -8479,7 +9480,7 @@
       <c r="C1" s="8"/>
       <c r="D1" s="8"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" s="8" t="s">
         <v>360</v>
       </c>
@@ -8487,7 +9488,7 @@
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" s="8" t="s">
         <v>361</v>
       </c>
@@ -8495,7 +9496,7 @@
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" s="8" t="s">
         <v>362</v>
       </c>
@@ -8503,7 +9504,7 @@
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" s="8" t="s">
         <v>363</v>
       </c>
@@ -8511,7 +9512,7 @@
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6" s="8" t="s">
         <v>364</v>
       </c>
@@ -8519,7 +9520,7 @@
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" s="8" t="s">
         <v>365</v>
       </c>
@@ -8527,13 +9528,13 @@
       <c r="C7" s="8"/>
       <c r="D7" s="6"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9" s="6" t="s">
         <v>366</v>
       </c>
@@ -8541,7 +9542,7 @@
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10" s="6"/>
       <c r="B10" s="8" t="s">
         <v>367</v>
@@ -8549,7 +9550,7 @@
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
     </row>
-    <row r="11" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="45">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -8557,7 +9558,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="30">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -8565,7 +9566,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="30">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -8573,7 +9574,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="30">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -8581,7 +9582,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="8" t="s">
@@ -8589,72 +9590,72 @@
       </c>
       <c r="D15" s="8"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2">
       <c r="B19" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2">
       <c r="B20" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2">
       <c r="B21" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2">
       <c r="A22" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2">
       <c r="B23" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2">
       <c r="B24" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2">
       <c r="B25" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2">
       <c r="A26" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2">
       <c r="B27" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2">
       <c r="B28" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2">
       <c r="B29" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:2">
       <c r="B33" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:2">
       <c r="B34" t="s">
         <v>390</v>
       </c>

--- a/Project-MRA/Project MRA.xlsx
+++ b/Project-MRA/Project MRA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Viktor\Desktop\Tenderi\WEB\GIT\Qinshift-homeworks\Project-MRA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40131963-F4CD-48B4-9100-0E948EB6FA00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF7BEC2A-46D5-45D7-BA26-1601B84327FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Public" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="457">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="464">
   <si>
     <t>Contact details</t>
   </si>
@@ -2375,6 +2375,27 @@
   </si>
   <si>
     <t xml:space="preserve">  border-radius: 4px;</t>
+  </si>
+  <si>
+    <t>Treba da se napravi so taskovi po redosled zaradi integriranje na branchite</t>
+  </si>
+  <si>
+    <t>Header I Footer treba da se usoglasat za CSS vo main.css, a ne sekoj posebno</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vo main.css treba da se definira </t>
+  </si>
+  <si>
+    <t>formatot na stranite… 10% Header, 10% footer, 80% main?</t>
+  </si>
+  <si>
+    <t>Vo Footer ima greski vo html, vo code, vo ime MR.Allroung, I treba email adresa da bide mrallround5@gmail.com, za da moze da funkcionira prakjanje mejl od contact form.</t>
+  </si>
+  <si>
+    <t>Vo Header treba da se integrira language selector</t>
+  </si>
+  <si>
+    <t>Change Theme sme daleku Ili raboti nekoj na toa?</t>
   </si>
 </sst>
 </file>
@@ -2519,9 +2540,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2535,6 +2553,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -6529,10 +6550,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5996D73-8D28-4D05-A673-364582B3C70D}">
-  <dimension ref="B4:E18"/>
+  <dimension ref="B4:E27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6602,14 +6623,49 @@
         <v>404</v>
       </c>
     </row>
-    <row r="17" spans="3:4">
+    <row r="17" spans="2:4">
       <c r="D17" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="18" spans="3:4">
+    <row r="18" spans="2:4">
       <c r="C18" t="s">
         <v>406</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4">
+      <c r="B20" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4">
+      <c r="B21" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4">
+      <c r="B22" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4">
+      <c r="B23" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4">
+      <c r="C24" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4">
+      <c r="C25" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4">
+      <c r="B27" t="s">
+        <v>463</v>
       </c>
     </row>
   </sheetData>
@@ -6621,7 +6677,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD732592-D9B0-4B73-AEFC-8BCEBF2F1C3F}">
   <dimension ref="B20:B93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="B20" sqref="B20:B93"/>
     </sheetView>
   </sheetViews>
@@ -6633,7 +6689,7 @@
       </c>
     </row>
     <row r="22" spans="2:2">
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="9" t="s">
         <v>409</v>
       </c>
     </row>
@@ -6643,60 +6699,60 @@
       </c>
     </row>
     <row r="26" spans="2:2" ht="18">
-      <c r="B26" s="11" t="s">
+      <c r="B26" s="10" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="27" spans="2:2">
-      <c r="B27" s="9"/>
+      <c r="B27" s="8"/>
     </row>
     <row r="28" spans="2:2">
-      <c r="B28" s="12" t="s">
+      <c r="B28" s="11" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="29" spans="2:2">
-      <c r="B29" s="12" t="s">
+      <c r="B29" s="11" t="s">
         <v>413</v>
       </c>
     </row>
     <row r="30" spans="2:2">
-      <c r="B30" s="12" t="s">
+      <c r="B30" s="11" t="s">
         <v>414</v>
       </c>
     </row>
     <row r="31" spans="2:2">
-      <c r="B31" s="12" t="s">
+      <c r="B31" s="11" t="s">
         <v>415</v>
       </c>
     </row>
     <row r="32" spans="2:2">
-      <c r="B32" s="12" t="s">
+      <c r="B32" s="11" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="33" spans="2:2">
-      <c r="B33" s="12" t="s">
+      <c r="B33" s="11" t="s">
         <v>417</v>
       </c>
     </row>
     <row r="34" spans="2:2">
-      <c r="B34" s="12" t="s">
+      <c r="B34" s="11" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="35" spans="2:2">
-      <c r="B35" s="12" t="s">
+      <c r="B35" s="11" t="s">
         <v>419</v>
       </c>
     </row>
     <row r="36" spans="2:2">
-      <c r="B36" s="12" t="s">
+      <c r="B36" s="11" t="s">
         <v>420</v>
       </c>
     </row>
     <row r="38" spans="2:2" ht="18">
-      <c r="B38" s="11" t="s">
+      <c r="B38" s="10" t="s">
         <v>421</v>
       </c>
     </row>
@@ -6706,253 +6762,253 @@
       </c>
     </row>
     <row r="41" spans="2:2">
-      <c r="B41" s="13"/>
+      <c r="B41" s="12"/>
     </row>
     <row r="42" spans="2:2">
-      <c r="B42" s="13" t="s">
+      <c r="B42" s="12" t="s">
         <v>423</v>
       </c>
     </row>
     <row r="43" spans="2:2">
-      <c r="B43" s="13"/>
+      <c r="B43" s="12"/>
     </row>
     <row r="44" spans="2:2">
-      <c r="B44" s="13" t="s">
+      <c r="B44" s="12" t="s">
         <v>424</v>
       </c>
     </row>
     <row r="45" spans="2:2">
-      <c r="B45" s="13"/>
+      <c r="B45" s="12"/>
     </row>
     <row r="46" spans="2:2">
-      <c r="B46" s="13" t="s">
+      <c r="B46" s="12" t="s">
         <v>425</v>
       </c>
     </row>
     <row r="47" spans="2:2">
-      <c r="B47" s="9"/>
+      <c r="B47" s="8"/>
     </row>
     <row r="48" spans="2:2">
-      <c r="B48" s="12" t="s">
+      <c r="B48" s="11" t="s">
         <v>426</v>
       </c>
     </row>
     <row r="49" spans="2:2">
-      <c r="B49" s="12" t="s">
+      <c r="B49" s="11" t="s">
         <v>413</v>
       </c>
     </row>
     <row r="50" spans="2:2">
-      <c r="B50" s="12" t="s">
+      <c r="B50" s="11" t="s">
         <v>427</v>
       </c>
     </row>
     <row r="51" spans="2:2">
-      <c r="B51" s="12" t="s">
+      <c r="B51" s="11" t="s">
         <v>428</v>
       </c>
     </row>
     <row r="52" spans="2:2">
-      <c r="B52" s="12" t="s">
+      <c r="B52" s="11" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="53" spans="2:2">
-      <c r="B53" s="12" t="s">
+      <c r="B53" s="11" t="s">
         <v>430</v>
       </c>
     </row>
     <row r="54" spans="2:2">
-      <c r="B54" s="12" t="s">
+      <c r="B54" s="11" t="s">
         <v>431</v>
       </c>
     </row>
     <row r="55" spans="2:2">
-      <c r="B55" s="12" t="s">
+      <c r="B55" s="11" t="s">
         <v>432</v>
       </c>
     </row>
     <row r="56" spans="2:2">
-      <c r="B56" s="12" t="s">
+      <c r="B56" s="11" t="s">
         <v>433</v>
       </c>
     </row>
     <row r="57" spans="2:2">
-      <c r="B57" s="12" t="s">
+      <c r="B57" s="11" t="s">
         <v>434</v>
       </c>
     </row>
     <row r="58" spans="2:2">
-      <c r="B58" s="12" t="s">
+      <c r="B58" s="11" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="59" spans="2:2">
-      <c r="B59" s="12" t="s">
+      <c r="B59" s="11" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="60" spans="2:2">
-      <c r="B60" s="9"/>
+      <c r="B60" s="8"/>
     </row>
     <row r="61" spans="2:2">
-      <c r="B61" s="12" t="s">
+      <c r="B61" s="11" t="s">
         <v>436</v>
       </c>
     </row>
     <row r="62" spans="2:2">
-      <c r="B62" s="12" t="s">
+      <c r="B62" s="11" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="63" spans="2:2">
-      <c r="B63" s="12" t="s">
+      <c r="B63" s="11" t="s">
         <v>438</v>
       </c>
     </row>
     <row r="64" spans="2:2">
-      <c r="B64" s="12" t="s">
+      <c r="B64" s="11" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="65" spans="2:2">
-      <c r="B65" s="12" t="s">
+      <c r="B65" s="11" t="s">
         <v>440</v>
       </c>
     </row>
     <row r="66" spans="2:2">
-      <c r="B66" s="12" t="s">
+      <c r="B66" s="11" t="s">
         <v>432</v>
       </c>
     </row>
     <row r="67" spans="2:2">
-      <c r="B67" s="12" t="s">
+      <c r="B67" s="11" t="s">
         <v>433</v>
       </c>
     </row>
     <row r="68" spans="2:2">
-      <c r="B68" s="12" t="s">
+      <c r="B68" s="11" t="s">
         <v>434</v>
       </c>
     </row>
     <row r="69" spans="2:2">
-      <c r="B69" s="12" t="s">
+      <c r="B69" s="11" t="s">
         <v>441</v>
       </c>
     </row>
     <row r="70" spans="2:2">
-      <c r="B70" s="12" t="s">
+      <c r="B70" s="11" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="71" spans="2:2">
-      <c r="B71" s="12" t="s">
+      <c r="B71" s="11" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="72" spans="2:2">
-      <c r="B72" s="12" t="s">
+      <c r="B72" s="11" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="73" spans="2:2">
-      <c r="B73" s="9"/>
+      <c r="B73" s="8"/>
     </row>
     <row r="74" spans="2:2">
-      <c r="B74" s="12" t="s">
+      <c r="B74" s="11" t="s">
         <v>444</v>
       </c>
     </row>
     <row r="75" spans="2:2">
-      <c r="B75" s="12" t="s">
+      <c r="B75" s="11" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="76" spans="2:2">
-      <c r="B76" s="12" t="s">
+      <c r="B76" s="11" t="s">
         <v>446</v>
       </c>
     </row>
     <row r="77" spans="2:2">
-      <c r="B77" s="12" t="s">
+      <c r="B77" s="11" t="s">
         <v>447</v>
       </c>
     </row>
     <row r="78" spans="2:2">
-      <c r="B78" s="12" t="s">
+      <c r="B78" s="11" t="s">
         <v>432</v>
       </c>
     </row>
     <row r="79" spans="2:2">
-      <c r="B79" s="12" t="s">
+      <c r="B79" s="11" t="s">
         <v>433</v>
       </c>
     </row>
     <row r="80" spans="2:2">
-      <c r="B80" s="12" t="s">
+      <c r="B80" s="11" t="s">
         <v>434</v>
       </c>
     </row>
     <row r="81" spans="2:2">
-      <c r="B81" s="12" t="s">
+      <c r="B81" s="11" t="s">
         <v>448</v>
       </c>
     </row>
     <row r="82" spans="2:2">
-      <c r="B82" s="12" t="s">
+      <c r="B82" s="11" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="83" spans="2:2">
-      <c r="B83" s="9"/>
+      <c r="B83" s="8"/>
     </row>
     <row r="84" spans="2:2">
-      <c r="B84" s="12" t="s">
+      <c r="B84" s="11" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="85" spans="2:2">
-      <c r="B85" s="12" t="s">
+      <c r="B85" s="11" t="s">
         <v>450</v>
       </c>
     </row>
     <row r="86" spans="2:2">
-      <c r="B86" s="12" t="s">
+      <c r="B86" s="11" t="s">
         <v>451</v>
       </c>
     </row>
     <row r="87" spans="2:2">
-      <c r="B87" s="12" t="s">
+      <c r="B87" s="11" t="s">
         <v>452</v>
       </c>
     </row>
     <row r="88" spans="2:2">
-      <c r="B88" s="12" t="s">
+      <c r="B88" s="11" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="89" spans="2:2">
-      <c r="B89" s="12" t="s">
+      <c r="B89" s="11" t="s">
         <v>453</v>
       </c>
     </row>
     <row r="90" spans="2:2">
-      <c r="B90" s="12" t="s">
+      <c r="B90" s="11" t="s">
         <v>454</v>
       </c>
     </row>
     <row r="91" spans="2:2">
-      <c r="B91" s="12" t="s">
+      <c r="B91" s="11" t="s">
         <v>455</v>
       </c>
     </row>
     <row r="92" spans="2:2">
-      <c r="B92" s="12" t="s">
+      <c r="B92" s="11" t="s">
         <v>456</v>
       </c>
     </row>
     <row r="93" spans="2:2">
-      <c r="B93" s="12" t="s">
+      <c r="B93" s="11" t="s">
         <v>211</v>
       </c>
     </row>
@@ -9473,59 +9529,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="13" t="s">
         <v>359</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="13" t="s">
         <v>360</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="13" t="s">
         <v>361</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="13" t="s">
         <v>362</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="13" t="s">
         <v>363</v>
       </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="13" t="s">
         <v>364</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="13" t="s">
         <v>365</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
       <c r="D7" s="6"/>
     </row>
     <row r="8" spans="1:4">
@@ -9544,11 +9600,11 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="6"/>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="13" t="s">
         <v>367</v>
       </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
     </row>
     <row r="11" spans="1:4" ht="45">
       <c r="A11" s="6"/>
@@ -9585,10 +9641,10 @@
     <row r="15" spans="1:4">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="13" t="s">
         <v>372</v>
       </c>
-      <c r="D15" s="8"/>
+      <c r="D15" s="13"/>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">

--- a/Project-MRA/Project MRA.xlsx
+++ b/Project-MRA/Project MRA.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140"/>
   </bookViews>
   <sheets>
     <sheet name="Public" sheetId="1" r:id="rId1"/>
@@ -8379,10 +8379,10 @@
     <t>API_Secret:8mzV9fXKFUiHzNbZ2zxrxMF8GVY</t>
   </si>
   <si>
-    <t>Upload_preset:ml_default</t>
-  </si>
-  <si>
     <t>7. Vo .env I vo contact.js gi dodadov cloudinary API I dr informacii</t>
+  </si>
+  <si>
+    <t>Upload_preset:unsigned_preset</t>
   </si>
 </sst>
 </file>
@@ -8757,9 +8757,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -8785,24 +8782,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -8861,6 +8840,27 @@
     </xf>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -12680,8 +12680,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:N30"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -12818,7 +12818,7 @@
         <v>8</v>
       </c>
       <c r="N21" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
     </row>
     <row r="22" spans="3:14">
@@ -12927,59 +12927,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="48" t="s">
         <v>359</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="48" t="s">
         <v>360</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="48" t="s">
         <v>361</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="48" t="s">
         <v>362</v>
       </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="48" t="s">
         <v>363</v>
       </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
+      <c r="B5" s="48"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="48" t="s">
         <v>364</v>
       </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="48" t="s">
         <v>365</v>
       </c>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
+      <c r="B7" s="48"/>
+      <c r="C7" s="48"/>
       <c r="D7" s="6"/>
     </row>
     <row r="8" spans="1:4">
@@ -12998,11 +12998,11 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="6"/>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="48" t="s">
         <v>367</v>
       </c>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
+      <c r="C10" s="48"/>
+      <c r="D10" s="48"/>
     </row>
     <row r="11" spans="1:4" ht="43.2">
       <c r="A11" s="6"/>
@@ -13039,10 +13039,10 @@
     <row r="15" spans="1:4">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
-      <c r="C15" s="14" t="s">
+      <c r="C15" s="48" t="s">
         <v>372</v>
       </c>
-      <c r="D15" s="14"/>
+      <c r="D15" s="48"/>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
@@ -13164,12 +13164,12 @@
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="14" t="s">
         <v>469</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="15" t="s">
         <v>470</v>
       </c>
     </row>
@@ -13182,7 +13182,7 @@
       <c r="A8" s="13"/>
     </row>
     <row r="9" spans="1:1" ht="27.6">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="16" t="s">
         <v>471</v>
       </c>
     </row>
@@ -13190,42 +13190,42 @@
       <c r="A10" s="13"/>
     </row>
     <row r="11" spans="1:1" ht="18">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="17" t="s">
         <v>472</v>
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="18" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="27.6">
-      <c r="A13" s="19" t="s">
+      <c r="A13" s="18" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="27.6">
-      <c r="A14" s="19" t="s">
+      <c r="A14" s="18" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="15" spans="1:1" ht="27.6">
-      <c r="A15" s="19" t="s">
+    <row r="15" spans="1:1">
+      <c r="A15" s="18" t="s">
         <v>476</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="27.6">
-      <c r="A16" s="19" t="s">
+      <c r="A16" s="18" t="s">
         <v>477</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="27.6">
-      <c r="A17" s="19" t="s">
+      <c r="A17" s="18" t="s">
         <v>478</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="18">
-      <c r="A18" s="18" t="s">
+      <c r="A18" s="17" t="s">
         <v>479</v>
       </c>
     </row>
@@ -13233,7 +13233,7 @@
       <c r="A19" s="13"/>
     </row>
     <row r="20" spans="1:1" ht="27.6">
-      <c r="A20" s="17" t="s">
+      <c r="A20" s="16" t="s">
         <v>480</v>
       </c>
     </row>
@@ -13241,7 +13241,7 @@
       <c r="A21" s="13"/>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="17" t="s">
+      <c r="A22" s="16" t="s">
         <v>481</v>
       </c>
     </row>
@@ -13249,12 +13249,12 @@
       <c r="A23" s="8"/>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="15" t="s">
+      <c r="A24" s="14" t="s">
         <v>469</v>
       </c>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="16" t="s">
+      <c r="A25" s="15" t="s">
         <v>482</v>
       </c>
     </row>
@@ -13267,7 +13267,7 @@
       <c r="A27" s="13"/>
     </row>
     <row r="28" spans="1:1" ht="27.6">
-      <c r="A28" s="17" t="s">
+      <c r="A28" s="16" t="s">
         <v>483</v>
       </c>
     </row>
@@ -13275,112 +13275,112 @@
       <c r="A29" s="13"/>
     </row>
     <row r="30" spans="1:1" ht="18">
-      <c r="A30" s="18" t="s">
+      <c r="A30" s="17" t="s">
         <v>484</v>
       </c>
     </row>
     <row r="31" spans="1:1">
-      <c r="A31" s="21" t="s">
+      <c r="A31" s="20" t="s">
         <v>485</v>
       </c>
     </row>
     <row r="32" spans="1:1">
-      <c r="A32" s="21" t="s">
+      <c r="A32" s="20" t="s">
         <v>486</v>
       </c>
     </row>
     <row r="33" spans="1:1">
-      <c r="A33" s="21" t="s">
+      <c r="A33" s="20" t="s">
         <v>487</v>
       </c>
     </row>
     <row r="34" spans="1:1" ht="18">
-      <c r="A34" s="18" t="s">
+      <c r="A34" s="17" t="s">
         <v>488</v>
       </c>
     </row>
     <row r="35" spans="1:1">
-      <c r="A35" s="21" t="s">
+      <c r="A35" s="20" t="s">
         <v>489</v>
       </c>
     </row>
     <row r="36" spans="1:1">
-      <c r="A36" s="21" t="s">
+      <c r="A36" s="20" t="s">
         <v>490</v>
       </c>
     </row>
     <row r="37" spans="1:1">
-      <c r="A37" s="21" t="s">
+      <c r="A37" s="20" t="s">
         <v>491</v>
       </c>
     </row>
     <row r="38" spans="1:1">
-      <c r="A38" s="21" t="s">
+      <c r="A38" s="20" t="s">
         <v>492</v>
       </c>
     </row>
     <row r="39" spans="1:1" ht="18">
-      <c r="A39" s="18" t="s">
+      <c r="A39" s="17" t="s">
         <v>493</v>
       </c>
     </row>
     <row r="40" spans="1:1">
-      <c r="A40" s="21" t="s">
+      <c r="A40" s="20" t="s">
         <v>494</v>
       </c>
     </row>
     <row r="41" spans="1:1">
-      <c r="A41" s="21" t="s">
+      <c r="A41" s="20" t="s">
         <v>495</v>
       </c>
     </row>
     <row r="42" spans="1:1">
-      <c r="A42" s="21" t="s">
+      <c r="A42" s="20" t="s">
         <v>496</v>
       </c>
     </row>
     <row r="43" spans="1:1" ht="18">
-      <c r="A43" s="18" t="s">
+      <c r="A43" s="17" t="s">
         <v>497</v>
       </c>
     </row>
     <row r="44" spans="1:1" ht="27.6">
-      <c r="A44" s="21" t="s">
+      <c r="A44" s="20" t="s">
         <v>498</v>
       </c>
     </row>
     <row r="45" spans="1:1">
-      <c r="A45" s="21" t="s">
+      <c r="A45" s="20" t="s">
         <v>499</v>
       </c>
     </row>
     <row r="46" spans="1:1" ht="36">
-      <c r="A46" s="18" t="s">
+      <c r="A46" s="17" t="s">
         <v>500</v>
       </c>
     </row>
     <row r="47" spans="1:1" ht="27.6">
-      <c r="A47" s="21" t="s">
+      <c r="A47" s="20" t="s">
         <v>501</v>
       </c>
     </row>
     <row r="48" spans="1:1">
-      <c r="A48" s="21" t="s">
+      <c r="A48" s="20" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="49" spans="1:1" ht="18">
-      <c r="A49" s="18" t="s">
+      <c r="A49" s="17" t="s">
         <v>503</v>
       </c>
     </row>
     <row r="50" spans="1:1">
-      <c r="A50" s="21" t="s">
+      <c r="A50" s="20" t="s">
         <v>504</v>
       </c>
     </row>
     <row r="51" spans="1:1" ht="27.6">
-      <c r="A51" s="21" t="s">
+      <c r="A51" s="20" t="s">
         <v>505</v>
       </c>
     </row>
@@ -13403,7 +13403,7 @@
       <c r="A58" s="13"/>
     </row>
     <row r="59" spans="1:1" ht="27.6">
-      <c r="A59" s="17" t="s">
+      <c r="A59" s="16" t="s">
         <v>506</v>
       </c>
     </row>
@@ -13411,7 +13411,7 @@
       <c r="A60" s="13"/>
     </row>
     <row r="61" spans="1:1">
-      <c r="A61" s="17" t="s">
+      <c r="A61" s="16" t="s">
         <v>507</v>
       </c>
     </row>
@@ -13419,12 +13419,12 @@
       <c r="A62" s="8"/>
     </row>
     <row r="63" spans="1:1">
-      <c r="A63" s="15" t="s">
+      <c r="A63" s="14" t="s">
         <v>469</v>
       </c>
     </row>
     <row r="64" spans="1:1">
-      <c r="A64" s="16" t="s">
+      <c r="A64" s="15" t="s">
         <v>508</v>
       </c>
     </row>
@@ -13437,7 +13437,7 @@
       <c r="A66" s="13"/>
     </row>
     <row r="67" spans="1:1" ht="27.6">
-      <c r="A67" s="17" t="s">
+      <c r="A67" s="16" t="s">
         <v>509</v>
       </c>
     </row>
@@ -13445,107 +13445,107 @@
       <c r="A68" s="13"/>
     </row>
     <row r="69" spans="1:1" ht="18">
-      <c r="A69" s="18" t="s">
+      <c r="A69" s="17" t="s">
         <v>510</v>
       </c>
     </row>
     <row r="70" spans="1:1">
-      <c r="A70" s="21" t="s">
+      <c r="A70" s="20" t="s">
         <v>511</v>
       </c>
     </row>
     <row r="71" spans="1:1">
-      <c r="A71" s="21" t="s">
+      <c r="A71" s="20" t="s">
         <v>512</v>
       </c>
     </row>
     <row r="72" spans="1:1">
-      <c r="A72" s="21" t="s">
+      <c r="A72" s="20" t="s">
         <v>513</v>
       </c>
     </row>
     <row r="73" spans="1:1">
-      <c r="A73" s="21" t="s">
+      <c r="A73" s="20" t="s">
         <v>487</v>
       </c>
     </row>
     <row r="74" spans="1:1">
-      <c r="A74" s="21" t="s">
+      <c r="A74" s="20" t="s">
         <v>514</v>
       </c>
     </row>
     <row r="75" spans="1:1" ht="18">
-      <c r="A75" s="18" t="s">
+      <c r="A75" s="17" t="s">
         <v>515</v>
       </c>
     </row>
     <row r="76" spans="1:1">
-      <c r="A76" s="21" t="s">
+      <c r="A76" s="20" t="s">
         <v>516</v>
       </c>
     </row>
     <row r="77" spans="1:1" ht="27.6">
-      <c r="A77" s="21" t="s">
+      <c r="A77" s="20" t="s">
         <v>517</v>
       </c>
     </row>
     <row r="78" spans="1:1" ht="18">
-      <c r="A78" s="18" t="s">
+      <c r="A78" s="17" t="s">
         <v>518</v>
       </c>
     </row>
     <row r="79" spans="1:1">
-      <c r="A79" s="21" t="s">
+      <c r="A79" s="20" t="s">
         <v>519</v>
       </c>
     </row>
     <row r="80" spans="1:1">
-      <c r="A80" s="21" t="s">
+      <c r="A80" s="20" t="s">
         <v>520</v>
       </c>
     </row>
     <row r="81" spans="1:1" ht="27.6">
-      <c r="A81" s="21" t="s">
+      <c r="A81" s="20" t="s">
         <v>521</v>
       </c>
     </row>
     <row r="82" spans="1:1">
-      <c r="A82" s="21" t="s">
+      <c r="A82" s="20" t="s">
         <v>522</v>
       </c>
     </row>
     <row r="83" spans="1:1" ht="18">
-      <c r="A83" s="18" t="s">
+      <c r="A83" s="17" t="s">
         <v>523</v>
       </c>
     </row>
     <row r="84" spans="1:1">
-      <c r="A84" s="21" t="s">
+      <c r="A84" s="20" t="s">
         <v>524</v>
       </c>
     </row>
     <row r="85" spans="1:1">
-      <c r="A85" s="21" t="s">
+      <c r="A85" s="20" t="s">
         <v>525</v>
       </c>
     </row>
     <row r="86" spans="1:1">
-      <c r="A86" s="21" t="s">
+      <c r="A86" s="20" t="s">
         <v>526</v>
       </c>
     </row>
     <row r="87" spans="1:1" ht="18">
-      <c r="A87" s="18" t="s">
+      <c r="A87" s="17" t="s">
         <v>527</v>
       </c>
     </row>
     <row r="88" spans="1:1" ht="27.6">
-      <c r="A88" s="21" t="s">
+      <c r="A88" s="20" t="s">
         <v>528</v>
       </c>
     </row>
     <row r="89" spans="1:1" ht="27.6">
-      <c r="A89" s="21" t="s">
+      <c r="A89" s="20" t="s">
         <v>529</v>
       </c>
     </row>
@@ -13568,22 +13568,22 @@
       <c r="A96" s="13"/>
     </row>
     <row r="97" spans="1:1" ht="18">
-      <c r="A97" s="18" t="s">
+      <c r="A97" s="17" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="98" spans="1:1">
-      <c r="A98" s="19" t="s">
+      <c r="A98" s="18" t="s">
         <v>531</v>
       </c>
     </row>
     <row r="99" spans="1:1">
-      <c r="A99" s="19" t="s">
+      <c r="A99" s="18" t="s">
         <v>532</v>
       </c>
     </row>
     <row r="100" spans="1:1">
-      <c r="A100" s="19" t="s">
+      <c r="A100" s="18" t="s">
         <v>533</v>
       </c>
     </row>
@@ -13606,7 +13606,7 @@
       <c r="A107" s="13"/>
     </row>
     <row r="108" spans="1:1" ht="27.6">
-      <c r="A108" s="17" t="s">
+      <c r="A108" s="16" t="s">
         <v>534</v>
       </c>
     </row>
@@ -13614,12 +13614,12 @@
       <c r="A109" s="8"/>
     </row>
     <row r="110" spans="1:1">
-      <c r="A110" s="15" t="s">
+      <c r="A110" s="14" t="s">
         <v>469</v>
       </c>
     </row>
     <row r="111" spans="1:1">
-      <c r="A111" s="16" t="s">
+      <c r="A111" s="15" t="s">
         <v>535</v>
       </c>
     </row>
@@ -13632,162 +13632,162 @@
       <c r="A113" s="13"/>
     </row>
     <row r="114" spans="1:4" ht="27.6">
-      <c r="A114" s="17" t="s">
+      <c r="A114" s="16" t="s">
         <v>536</v>
       </c>
     </row>
     <row r="115" spans="1:4">
-      <c r="A115" s="17"/>
-    </row>
-    <row r="116" spans="1:4" ht="51.6" thickBot="1">
-      <c r="A116" s="22" t="s">
+      <c r="A115" s="16"/>
+    </row>
+    <row r="116" spans="1:4" ht="39" thickBot="1">
+      <c r="A116" s="21" t="s">
         <v>537</v>
       </c>
-      <c r="B116" s="22" t="s">
+      <c r="B116" s="21" t="s">
         <v>538</v>
       </c>
-      <c r="C116" s="22" t="s">
+      <c r="C116" s="21" t="s">
         <v>539</v>
       </c>
-      <c r="D116" s="22" t="s">
+      <c r="D116" s="21" t="s">
         <v>540</v>
       </c>
     </row>
     <row r="117" spans="1:4" ht="113.4">
-      <c r="A117" s="26" t="s">
+      <c r="A117" s="42" t="s">
         <v>541</v>
       </c>
-      <c r="B117" s="23" t="s">
+      <c r="B117" s="22" t="s">
         <v>542</v>
       </c>
-      <c r="C117" s="29" t="s">
+      <c r="C117" s="45" t="s">
         <v>546</v>
       </c>
-      <c r="D117" s="29" t="s">
+      <c r="D117" s="45" t="s">
         <v>547</v>
       </c>
     </row>
     <row r="118" spans="1:4" ht="25.2">
-      <c r="A118" s="25"/>
-      <c r="B118" s="23" t="s">
+      <c r="A118" s="43"/>
+      <c r="B118" s="22" t="s">
         <v>543</v>
       </c>
-      <c r="C118" s="28"/>
-      <c r="D118" s="28"/>
+      <c r="C118" s="46"/>
+      <c r="D118" s="46"/>
     </row>
     <row r="119" spans="1:4" ht="50.4">
-      <c r="A119" s="25"/>
-      <c r="B119" s="23" t="s">
+      <c r="A119" s="43"/>
+      <c r="B119" s="22" t="s">
         <v>544</v>
       </c>
-      <c r="C119" s="28"/>
-      <c r="D119" s="28"/>
+      <c r="C119" s="46"/>
+      <c r="D119" s="46"/>
     </row>
     <row r="120" spans="1:4" ht="38.4" thickBot="1">
-      <c r="A120" s="27"/>
-      <c r="B120" s="24" t="s">
+      <c r="A120" s="44"/>
+      <c r="B120" s="23" t="s">
         <v>545</v>
       </c>
-      <c r="C120" s="30"/>
-      <c r="D120" s="30"/>
+      <c r="C120" s="47"/>
+      <c r="D120" s="47"/>
     </row>
     <row r="121" spans="1:4" ht="37.799999999999997">
-      <c r="A121" s="26" t="s">
+      <c r="A121" s="42" t="s">
         <v>548</v>
       </c>
-      <c r="B121" s="23" t="s">
+      <c r="B121" s="22" t="s">
         <v>549</v>
       </c>
-      <c r="C121" s="29" t="s">
+      <c r="C121" s="45" t="s">
         <v>553</v>
       </c>
-      <c r="D121" s="29" t="s">
+      <c r="D121" s="45" t="s">
         <v>554</v>
       </c>
     </row>
     <row r="122" spans="1:4" ht="25.2">
-      <c r="A122" s="25"/>
-      <c r="B122" s="23" t="s">
+      <c r="A122" s="43"/>
+      <c r="B122" s="22" t="s">
         <v>550</v>
       </c>
-      <c r="C122" s="28"/>
-      <c r="D122" s="28"/>
+      <c r="C122" s="46"/>
+      <c r="D122" s="46"/>
     </row>
     <row r="123" spans="1:4" ht="37.799999999999997">
-      <c r="A123" s="25"/>
-      <c r="B123" s="23" t="s">
+      <c r="A123" s="43"/>
+      <c r="B123" s="22" t="s">
         <v>551</v>
       </c>
-      <c r="C123" s="28"/>
-      <c r="D123" s="28"/>
+      <c r="C123" s="46"/>
+      <c r="D123" s="46"/>
     </row>
     <row r="124" spans="1:4" ht="25.8" thickBot="1">
-      <c r="A124" s="27"/>
-      <c r="B124" s="24" t="s">
+      <c r="A124" s="44"/>
+      <c r="B124" s="23" t="s">
         <v>552</v>
       </c>
-      <c r="C124" s="30"/>
-      <c r="D124" s="30"/>
+      <c r="C124" s="47"/>
+      <c r="D124" s="47"/>
     </row>
     <row r="125" spans="1:4" ht="37.799999999999997">
-      <c r="A125" s="26" t="s">
+      <c r="A125" s="42" t="s">
         <v>555</v>
       </c>
-      <c r="B125" s="23" t="s">
+      <c r="B125" s="22" t="s">
         <v>556</v>
       </c>
-      <c r="C125" s="29" t="s">
+      <c r="C125" s="45" t="s">
         <v>559</v>
       </c>
-      <c r="D125" s="29" t="s">
+      <c r="D125" s="45" t="s">
         <v>560</v>
       </c>
     </row>
     <row r="126" spans="1:4" ht="50.4">
-      <c r="A126" s="25"/>
-      <c r="B126" s="23" t="s">
+      <c r="A126" s="43"/>
+      <c r="B126" s="22" t="s">
         <v>557</v>
       </c>
-      <c r="C126" s="28"/>
-      <c r="D126" s="28"/>
+      <c r="C126" s="46"/>
+      <c r="D126" s="46"/>
     </row>
     <row r="127" spans="1:4" ht="76.2" thickBot="1">
-      <c r="A127" s="27"/>
-      <c r="B127" s="24" t="s">
+      <c r="A127" s="44"/>
+      <c r="B127" s="23" t="s">
         <v>558</v>
       </c>
-      <c r="C127" s="30"/>
-      <c r="D127" s="30"/>
+      <c r="C127" s="47"/>
+      <c r="D127" s="47"/>
     </row>
     <row r="128" spans="1:4" ht="37.799999999999997">
-      <c r="A128" s="26" t="s">
+      <c r="A128" s="42" t="s">
         <v>561</v>
       </c>
-      <c r="B128" s="23" t="s">
+      <c r="B128" s="22" t="s">
         <v>562</v>
       </c>
-      <c r="C128" s="29" t="s">
+      <c r="C128" s="45" t="s">
         <v>565</v>
       </c>
-      <c r="D128" s="29" t="s">
+      <c r="D128" s="45" t="s">
         <v>566</v>
       </c>
     </row>
     <row r="129" spans="1:4" ht="25.2">
-      <c r="A129" s="25"/>
-      <c r="B129" s="23" t="s">
+      <c r="A129" s="43"/>
+      <c r="B129" s="22" t="s">
         <v>563</v>
       </c>
-      <c r="C129" s="28"/>
-      <c r="D129" s="28"/>
+      <c r="C129" s="46"/>
+      <c r="D129" s="46"/>
     </row>
     <row r="130" spans="1:4" ht="50.4">
-      <c r="A130" s="25"/>
-      <c r="B130" s="23" t="s">
+      <c r="A130" s="43"/>
+      <c r="B130" s="22" t="s">
         <v>564</v>
       </c>
-      <c r="C130" s="28"/>
-      <c r="D130" s="28"/>
+      <c r="C130" s="46"/>
+      <c r="D130" s="46"/>
     </row>
     <row r="131" spans="1:4">
       <c r="A131" s="13"/>
@@ -13808,7 +13808,7 @@
       <c r="A137" s="13"/>
     </row>
     <row r="138" spans="1:4" ht="18">
-      <c r="A138" s="31" t="s">
+      <c r="A138" s="24" t="s">
         <v>567</v>
       </c>
     </row>
@@ -13816,35 +13816,35 @@
       <c r="A139" s="13"/>
     </row>
     <row r="140" spans="1:4">
-      <c r="A140" s="32" t="s">
+      <c r="A140" s="25" t="s">
         <v>568</v>
       </c>
     </row>
     <row r="141" spans="1:4">
-      <c r="A141" s="20"/>
+      <c r="A141" s="19"/>
     </row>
     <row r="142" spans="1:4">
-      <c r="A142" s="21" t="s">
+      <c r="A142" s="20" t="s">
         <v>569</v>
       </c>
     </row>
     <row r="143" spans="1:4">
-      <c r="A143" s="21" t="s">
+      <c r="A143" s="20" t="s">
         <v>570</v>
       </c>
     </row>
     <row r="144" spans="1:4">
-      <c r="A144" s="21" t="s">
+      <c r="A144" s="20" t="s">
         <v>571</v>
       </c>
     </row>
     <row r="145" spans="1:1">
-      <c r="A145" s="21" t="s">
+      <c r="A145" s="20" t="s">
         <v>572</v>
       </c>
     </row>
     <row r="146" spans="1:1">
-      <c r="A146" s="21" t="s">
+      <c r="A146" s="20" t="s">
         <v>573</v>
       </c>
     </row>
@@ -13852,7 +13852,7 @@
       <c r="A147" s="13"/>
     </row>
     <row r="148" spans="1:1" ht="27.6">
-      <c r="A148" s="32" t="s">
+      <c r="A148" s="25" t="s">
         <v>574</v>
       </c>
     </row>
@@ -13875,7 +13875,7 @@
       <c r="A155" s="13"/>
     </row>
     <row r="156" spans="1:1" ht="27.6">
-      <c r="A156" s="17" t="s">
+      <c r="A156" s="16" t="s">
         <v>575</v>
       </c>
     </row>
@@ -13883,12 +13883,12 @@
       <c r="A157" s="8"/>
     </row>
     <row r="158" spans="1:1">
-      <c r="A158" s="15" t="s">
+      <c r="A158" s="14" t="s">
         <v>469</v>
       </c>
     </row>
     <row r="159" spans="1:1">
-      <c r="A159" s="16" t="s">
+      <c r="A159" s="15" t="s">
         <v>576</v>
       </c>
     </row>
@@ -13901,7 +13901,7 @@
       <c r="A161" s="13"/>
     </row>
     <row r="162" spans="1:1" ht="41.4">
-      <c r="A162" s="17" t="s">
+      <c r="A162" s="16" t="s">
         <v>577</v>
       </c>
     </row>
@@ -13924,32 +13924,32 @@
       <c r="A169" s="13"/>
     </row>
     <row r="170" spans="1:1" ht="22.2">
-      <c r="A170" s="33" t="s">
+      <c r="A170" s="26" t="s">
         <v>578</v>
       </c>
     </row>
     <row r="171" spans="1:1" ht="18">
-      <c r="A171" s="18" t="s">
+      <c r="A171" s="17" t="s">
         <v>579</v>
       </c>
     </row>
     <row r="172" spans="1:1">
-      <c r="A172" s="34" t="s">
+      <c r="A172" s="27" t="s">
         <v>580</v>
       </c>
     </row>
     <row r="173" spans="1:1" ht="27.6">
-      <c r="A173" s="21" t="s">
+      <c r="A173" s="20" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="174" spans="1:1" ht="18">
-      <c r="A174" s="18" t="s">
+      <c r="A174" s="17" t="s">
         <v>582</v>
       </c>
     </row>
     <row r="175" spans="1:1" ht="15.6">
-      <c r="A175" s="35" t="s">
+      <c r="A175" s="28" t="s">
         <v>583</v>
       </c>
     </row>
@@ -13957,7 +13957,7 @@
       <c r="A176" s="13"/>
     </row>
     <row r="177" spans="1:1">
-      <c r="A177" s="17" t="s">
+      <c r="A177" s="16" t="s">
         <v>584</v>
       </c>
     </row>
@@ -13965,17 +13965,17 @@
       <c r="A178" s="8"/>
     </row>
     <row r="179" spans="1:1">
-      <c r="A179" s="36" t="s">
+      <c r="A179" s="29" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="180" spans="1:1">
-      <c r="A180" s="36" t="s">
+      <c r="A180" s="29" t="s">
         <v>585</v>
       </c>
     </row>
     <row r="181" spans="1:1">
-      <c r="A181" s="37" t="s">
+      <c r="A181" s="30" t="s">
         <v>586</v>
       </c>
     </row>
@@ -13983,7 +13983,7 @@
       <c r="A182" s="13"/>
     </row>
     <row r="183" spans="1:1">
-      <c r="A183" s="17" t="s">
+      <c r="A183" s="16" t="s">
         <v>587</v>
       </c>
     </row>
@@ -13991,17 +13991,17 @@
       <c r="A184" s="8"/>
     </row>
     <row r="185" spans="1:1">
-      <c r="A185" s="36" t="s">
+      <c r="A185" s="29" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="186" spans="1:1">
-      <c r="A186" s="36" t="s">
+      <c r="A186" s="29" t="s">
         <v>585</v>
       </c>
     </row>
     <row r="187" spans="1:1">
-      <c r="A187" s="37" t="s">
+      <c r="A187" s="30" t="s">
         <v>588</v>
       </c>
     </row>
@@ -14009,52 +14009,52 @@
       <c r="A188" s="12"/>
     </row>
     <row r="189" spans="1:1">
-      <c r="A189" s="37" t="s">
+      <c r="A189" s="30" t="s">
         <v>589</v>
       </c>
     </row>
     <row r="190" spans="1:1">
-      <c r="A190" s="37" t="s">
+      <c r="A190" s="30" t="s">
         <v>590</v>
       </c>
     </row>
     <row r="191" spans="1:1">
-      <c r="A191" s="37" t="s">
+      <c r="A191" s="30" t="s">
         <v>591</v>
       </c>
     </row>
     <row r="192" spans="1:1">
-      <c r="A192" s="37" t="s">
+      <c r="A192" s="30" t="s">
         <v>592</v>
       </c>
     </row>
     <row r="193" spans="1:1">
-      <c r="A193" s="37" t="s">
+      <c r="A193" s="30" t="s">
         <v>593</v>
       </c>
     </row>
     <row r="194" spans="1:1">
-      <c r="A194" s="37" t="s">
+      <c r="A194" s="30" t="s">
         <v>594</v>
       </c>
     </row>
     <row r="195" spans="1:1">
-      <c r="A195" s="37" t="s">
+      <c r="A195" s="30" t="s">
         <v>595</v>
       </c>
     </row>
     <row r="196" spans="1:1">
-      <c r="A196" s="37" t="s">
+      <c r="A196" s="30" t="s">
         <v>596</v>
       </c>
     </row>
     <row r="197" spans="1:1">
-      <c r="A197" s="37" t="s">
+      <c r="A197" s="30" t="s">
         <v>597</v>
       </c>
     </row>
     <row r="198" spans="1:1">
-      <c r="A198" s="37" t="s">
+      <c r="A198" s="30" t="s">
         <v>598</v>
       </c>
     </row>
@@ -14062,22 +14062,22 @@
       <c r="A199" s="12"/>
     </row>
     <row r="200" spans="1:1">
-      <c r="A200" s="37" t="s">
+      <c r="A200" s="30" t="s">
         <v>599</v>
       </c>
     </row>
     <row r="201" spans="1:1">
-      <c r="A201" s="37" t="s">
+      <c r="A201" s="30" t="s">
         <v>600</v>
       </c>
     </row>
     <row r="202" spans="1:1">
-      <c r="A202" s="37" t="s">
+      <c r="A202" s="30" t="s">
         <v>601</v>
       </c>
     </row>
     <row r="203" spans="1:1">
-      <c r="A203" s="37" t="s">
+      <c r="A203" s="30" t="s">
         <v>602</v>
       </c>
     </row>
@@ -14085,20 +14085,20 @@
       <c r="A204" s="12"/>
     </row>
     <row r="205" spans="1:1">
-      <c r="A205" s="37" t="s">
+      <c r="A205" s="30" t="s">
         <v>603</v>
       </c>
     </row>
     <row r="206" spans="1:1">
-      <c r="A206" s="20"/>
+      <c r="A206" s="19"/>
     </row>
     <row r="207" spans="1:1" ht="27.6">
-      <c r="A207" s="21" t="s">
+      <c r="A207" s="20" t="s">
         <v>604</v>
       </c>
     </row>
     <row r="208" spans="1:1">
-      <c r="A208" s="21" t="s">
+      <c r="A208" s="20" t="s">
         <v>605</v>
       </c>
     </row>
@@ -14121,47 +14121,47 @@
       <c r="A215" s="13"/>
     </row>
     <row r="216" spans="1:1" ht="22.2">
-      <c r="A216" s="33" t="s">
+      <c r="A216" s="26" t="s">
         <v>606</v>
       </c>
     </row>
     <row r="217" spans="1:1" ht="18">
-      <c r="A217" s="18" t="s">
+      <c r="A217" s="17" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="218" spans="1:1">
-      <c r="A218" s="36" t="s">
+      <c r="A218" s="29" t="s">
         <v>608</v>
       </c>
     </row>
     <row r="219" spans="1:1">
-      <c r="A219" s="36" t="s">
+      <c r="A219" s="29" t="s">
         <v>585</v>
       </c>
     </row>
     <row r="220" spans="1:1">
-      <c r="A220" s="37" t="s">
+      <c r="A220" s="30" t="s">
         <v>609</v>
       </c>
     </row>
     <row r="221" spans="1:1" ht="18">
-      <c r="A221" s="18" t="s">
+      <c r="A221" s="17" t="s">
         <v>610</v>
       </c>
     </row>
     <row r="222" spans="1:1">
-      <c r="A222" s="36" t="s">
+      <c r="A222" s="29" t="s">
         <v>611</v>
       </c>
     </row>
     <row r="223" spans="1:1">
-      <c r="A223" s="36" t="s">
+      <c r="A223" s="29" t="s">
         <v>585</v>
       </c>
     </row>
     <row r="224" spans="1:1">
-      <c r="A224" s="38" t="s">
+      <c r="A224" s="31" t="s">
         <v>612</v>
       </c>
     </row>
@@ -14169,87 +14169,87 @@
       <c r="A225" s="12"/>
     </row>
     <row r="226" spans="1:1">
-      <c r="A226" s="37" t="s">
+      <c r="A226" s="30" t="s">
         <v>613</v>
       </c>
     </row>
     <row r="227" spans="1:1">
-      <c r="A227" s="37" t="s">
+      <c r="A227" s="30" t="s">
         <v>614</v>
       </c>
     </row>
     <row r="228" spans="1:1">
-      <c r="A228" s="37" t="s">
+      <c r="A228" s="30" t="s">
         <v>615</v>
       </c>
     </row>
     <row r="229" spans="1:1">
-      <c r="A229" s="37" t="s">
+      <c r="A229" s="30" t="s">
         <v>616</v>
       </c>
     </row>
     <row r="230" spans="1:1">
-      <c r="A230" s="37" t="s">
+      <c r="A230" s="30" t="s">
         <v>617</v>
       </c>
     </row>
     <row r="231" spans="1:1" ht="18">
-      <c r="A231" s="18" t="s">
+      <c r="A231" s="17" t="s">
         <v>618</v>
       </c>
     </row>
     <row r="232" spans="1:1">
-      <c r="A232" s="36" t="s">
+      <c r="A232" s="29" t="s">
         <v>611</v>
       </c>
     </row>
     <row r="233" spans="1:1">
-      <c r="A233" s="36" t="s">
+      <c r="A233" s="29" t="s">
         <v>585</v>
       </c>
     </row>
     <row r="234" spans="1:1">
-      <c r="A234" s="37" t="s">
+      <c r="A234" s="30" t="s">
         <v>619</v>
       </c>
     </row>
     <row r="235" spans="1:1">
-      <c r="A235" s="37" t="s">
+      <c r="A235" s="30" t="s">
         <v>620</v>
       </c>
     </row>
     <row r="236" spans="1:1">
-      <c r="A236" s="37" t="s">
+      <c r="A236" s="30" t="s">
         <v>621</v>
       </c>
     </row>
     <row r="237" spans="1:1">
-      <c r="A237" s="37" t="s">
+      <c r="A237" s="30" t="s">
         <v>622</v>
       </c>
     </row>
     <row r="238" spans="1:1">
-      <c r="A238" s="37" t="s">
+      <c r="A238" s="30" t="s">
         <v>623</v>
       </c>
     </row>
     <row r="239" spans="1:1">
-      <c r="A239" s="37" t="s">
+      <c r="A239" s="30" t="s">
         <v>624</v>
       </c>
     </row>
     <row r="240" spans="1:1">
-      <c r="A240" s="37" t="s">
+      <c r="A240" s="30" t="s">
         <v>625</v>
       </c>
     </row>
     <row r="241" spans="1:1">
-      <c r="A241" s="37" t="s">
+      <c r="A241" s="30" t="s">
         <v>597</v>
       </c>
     </row>
     <row r="242" spans="1:1">
-      <c r="A242" s="37" t="s">
+      <c r="A242" s="30" t="s">
         <v>617</v>
       </c>
     </row>
@@ -14272,7 +14272,7 @@
       <c r="A249" s="13"/>
     </row>
     <row r="250" spans="1:1" ht="22.2">
-      <c r="A250" s="33" t="s">
+      <c r="A250" s="26" t="s">
         <v>626</v>
       </c>
     </row>
@@ -14280,7 +14280,7 @@
       <c r="A251" s="13"/>
     </row>
     <row r="252" spans="1:1">
-      <c r="A252" s="17" t="s">
+      <c r="A252" s="16" t="s">
         <v>627</v>
       </c>
     </row>
@@ -14288,35 +14288,35 @@
       <c r="A253" s="8"/>
     </row>
     <row r="254" spans="1:1">
-      <c r="A254" s="36" t="s">
+      <c r="A254" s="29" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="255" spans="1:1">
-      <c r="A255" s="36" t="s">
+      <c r="A255" s="29" t="s">
         <v>585</v>
       </c>
     </row>
     <row r="256" spans="1:1">
-      <c r="A256" s="37" t="s">
+      <c r="A256" s="30" t="s">
         <v>628</v>
       </c>
     </row>
     <row r="257" spans="1:1">
-      <c r="A257" s="20"/>
+      <c r="A257" s="19"/>
     </row>
     <row r="258" spans="1:1">
-      <c r="A258" s="39" t="s">
+      <c r="A258" s="32" t="s">
         <v>629</v>
       </c>
     </row>
     <row r="259" spans="1:1">
-      <c r="A259" s="39" t="s">
+      <c r="A259" s="32" t="s">
         <v>630</v>
       </c>
     </row>
     <row r="260" spans="1:1">
-      <c r="A260" s="39" t="s">
+      <c r="A260" s="32" t="s">
         <v>631</v>
       </c>
     </row>
@@ -14338,18 +14338,18 @@
     <row r="267" spans="1:1">
       <c r="A267" s="13"/>
     </row>
-    <row r="268" spans="1:1" ht="54">
-      <c r="A268" s="18" t="s">
+    <row r="268" spans="1:1" ht="36">
+      <c r="A268" s="17" t="s">
         <v>632</v>
       </c>
     </row>
     <row r="269" spans="1:1">
-      <c r="A269" s="15" t="s">
+      <c r="A269" s="14" t="s">
         <v>469</v>
       </c>
     </row>
     <row r="270" spans="1:1" ht="27.6">
-      <c r="A270" s="16" t="s">
+      <c r="A270" s="15" t="s">
         <v>633</v>
       </c>
     </row>
@@ -14362,40 +14362,40 @@
       <c r="A272" s="13"/>
     </row>
     <row r="273" spans="1:1">
-      <c r="A273" s="17" t="s">
+      <c r="A273" s="16" t="s">
         <v>634</v>
       </c>
     </row>
     <row r="274" spans="1:1">
-      <c r="A274" s="20"/>
+      <c r="A274" s="19"/>
     </row>
     <row r="275" spans="1:1">
-      <c r="A275" s="39" t="s">
+      <c r="A275" s="32" t="s">
         <v>635</v>
       </c>
     </row>
     <row r="276" spans="1:1">
-      <c r="A276" s="39" t="s">
+      <c r="A276" s="32" t="s">
         <v>636</v>
       </c>
     </row>
     <row r="277" spans="1:1">
-      <c r="A277" s="39" t="s">
+      <c r="A277" s="32" t="s">
         <v>637</v>
       </c>
     </row>
     <row r="278" spans="1:1">
-      <c r="A278" s="39" t="s">
+      <c r="A278" s="32" t="s">
         <v>638</v>
       </c>
     </row>
     <row r="279" spans="1:1">
-      <c r="A279" s="39" t="s">
+      <c r="A279" s="32" t="s">
         <v>639</v>
       </c>
     </row>
     <row r="280" spans="1:1">
-      <c r="A280" s="39" t="s">
+      <c r="A280" s="32" t="s">
         <v>640</v>
       </c>
     </row>
@@ -14418,7 +14418,7 @@
       <c r="A287" s="13"/>
     </row>
     <row r="288" spans="1:1" ht="18">
-      <c r="A288" s="31" t="s">
+      <c r="A288" s="24" t="s">
         <v>641</v>
       </c>
     </row>
@@ -14426,7 +14426,7 @@
       <c r="A289" s="13"/>
     </row>
     <row r="290" spans="1:1" ht="27.6">
-      <c r="A290" s="17" t="s">
+      <c r="A290" s="16" t="s">
         <v>642</v>
       </c>
     </row>
@@ -14449,12 +14449,12 @@
       <c r="A297" s="13"/>
     </row>
     <row r="298" spans="1:1" ht="18">
-      <c r="A298" s="18" t="s">
+      <c r="A298" s="17" t="s">
         <v>643</v>
       </c>
     </row>
     <row r="299" spans="1:1" ht="15.6">
-      <c r="A299" s="35" t="s">
+      <c r="A299" s="28" t="s">
         <v>644</v>
       </c>
     </row>
@@ -14462,7 +14462,7 @@
       <c r="A300" s="13"/>
     </row>
     <row r="301" spans="1:1">
-      <c r="A301" s="17" t="s">
+      <c r="A301" s="16" t="s">
         <v>645</v>
       </c>
     </row>
@@ -14470,7 +14470,7 @@
       <c r="A302" s="13"/>
     </row>
     <row r="303" spans="1:1">
-      <c r="A303" s="32" t="s">
+      <c r="A303" s="25" t="s">
         <v>646</v>
       </c>
     </row>
@@ -14478,22 +14478,22 @@
       <c r="A304" s="8"/>
     </row>
     <row r="305" spans="1:1">
-      <c r="A305" s="36" t="s">
+      <c r="A305" s="29" t="s">
         <v>611</v>
       </c>
     </row>
     <row r="306" spans="1:1">
-      <c r="A306" s="36" t="s">
+      <c r="A306" s="29" t="s">
         <v>585</v>
       </c>
     </row>
     <row r="307" spans="1:1">
-      <c r="A307" s="40" t="s">
+      <c r="A307" s="33" t="s">
         <v>647</v>
       </c>
     </row>
     <row r="308" spans="1:1">
-      <c r="A308" s="38" t="s">
+      <c r="A308" s="31" t="s">
         <v>612</v>
       </c>
     </row>
@@ -14501,27 +14501,27 @@
       <c r="A309" s="12"/>
     </row>
     <row r="310" spans="1:1">
-      <c r="A310" s="37" t="s">
+      <c r="A310" s="30" t="s">
         <v>613</v>
       </c>
     </row>
     <row r="311" spans="1:1">
-      <c r="A311" s="37" t="s">
+      <c r="A311" s="30" t="s">
         <v>648</v>
       </c>
     </row>
     <row r="312" spans="1:1">
-      <c r="A312" s="37" t="s">
+      <c r="A312" s="30" t="s">
         <v>649</v>
       </c>
     </row>
     <row r="313" spans="1:1">
-      <c r="A313" s="37" t="s">
+      <c r="A313" s="30" t="s">
         <v>650</v>
       </c>
     </row>
     <row r="314" spans="1:1">
-      <c r="A314" s="37" t="s">
+      <c r="A314" s="30" t="s">
         <v>617</v>
       </c>
     </row>
@@ -14529,7 +14529,7 @@
       <c r="A315" s="12"/>
     </row>
     <row r="316" spans="1:1">
-      <c r="A316" s="41" t="s">
+      <c r="A316" s="34" t="s">
         <v>651</v>
       </c>
     </row>
@@ -14537,7 +14537,7 @@
       <c r="A317" s="13"/>
     </row>
     <row r="318" spans="1:1">
-      <c r="A318" s="17" t="s">
+      <c r="A318" s="16" t="s">
         <v>652</v>
       </c>
     </row>
@@ -14560,7 +14560,7 @@
       <c r="A325" s="13"/>
     </row>
     <row r="326" spans="1:1" ht="15.6">
-      <c r="A326" s="35" t="s">
+      <c r="A326" s="28" t="s">
         <v>653</v>
       </c>
     </row>
@@ -14568,7 +14568,7 @@
       <c r="A327" s="13"/>
     </row>
     <row r="328" spans="1:1">
-      <c r="A328" s="17" t="s">
+      <c r="A328" s="16" t="s">
         <v>654</v>
       </c>
     </row>
@@ -14576,22 +14576,22 @@
       <c r="A329" s="8"/>
     </row>
     <row r="330" spans="1:1">
-      <c r="A330" s="36" t="s">
+      <c r="A330" s="29" t="s">
         <v>611</v>
       </c>
     </row>
     <row r="331" spans="1:1">
-      <c r="A331" s="36" t="s">
+      <c r="A331" s="29" t="s">
         <v>585</v>
       </c>
     </row>
     <row r="332" spans="1:1">
-      <c r="A332" s="40" t="s">
+      <c r="A332" s="33" t="s">
         <v>655</v>
       </c>
     </row>
     <row r="333" spans="1:1">
-      <c r="A333" s="38" t="s">
+      <c r="A333" s="31" t="s">
         <v>656</v>
       </c>
     </row>
@@ -14599,22 +14599,22 @@
       <c r="A334" s="12"/>
     </row>
     <row r="335" spans="1:1">
-      <c r="A335" s="38" t="s">
+      <c r="A335" s="31" t="s">
         <v>657</v>
       </c>
     </row>
     <row r="336" spans="1:1">
-      <c r="A336" s="37" t="s">
+      <c r="A336" s="30" t="s">
         <v>658</v>
       </c>
     </row>
     <row r="337" spans="1:1">
-      <c r="A337" s="37" t="s">
+      <c r="A337" s="30" t="s">
         <v>659</v>
       </c>
     </row>
     <row r="338" spans="1:1">
-      <c r="A338" s="37" t="s">
+      <c r="A338" s="30" t="s">
         <v>660</v>
       </c>
     </row>
@@ -14622,17 +14622,17 @@
       <c r="A339" s="12"/>
     </row>
     <row r="340" spans="1:1">
-      <c r="A340" s="37" t="s">
+      <c r="A340" s="30" t="s">
         <v>661</v>
       </c>
     </row>
     <row r="341" spans="1:1">
-      <c r="A341" s="37" t="s">
+      <c r="A341" s="30" t="s">
         <v>662</v>
       </c>
     </row>
     <row r="342" spans="1:1">
-      <c r="A342" s="37" t="s">
+      <c r="A342" s="30" t="s">
         <v>663</v>
       </c>
     </row>
@@ -14640,32 +14640,32 @@
       <c r="A343" s="12"/>
     </row>
     <row r="344" spans="1:1">
-      <c r="A344" s="37" t="s">
+      <c r="A344" s="30" t="s">
         <v>664</v>
       </c>
     </row>
     <row r="345" spans="1:1">
-      <c r="A345" s="37" t="s">
+      <c r="A345" s="30" t="s">
         <v>665</v>
       </c>
     </row>
     <row r="346" spans="1:1">
-      <c r="A346" s="37" t="s">
+      <c r="A346" s="30" t="s">
         <v>666</v>
       </c>
     </row>
     <row r="347" spans="1:1">
-      <c r="A347" s="37" t="s">
+      <c r="A347" s="30" t="s">
         <v>667</v>
       </c>
     </row>
     <row r="348" spans="1:1">
-      <c r="A348" s="37" t="s">
+      <c r="A348" s="30" t="s">
         <v>668</v>
       </c>
     </row>
     <row r="349" spans="1:1">
-      <c r="A349" s="37" t="s">
+      <c r="A349" s="30" t="s">
         <v>211</v>
       </c>
     </row>
@@ -14673,7 +14673,7 @@
       <c r="A350" s="12"/>
     </row>
     <row r="351" spans="1:1">
-      <c r="A351" s="41" t="s">
+      <c r="A351" s="34" t="s">
         <v>669</v>
       </c>
     </row>
@@ -14696,7 +14696,7 @@
       <c r="A358" s="13"/>
     </row>
     <row r="359" spans="1:1" ht="15.6">
-      <c r="A359" s="35" t="s">
+      <c r="A359" s="28" t="s">
         <v>670</v>
       </c>
     </row>
@@ -14704,7 +14704,7 @@
       <c r="A360" s="13"/>
     </row>
     <row r="361" spans="1:1">
-      <c r="A361" s="17" t="s">
+      <c r="A361" s="16" t="s">
         <v>671</v>
       </c>
     </row>
@@ -14712,32 +14712,32 @@
       <c r="A362" s="8"/>
     </row>
     <row r="363" spans="1:1">
-      <c r="A363" s="36" t="s">
+      <c r="A363" s="29" t="s">
         <v>611</v>
       </c>
     </row>
     <row r="364" spans="1:1">
-      <c r="A364" s="36" t="s">
+      <c r="A364" s="29" t="s">
         <v>585</v>
       </c>
     </row>
     <row r="365" spans="1:1">
-      <c r="A365" s="38" t="s">
+      <c r="A365" s="31" t="s">
         <v>672</v>
       </c>
     </row>
     <row r="366" spans="1:1">
-      <c r="A366" s="38" t="s">
+      <c r="A366" s="31" t="s">
         <v>673</v>
       </c>
     </row>
     <row r="367" spans="1:1">
-      <c r="A367" s="38" t="s">
+      <c r="A367" s="31" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="368" spans="1:1">
-      <c r="A368" s="38" t="s">
+      <c r="A368" s="31" t="s">
         <v>675</v>
       </c>
     </row>
@@ -14745,7 +14745,7 @@
       <c r="A369" s="12"/>
     </row>
     <row r="370" spans="1:1">
-      <c r="A370" s="38" t="s">
+      <c r="A370" s="31" t="s">
         <v>676</v>
       </c>
     </row>
@@ -14753,7 +14753,7 @@
       <c r="A371" s="12"/>
     </row>
     <row r="372" spans="1:1">
-      <c r="A372" s="37" t="s">
+      <c r="A372" s="30" t="s">
         <v>677</v>
       </c>
     </row>
@@ -14761,7 +14761,7 @@
       <c r="A373" s="12"/>
     </row>
     <row r="374" spans="1:1">
-      <c r="A374" s="41" t="s">
+      <c r="A374" s="34" t="s">
         <v>678</v>
       </c>
     </row>
@@ -14784,7 +14784,7 @@
       <c r="A381" s="13"/>
     </row>
     <row r="382" spans="1:1" ht="15.6">
-      <c r="A382" s="35" t="s">
+      <c r="A382" s="28" t="s">
         <v>679</v>
       </c>
     </row>
@@ -14792,7 +14792,7 @@
       <c r="A383" s="13"/>
     </row>
     <row r="384" spans="1:1">
-      <c r="A384" s="17" t="s">
+      <c r="A384" s="16" t="s">
         <v>680</v>
       </c>
     </row>
@@ -14815,47 +14815,47 @@
       <c r="A391" s="13"/>
     </row>
     <row r="392" spans="1:2" ht="18">
-      <c r="A392" s="18" t="s">
+      <c r="A392" s="17" t="s">
         <v>681</v>
       </c>
     </row>
-    <row r="393" spans="1:2" ht="76.8" thickBot="1">
-      <c r="A393" s="22" t="s">
+    <row r="393" spans="1:2" ht="51.6" thickBot="1">
+      <c r="A393" s="21" t="s">
         <v>682</v>
       </c>
-      <c r="B393" s="22" t="s">
+      <c r="B393" s="21" t="s">
         <v>683</v>
       </c>
     </row>
     <row r="394" spans="1:2" ht="38.4" thickBot="1">
-      <c r="A394" s="42" t="s">
+      <c r="A394" s="35" t="s">
         <v>684</v>
       </c>
-      <c r="B394" s="24" t="s">
+      <c r="B394" s="23" t="s">
         <v>685</v>
       </c>
     </row>
     <row r="395" spans="1:2" ht="51" thickBot="1">
-      <c r="A395" s="42" t="s">
+      <c r="A395" s="35" t="s">
         <v>638</v>
       </c>
-      <c r="B395" s="24" t="s">
+      <c r="B395" s="23" t="s">
         <v>686</v>
       </c>
     </row>
     <row r="396" spans="1:2" ht="38.4" thickBot="1">
-      <c r="A396" s="42" t="s">
+      <c r="A396" s="35" t="s">
         <v>637</v>
       </c>
-      <c r="B396" s="24" t="s">
+      <c r="B396" s="23" t="s">
         <v>687</v>
       </c>
     </row>
     <row r="397" spans="1:2" ht="50.4">
-      <c r="A397" s="43" t="s">
+      <c r="A397" s="36" t="s">
         <v>636</v>
       </c>
-      <c r="B397" s="23" t="s">
+      <c r="B397" s="22" t="s">
         <v>688</v>
       </c>
     </row>
@@ -14878,7 +14878,7 @@
       <c r="A404" s="13"/>
     </row>
     <row r="405" spans="1:1" ht="27.6">
-      <c r="A405" s="17" t="s">
+      <c r="A405" s="16" t="s">
         <v>689</v>
       </c>
     </row>
@@ -14886,12 +14886,12 @@
       <c r="A406" s="8"/>
     </row>
     <row r="407" spans="1:1">
-      <c r="A407" s="15" t="s">
+      <c r="A407" s="14" t="s">
         <v>469</v>
       </c>
     </row>
     <row r="408" spans="1:1" ht="409.6">
-      <c r="A408" s="16" t="s">
+      <c r="A408" s="15" t="s">
         <v>690</v>
       </c>
     </row>
@@ -14904,7 +14904,7 @@
       <c r="A410" s="13"/>
     </row>
     <row r="411" spans="1:1" ht="41.4">
-      <c r="A411" s="17" t="s">
+      <c r="A411" s="16" t="s">
         <v>691</v>
       </c>
     </row>
@@ -14927,7 +14927,7 @@
       <c r="A418" s="13"/>
     </row>
     <row r="419" spans="1:1" ht="63.6">
-      <c r="A419" s="44" t="s">
+      <c r="A419" s="37" t="s">
         <v>692</v>
       </c>
     </row>
@@ -14950,7 +14950,7 @@
       <c r="A426" s="13"/>
     </row>
     <row r="427" spans="1:1" ht="18">
-      <c r="A427" s="18" t="s">
+      <c r="A427" s="17" t="s">
         <v>693</v>
       </c>
     </row>
@@ -14958,7 +14958,7 @@
       <c r="A428" s="13"/>
     </row>
     <row r="429" spans="1:1" ht="27.6">
-      <c r="A429" s="17" t="s">
+      <c r="A429" s="16" t="s">
         <v>694</v>
       </c>
     </row>
@@ -14966,27 +14966,27 @@
       <c r="A430" s="8"/>
     </row>
     <row r="431" spans="1:1">
-      <c r="A431" s="36" t="s">
+      <c r="A431" s="29" t="s">
         <v>611</v>
       </c>
     </row>
     <row r="432" spans="1:1">
-      <c r="A432" s="36" t="s">
+      <c r="A432" s="29" t="s">
         <v>585</v>
       </c>
     </row>
     <row r="433" spans="1:1">
-      <c r="A433" s="40" t="s">
+      <c r="A433" s="33" t="s">
         <v>647</v>
       </c>
     </row>
     <row r="434" spans="1:1">
-      <c r="A434" s="38" t="s">
+      <c r="A434" s="31" t="s">
         <v>695</v>
       </c>
     </row>
     <row r="435" spans="1:1">
-      <c r="A435" s="38" t="s">
+      <c r="A435" s="31" t="s">
         <v>696</v>
       </c>
     </row>
@@ -14994,7 +14994,7 @@
       <c r="A436" s="12"/>
     </row>
     <row r="437" spans="1:1">
-      <c r="A437" s="37" t="s">
+      <c r="A437" s="30" t="s">
         <v>697</v>
       </c>
     </row>
@@ -15002,27 +15002,27 @@
       <c r="A438" s="12"/>
     </row>
     <row r="439" spans="1:1">
-      <c r="A439" s="37" t="s">
+      <c r="A439" s="30" t="s">
         <v>698</v>
       </c>
     </row>
     <row r="440" spans="1:1">
-      <c r="A440" s="37" t="s">
+      <c r="A440" s="30" t="s">
         <v>699</v>
       </c>
     </row>
     <row r="441" spans="1:1">
-      <c r="A441" s="37" t="s">
+      <c r="A441" s="30" t="s">
         <v>700</v>
       </c>
     </row>
     <row r="442" spans="1:1">
-      <c r="A442" s="37" t="s">
+      <c r="A442" s="30" t="s">
         <v>701</v>
       </c>
     </row>
     <row r="443" spans="1:1">
-      <c r="A443" s="37" t="s">
+      <c r="A443" s="30" t="s">
         <v>617</v>
       </c>
     </row>
@@ -15030,7 +15030,7 @@
       <c r="A444" s="12"/>
     </row>
     <row r="445" spans="1:1">
-      <c r="A445" s="38" t="s">
+      <c r="A445" s="31" t="s">
         <v>702</v>
       </c>
     </row>
@@ -15038,7 +15038,7 @@
       <c r="A446" s="13"/>
     </row>
     <row r="447" spans="1:1">
-      <c r="A447" s="17" t="s">
+      <c r="A447" s="16" t="s">
         <v>703</v>
       </c>
     </row>
@@ -15046,27 +15046,27 @@
       <c r="A448" s="8"/>
     </row>
     <row r="449" spans="1:1">
-      <c r="A449" s="36" t="s">
+      <c r="A449" s="29" t="s">
         <v>704</v>
       </c>
     </row>
     <row r="450" spans="1:1">
-      <c r="A450" s="36" t="s">
+      <c r="A450" s="29" t="s">
         <v>585</v>
       </c>
     </row>
     <row r="451" spans="1:1">
-      <c r="A451" s="41" t="s">
+      <c r="A451" s="34" t="s">
         <v>705</v>
       </c>
     </row>
     <row r="452" spans="1:1">
-      <c r="A452" s="41" t="s">
+      <c r="A452" s="34" t="s">
         <v>706</v>
       </c>
     </row>
     <row r="453" spans="1:1">
-      <c r="A453" s="41" t="s">
+      <c r="A453" s="34" t="s">
         <v>707</v>
       </c>
     </row>
@@ -15089,7 +15089,7 @@
       <c r="A460" s="13"/>
     </row>
     <row r="461" spans="1:1" ht="18">
-      <c r="A461" s="18" t="s">
+      <c r="A461" s="17" t="s">
         <v>708</v>
       </c>
     </row>
@@ -15097,7 +15097,7 @@
       <c r="A462" s="13"/>
     </row>
     <row r="463" spans="1:1">
-      <c r="A463" s="17" t="s">
+      <c r="A463" s="16" t="s">
         <v>709</v>
       </c>
     </row>
@@ -15105,17 +15105,17 @@
       <c r="A464" s="8"/>
     </row>
     <row r="465" spans="1:1">
-      <c r="A465" s="36" t="s">
+      <c r="A465" s="29" t="s">
         <v>611</v>
       </c>
     </row>
     <row r="466" spans="1:1">
-      <c r="A466" s="36" t="s">
+      <c r="A466" s="29" t="s">
         <v>585</v>
       </c>
     </row>
     <row r="467" spans="1:1">
-      <c r="A467" s="38" t="s">
+      <c r="A467" s="31" t="s">
         <v>710</v>
       </c>
     </row>
@@ -15123,32 +15123,32 @@
       <c r="A468" s="12"/>
     </row>
     <row r="469" spans="1:1">
-      <c r="A469" s="40" t="s">
+      <c r="A469" s="33" t="s">
         <v>711</v>
       </c>
     </row>
     <row r="470" spans="1:1">
-      <c r="A470" s="38" t="s">
+      <c r="A470" s="31" t="s">
         <v>712</v>
       </c>
     </row>
     <row r="471" spans="1:1">
-      <c r="A471" s="37" t="s">
+      <c r="A471" s="30" t="s">
         <v>658</v>
       </c>
     </row>
     <row r="472" spans="1:1">
-      <c r="A472" s="37" t="s">
+      <c r="A472" s="30" t="s">
         <v>713</v>
       </c>
     </row>
     <row r="473" spans="1:1">
-      <c r="A473" s="37" t="s">
+      <c r="A473" s="30" t="s">
         <v>714</v>
       </c>
     </row>
     <row r="474" spans="1:1">
-      <c r="A474" s="37" t="s">
+      <c r="A474" s="30" t="s">
         <v>597</v>
       </c>
     </row>
@@ -15156,22 +15156,22 @@
       <c r="A475" s="12"/>
     </row>
     <row r="476" spans="1:1">
-      <c r="A476" s="37" t="s">
+      <c r="A476" s="30" t="s">
         <v>715</v>
       </c>
     </row>
     <row r="477" spans="1:1">
-      <c r="A477" s="37" t="s">
+      <c r="A477" s="30" t="s">
         <v>716</v>
       </c>
     </row>
     <row r="478" spans="1:1">
-      <c r="A478" s="37" t="s">
+      <c r="A478" s="30" t="s">
         <v>717</v>
       </c>
     </row>
     <row r="479" spans="1:1">
-      <c r="A479" s="37" t="s">
+      <c r="A479" s="30" t="s">
         <v>663</v>
       </c>
     </row>
@@ -15179,37 +15179,37 @@
       <c r="A480" s="12"/>
     </row>
     <row r="481" spans="1:1">
-      <c r="A481" s="37" t="s">
+      <c r="A481" s="30" t="s">
         <v>718</v>
       </c>
     </row>
     <row r="482" spans="1:1">
-      <c r="A482" s="37" t="s">
+      <c r="A482" s="30" t="s">
         <v>719</v>
       </c>
     </row>
     <row r="483" spans="1:1">
-      <c r="A483" s="37" t="s">
+      <c r="A483" s="30" t="s">
         <v>665</v>
       </c>
     </row>
     <row r="484" spans="1:1">
-      <c r="A484" s="37" t="s">
+      <c r="A484" s="30" t="s">
         <v>720</v>
       </c>
     </row>
     <row r="485" spans="1:1">
-      <c r="A485" s="37" t="s">
+      <c r="A485" s="30" t="s">
         <v>721</v>
       </c>
     </row>
     <row r="486" spans="1:1">
-      <c r="A486" s="37" t="s">
+      <c r="A486" s="30" t="s">
         <v>668</v>
       </c>
     </row>
     <row r="487" spans="1:1">
-      <c r="A487" s="37" t="s">
+      <c r="A487" s="30" t="s">
         <v>211</v>
       </c>
     </row>
@@ -15232,7 +15232,7 @@
       <c r="A494" s="13"/>
     </row>
     <row r="495" spans="1:1" ht="18">
-      <c r="A495" s="18" t="s">
+      <c r="A495" s="17" t="s">
         <v>722</v>
       </c>
     </row>
@@ -15240,7 +15240,7 @@
       <c r="A496" s="13"/>
     </row>
     <row r="497" spans="1:1">
-      <c r="A497" s="17" t="s">
+      <c r="A497" s="16" t="s">
         <v>723</v>
       </c>
     </row>
@@ -15248,27 +15248,27 @@
       <c r="A498" s="8"/>
     </row>
     <row r="499" spans="1:1">
-      <c r="A499" s="36" t="s">
+      <c r="A499" s="29" t="s">
         <v>611</v>
       </c>
     </row>
     <row r="500" spans="1:1">
-      <c r="A500" s="36" t="s">
+      <c r="A500" s="29" t="s">
         <v>585</v>
       </c>
     </row>
     <row r="501" spans="1:1">
-      <c r="A501" s="38" t="s">
+      <c r="A501" s="31" t="s">
         <v>724</v>
       </c>
     </row>
     <row r="502" spans="1:1">
-      <c r="A502" s="38" t="s">
+      <c r="A502" s="31" t="s">
         <v>725</v>
       </c>
     </row>
     <row r="503" spans="1:1">
-      <c r="A503" s="38" t="s">
+      <c r="A503" s="31" t="s">
         <v>726</v>
       </c>
     </row>
@@ -15276,12 +15276,12 @@
       <c r="A504" s="12"/>
     </row>
     <row r="505" spans="1:1">
-      <c r="A505" s="38" t="s">
+      <c r="A505" s="31" t="s">
         <v>673</v>
       </c>
     </row>
     <row r="506" spans="1:1">
-      <c r="A506" s="38" t="s">
+      <c r="A506" s="31" t="s">
         <v>727</v>
       </c>
     </row>
@@ -15289,12 +15289,12 @@
       <c r="A507" s="12"/>
     </row>
     <row r="508" spans="1:1">
-      <c r="A508" s="40" t="s">
+      <c r="A508" s="33" t="s">
         <v>728</v>
       </c>
     </row>
     <row r="509" spans="1:1">
-      <c r="A509" s="37" t="s">
+      <c r="A509" s="30" t="s">
         <v>729</v>
       </c>
     </row>
@@ -15302,7 +15302,7 @@
       <c r="A510" s="12"/>
     </row>
     <row r="511" spans="1:1">
-      <c r="A511" s="38" t="s">
+      <c r="A511" s="31" t="s">
         <v>730</v>
       </c>
     </row>
@@ -15325,7 +15325,7 @@
       <c r="A518" s="13"/>
     </row>
     <row r="519" spans="1:1" ht="18">
-      <c r="A519" s="18" t="s">
+      <c r="A519" s="17" t="s">
         <v>731</v>
       </c>
     </row>
@@ -15333,7 +15333,7 @@
       <c r="A520" s="13"/>
     </row>
     <row r="521" spans="1:1">
-      <c r="A521" s="17" t="s">
+      <c r="A521" s="16" t="s">
         <v>732</v>
       </c>
     </row>
@@ -15341,27 +15341,27 @@
       <c r="A522" s="8"/>
     </row>
     <row r="523" spans="1:1">
-      <c r="A523" s="36" t="s">
+      <c r="A523" s="29" t="s">
         <v>611</v>
       </c>
     </row>
     <row r="524" spans="1:1">
-      <c r="A524" s="36" t="s">
+      <c r="A524" s="29" t="s">
         <v>585</v>
       </c>
     </row>
     <row r="525" spans="1:1">
-      <c r="A525" s="38" t="s">
+      <c r="A525" s="31" t="s">
         <v>733</v>
       </c>
     </row>
     <row r="526" spans="1:1">
-      <c r="A526" s="37" t="s">
+      <c r="A526" s="30" t="s">
         <v>734</v>
       </c>
     </row>
     <row r="527" spans="1:1">
-      <c r="A527" s="37" t="s">
+      <c r="A527" s="30" t="s">
         <v>735</v>
       </c>
     </row>
@@ -15369,22 +15369,22 @@
       <c r="A528" s="12"/>
     </row>
     <row r="529" spans="1:1">
-      <c r="A529" s="37" t="s">
+      <c r="A529" s="30" t="s">
         <v>736</v>
       </c>
     </row>
     <row r="530" spans="1:1">
-      <c r="A530" s="37" t="s">
+      <c r="A530" s="30" t="s">
         <v>737</v>
       </c>
     </row>
     <row r="531" spans="1:1">
-      <c r="A531" s="37" t="s">
+      <c r="A531" s="30" t="s">
         <v>738</v>
       </c>
     </row>
     <row r="532" spans="1:1">
-      <c r="A532" s="37" t="s">
+      <c r="A532" s="30" t="s">
         <v>598</v>
       </c>
     </row>
@@ -15392,17 +15392,17 @@
       <c r="A533" s="12"/>
     </row>
     <row r="534" spans="1:1">
-      <c r="A534" s="37" t="s">
+      <c r="A534" s="30" t="s">
         <v>739</v>
       </c>
     </row>
     <row r="535" spans="1:1">
-      <c r="A535" s="37" t="s">
+      <c r="A535" s="30" t="s">
         <v>740</v>
       </c>
     </row>
     <row r="536" spans="1:1">
-      <c r="A536" s="37" t="s">
+      <c r="A536" s="30" t="s">
         <v>668</v>
       </c>
     </row>
@@ -15410,17 +15410,17 @@
       <c r="A537" s="12"/>
     </row>
     <row r="538" spans="1:1">
-      <c r="A538" s="37" t="s">
+      <c r="A538" s="30" t="s">
         <v>741</v>
       </c>
     </row>
     <row r="539" spans="1:1">
-      <c r="A539" s="37" t="s">
+      <c r="A539" s="30" t="s">
         <v>742</v>
       </c>
     </row>
     <row r="540" spans="1:1">
-      <c r="A540" s="37" t="s">
+      <c r="A540" s="30" t="s">
         <v>211</v>
       </c>
     </row>
@@ -15443,7 +15443,7 @@
       <c r="A547" s="13"/>
     </row>
     <row r="548" spans="1:2" ht="18">
-      <c r="A548" s="18" t="s">
+      <c r="A548" s="17" t="s">
         <v>743</v>
       </c>
     </row>
@@ -15451,7 +15451,7 @@
       <c r="A549" s="13"/>
     </row>
     <row r="550" spans="1:2" ht="27.6">
-      <c r="A550" s="17" t="s">
+      <c r="A550" s="16" t="s">
         <v>744</v>
       </c>
     </row>
@@ -15474,47 +15474,47 @@
       <c r="A557" s="13"/>
     </row>
     <row r="558" spans="1:2" ht="22.2">
-      <c r="A558" s="33" t="s">
+      <c r="A558" s="26" t="s">
         <v>745</v>
       </c>
     </row>
     <row r="559" spans="1:2" ht="26.4" thickBot="1">
-      <c r="A559" s="22" t="s">
+      <c r="A559" s="21" t="s">
         <v>746</v>
       </c>
-      <c r="B559" s="22" t="s">
+      <c r="B559" s="21" t="s">
         <v>747</v>
       </c>
     </row>
     <row r="560" spans="1:2" ht="38.4" thickBot="1">
-      <c r="A560" s="24" t="s">
+      <c r="A560" s="23" t="s">
         <v>748</v>
       </c>
-      <c r="B560" s="42" t="s">
+      <c r="B560" s="35" t="s">
         <v>684</v>
       </c>
     </row>
     <row r="561" spans="1:2" ht="63.6" thickBot="1">
-      <c r="A561" s="24" t="s">
+      <c r="A561" s="23" t="s">
         <v>749</v>
       </c>
-      <c r="B561" s="24" t="s">
+      <c r="B561" s="23" t="s">
         <v>750</v>
       </c>
     </row>
     <row r="562" spans="1:2" ht="51" thickBot="1">
-      <c r="A562" s="24" t="s">
+      <c r="A562" s="23" t="s">
         <v>687</v>
       </c>
-      <c r="B562" s="24" t="s">
+      <c r="B562" s="23" t="s">
         <v>751</v>
       </c>
     </row>
     <row r="563" spans="1:2" ht="37.799999999999997">
-      <c r="A563" s="23" t="s">
+      <c r="A563" s="22" t="s">
         <v>752</v>
       </c>
-      <c r="B563" s="23" t="s">
+      <c r="B563" s="22" t="s">
         <v>753</v>
       </c>
     </row>
@@ -15537,7 +15537,7 @@
       <c r="A570" s="13"/>
     </row>
     <row r="571" spans="1:2" ht="27.6">
-      <c r="A571" s="17" t="s">
+      <c r="A571" s="16" t="s">
         <v>754</v>
       </c>
     </row>
@@ -15545,44 +15545,44 @@
       <c r="A572" s="8"/>
     </row>
     <row r="573" spans="1:2">
-      <c r="A573" s="45" t="s">
+      <c r="A573" s="38" t="s">
         <v>755</v>
       </c>
     </row>
     <row r="574" spans="1:2">
-      <c r="A574" s="46" t="s">
+      <c r="A574" s="39" t="s">
         <v>756</v>
       </c>
     </row>
     <row r="575" spans="1:2">
-      <c r="A575" s="46" t="s">
+      <c r="A575" s="39" t="s">
         <v>757</v>
       </c>
     </row>
     <row r="576" spans="1:2">
-      <c r="A576" s="47" t="s">
+      <c r="A576" s="40" t="s">
         <v>758</v>
       </c>
     </row>
     <row r="577" spans="1:1">
-      <c r="A577" s="48" t="s">
+      <c r="A577" s="41" t="s">
         <v>759</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A117:A120"/>
+    <mergeCell ref="C117:C120"/>
+    <mergeCell ref="D117:D120"/>
+    <mergeCell ref="A121:A124"/>
+    <mergeCell ref="C121:C124"/>
+    <mergeCell ref="D121:D124"/>
     <mergeCell ref="A125:A127"/>
     <mergeCell ref="C125:C127"/>
     <mergeCell ref="D125:D127"/>
     <mergeCell ref="A128:A130"/>
     <mergeCell ref="C128:C130"/>
     <mergeCell ref="D128:D130"/>
-    <mergeCell ref="A117:A120"/>
-    <mergeCell ref="C117:C120"/>
-    <mergeCell ref="D117:D120"/>
-    <mergeCell ref="A121:A124"/>
-    <mergeCell ref="C121:C124"/>
-    <mergeCell ref="D121:D124"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" location="main" display="https://chatgpt.com/ - main"/>
@@ -15597,7 +15597,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
@@ -15635,7 +15635,7 @@
     </row>
     <row r="9" spans="2:2">
       <c r="B9" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
   </sheetData>

--- a/Project-MRA/Project MRA.xlsx
+++ b/Project-MRA/Project MRA.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Programming\GIT\Qinshift-homeworks\Project-MRA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Viktor\Desktop\Tenderi\WEB\PROG\Qinshift-homeworks\Project-MRA\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E60B054E-DC8C-489F-AB18-682D9E5E7D50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="764" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Public" sheetId="1" r:id="rId1"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="951" uniqueCount="771">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="957" uniqueCount="777">
   <si>
     <t>Contact details</t>
   </si>
@@ -1017,18 +1018,6 @@
     <t>temp - Mitko</t>
   </si>
   <si>
-    <t xml:space="preserve">Create page Contact with </t>
-  </si>
-  <si>
-    <t>contact form</t>
-  </si>
-  <si>
-    <t>multilanguage dropdown</t>
-  </si>
-  <si>
-    <t>json kade kje se cuvaat porakite</t>
-  </si>
-  <si>
     <t>mrallround5@gmail.com</t>
   </si>
   <si>
@@ -8384,11 +8373,278 @@
   <si>
     <t>Upload_preset:unsigned_preset</t>
   </si>
+  <si>
+    <t xml:space="preserve">Preimenuvani se klasite </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se izbrisani </t>
+  </si>
+  <si>
+    <t>#languageToggle</t>
+  </si>
+  <si>
+    <t>#dropdownToggle</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Vo </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>main.css</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">.dorpdown </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>vo</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> .dropdownLanguageSelector</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">.dorpdown-toggle </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>vo</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> .dropdownLanguageSelector-toggle</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">.dorpdown-menu </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>vo</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> .dropdownLanguageSelector-menu</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Za integriranje na </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>multilingual dropdown</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> vo </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>navbar</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> od ticket </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>navBar#9</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Vo </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>contact.html</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, kopiran e block </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nav</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> I vo nego vo poslednoto </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>li</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> celosniot </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>div</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> e zamenet so nov.</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="42">
     <font>
       <sz val="11"/>
@@ -8754,9 +9010,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -8841,6 +9094,7 @@
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -8866,7 +9120,7 @@
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -12677,14 +12931,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B4:N30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="4" spans="2:14">
       <c r="B4" t="s">
@@ -12701,7 +12955,7 @@
         <v>5</v>
       </c>
       <c r="M6" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
     </row>
     <row r="7" spans="2:14">
@@ -12709,7 +12963,7 @@
         <v>6</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="2:14">
@@ -12717,7 +12971,7 @@
         <v>23</v>
       </c>
       <c r="N8" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="2:14">
@@ -12725,10 +12979,10 @@
         <v>2</v>
       </c>
       <c r="M9" s="7" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="N9" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
     </row>
     <row r="10" spans="2:14">
@@ -12736,7 +12990,7 @@
         <v>18</v>
       </c>
       <c r="N10" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
     </row>
     <row r="11" spans="2:14">
@@ -12744,7 +12998,7 @@
         <v>19</v>
       </c>
       <c r="N11" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
     </row>
     <row r="12" spans="2:14">
@@ -12752,7 +13006,7 @@
         <v>2</v>
       </c>
       <c r="N12" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
     </row>
     <row r="13" spans="2:14">
@@ -12770,7 +13024,7 @@
         <v>21</v>
       </c>
       <c r="M15" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
     </row>
     <row r="16" spans="2:14">
@@ -12778,7 +13032,7 @@
         <v>7</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="17" spans="3:14">
@@ -12786,7 +13040,7 @@
         <v>22</v>
       </c>
       <c r="N17" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="18" spans="3:14">
@@ -12794,7 +13048,7 @@
         <v>13</v>
       </c>
       <c r="N18" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
     </row>
     <row r="19" spans="3:14">
@@ -12802,7 +13056,7 @@
         <v>14</v>
       </c>
       <c r="N19" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
     </row>
     <row r="20" spans="3:14">
@@ -12810,7 +13064,7 @@
         <v>15</v>
       </c>
       <c r="N20" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
     </row>
     <row r="21" spans="3:14">
@@ -12818,7 +13072,7 @@
         <v>8</v>
       </c>
       <c r="N21" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
     </row>
     <row r="22" spans="3:14">
@@ -12868,41 +13122,71 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="N7" r:id="rId1"/>
-    <hyperlink ref="N16" r:id="rId2"/>
+    <hyperlink ref="N7" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="N16" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="B3:E12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="2" spans="2:3">
-      <c r="B2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3">
-      <c r="C3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3">
+    <row r="3" spans="2:5">
+      <c r="B3" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5">
       <c r="C4" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5">
       <c r="C5" t="s">
-        <v>113</v>
+        <v>771</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5">
+      <c r="D6" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5">
+      <c r="E7" s="41" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5">
+      <c r="E8" s="41" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5">
+      <c r="D9" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5">
+      <c r="E10" s="41" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5">
+      <c r="E11" s="41" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5">
+      <c r="E12" s="41" t="s">
+        <v>774</v>
       </c>
     </row>
   </sheetData>
@@ -12911,24 +13195,24 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView topLeftCell="A17" workbookViewId="0">
       <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="35.33203125" customWidth="1"/>
-    <col min="2" max="2" width="30.109375" customWidth="1"/>
-    <col min="3" max="3" width="28.33203125" customWidth="1"/>
-    <col min="4" max="4" width="33.6640625" customWidth="1"/>
+    <col min="1" max="1" width="35.28515625" customWidth="1"/>
+    <col min="2" max="2" width="30.140625" customWidth="1"/>
+    <col min="3" max="3" width="28.28515625" customWidth="1"/>
+    <col min="4" max="4" width="33.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="48" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="B1" s="48"/>
       <c r="C1" s="48"/>
@@ -12936,7 +13220,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="48" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="B2" s="48"/>
       <c r="C2" s="48"/>
@@ -12944,7 +13228,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="48" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="B3" s="48"/>
       <c r="C3" s="48"/>
@@ -12952,7 +13236,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="48" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="B4" s="48"/>
       <c r="C4" s="48"/>
@@ -12960,7 +13244,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="48" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="B5" s="48"/>
       <c r="C5" s="48"/>
@@ -12968,7 +13252,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="48" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="B6" s="48"/>
       <c r="C6" s="48"/>
@@ -12976,7 +13260,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="48" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="B7" s="48"/>
       <c r="C7" s="48"/>
@@ -12990,7 +13274,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="6" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -12999,119 +13283,119 @@
     <row r="10" spans="1:4">
       <c r="A10" s="6"/>
       <c r="B10" s="48" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="C10" s="48"/>
       <c r="D10" s="48"/>
     </row>
-    <row r="11" spans="1:4" ht="43.2">
+    <row r="11" spans="1:4" ht="45">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
       <c r="D11" s="6" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="30">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
       <c r="D12" s="6" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="30">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
       <c r="D13" s="6" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="28.8">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="30">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
       <c r="D14" s="6" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="48" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="D15" s="48"/>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="B19" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="B20" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="B21" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="B23" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="B24" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="B25" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="B27" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="B28" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="B29" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
     <row r="33" spans="2:2">
       <c r="B33" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
     </row>
     <row r="34" spans="2:2">
       <c r="B34" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
     </row>
   </sheetData>
@@ -13131,2442 +13415,2442 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D577"/>
   <sheetViews>
     <sheetView topLeftCell="A164" workbookViewId="0">
       <selection activeCell="G172" sqref="G172"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="74.44140625" customWidth="1"/>
+    <col min="1" max="1" width="74.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="14" t="s">
-        <v>469</v>
+      <c r="A5" s="13" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="15" t="s">
-        <v>470</v>
+      <c r="A6" s="14" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="9" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="13"/>
-    </row>
-    <row r="9" spans="1:1" ht="27.6">
-      <c r="A9" s="16" t="s">
+      <c r="A8" s="6"/>
+    </row>
+    <row r="9" spans="1:1" ht="25.5">
+      <c r="A9" s="15" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="6"/>
+    </row>
+    <row r="11" spans="1:1" ht="18">
+      <c r="A11" s="16" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="17" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="25.5">
+      <c r="A13" s="17" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" ht="25.5">
+      <c r="A14" s="17" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="13"/>
-    </row>
-    <row r="11" spans="1:1" ht="18">
-      <c r="A11" s="17" t="s">
+    <row r="15" spans="1:1" ht="25.5">
+      <c r="A15" s="17" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
-      <c r="A12" s="18" t="s">
+    <row r="16" spans="1:1" ht="25.5">
+      <c r="A16" s="17" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="27.6">
-      <c r="A13" s="18" t="s">
+    <row r="17" spans="1:1" ht="25.5">
+      <c r="A17" s="17" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="14" spans="1:1" ht="27.6">
-      <c r="A14" s="18" t="s">
+    <row r="18" spans="1:1" ht="18">
+      <c r="A18" s="16" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
-      <c r="A15" s="18" t="s">
+    <row r="19" spans="1:1">
+      <c r="A19" s="6"/>
+    </row>
+    <row r="20" spans="1:1" ht="25.5">
+      <c r="A20" s="15" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="16" spans="1:1" ht="27.6">
-      <c r="A16" s="18" t="s">
+    <row r="21" spans="1:1">
+      <c r="A21" s="6"/>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="15" t="s">
         <v>477</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" ht="27.6">
-      <c r="A17" s="18" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" ht="18">
-      <c r="A18" s="17" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="13"/>
-    </row>
-    <row r="20" spans="1:1" ht="27.6">
-      <c r="A20" s="16" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="13"/>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="16" t="s">
-        <v>481</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="8"/>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="14" t="s">
-        <v>469</v>
+      <c r="A24" s="13" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="15" t="s">
-        <v>482</v>
+      <c r="A25" s="14" t="s">
+        <v>478</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="9" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="13"/>
-    </row>
-    <row r="28" spans="1:1" ht="27.6">
-      <c r="A28" s="16" t="s">
+      <c r="A27" s="6"/>
+    </row>
+    <row r="28" spans="1:1" ht="25.5">
+      <c r="A28" s="15" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="6"/>
+    </row>
+    <row r="30" spans="1:1" ht="18">
+      <c r="A30" s="16" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="19" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="19" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="19" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
-      <c r="A29" s="13"/>
-    </row>
-    <row r="30" spans="1:1" ht="18">
-      <c r="A30" s="17" t="s">
+    <row r="34" spans="1:1" ht="18">
+      <c r="A34" s="16" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
-      <c r="A31" s="20" t="s">
+    <row r="35" spans="1:1">
+      <c r="A35" s="19" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
-      <c r="A32" s="20" t="s">
+    <row r="36" spans="1:1">
+      <c r="A36" s="19" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
-      <c r="A33" s="20" t="s">
+    <row r="37" spans="1:1">
+      <c r="A37" s="19" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="34" spans="1:1" ht="18">
-      <c r="A34" s="17" t="s">
+    <row r="38" spans="1:1">
+      <c r="A38" s="19" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
-      <c r="A35" s="20" t="s">
+    <row r="39" spans="1:1" ht="18">
+      <c r="A39" s="16" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="20" t="s">
+    <row r="40" spans="1:1">
+      <c r="A40" s="19" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
-      <c r="A37" s="20" t="s">
+    <row r="41" spans="1:1">
+      <c r="A41" s="19" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
-      <c r="A38" s="20" t="s">
+    <row r="42" spans="1:1">
+      <c r="A42" s="19" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="39" spans="1:1" ht="18">
-      <c r="A39" s="17" t="s">
+    <row r="43" spans="1:1" ht="18">
+      <c r="A43" s="16" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
-      <c r="A40" s="20" t="s">
+    <row r="44" spans="1:1" ht="25.5">
+      <c r="A44" s="19" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
-      <c r="A41" s="20" t="s">
+    <row r="45" spans="1:1">
+      <c r="A45" s="19" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
-      <c r="A42" s="20" t="s">
+    <row r="46" spans="1:1" ht="36">
+      <c r="A46" s="16" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="43" spans="1:1" ht="18">
-      <c r="A43" s="17" t="s">
+    <row r="47" spans="1:1" ht="25.5">
+      <c r="A47" s="19" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="44" spans="1:1" ht="27.6">
-      <c r="A44" s="20" t="s">
+    <row r="48" spans="1:1">
+      <c r="A48" s="19" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="45" spans="1:1">
-      <c r="A45" s="20" t="s">
+    <row r="49" spans="1:1" ht="18">
+      <c r="A49" s="16" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="46" spans="1:1" ht="36">
-      <c r="A46" s="17" t="s">
+    <row r="50" spans="1:1">
+      <c r="A50" s="19" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="47" spans="1:1" ht="27.6">
-      <c r="A47" s="20" t="s">
+    <row r="51" spans="1:1" ht="25.5">
+      <c r="A51" s="19" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="48" spans="1:1">
-      <c r="A48" s="20" t="s">
+    <row r="52" spans="1:1">
+      <c r="A52" s="6"/>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" s="6"/>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" s="6"/>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" s="6"/>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" s="6"/>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" s="6"/>
+    </row>
+    <row r="59" spans="1:1" ht="25.5">
+      <c r="A59" s="15" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="49" spans="1:1" ht="18">
-      <c r="A49" s="17" t="s">
+    <row r="60" spans="1:1">
+      <c r="A60" s="6"/>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" s="15" t="s">
         <v>503</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1">
-      <c r="A50" s="20" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" ht="27.6">
-      <c r="A51" s="20" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1">
-      <c r="A52" s="13"/>
-    </row>
-    <row r="53" spans="1:1">
-      <c r="A53" s="13"/>
-    </row>
-    <row r="54" spans="1:1">
-      <c r="A54" s="13"/>
-    </row>
-    <row r="56" spans="1:1">
-      <c r="A56" s="13"/>
-    </row>
-    <row r="57" spans="1:1">
-      <c r="A57" s="13"/>
-    </row>
-    <row r="58" spans="1:1">
-      <c r="A58" s="13"/>
-    </row>
-    <row r="59" spans="1:1" ht="27.6">
-      <c r="A59" s="16" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1">
-      <c r="A60" s="13"/>
-    </row>
-    <row r="61" spans="1:1">
-      <c r="A61" s="16" t="s">
-        <v>507</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" s="8"/>
     </row>
     <row r="63" spans="1:1">
-      <c r="A63" s="14" t="s">
-        <v>469</v>
+      <c r="A63" s="13" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="64" spans="1:1">
-      <c r="A64" s="15" t="s">
-        <v>508</v>
+      <c r="A64" s="14" t="s">
+        <v>504</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" s="9" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
     </row>
     <row r="66" spans="1:1">
-      <c r="A66" s="13"/>
-    </row>
-    <row r="67" spans="1:1" ht="27.6">
-      <c r="A67" s="16" t="s">
+      <c r="A66" s="6"/>
+    </row>
+    <row r="67" spans="1:1" ht="25.5">
+      <c r="A67" s="15" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" s="6"/>
+    </row>
+    <row r="69" spans="1:1" ht="18">
+      <c r="A69" s="16" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" s="19" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" s="19" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" s="19" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="68" spans="1:1">
-      <c r="A68" s="13"/>
-    </row>
-    <row r="69" spans="1:1" ht="18">
-      <c r="A69" s="17" t="s">
+    <row r="73" spans="1:1">
+      <c r="A73" s="19" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" s="19" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="70" spans="1:1">
-      <c r="A70" s="20" t="s">
+    <row r="75" spans="1:1" ht="18">
+      <c r="A75" s="16" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="71" spans="1:1">
-      <c r="A71" s="20" t="s">
+    <row r="76" spans="1:1">
+      <c r="A76" s="19" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="72" spans="1:1">
-      <c r="A72" s="20" t="s">
+    <row r="77" spans="1:1" ht="25.5">
+      <c r="A77" s="19" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="73" spans="1:1">
-      <c r="A73" s="20" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1">
-      <c r="A74" s="20" t="s">
+    <row r="78" spans="1:1" ht="18">
+      <c r="A78" s="16" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="75" spans="1:1" ht="18">
-      <c r="A75" s="17" t="s">
+    <row r="79" spans="1:1">
+      <c r="A79" s="19" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="76" spans="1:1">
-      <c r="A76" s="20" t="s">
+    <row r="80" spans="1:1">
+      <c r="A80" s="19" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="77" spans="1:1" ht="27.6">
-      <c r="A77" s="20" t="s">
+    <row r="81" spans="1:1" ht="25.5">
+      <c r="A81" s="19" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="78" spans="1:1" ht="18">
-      <c r="A78" s="17" t="s">
+    <row r="82" spans="1:1">
+      <c r="A82" s="19" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="79" spans="1:1">
-      <c r="A79" s="20" t="s">
+    <row r="83" spans="1:1" ht="18">
+      <c r="A83" s="16" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="80" spans="1:1">
-      <c r="A80" s="20" t="s">
+    <row r="84" spans="1:1">
+      <c r="A84" s="19" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="81" spans="1:1" ht="27.6">
-      <c r="A81" s="20" t="s">
+    <row r="85" spans="1:1">
+      <c r="A85" s="19" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="82" spans="1:1">
-      <c r="A82" s="20" t="s">
+    <row r="86" spans="1:1">
+      <c r="A86" s="19" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="83" spans="1:1" ht="18">
-      <c r="A83" s="17" t="s">
+    <row r="87" spans="1:1" ht="18">
+      <c r="A87" s="16" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="84" spans="1:1">
-      <c r="A84" s="20" t="s">
+    <row r="88" spans="1:1" ht="25.5">
+      <c r="A88" s="19" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="85" spans="1:1">
-      <c r="A85" s="20" t="s">
+    <row r="89" spans="1:1" ht="25.5">
+      <c r="A89" s="19" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="86" spans="1:1">
-      <c r="A86" s="20" t="s">
+    <row r="90" spans="1:1">
+      <c r="A90" s="6"/>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91" s="6"/>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92" s="6"/>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94" s="6"/>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95" s="6"/>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96" s="6"/>
+    </row>
+    <row r="97" spans="1:1" ht="18">
+      <c r="A97" s="16" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="87" spans="1:1" ht="18">
-      <c r="A87" s="17" t="s">
+    <row r="98" spans="1:1">
+      <c r="A98" s="17" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="88" spans="1:1" ht="27.6">
-      <c r="A88" s="20" t="s">
+    <row r="99" spans="1:1">
+      <c r="A99" s="17" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="89" spans="1:1" ht="27.6">
-      <c r="A89" s="20" t="s">
+    <row r="100" spans="1:1">
+      <c r="A100" s="17" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="90" spans="1:1">
-      <c r="A90" s="13"/>
-    </row>
-    <row r="91" spans="1:1">
-      <c r="A91" s="13"/>
-    </row>
-    <row r="92" spans="1:1">
-      <c r="A92" s="13"/>
-    </row>
-    <row r="94" spans="1:1">
-      <c r="A94" s="13"/>
-    </row>
-    <row r="95" spans="1:1">
-      <c r="A95" s="13"/>
-    </row>
-    <row r="96" spans="1:1">
-      <c r="A96" s="13"/>
-    </row>
-    <row r="97" spans="1:1" ht="18">
-      <c r="A97" s="17" t="s">
+    <row r="101" spans="1:1">
+      <c r="A101" s="6"/>
+    </row>
+    <row r="102" spans="1:1">
+      <c r="A102" s="6"/>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103" s="6"/>
+    </row>
+    <row r="105" spans="1:1">
+      <c r="A105" s="6"/>
+    </row>
+    <row r="106" spans="1:1">
+      <c r="A106" s="6"/>
+    </row>
+    <row r="107" spans="1:1">
+      <c r="A107" s="6"/>
+    </row>
+    <row r="108" spans="1:1" ht="25.5">
+      <c r="A108" s="15" t="s">
         <v>530</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1">
-      <c r="A98" s="18" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1">
-      <c r="A99" s="18" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1">
-      <c r="A100" s="18" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1">
-      <c r="A101" s="13"/>
-    </row>
-    <row r="102" spans="1:1">
-      <c r="A102" s="13"/>
-    </row>
-    <row r="103" spans="1:1">
-      <c r="A103" s="13"/>
-    </row>
-    <row r="105" spans="1:1">
-      <c r="A105" s="13"/>
-    </row>
-    <row r="106" spans="1:1">
-      <c r="A106" s="13"/>
-    </row>
-    <row r="107" spans="1:1">
-      <c r="A107" s="13"/>
-    </row>
-    <row r="108" spans="1:1" ht="27.6">
-      <c r="A108" s="16" t="s">
-        <v>534</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109" s="8"/>
     </row>
     <row r="110" spans="1:1">
-      <c r="A110" s="14" t="s">
-        <v>469</v>
+      <c r="A110" s="13" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="111" spans="1:1">
-      <c r="A111" s="15" t="s">
-        <v>535</v>
+      <c r="A111" s="14" t="s">
+        <v>531</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112" s="9" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
     </row>
     <row r="113" spans="1:4">
-      <c r="A113" s="13"/>
-    </row>
-    <row r="114" spans="1:4" ht="27.6">
-      <c r="A114" s="16" t="s">
+      <c r="A113" s="6"/>
+    </row>
+    <row r="114" spans="1:4" ht="25.5">
+      <c r="A114" s="15" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" s="15"/>
+    </row>
+    <row r="116" spans="1:4" ht="39.75" thickBot="1">
+      <c r="A116" s="20" t="s">
+        <v>533</v>
+      </c>
+      <c r="B116" s="20" t="s">
+        <v>534</v>
+      </c>
+      <c r="C116" s="20" t="s">
+        <v>535</v>
+      </c>
+      <c r="D116" s="20" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="115" spans="1:4">
-      <c r="A115" s="16"/>
-    </row>
-    <row r="116" spans="1:4" ht="39" thickBot="1">
-      <c r="A116" s="21" t="s">
+    <row r="117" spans="1:4" ht="127.5">
+      <c r="A117" s="42" t="s">
         <v>537</v>
       </c>
-      <c r="B116" s="21" t="s">
+      <c r="B117" s="21" t="s">
         <v>538</v>
       </c>
-      <c r="C116" s="21" t="s">
+      <c r="C117" s="45" t="s">
+        <v>542</v>
+      </c>
+      <c r="D117" s="45" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" ht="25.5">
+      <c r="A118" s="43"/>
+      <c r="B118" s="21" t="s">
         <v>539</v>
-      </c>
-      <c r="D116" s="21" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" ht="113.4">
-      <c r="A117" s="42" t="s">
-        <v>541</v>
-      </c>
-      <c r="B117" s="22" t="s">
-        <v>542</v>
-      </c>
-      <c r="C117" s="45" t="s">
-        <v>546</v>
-      </c>
-      <c r="D117" s="45" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" ht="25.2">
-      <c r="A118" s="43"/>
-      <c r="B118" s="22" t="s">
-        <v>543</v>
       </c>
       <c r="C118" s="46"/>
       <c r="D118" s="46"/>
     </row>
-    <row r="119" spans="1:4" ht="50.4">
+    <row r="119" spans="1:4" ht="51">
       <c r="A119" s="43"/>
-      <c r="B119" s="22" t="s">
-        <v>544</v>
+      <c r="B119" s="21" t="s">
+        <v>540</v>
       </c>
       <c r="C119" s="46"/>
       <c r="D119" s="46"/>
     </row>
-    <row r="120" spans="1:4" ht="38.4" thickBot="1">
+    <row r="120" spans="1:4" ht="51.75" thickBot="1">
       <c r="A120" s="44"/>
-      <c r="B120" s="23" t="s">
-        <v>545</v>
+      <c r="B120" s="22" t="s">
+        <v>541</v>
       </c>
       <c r="C120" s="47"/>
       <c r="D120" s="47"/>
     </row>
-    <row r="121" spans="1:4" ht="37.799999999999997">
+    <row r="121" spans="1:4" ht="38.25">
       <c r="A121" s="42" t="s">
-        <v>548</v>
-      </c>
-      <c r="B121" s="22" t="s">
+        <v>544</v>
+      </c>
+      <c r="B121" s="21" t="s">
+        <v>545</v>
+      </c>
+      <c r="C121" s="45" t="s">
         <v>549</v>
       </c>
-      <c r="C121" s="45" t="s">
-        <v>553</v>
-      </c>
       <c r="D121" s="45" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" ht="25.2">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" ht="25.5">
       <c r="A122" s="43"/>
-      <c r="B122" s="22" t="s">
-        <v>550</v>
+      <c r="B122" s="21" t="s">
+        <v>546</v>
       </c>
       <c r="C122" s="46"/>
       <c r="D122" s="46"/>
     </row>
-    <row r="123" spans="1:4" ht="37.799999999999997">
+    <row r="123" spans="1:4" ht="51">
       <c r="A123" s="43"/>
-      <c r="B123" s="22" t="s">
-        <v>551</v>
+      <c r="B123" s="21" t="s">
+        <v>547</v>
       </c>
       <c r="C123" s="46"/>
       <c r="D123" s="46"/>
     </row>
-    <row r="124" spans="1:4" ht="25.8" thickBot="1">
+    <row r="124" spans="1:4" ht="26.25" thickBot="1">
       <c r="A124" s="44"/>
-      <c r="B124" s="23" t="s">
-        <v>552</v>
+      <c r="B124" s="22" t="s">
+        <v>548</v>
       </c>
       <c r="C124" s="47"/>
       <c r="D124" s="47"/>
     </row>
-    <row r="125" spans="1:4" ht="37.799999999999997">
+    <row r="125" spans="1:4" ht="38.25">
       <c r="A125" s="42" t="s">
+        <v>551</v>
+      </c>
+      <c r="B125" s="21" t="s">
+        <v>552</v>
+      </c>
+      <c r="C125" s="45" t="s">
         <v>555</v>
       </c>
-      <c r="B125" s="22" t="s">
+      <c r="D125" s="45" t="s">
         <v>556</v>
       </c>
-      <c r="C125" s="45" t="s">
-        <v>559</v>
-      </c>
-      <c r="D125" s="45" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" ht="50.4">
+    </row>
+    <row r="126" spans="1:4" ht="63.75">
       <c r="A126" s="43"/>
-      <c r="B126" s="22" t="s">
-        <v>557</v>
+      <c r="B126" s="21" t="s">
+        <v>553</v>
       </c>
       <c r="C126" s="46"/>
       <c r="D126" s="46"/>
     </row>
-    <row r="127" spans="1:4" ht="76.2" thickBot="1">
+    <row r="127" spans="1:4" ht="90" thickBot="1">
       <c r="A127" s="44"/>
-      <c r="B127" s="23" t="s">
-        <v>558</v>
+      <c r="B127" s="22" t="s">
+        <v>554</v>
       </c>
       <c r="C127" s="47"/>
       <c r="D127" s="47"/>
     </row>
-    <row r="128" spans="1:4" ht="37.799999999999997">
+    <row r="128" spans="1:4" ht="51">
       <c r="A128" s="42" t="s">
+        <v>557</v>
+      </c>
+      <c r="B128" s="21" t="s">
+        <v>558</v>
+      </c>
+      <c r="C128" s="45" t="s">
         <v>561</v>
       </c>
-      <c r="B128" s="22" t="s">
+      <c r="D128" s="45" t="s">
         <v>562</v>
       </c>
-      <c r="C128" s="45" t="s">
-        <v>565</v>
-      </c>
-      <c r="D128" s="45" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" ht="25.2">
+    </row>
+    <row r="129" spans="1:4" ht="38.25">
       <c r="A129" s="43"/>
-      <c r="B129" s="22" t="s">
-        <v>563</v>
+      <c r="B129" s="21" t="s">
+        <v>559</v>
       </c>
       <c r="C129" s="46"/>
       <c r="D129" s="46"/>
     </row>
-    <row r="130" spans="1:4" ht="50.4">
+    <row r="130" spans="1:4" ht="51">
       <c r="A130" s="43"/>
-      <c r="B130" s="22" t="s">
-        <v>564</v>
+      <c r="B130" s="21" t="s">
+        <v>560</v>
       </c>
       <c r="C130" s="46"/>
       <c r="D130" s="46"/>
     </row>
     <row r="131" spans="1:4">
-      <c r="A131" s="13"/>
+      <c r="A131" s="6"/>
     </row>
     <row r="132" spans="1:4">
-      <c r="A132" s="13"/>
+      <c r="A132" s="6"/>
     </row>
     <row r="133" spans="1:4">
-      <c r="A133" s="13"/>
+      <c r="A133" s="6"/>
     </row>
     <row r="135" spans="1:4">
-      <c r="A135" s="13"/>
+      <c r="A135" s="6"/>
     </row>
     <row r="136" spans="1:4">
-      <c r="A136" s="13"/>
+      <c r="A136" s="6"/>
     </row>
     <row r="137" spans="1:4">
-      <c r="A137" s="13"/>
+      <c r="A137" s="6"/>
     </row>
     <row r="138" spans="1:4" ht="18">
-      <c r="A138" s="24" t="s">
+      <c r="A138" s="23" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139" s="6"/>
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140" s="24" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141" s="18"/>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142" s="19" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143" s="19" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144" s="19" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="139" spans="1:4">
-      <c r="A139" s="13"/>
-    </row>
-    <row r="140" spans="1:4">
-      <c r="A140" s="25" t="s">
+    <row r="145" spans="1:1">
+      <c r="A145" s="19" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="141" spans="1:4">
-      <c r="A141" s="19"/>
-    </row>
-    <row r="142" spans="1:4">
-      <c r="A142" s="20" t="s">
+    <row r="146" spans="1:1">
+      <c r="A146" s="19" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="143" spans="1:4">
-      <c r="A143" s="20" t="s">
+    <row r="147" spans="1:1">
+      <c r="A147" s="6"/>
+    </row>
+    <row r="148" spans="1:1" ht="25.5">
+      <c r="A148" s="24" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="144" spans="1:4">
-      <c r="A144" s="20" t="s">
+    <row r="149" spans="1:1">
+      <c r="A149" s="6"/>
+    </row>
+    <row r="150" spans="1:1">
+      <c r="A150" s="6"/>
+    </row>
+    <row r="151" spans="1:1">
+      <c r="A151" s="6"/>
+    </row>
+    <row r="153" spans="1:1">
+      <c r="A153" s="6"/>
+    </row>
+    <row r="154" spans="1:1">
+      <c r="A154" s="6"/>
+    </row>
+    <row r="155" spans="1:1">
+      <c r="A155" s="6"/>
+    </row>
+    <row r="156" spans="1:1" ht="25.5">
+      <c r="A156" s="15" t="s">
         <v>571</v>
-      </c>
-    </row>
-    <row r="145" spans="1:1">
-      <c r="A145" s="20" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="146" spans="1:1">
-      <c r="A146" s="20" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="147" spans="1:1">
-      <c r="A147" s="13"/>
-    </row>
-    <row r="148" spans="1:1" ht="27.6">
-      <c r="A148" s="25" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="149" spans="1:1">
-      <c r="A149" s="13"/>
-    </row>
-    <row r="150" spans="1:1">
-      <c r="A150" s="13"/>
-    </row>
-    <row r="151" spans="1:1">
-      <c r="A151" s="13"/>
-    </row>
-    <row r="153" spans="1:1">
-      <c r="A153" s="13"/>
-    </row>
-    <row r="154" spans="1:1">
-      <c r="A154" s="13"/>
-    </row>
-    <row r="155" spans="1:1">
-      <c r="A155" s="13"/>
-    </row>
-    <row r="156" spans="1:1" ht="27.6">
-      <c r="A156" s="16" t="s">
-        <v>575</v>
       </c>
     </row>
     <row r="157" spans="1:1">
       <c r="A157" s="8"/>
     </row>
     <row r="158" spans="1:1">
-      <c r="A158" s="14" t="s">
-        <v>469</v>
+      <c r="A158" s="13" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="159" spans="1:1">
-      <c r="A159" s="15" t="s">
-        <v>576</v>
+      <c r="A159" s="14" t="s">
+        <v>572</v>
       </c>
     </row>
     <row r="160" spans="1:1">
       <c r="A160" s="9" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
     </row>
     <row r="161" spans="1:1">
-      <c r="A161" s="13"/>
-    </row>
-    <row r="162" spans="1:1" ht="41.4">
-      <c r="A162" s="16" t="s">
+      <c r="A161" s="6"/>
+    </row>
+    <row r="162" spans="1:1" ht="38.25">
+      <c r="A162" s="15" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1">
+      <c r="A163" s="6"/>
+    </row>
+    <row r="164" spans="1:1">
+      <c r="A164" s="6"/>
+    </row>
+    <row r="165" spans="1:1">
+      <c r="A165" s="6"/>
+    </row>
+    <row r="167" spans="1:1">
+      <c r="A167" s="6"/>
+    </row>
+    <row r="168" spans="1:1">
+      <c r="A168" s="6"/>
+    </row>
+    <row r="169" spans="1:1">
+      <c r="A169" s="6"/>
+    </row>
+    <row r="170" spans="1:1" ht="21.75">
+      <c r="A170" s="25" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" ht="18">
+      <c r="A171" s="16" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1">
+      <c r="A172" s="26" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" ht="25.5">
+      <c r="A173" s="19" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="163" spans="1:1">
-      <c r="A163" s="13"/>
-    </row>
-    <row r="164" spans="1:1">
-      <c r="A164" s="13"/>
-    </row>
-    <row r="165" spans="1:1">
-      <c r="A165" s="13"/>
-    </row>
-    <row r="167" spans="1:1">
-      <c r="A167" s="13"/>
-    </row>
-    <row r="168" spans="1:1">
-      <c r="A168" s="13"/>
-    </row>
-    <row r="169" spans="1:1">
-      <c r="A169" s="13"/>
-    </row>
-    <row r="170" spans="1:1" ht="22.2">
-      <c r="A170" s="26" t="s">
+    <row r="174" spans="1:1" ht="18">
+      <c r="A174" s="16" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="171" spans="1:1" ht="18">
-      <c r="A171" s="17" t="s">
+    <row r="175" spans="1:1" ht="15.75">
+      <c r="A175" s="27" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="172" spans="1:1">
-      <c r="A172" s="27" t="s">
+    <row r="176" spans="1:1">
+      <c r="A176" s="6"/>
+    </row>
+    <row r="177" spans="1:1">
+      <c r="A177" s="15" t="s">
         <v>580</v>
-      </c>
-    </row>
-    <row r="173" spans="1:1" ht="27.6">
-      <c r="A173" s="20" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="174" spans="1:1" ht="18">
-      <c r="A174" s="17" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="175" spans="1:1" ht="15.6">
-      <c r="A175" s="28" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="176" spans="1:1">
-      <c r="A176" s="13"/>
-    </row>
-    <row r="177" spans="1:1">
-      <c r="A177" s="16" t="s">
-        <v>584</v>
       </c>
     </row>
     <row r="178" spans="1:1">
       <c r="A178" s="8"/>
     </row>
     <row r="179" spans="1:1">
-      <c r="A179" s="29" t="s">
-        <v>412</v>
+      <c r="A179" s="28" t="s">
+        <v>408</v>
       </c>
     </row>
     <row r="180" spans="1:1">
-      <c r="A180" s="29" t="s">
-        <v>585</v>
+      <c r="A180" s="28" t="s">
+        <v>581</v>
       </c>
     </row>
     <row r="181" spans="1:1">
-      <c r="A181" s="30" t="s">
-        <v>586</v>
+      <c r="A181" s="29" t="s">
+        <v>582</v>
       </c>
     </row>
     <row r="182" spans="1:1">
-      <c r="A182" s="13"/>
+      <c r="A182" s="6"/>
     </row>
     <row r="183" spans="1:1">
-      <c r="A183" s="16" t="s">
-        <v>587</v>
+      <c r="A183" s="15" t="s">
+        <v>583</v>
       </c>
     </row>
     <row r="184" spans="1:1">
       <c r="A184" s="8"/>
     </row>
     <row r="185" spans="1:1">
-      <c r="A185" s="29" t="s">
-        <v>412</v>
+      <c r="A185" s="28" t="s">
+        <v>408</v>
       </c>
     </row>
     <row r="186" spans="1:1">
-      <c r="A186" s="29" t="s">
-        <v>585</v>
+      <c r="A186" s="28" t="s">
+        <v>581</v>
       </c>
     </row>
     <row r="187" spans="1:1">
-      <c r="A187" s="30" t="s">
-        <v>588</v>
+      <c r="A187" s="29" t="s">
+        <v>584</v>
       </c>
     </row>
     <row r="188" spans="1:1">
       <c r="A188" s="12"/>
     </row>
     <row r="189" spans="1:1">
-      <c r="A189" s="30" t="s">
+      <c r="A189" s="29" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1">
+      <c r="A190" s="29" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1">
+      <c r="A191" s="29" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1">
+      <c r="A192" s="29" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1">
+      <c r="A193" s="29" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="190" spans="1:1">
-      <c r="A190" s="30" t="s">
+    <row r="194" spans="1:1">
+      <c r="A194" s="29" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="191" spans="1:1">
-      <c r="A191" s="30" t="s">
+    <row r="195" spans="1:1">
+      <c r="A195" s="29" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="192" spans="1:1">
-      <c r="A192" s="30" t="s">
+    <row r="196" spans="1:1">
+      <c r="A196" s="29" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="193" spans="1:1">
-      <c r="A193" s="30" t="s">
+    <row r="197" spans="1:1">
+      <c r="A197" s="29" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="194" spans="1:1">
-      <c r="A194" s="30" t="s">
+    <row r="198" spans="1:1">
+      <c r="A198" s="29" t="s">
         <v>594</v>
-      </c>
-    </row>
-    <row r="195" spans="1:1">
-      <c r="A195" s="30" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="196" spans="1:1">
-      <c r="A196" s="30" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="197" spans="1:1">
-      <c r="A197" s="30" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="198" spans="1:1">
-      <c r="A198" s="30" t="s">
-        <v>598</v>
       </c>
     </row>
     <row r="199" spans="1:1">
       <c r="A199" s="12"/>
     </row>
     <row r="200" spans="1:1">
-      <c r="A200" s="30" t="s">
-        <v>599</v>
+      <c r="A200" s="29" t="s">
+        <v>595</v>
       </c>
     </row>
     <row r="201" spans="1:1">
-      <c r="A201" s="30" t="s">
-        <v>600</v>
+      <c r="A201" s="29" t="s">
+        <v>596</v>
       </c>
     </row>
     <row r="202" spans="1:1">
-      <c r="A202" s="30" t="s">
-        <v>601</v>
+      <c r="A202" s="29" t="s">
+        <v>597</v>
       </c>
     </row>
     <row r="203" spans="1:1">
-      <c r="A203" s="30" t="s">
-        <v>602</v>
+      <c r="A203" s="29" t="s">
+        <v>598</v>
       </c>
     </row>
     <row r="204" spans="1:1">
       <c r="A204" s="12"/>
     </row>
     <row r="205" spans="1:1">
-      <c r="A205" s="30" t="s">
+      <c r="A205" s="29" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1">
+      <c r="A206" s="18"/>
+    </row>
+    <row r="207" spans="1:1" ht="25.5">
+      <c r="A207" s="19" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1">
+      <c r="A208" s="19" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1">
+      <c r="A209" s="6"/>
+    </row>
+    <row r="210" spans="1:1">
+      <c r="A210" s="6"/>
+    </row>
+    <row r="211" spans="1:1">
+      <c r="A211" s="6"/>
+    </row>
+    <row r="213" spans="1:1">
+      <c r="A213" s="6"/>
+    </row>
+    <row r="214" spans="1:1">
+      <c r="A214" s="6"/>
+    </row>
+    <row r="215" spans="1:1">
+      <c r="A215" s="6"/>
+    </row>
+    <row r="216" spans="1:1" ht="21.75">
+      <c r="A216" s="25" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" ht="18">
+      <c r="A217" s="16" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="206" spans="1:1">
-      <c r="A206" s="19"/>
-    </row>
-    <row r="207" spans="1:1" ht="27.6">
-      <c r="A207" s="20" t="s">
+    <row r="218" spans="1:1">
+      <c r="A218" s="28" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="208" spans="1:1">
-      <c r="A208" s="20" t="s">
+    <row r="219" spans="1:1">
+      <c r="A219" s="28" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1">
+      <c r="A220" s="29" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="209" spans="1:1">
-      <c r="A209" s="13"/>
-    </row>
-    <row r="210" spans="1:1">
-      <c r="A210" s="13"/>
-    </row>
-    <row r="211" spans="1:1">
-      <c r="A211" s="13"/>
-    </row>
-    <row r="213" spans="1:1">
-      <c r="A213" s="13"/>
-    </row>
-    <row r="214" spans="1:1">
-      <c r="A214" s="13"/>
-    </row>
-    <row r="215" spans="1:1">
-      <c r="A215" s="13"/>
-    </row>
-    <row r="216" spans="1:1" ht="22.2">
-      <c r="A216" s="26" t="s">
+    <row r="221" spans="1:1" ht="18">
+      <c r="A221" s="16" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="217" spans="1:1" ht="18">
-      <c r="A217" s="17" t="s">
+    <row r="222" spans="1:1">
+      <c r="A222" s="28" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="218" spans="1:1">
-      <c r="A218" s="29" t="s">
+    <row r="223" spans="1:1">
+      <c r="A223" s="28" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1">
+      <c r="A224" s="30" t="s">
         <v>608</v>
-      </c>
-    </row>
-    <row r="219" spans="1:1">
-      <c r="A219" s="29" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="220" spans="1:1">
-      <c r="A220" s="30" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="221" spans="1:1" ht="18">
-      <c r="A221" s="17" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="222" spans="1:1">
-      <c r="A222" s="29" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="223" spans="1:1">
-      <c r="A223" s="29" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="224" spans="1:1">
-      <c r="A224" s="31" t="s">
-        <v>612</v>
       </c>
     </row>
     <row r="225" spans="1:1">
       <c r="A225" s="12"/>
     </row>
     <row r="226" spans="1:1">
-      <c r="A226" s="30" t="s">
+      <c r="A226" s="29" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1">
+      <c r="A227" s="29" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1">
+      <c r="A228" s="29" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1">
+      <c r="A229" s="29" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1">
+      <c r="A230" s="29" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="227" spans="1:1">
-      <c r="A227" s="30" t="s">
+    <row r="231" spans="1:1" ht="18">
+      <c r="A231" s="16" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="228" spans="1:1">
-      <c r="A228" s="30" t="s">
+    <row r="232" spans="1:1">
+      <c r="A232" s="28" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1">
+      <c r="A233" s="28" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1">
+      <c r="A234" s="29" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="229" spans="1:1">
-      <c r="A229" s="30" t="s">
+    <row r="235" spans="1:1">
+      <c r="A235" s="29" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="230" spans="1:1">
-      <c r="A230" s="30" t="s">
+    <row r="236" spans="1:1">
+      <c r="A236" s="29" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="231" spans="1:1" ht="18">
-      <c r="A231" s="17" t="s">
+    <row r="237" spans="1:1">
+      <c r="A237" s="29" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="232" spans="1:1">
-      <c r="A232" s="29" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="233" spans="1:1">
-      <c r="A233" s="29" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="234" spans="1:1">
-      <c r="A234" s="30" t="s">
+    <row r="238" spans="1:1">
+      <c r="A238" s="29" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="235" spans="1:1">
-      <c r="A235" s="30" t="s">
+    <row r="239" spans="1:1">
+      <c r="A239" s="29" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="236" spans="1:1">
-      <c r="A236" s="30" t="s">
+    <row r="240" spans="1:1">
+      <c r="A240" s="29" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="237" spans="1:1">
-      <c r="A237" s="30" t="s">
+    <row r="241" spans="1:1">
+      <c r="A241" s="29" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1">
+      <c r="A242" s="29" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1">
+      <c r="A243" s="6"/>
+    </row>
+    <row r="244" spans="1:1">
+      <c r="A244" s="6"/>
+    </row>
+    <row r="245" spans="1:1">
+      <c r="A245" s="6"/>
+    </row>
+    <row r="247" spans="1:1">
+      <c r="A247" s="6"/>
+    </row>
+    <row r="248" spans="1:1">
+      <c r="A248" s="6"/>
+    </row>
+    <row r="249" spans="1:1">
+      <c r="A249" s="6"/>
+    </row>
+    <row r="250" spans="1:1" ht="21.75">
+      <c r="A250" s="25" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="238" spans="1:1">
-      <c r="A238" s="30" t="s">
+    <row r="251" spans="1:1">
+      <c r="A251" s="6"/>
+    </row>
+    <row r="252" spans="1:1">
+      <c r="A252" s="15" t="s">
         <v>623</v>
-      </c>
-    </row>
-    <row r="239" spans="1:1">
-      <c r="A239" s="30" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="240" spans="1:1">
-      <c r="A240" s="30" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="241" spans="1:1">
-      <c r="A241" s="30" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="242" spans="1:1">
-      <c r="A242" s="30" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="243" spans="1:1">
-      <c r="A243" s="13"/>
-    </row>
-    <row r="244" spans="1:1">
-      <c r="A244" s="13"/>
-    </row>
-    <row r="245" spans="1:1">
-      <c r="A245" s="13"/>
-    </row>
-    <row r="247" spans="1:1">
-      <c r="A247" s="13"/>
-    </row>
-    <row r="248" spans="1:1">
-      <c r="A248" s="13"/>
-    </row>
-    <row r="249" spans="1:1">
-      <c r="A249" s="13"/>
-    </row>
-    <row r="250" spans="1:1" ht="22.2">
-      <c r="A250" s="26" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="251" spans="1:1">
-      <c r="A251" s="13"/>
-    </row>
-    <row r="252" spans="1:1">
-      <c r="A252" s="16" t="s">
-        <v>627</v>
       </c>
     </row>
     <row r="253" spans="1:1">
       <c r="A253" s="8"/>
     </row>
     <row r="254" spans="1:1">
-      <c r="A254" s="29" t="s">
-        <v>412</v>
+      <c r="A254" s="28" t="s">
+        <v>408</v>
       </c>
     </row>
     <row r="255" spans="1:1">
-      <c r="A255" s="29" t="s">
-        <v>585</v>
+      <c r="A255" s="28" t="s">
+        <v>581</v>
       </c>
     </row>
     <row r="256" spans="1:1">
-      <c r="A256" s="30" t="s">
+      <c r="A256" s="29" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1">
+      <c r="A257" s="18"/>
+    </row>
+    <row r="258" spans="1:1">
+      <c r="A258" s="31" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1">
+      <c r="A259" s="31" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1">
+      <c r="A260" s="31" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1">
+      <c r="A261" s="6"/>
+    </row>
+    <row r="262" spans="1:1">
+      <c r="A262" s="6"/>
+    </row>
+    <row r="263" spans="1:1">
+      <c r="A263" s="6"/>
+    </row>
+    <row r="265" spans="1:1">
+      <c r="A265" s="6"/>
+    </row>
+    <row r="266" spans="1:1">
+      <c r="A266" s="6"/>
+    </row>
+    <row r="267" spans="1:1">
+      <c r="A267" s="6"/>
+    </row>
+    <row r="268" spans="1:1" ht="36">
+      <c r="A268" s="16" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="257" spans="1:1">
-      <c r="A257" s="19"/>
-    </row>
-    <row r="258" spans="1:1">
-      <c r="A258" s="32" t="s">
+    <row r="269" spans="1:1">
+      <c r="A269" s="13" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1" ht="25.5">
+      <c r="A270" s="14" t="s">
         <v>629</v>
-      </c>
-    </row>
-    <row r="259" spans="1:1">
-      <c r="A259" s="32" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="260" spans="1:1">
-      <c r="A260" s="32" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="261" spans="1:1">
-      <c r="A261" s="13"/>
-    </row>
-    <row r="262" spans="1:1">
-      <c r="A262" s="13"/>
-    </row>
-    <row r="263" spans="1:1">
-      <c r="A263" s="13"/>
-    </row>
-    <row r="265" spans="1:1">
-      <c r="A265" s="13"/>
-    </row>
-    <row r="266" spans="1:1">
-      <c r="A266" s="13"/>
-    </row>
-    <row r="267" spans="1:1">
-      <c r="A267" s="13"/>
-    </row>
-    <row r="268" spans="1:1" ht="36">
-      <c r="A268" s="17" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="269" spans="1:1">
-      <c r="A269" s="14" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="270" spans="1:1" ht="27.6">
-      <c r="A270" s="15" t="s">
-        <v>633</v>
       </c>
     </row>
     <row r="271" spans="1:1">
       <c r="A271" s="9" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
     </row>
     <row r="272" spans="1:1">
-      <c r="A272" s="13"/>
+      <c r="A272" s="6"/>
     </row>
     <row r="273" spans="1:1">
-      <c r="A273" s="16" t="s">
+      <c r="A273" s="15" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1">
+      <c r="A274" s="18"/>
+    </row>
+    <row r="275" spans="1:1">
+      <c r="A275" s="31" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1">
+      <c r="A276" s="31" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1">
+      <c r="A277" s="31" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1">
+      <c r="A278" s="31" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="274" spans="1:1">
-      <c r="A274" s="19"/>
-    </row>
-    <row r="275" spans="1:1">
-      <c r="A275" s="32" t="s">
+    <row r="279" spans="1:1">
+      <c r="A279" s="31" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="276" spans="1:1">
-      <c r="A276" s="32" t="s">
+    <row r="280" spans="1:1">
+      <c r="A280" s="31" t="s">
         <v>636</v>
       </c>
     </row>
-    <row r="277" spans="1:1">
-      <c r="A277" s="32" t="s">
+    <row r="281" spans="1:1">
+      <c r="A281" s="6"/>
+    </row>
+    <row r="282" spans="1:1">
+      <c r="A282" s="6"/>
+    </row>
+    <row r="283" spans="1:1">
+      <c r="A283" s="6"/>
+    </row>
+    <row r="285" spans="1:1">
+      <c r="A285" s="6"/>
+    </row>
+    <row r="286" spans="1:1">
+      <c r="A286" s="6"/>
+    </row>
+    <row r="287" spans="1:1">
+      <c r="A287" s="6"/>
+    </row>
+    <row r="288" spans="1:1" ht="36">
+      <c r="A288" s="23" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="278" spans="1:1">
-      <c r="A278" s="32" t="s">
+    <row r="289" spans="1:1">
+      <c r="A289" s="6"/>
+    </row>
+    <row r="290" spans="1:1" ht="25.5">
+      <c r="A290" s="15" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="279" spans="1:1">
-      <c r="A279" s="32" t="s">
+    <row r="291" spans="1:1">
+      <c r="A291" s="6"/>
+    </row>
+    <row r="292" spans="1:1">
+      <c r="A292" s="6"/>
+    </row>
+    <row r="293" spans="1:1">
+      <c r="A293" s="6"/>
+    </row>
+    <row r="295" spans="1:1">
+      <c r="A295" s="6"/>
+    </row>
+    <row r="296" spans="1:1">
+      <c r="A296" s="6"/>
+    </row>
+    <row r="297" spans="1:1">
+      <c r="A297" s="6"/>
+    </row>
+    <row r="298" spans="1:1" ht="18">
+      <c r="A298" s="16" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="280" spans="1:1">
-      <c r="A280" s="32" t="s">
+    <row r="299" spans="1:1" ht="15.75">
+      <c r="A299" s="27" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="281" spans="1:1">
-      <c r="A281" s="13"/>
-    </row>
-    <row r="282" spans="1:1">
-      <c r="A282" s="13"/>
-    </row>
-    <row r="283" spans="1:1">
-      <c r="A283" s="13"/>
-    </row>
-    <row r="285" spans="1:1">
-      <c r="A285" s="13"/>
-    </row>
-    <row r="286" spans="1:1">
-      <c r="A286" s="13"/>
-    </row>
-    <row r="287" spans="1:1">
-      <c r="A287" s="13"/>
-    </row>
-    <row r="288" spans="1:1" ht="18">
-      <c r="A288" s="24" t="s">
+    <row r="300" spans="1:1">
+      <c r="A300" s="6"/>
+    </row>
+    <row r="301" spans="1:1">
+      <c r="A301" s="15" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="289" spans="1:1">
-      <c r="A289" s="13"/>
-    </row>
-    <row r="290" spans="1:1" ht="27.6">
-      <c r="A290" s="16" t="s">
+    <row r="302" spans="1:1">
+      <c r="A302" s="6"/>
+    </row>
+    <row r="303" spans="1:1">
+      <c r="A303" s="24" t="s">
         <v>642</v>
-      </c>
-    </row>
-    <row r="291" spans="1:1">
-      <c r="A291" s="13"/>
-    </row>
-    <row r="292" spans="1:1">
-      <c r="A292" s="13"/>
-    </row>
-    <row r="293" spans="1:1">
-      <c r="A293" s="13"/>
-    </row>
-    <row r="295" spans="1:1">
-      <c r="A295" s="13"/>
-    </row>
-    <row r="296" spans="1:1">
-      <c r="A296" s="13"/>
-    </row>
-    <row r="297" spans="1:1">
-      <c r="A297" s="13"/>
-    </row>
-    <row r="298" spans="1:1" ht="18">
-      <c r="A298" s="17" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="299" spans="1:1" ht="15.6">
-      <c r="A299" s="28" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="300" spans="1:1">
-      <c r="A300" s="13"/>
-    </row>
-    <row r="301" spans="1:1">
-      <c r="A301" s="16" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="302" spans="1:1">
-      <c r="A302" s="13"/>
-    </row>
-    <row r="303" spans="1:1">
-      <c r="A303" s="25" t="s">
-        <v>646</v>
       </c>
     </row>
     <row r="304" spans="1:1">
       <c r="A304" s="8"/>
     </row>
     <row r="305" spans="1:1">
-      <c r="A305" s="29" t="s">
-        <v>611</v>
+      <c r="A305" s="28" t="s">
+        <v>607</v>
       </c>
     </row>
     <row r="306" spans="1:1">
-      <c r="A306" s="29" t="s">
-        <v>585</v>
+      <c r="A306" s="28" t="s">
+        <v>581</v>
       </c>
     </row>
     <row r="307" spans="1:1">
-      <c r="A307" s="33" t="s">
-        <v>647</v>
+      <c r="A307" s="32" t="s">
+        <v>643</v>
       </c>
     </row>
     <row r="308" spans="1:1">
-      <c r="A308" s="31" t="s">
-        <v>612</v>
+      <c r="A308" s="30" t="s">
+        <v>608</v>
       </c>
     </row>
     <row r="309" spans="1:1">
       <c r="A309" s="12"/>
     </row>
     <row r="310" spans="1:1">
-      <c r="A310" s="30" t="s">
+      <c r="A310" s="29" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1">
+      <c r="A311" s="29" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="312" spans="1:1">
+      <c r="A312" s="29" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="313" spans="1:1">
+      <c r="A313" s="29" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="314" spans="1:1">
+      <c r="A314" s="29" t="s">
         <v>613</v>
-      </c>
-    </row>
-    <row r="311" spans="1:1">
-      <c r="A311" s="30" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="312" spans="1:1">
-      <c r="A312" s="30" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="313" spans="1:1">
-      <c r="A313" s="30" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="314" spans="1:1">
-      <c r="A314" s="30" t="s">
-        <v>617</v>
       </c>
     </row>
     <row r="315" spans="1:1">
       <c r="A315" s="12"/>
     </row>
     <row r="316" spans="1:1">
-      <c r="A316" s="34" t="s">
-        <v>651</v>
+      <c r="A316" s="33" t="s">
+        <v>647</v>
       </c>
     </row>
     <row r="317" spans="1:1">
-      <c r="A317" s="13"/>
+      <c r="A317" s="6"/>
     </row>
     <row r="318" spans="1:1">
-      <c r="A318" s="16" t="s">
-        <v>652</v>
+      <c r="A318" s="15" t="s">
+        <v>648</v>
       </c>
     </row>
     <row r="319" spans="1:1">
-      <c r="A319" s="13"/>
+      <c r="A319" s="6"/>
     </row>
     <row r="320" spans="1:1">
-      <c r="A320" s="13"/>
+      <c r="A320" s="6"/>
     </row>
     <row r="321" spans="1:1">
-      <c r="A321" s="13"/>
+      <c r="A321" s="6"/>
     </row>
     <row r="323" spans="1:1">
-      <c r="A323" s="13"/>
+      <c r="A323" s="6"/>
     </row>
     <row r="324" spans="1:1">
-      <c r="A324" s="13"/>
+      <c r="A324" s="6"/>
     </row>
     <row r="325" spans="1:1">
-      <c r="A325" s="13"/>
-    </row>
-    <row r="326" spans="1:1" ht="15.6">
-      <c r="A326" s="28" t="s">
-        <v>653</v>
+      <c r="A325" s="6"/>
+    </row>
+    <row r="326" spans="1:1" ht="15.75">
+      <c r="A326" s="27" t="s">
+        <v>649</v>
       </c>
     </row>
     <row r="327" spans="1:1">
-      <c r="A327" s="13"/>
+      <c r="A327" s="6"/>
     </row>
     <row r="328" spans="1:1">
-      <c r="A328" s="16" t="s">
-        <v>654</v>
+      <c r="A328" s="15" t="s">
+        <v>650</v>
       </c>
     </row>
     <row r="329" spans="1:1">
       <c r="A329" s="8"/>
     </row>
     <row r="330" spans="1:1">
-      <c r="A330" s="29" t="s">
-        <v>611</v>
+      <c r="A330" s="28" t="s">
+        <v>607</v>
       </c>
     </row>
     <row r="331" spans="1:1">
-      <c r="A331" s="29" t="s">
-        <v>585</v>
+      <c r="A331" s="28" t="s">
+        <v>581</v>
       </c>
     </row>
     <row r="332" spans="1:1">
-      <c r="A332" s="33" t="s">
-        <v>655</v>
+      <c r="A332" s="32" t="s">
+        <v>651</v>
       </c>
     </row>
     <row r="333" spans="1:1">
-      <c r="A333" s="31" t="s">
-        <v>656</v>
+      <c r="A333" s="30" t="s">
+        <v>652</v>
       </c>
     </row>
     <row r="334" spans="1:1">
       <c r="A334" s="12"/>
     </row>
     <row r="335" spans="1:1">
-      <c r="A335" s="31" t="s">
-        <v>657</v>
+      <c r="A335" s="30" t="s">
+        <v>653</v>
       </c>
     </row>
     <row r="336" spans="1:1">
-      <c r="A336" s="30" t="s">
-        <v>658</v>
+      <c r="A336" s="29" t="s">
+        <v>654</v>
       </c>
     </row>
     <row r="337" spans="1:1">
-      <c r="A337" s="30" t="s">
-        <v>659</v>
+      <c r="A337" s="29" t="s">
+        <v>655</v>
       </c>
     </row>
     <row r="338" spans="1:1">
-      <c r="A338" s="30" t="s">
-        <v>660</v>
+      <c r="A338" s="29" t="s">
+        <v>656</v>
       </c>
     </row>
     <row r="339" spans="1:1">
       <c r="A339" s="12"/>
     </row>
     <row r="340" spans="1:1">
-      <c r="A340" s="30" t="s">
-        <v>661</v>
+      <c r="A340" s="29" t="s">
+        <v>657</v>
       </c>
     </row>
     <row r="341" spans="1:1">
-      <c r="A341" s="30" t="s">
-        <v>662</v>
+      <c r="A341" s="29" t="s">
+        <v>658</v>
       </c>
     </row>
     <row r="342" spans="1:1">
-      <c r="A342" s="30" t="s">
-        <v>663</v>
+      <c r="A342" s="29" t="s">
+        <v>659</v>
       </c>
     </row>
     <row r="343" spans="1:1">
       <c r="A343" s="12"/>
     </row>
     <row r="344" spans="1:1">
-      <c r="A344" s="30" t="s">
+      <c r="A344" s="29" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="345" spans="1:1">
+      <c r="A345" s="29" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="346" spans="1:1">
+      <c r="A346" s="29" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="347" spans="1:1">
+      <c r="A347" s="29" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="348" spans="1:1">
+      <c r="A348" s="29" t="s">
         <v>664</v>
       </c>
     </row>
-    <row r="345" spans="1:1">
-      <c r="A345" s="30" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="346" spans="1:1">
-      <c r="A346" s="30" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="347" spans="1:1">
-      <c r="A347" s="30" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="348" spans="1:1">
-      <c r="A348" s="30" t="s">
-        <v>668</v>
-      </c>
-    </row>
     <row r="349" spans="1:1">
-      <c r="A349" s="30" t="s">
-        <v>211</v>
+      <c r="A349" s="29" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="350" spans="1:1">
       <c r="A350" s="12"/>
     </row>
     <row r="351" spans="1:1">
-      <c r="A351" s="34" t="s">
-        <v>669</v>
+      <c r="A351" s="33" t="s">
+        <v>665</v>
       </c>
     </row>
     <row r="352" spans="1:1">
-      <c r="A352" s="13"/>
+      <c r="A352" s="6"/>
     </row>
     <row r="353" spans="1:1">
-      <c r="A353" s="13"/>
+      <c r="A353" s="6"/>
     </row>
     <row r="354" spans="1:1">
-      <c r="A354" s="13"/>
+      <c r="A354" s="6"/>
     </row>
     <row r="356" spans="1:1">
-      <c r="A356" s="13"/>
+      <c r="A356" s="6"/>
     </row>
     <row r="357" spans="1:1">
-      <c r="A357" s="13"/>
+      <c r="A357" s="6"/>
     </row>
     <row r="358" spans="1:1">
-      <c r="A358" s="13"/>
-    </row>
-    <row r="359" spans="1:1" ht="15.6">
-      <c r="A359" s="28" t="s">
-        <v>670</v>
+      <c r="A358" s="6"/>
+    </row>
+    <row r="359" spans="1:1" ht="15.75">
+      <c r="A359" s="27" t="s">
+        <v>666</v>
       </c>
     </row>
     <row r="360" spans="1:1">
-      <c r="A360" s="13"/>
+      <c r="A360" s="6"/>
     </row>
     <row r="361" spans="1:1">
-      <c r="A361" s="16" t="s">
-        <v>671</v>
+      <c r="A361" s="15" t="s">
+        <v>667</v>
       </c>
     </row>
     <row r="362" spans="1:1">
       <c r="A362" s="8"/>
     </row>
     <row r="363" spans="1:1">
-      <c r="A363" s="29" t="s">
-        <v>611</v>
+      <c r="A363" s="28" t="s">
+        <v>607</v>
       </c>
     </row>
     <row r="364" spans="1:1">
-      <c r="A364" s="29" t="s">
-        <v>585</v>
+      <c r="A364" s="28" t="s">
+        <v>581</v>
       </c>
     </row>
     <row r="365" spans="1:1">
-      <c r="A365" s="31" t="s">
-        <v>672</v>
+      <c r="A365" s="30" t="s">
+        <v>668</v>
       </c>
     </row>
     <row r="366" spans="1:1">
-      <c r="A366" s="31" t="s">
-        <v>673</v>
+      <c r="A366" s="30" t="s">
+        <v>669</v>
       </c>
     </row>
     <row r="367" spans="1:1">
-      <c r="A367" s="31" t="s">
-        <v>674</v>
+      <c r="A367" s="30" t="s">
+        <v>670</v>
       </c>
     </row>
     <row r="368" spans="1:1">
-      <c r="A368" s="31" t="s">
-        <v>675</v>
+      <c r="A368" s="30" t="s">
+        <v>671</v>
       </c>
     </row>
     <row r="369" spans="1:1">
       <c r="A369" s="12"/>
     </row>
     <row r="370" spans="1:1">
-      <c r="A370" s="31" t="s">
-        <v>676</v>
+      <c r="A370" s="30" t="s">
+        <v>672</v>
       </c>
     </row>
     <row r="371" spans="1:1">
       <c r="A371" s="12"/>
     </row>
     <row r="372" spans="1:1">
-      <c r="A372" s="30" t="s">
-        <v>677</v>
+      <c r="A372" s="29" t="s">
+        <v>673</v>
       </c>
     </row>
     <row r="373" spans="1:1">
       <c r="A373" s="12"/>
     </row>
     <row r="374" spans="1:1">
-      <c r="A374" s="34" t="s">
+      <c r="A374" s="33" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="375" spans="1:1">
+      <c r="A375" s="6"/>
+    </row>
+    <row r="376" spans="1:1">
+      <c r="A376" s="6"/>
+    </row>
+    <row r="377" spans="1:1">
+      <c r="A377" s="6"/>
+    </row>
+    <row r="379" spans="1:1">
+      <c r="A379" s="6"/>
+    </row>
+    <row r="380" spans="1:1">
+      <c r="A380" s="6"/>
+    </row>
+    <row r="381" spans="1:1">
+      <c r="A381" s="6"/>
+    </row>
+    <row r="382" spans="1:1" ht="15.75">
+      <c r="A382" s="27" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="383" spans="1:1">
+      <c r="A383" s="6"/>
+    </row>
+    <row r="384" spans="1:1">
+      <c r="A384" s="15" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2">
+      <c r="A385" s="6"/>
+    </row>
+    <row r="386" spans="1:2">
+      <c r="A386" s="6"/>
+    </row>
+    <row r="387" spans="1:2">
+      <c r="A387" s="6"/>
+    </row>
+    <row r="389" spans="1:2">
+      <c r="A389" s="6"/>
+    </row>
+    <row r="390" spans="1:2">
+      <c r="A390" s="6"/>
+    </row>
+    <row r="391" spans="1:2">
+      <c r="A391" s="6"/>
+    </row>
+    <row r="392" spans="1:2" ht="18">
+      <c r="A392" s="16" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2" ht="78" thickBot="1">
+      <c r="A393" s="20" t="s">
         <v>678</v>
       </c>
-    </row>
-    <row r="375" spans="1:1">
-      <c r="A375" s="13"/>
-    </row>
-    <row r="376" spans="1:1">
-      <c r="A376" s="13"/>
-    </row>
-    <row r="377" spans="1:1">
-      <c r="A377" s="13"/>
-    </row>
-    <row r="379" spans="1:1">
-      <c r="A379" s="13"/>
-    </row>
-    <row r="380" spans="1:1">
-      <c r="A380" s="13"/>
-    </row>
-    <row r="381" spans="1:1">
-      <c r="A381" s="13"/>
-    </row>
-    <row r="382" spans="1:1" ht="15.6">
-      <c r="A382" s="28" t="s">
+      <c r="B393" s="20" t="s">
         <v>679</v>
       </c>
     </row>
-    <row r="383" spans="1:1">
-      <c r="A383" s="13"/>
-    </row>
-    <row r="384" spans="1:1">
-      <c r="A384" s="16" t="s">
+    <row r="394" spans="1:2" ht="39" thickBot="1">
+      <c r="A394" s="34" t="s">
         <v>680</v>
       </c>
-    </row>
-    <row r="385" spans="1:2">
-      <c r="A385" s="13"/>
-    </row>
-    <row r="386" spans="1:2">
-      <c r="A386" s="13"/>
-    </row>
-    <row r="387" spans="1:2">
-      <c r="A387" s="13"/>
-    </row>
-    <row r="389" spans="1:2">
-      <c r="A389" s="13"/>
-    </row>
-    <row r="390" spans="1:2">
-      <c r="A390" s="13"/>
-    </row>
-    <row r="391" spans="1:2">
-      <c r="A391" s="13"/>
-    </row>
-    <row r="392" spans="1:2" ht="18">
-      <c r="A392" s="17" t="s">
+      <c r="B394" s="22" t="s">
         <v>681</v>
       </c>
     </row>
-    <row r="393" spans="1:2" ht="51.6" thickBot="1">
-      <c r="A393" s="21" t="s">
+    <row r="395" spans="1:2" ht="64.5" thickBot="1">
+      <c r="A395" s="34" t="s">
+        <v>634</v>
+      </c>
+      <c r="B395" s="22" t="s">
         <v>682</v>
       </c>
-      <c r="B393" s="21" t="s">
+    </row>
+    <row r="396" spans="1:2" ht="39" thickBot="1">
+      <c r="A396" s="34" t="s">
+        <v>633</v>
+      </c>
+      <c r="B396" s="22" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="394" spans="1:2" ht="38.4" thickBot="1">
-      <c r="A394" s="35" t="s">
+    <row r="397" spans="1:2" ht="63.75">
+      <c r="A397" s="35" t="s">
+        <v>632</v>
+      </c>
+      <c r="B397" s="21" t="s">
         <v>684</v>
       </c>
-      <c r="B394" s="23" t="s">
+    </row>
+    <row r="398" spans="1:2">
+      <c r="A398" s="6"/>
+    </row>
+    <row r="399" spans="1:2">
+      <c r="A399" s="6"/>
+    </row>
+    <row r="400" spans="1:2">
+      <c r="A400" s="6"/>
+    </row>
+    <row r="402" spans="1:1">
+      <c r="A402" s="6"/>
+    </row>
+    <row r="403" spans="1:1">
+      <c r="A403" s="6"/>
+    </row>
+    <row r="404" spans="1:1">
+      <c r="A404" s="6"/>
+    </row>
+    <row r="405" spans="1:1" ht="25.5">
+      <c r="A405" s="15" t="s">
         <v>685</v>
-      </c>
-    </row>
-    <row r="395" spans="1:2" ht="51" thickBot="1">
-      <c r="A395" s="35" t="s">
-        <v>638</v>
-      </c>
-      <c r="B395" s="23" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="396" spans="1:2" ht="38.4" thickBot="1">
-      <c r="A396" s="35" t="s">
-        <v>637</v>
-      </c>
-      <c r="B396" s="23" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="397" spans="1:2" ht="50.4">
-      <c r="A397" s="36" t="s">
-        <v>636</v>
-      </c>
-      <c r="B397" s="22" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="398" spans="1:2">
-      <c r="A398" s="13"/>
-    </row>
-    <row r="399" spans="1:2">
-      <c r="A399" s="13"/>
-    </row>
-    <row r="400" spans="1:2">
-      <c r="A400" s="13"/>
-    </row>
-    <row r="402" spans="1:1">
-      <c r="A402" s="13"/>
-    </row>
-    <row r="403" spans="1:1">
-      <c r="A403" s="13"/>
-    </row>
-    <row r="404" spans="1:1">
-      <c r="A404" s="13"/>
-    </row>
-    <row r="405" spans="1:1" ht="27.6">
-      <c r="A405" s="16" t="s">
-        <v>689</v>
       </c>
     </row>
     <row r="406" spans="1:1">
       <c r="A406" s="8"/>
     </row>
     <row r="407" spans="1:1">
-      <c r="A407" s="14" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="408" spans="1:1" ht="409.6">
-      <c r="A408" s="15" t="s">
-        <v>690</v>
+      <c r="A407" s="13" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="408" spans="1:1" ht="409.5">
+      <c r="A408" s="14" t="s">
+        <v>686</v>
       </c>
     </row>
     <row r="409" spans="1:1">
       <c r="A409" s="9" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
     </row>
     <row r="410" spans="1:1">
-      <c r="A410" s="13"/>
-    </row>
-    <row r="411" spans="1:1" ht="41.4">
-      <c r="A411" s="16" t="s">
-        <v>691</v>
+      <c r="A410" s="6"/>
+    </row>
+    <row r="411" spans="1:1" ht="38.25">
+      <c r="A411" s="15" t="s">
+        <v>687</v>
       </c>
     </row>
     <row r="412" spans="1:1">
-      <c r="A412" s="13"/>
+      <c r="A412" s="6"/>
     </row>
     <row r="413" spans="1:1">
-      <c r="A413" s="13"/>
+      <c r="A413" s="6"/>
     </row>
     <row r="414" spans="1:1">
-      <c r="A414" s="13"/>
+      <c r="A414" s="6"/>
     </row>
     <row r="416" spans="1:1">
-      <c r="A416" s="13"/>
+      <c r="A416" s="6"/>
     </row>
     <row r="417" spans="1:1">
-      <c r="A417" s="13"/>
+      <c r="A417" s="6"/>
     </row>
     <row r="418" spans="1:1">
-      <c r="A418" s="13"/>
-    </row>
-    <row r="419" spans="1:1" ht="63.6">
-      <c r="A419" s="37" t="s">
-        <v>692</v>
+      <c r="A418" s="6"/>
+    </row>
+    <row r="419" spans="1:1" ht="64.5">
+      <c r="A419" s="36" t="s">
+        <v>688</v>
       </c>
     </row>
     <row r="420" spans="1:1">
-      <c r="A420" s="13"/>
+      <c r="A420" s="6"/>
     </row>
     <row r="421" spans="1:1">
-      <c r="A421" s="13"/>
+      <c r="A421" s="6"/>
     </row>
     <row r="422" spans="1:1">
-      <c r="A422" s="13"/>
+      <c r="A422" s="6"/>
     </row>
     <row r="424" spans="1:1">
-      <c r="A424" s="13"/>
+      <c r="A424" s="6"/>
     </row>
     <row r="425" spans="1:1">
-      <c r="A425" s="13"/>
+      <c r="A425" s="6"/>
     </row>
     <row r="426" spans="1:1">
-      <c r="A426" s="13"/>
+      <c r="A426" s="6"/>
     </row>
     <row r="427" spans="1:1" ht="18">
-      <c r="A427" s="17" t="s">
-        <v>693</v>
+      <c r="A427" s="16" t="s">
+        <v>689</v>
       </c>
     </row>
     <row r="428" spans="1:1">
-      <c r="A428" s="13"/>
-    </row>
-    <row r="429" spans="1:1" ht="27.6">
-      <c r="A429" s="16" t="s">
-        <v>694</v>
+      <c r="A428" s="6"/>
+    </row>
+    <row r="429" spans="1:1" ht="25.5">
+      <c r="A429" s="15" t="s">
+        <v>690</v>
       </c>
     </row>
     <row r="430" spans="1:1">
       <c r="A430" s="8"/>
     </row>
     <row r="431" spans="1:1">
-      <c r="A431" s="29" t="s">
-        <v>611</v>
+      <c r="A431" s="28" t="s">
+        <v>607</v>
       </c>
     </row>
     <row r="432" spans="1:1">
-      <c r="A432" s="29" t="s">
-        <v>585</v>
+      <c r="A432" s="28" t="s">
+        <v>581</v>
       </c>
     </row>
     <row r="433" spans="1:1">
-      <c r="A433" s="33" t="s">
-        <v>647</v>
+      <c r="A433" s="32" t="s">
+        <v>643</v>
       </c>
     </row>
     <row r="434" spans="1:1">
-      <c r="A434" s="31" t="s">
-        <v>695</v>
+      <c r="A434" s="30" t="s">
+        <v>691</v>
       </c>
     </row>
     <row r="435" spans="1:1">
-      <c r="A435" s="31" t="s">
-        <v>696</v>
+      <c r="A435" s="30" t="s">
+        <v>692</v>
       </c>
     </row>
     <row r="436" spans="1:1">
       <c r="A436" s="12"/>
     </row>
     <row r="437" spans="1:1">
-      <c r="A437" s="30" t="s">
-        <v>697</v>
+      <c r="A437" s="29" t="s">
+        <v>693</v>
       </c>
     </row>
     <row r="438" spans="1:1">
       <c r="A438" s="12"/>
     </row>
     <row r="439" spans="1:1">
-      <c r="A439" s="30" t="s">
-        <v>698</v>
+      <c r="A439" s="29" t="s">
+        <v>694</v>
       </c>
     </row>
     <row r="440" spans="1:1">
-      <c r="A440" s="30" t="s">
-        <v>699</v>
+      <c r="A440" s="29" t="s">
+        <v>695</v>
       </c>
     </row>
     <row r="441" spans="1:1">
-      <c r="A441" s="30" t="s">
-        <v>700</v>
+      <c r="A441" s="29" t="s">
+        <v>696</v>
       </c>
     </row>
     <row r="442" spans="1:1">
-      <c r="A442" s="30" t="s">
-        <v>701</v>
+      <c r="A442" s="29" t="s">
+        <v>697</v>
       </c>
     </row>
     <row r="443" spans="1:1">
-      <c r="A443" s="30" t="s">
-        <v>617</v>
+      <c r="A443" s="29" t="s">
+        <v>613</v>
       </c>
     </row>
     <row r="444" spans="1:1">
       <c r="A444" s="12"/>
     </row>
     <row r="445" spans="1:1">
-      <c r="A445" s="31" t="s">
-        <v>702</v>
+      <c r="A445" s="30" t="s">
+        <v>698</v>
       </c>
     </row>
     <row r="446" spans="1:1">
-      <c r="A446" s="13"/>
+      <c r="A446" s="6"/>
     </row>
     <row r="447" spans="1:1">
-      <c r="A447" s="16" t="s">
-        <v>703</v>
+      <c r="A447" s="15" t="s">
+        <v>699</v>
       </c>
     </row>
     <row r="448" spans="1:1">
       <c r="A448" s="8"/>
     </row>
     <row r="449" spans="1:1">
-      <c r="A449" s="29" t="s">
+      <c r="A449" s="28" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="450" spans="1:1">
+      <c r="A450" s="28" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="451" spans="1:1">
+      <c r="A451" s="33" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="452" spans="1:1">
+      <c r="A452" s="33" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="453" spans="1:1">
+      <c r="A453" s="33" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="454" spans="1:1">
+      <c r="A454" s="6"/>
+    </row>
+    <row r="455" spans="1:1">
+      <c r="A455" s="6"/>
+    </row>
+    <row r="456" spans="1:1">
+      <c r="A456" s="6"/>
+    </row>
+    <row r="458" spans="1:1">
+      <c r="A458" s="6"/>
+    </row>
+    <row r="459" spans="1:1">
+      <c r="A459" s="6"/>
+    </row>
+    <row r="460" spans="1:1">
+      <c r="A460" s="6"/>
+    </row>
+    <row r="461" spans="1:1" ht="18">
+      <c r="A461" s="16" t="s">
         <v>704</v>
       </c>
     </row>
-    <row r="450" spans="1:1">
-      <c r="A450" s="29" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="451" spans="1:1">
-      <c r="A451" s="34" t="s">
+    <row r="462" spans="1:1">
+      <c r="A462" s="6"/>
+    </row>
+    <row r="463" spans="1:1">
+      <c r="A463" s="15" t="s">
         <v>705</v>
-      </c>
-    </row>
-    <row r="452" spans="1:1">
-      <c r="A452" s="34" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="453" spans="1:1">
-      <c r="A453" s="34" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="454" spans="1:1">
-      <c r="A454" s="13"/>
-    </row>
-    <row r="455" spans="1:1">
-      <c r="A455" s="13"/>
-    </row>
-    <row r="456" spans="1:1">
-      <c r="A456" s="13"/>
-    </row>
-    <row r="458" spans="1:1">
-      <c r="A458" s="13"/>
-    </row>
-    <row r="459" spans="1:1">
-      <c r="A459" s="13"/>
-    </row>
-    <row r="460" spans="1:1">
-      <c r="A460" s="13"/>
-    </row>
-    <row r="461" spans="1:1" ht="18">
-      <c r="A461" s="17" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="462" spans="1:1">
-      <c r="A462" s="13"/>
-    </row>
-    <row r="463" spans="1:1">
-      <c r="A463" s="16" t="s">
-        <v>709</v>
       </c>
     </row>
     <row r="464" spans="1:1">
       <c r="A464" s="8"/>
     </row>
     <row r="465" spans="1:1">
-      <c r="A465" s="29" t="s">
-        <v>611</v>
+      <c r="A465" s="28" t="s">
+        <v>607</v>
       </c>
     </row>
     <row r="466" spans="1:1">
-      <c r="A466" s="29" t="s">
-        <v>585</v>
+      <c r="A466" s="28" t="s">
+        <v>581</v>
       </c>
     </row>
     <row r="467" spans="1:1">
-      <c r="A467" s="31" t="s">
-        <v>710</v>
+      <c r="A467" s="30" t="s">
+        <v>706</v>
       </c>
     </row>
     <row r="468" spans="1:1">
       <c r="A468" s="12"/>
     </row>
     <row r="469" spans="1:1">
-      <c r="A469" s="33" t="s">
-        <v>711</v>
+      <c r="A469" s="32" t="s">
+        <v>707</v>
       </c>
     </row>
     <row r="470" spans="1:1">
-      <c r="A470" s="31" t="s">
-        <v>712</v>
+      <c r="A470" s="30" t="s">
+        <v>708</v>
       </c>
     </row>
     <row r="471" spans="1:1">
-      <c r="A471" s="30" t="s">
-        <v>658</v>
+      <c r="A471" s="29" t="s">
+        <v>654</v>
       </c>
     </row>
     <row r="472" spans="1:1">
-      <c r="A472" s="30" t="s">
-        <v>713</v>
+      <c r="A472" s="29" t="s">
+        <v>709</v>
       </c>
     </row>
     <row r="473" spans="1:1">
-      <c r="A473" s="30" t="s">
-        <v>714</v>
+      <c r="A473" s="29" t="s">
+        <v>710</v>
       </c>
     </row>
     <row r="474" spans="1:1">
-      <c r="A474" s="30" t="s">
-        <v>597</v>
+      <c r="A474" s="29" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="475" spans="1:1">
       <c r="A475" s="12"/>
     </row>
     <row r="476" spans="1:1">
-      <c r="A476" s="30" t="s">
-        <v>715</v>
+      <c r="A476" s="29" t="s">
+        <v>711</v>
       </c>
     </row>
     <row r="477" spans="1:1">
-      <c r="A477" s="30" t="s">
-        <v>716</v>
+      <c r="A477" s="29" t="s">
+        <v>712</v>
       </c>
     </row>
     <row r="478" spans="1:1">
-      <c r="A478" s="30" t="s">
-        <v>717</v>
+      <c r="A478" s="29" t="s">
+        <v>713</v>
       </c>
     </row>
     <row r="479" spans="1:1">
-      <c r="A479" s="30" t="s">
-        <v>663</v>
+      <c r="A479" s="29" t="s">
+        <v>659</v>
       </c>
     </row>
     <row r="480" spans="1:1">
       <c r="A480" s="12"/>
     </row>
     <row r="481" spans="1:1">
-      <c r="A481" s="30" t="s">
+      <c r="A481" s="29" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="482" spans="1:1">
+      <c r="A482" s="29" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="483" spans="1:1">
+      <c r="A483" s="29" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="484" spans="1:1">
+      <c r="A484" s="29" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="485" spans="1:1">
+      <c r="A485" s="29" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="486" spans="1:1">
+      <c r="A486" s="29" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="487" spans="1:1">
+      <c r="A487" s="29" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="488" spans="1:1">
+      <c r="A488" s="6"/>
+    </row>
+    <row r="489" spans="1:1">
+      <c r="A489" s="6"/>
+    </row>
+    <row r="490" spans="1:1">
+      <c r="A490" s="6"/>
+    </row>
+    <row r="492" spans="1:1">
+      <c r="A492" s="6"/>
+    </row>
+    <row r="493" spans="1:1">
+      <c r="A493" s="6"/>
+    </row>
+    <row r="494" spans="1:1">
+      <c r="A494" s="6"/>
+    </row>
+    <row r="495" spans="1:1" ht="18">
+      <c r="A495" s="16" t="s">
         <v>718</v>
       </c>
     </row>
-    <row r="482" spans="1:1">
-      <c r="A482" s="30" t="s">
+    <row r="496" spans="1:1">
+      <c r="A496" s="6"/>
+    </row>
+    <row r="497" spans="1:1">
+      <c r="A497" s="15" t="s">
         <v>719</v>
-      </c>
-    </row>
-    <row r="483" spans="1:1">
-      <c r="A483" s="30" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="484" spans="1:1">
-      <c r="A484" s="30" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="485" spans="1:1">
-      <c r="A485" s="30" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="486" spans="1:1">
-      <c r="A486" s="30" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="487" spans="1:1">
-      <c r="A487" s="30" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="488" spans="1:1">
-      <c r="A488" s="13"/>
-    </row>
-    <row r="489" spans="1:1">
-      <c r="A489" s="13"/>
-    </row>
-    <row r="490" spans="1:1">
-      <c r="A490" s="13"/>
-    </row>
-    <row r="492" spans="1:1">
-      <c r="A492" s="13"/>
-    </row>
-    <row r="493" spans="1:1">
-      <c r="A493" s="13"/>
-    </row>
-    <row r="494" spans="1:1">
-      <c r="A494" s="13"/>
-    </row>
-    <row r="495" spans="1:1" ht="18">
-      <c r="A495" s="17" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="496" spans="1:1">
-      <c r="A496" s="13"/>
-    </row>
-    <row r="497" spans="1:1">
-      <c r="A497" s="16" t="s">
-        <v>723</v>
       </c>
     </row>
     <row r="498" spans="1:1">
       <c r="A498" s="8"/>
     </row>
     <row r="499" spans="1:1">
-      <c r="A499" s="29" t="s">
-        <v>611</v>
+      <c r="A499" s="28" t="s">
+        <v>607</v>
       </c>
     </row>
     <row r="500" spans="1:1">
-      <c r="A500" s="29" t="s">
-        <v>585</v>
+      <c r="A500" s="28" t="s">
+        <v>581</v>
       </c>
     </row>
     <row r="501" spans="1:1">
-      <c r="A501" s="31" t="s">
-        <v>724</v>
+      <c r="A501" s="30" t="s">
+        <v>720</v>
       </c>
     </row>
     <row r="502" spans="1:1">
-      <c r="A502" s="31" t="s">
-        <v>725</v>
+      <c r="A502" s="30" t="s">
+        <v>721</v>
       </c>
     </row>
     <row r="503" spans="1:1">
-      <c r="A503" s="31" t="s">
-        <v>726</v>
+      <c r="A503" s="30" t="s">
+        <v>722</v>
       </c>
     </row>
     <row r="504" spans="1:1">
       <c r="A504" s="12"/>
     </row>
     <row r="505" spans="1:1">
-      <c r="A505" s="31" t="s">
-        <v>673</v>
+      <c r="A505" s="30" t="s">
+        <v>669</v>
       </c>
     </row>
     <row r="506" spans="1:1">
-      <c r="A506" s="31" t="s">
-        <v>727</v>
+      <c r="A506" s="30" t="s">
+        <v>723</v>
       </c>
     </row>
     <row r="507" spans="1:1">
       <c r="A507" s="12"/>
     </row>
     <row r="508" spans="1:1">
-      <c r="A508" s="33" t="s">
-        <v>728</v>
+      <c r="A508" s="32" t="s">
+        <v>724</v>
       </c>
     </row>
     <row r="509" spans="1:1">
-      <c r="A509" s="30" t="s">
-        <v>729</v>
+      <c r="A509" s="29" t="s">
+        <v>725</v>
       </c>
     </row>
     <row r="510" spans="1:1">
       <c r="A510" s="12"/>
     </row>
     <row r="511" spans="1:1">
-      <c r="A511" s="31" t="s">
-        <v>730</v>
+      <c r="A511" s="30" t="s">
+        <v>726</v>
       </c>
     </row>
     <row r="512" spans="1:1">
-      <c r="A512" s="13"/>
+      <c r="A512" s="6"/>
     </row>
     <row r="513" spans="1:1">
-      <c r="A513" s="13"/>
+      <c r="A513" s="6"/>
     </row>
     <row r="514" spans="1:1">
-      <c r="A514" s="13"/>
+      <c r="A514" s="6"/>
     </row>
     <row r="516" spans="1:1">
-      <c r="A516" s="13"/>
+      <c r="A516" s="6"/>
     </row>
     <row r="517" spans="1:1">
-      <c r="A517" s="13"/>
+      <c r="A517" s="6"/>
     </row>
     <row r="518" spans="1:1">
-      <c r="A518" s="13"/>
+      <c r="A518" s="6"/>
     </row>
     <row r="519" spans="1:1" ht="18">
-      <c r="A519" s="17" t="s">
-        <v>731</v>
+      <c r="A519" s="16" t="s">
+        <v>727</v>
       </c>
     </row>
     <row r="520" spans="1:1">
-      <c r="A520" s="13"/>
+      <c r="A520" s="6"/>
     </row>
     <row r="521" spans="1:1">
-      <c r="A521" s="16" t="s">
-        <v>732</v>
+      <c r="A521" s="15" t="s">
+        <v>728</v>
       </c>
     </row>
     <row r="522" spans="1:1">
       <c r="A522" s="8"/>
     </row>
     <row r="523" spans="1:1">
-      <c r="A523" s="29" t="s">
-        <v>611</v>
+      <c r="A523" s="28" t="s">
+        <v>607</v>
       </c>
     </row>
     <row r="524" spans="1:1">
-      <c r="A524" s="29" t="s">
-        <v>585</v>
+      <c r="A524" s="28" t="s">
+        <v>581</v>
       </c>
     </row>
     <row r="525" spans="1:1">
-      <c r="A525" s="31" t="s">
-        <v>733</v>
+      <c r="A525" s="30" t="s">
+        <v>729</v>
       </c>
     </row>
     <row r="526" spans="1:1">
-      <c r="A526" s="30" t="s">
-        <v>734</v>
+      <c r="A526" s="29" t="s">
+        <v>730</v>
       </c>
     </row>
     <row r="527" spans="1:1">
-      <c r="A527" s="30" t="s">
-        <v>735</v>
+      <c r="A527" s="29" t="s">
+        <v>731</v>
       </c>
     </row>
     <row r="528" spans="1:1">
       <c r="A528" s="12"/>
     </row>
     <row r="529" spans="1:1">
-      <c r="A529" s="30" t="s">
-        <v>736</v>
+      <c r="A529" s="29" t="s">
+        <v>732</v>
       </c>
     </row>
     <row r="530" spans="1:1">
-      <c r="A530" s="30" t="s">
-        <v>737</v>
+      <c r="A530" s="29" t="s">
+        <v>733</v>
       </c>
     </row>
     <row r="531" spans="1:1">
-      <c r="A531" s="30" t="s">
-        <v>738</v>
+      <c r="A531" s="29" t="s">
+        <v>734</v>
       </c>
     </row>
     <row r="532" spans="1:1">
-      <c r="A532" s="30" t="s">
-        <v>598</v>
+      <c r="A532" s="29" t="s">
+        <v>594</v>
       </c>
     </row>
     <row r="533" spans="1:1">
       <c r="A533" s="12"/>
     </row>
     <row r="534" spans="1:1">
-      <c r="A534" s="30" t="s">
-        <v>739</v>
+      <c r="A534" s="29" t="s">
+        <v>735</v>
       </c>
     </row>
     <row r="535" spans="1:1">
-      <c r="A535" s="30" t="s">
-        <v>740</v>
+      <c r="A535" s="29" t="s">
+        <v>736</v>
       </c>
     </row>
     <row r="536" spans="1:1">
-      <c r="A536" s="30" t="s">
-        <v>668</v>
+      <c r="A536" s="29" t="s">
+        <v>664</v>
       </c>
     </row>
     <row r="537" spans="1:1">
       <c r="A537" s="12"/>
     </row>
     <row r="538" spans="1:1">
-      <c r="A538" s="30" t="s">
+      <c r="A538" s="29" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="539" spans="1:1">
+      <c r="A539" s="29" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="540" spans="1:1">
+      <c r="A540" s="29" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="541" spans="1:1">
+      <c r="A541" s="6"/>
+    </row>
+    <row r="542" spans="1:1">
+      <c r="A542" s="6"/>
+    </row>
+    <row r="543" spans="1:1">
+      <c r="A543" s="6"/>
+    </row>
+    <row r="545" spans="1:2">
+      <c r="A545" s="6"/>
+    </row>
+    <row r="546" spans="1:2">
+      <c r="A546" s="6"/>
+    </row>
+    <row r="547" spans="1:2">
+      <c r="A547" s="6"/>
+    </row>
+    <row r="548" spans="1:2" ht="18">
+      <c r="A548" s="16" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="549" spans="1:2">
+      <c r="A549" s="6"/>
+    </row>
+    <row r="550" spans="1:2" ht="25.5">
+      <c r="A550" s="15" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="551" spans="1:2">
+      <c r="A551" s="6"/>
+    </row>
+    <row r="552" spans="1:2">
+      <c r="A552" s="6"/>
+    </row>
+    <row r="553" spans="1:2">
+      <c r="A553" s="6"/>
+    </row>
+    <row r="555" spans="1:2">
+      <c r="A555" s="6"/>
+    </row>
+    <row r="556" spans="1:2">
+      <c r="A556" s="6"/>
+    </row>
+    <row r="557" spans="1:2">
+      <c r="A557" s="6"/>
+    </row>
+    <row r="558" spans="1:2" ht="21.75">
+      <c r="A558" s="25" t="s">
         <v>741</v>
       </c>
     </row>
-    <row r="539" spans="1:1">
-      <c r="A539" s="30" t="s">
+    <row r="559" spans="1:2" ht="27" thickBot="1">
+      <c r="A559" s="20" t="s">
         <v>742</v>
       </c>
-    </row>
-    <row r="540" spans="1:1">
-      <c r="A540" s="30" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="541" spans="1:1">
-      <c r="A541" s="13"/>
-    </row>
-    <row r="542" spans="1:1">
-      <c r="A542" s="13"/>
-    </row>
-    <row r="543" spans="1:1">
-      <c r="A543" s="13"/>
-    </row>
-    <row r="545" spans="1:2">
-      <c r="A545" s="13"/>
-    </row>
-    <row r="546" spans="1:2">
-      <c r="A546" s="13"/>
-    </row>
-    <row r="547" spans="1:2">
-      <c r="A547" s="13"/>
-    </row>
-    <row r="548" spans="1:2" ht="18">
-      <c r="A548" s="17" t="s">
+      <c r="B559" s="20" t="s">
         <v>743</v>
       </c>
     </row>
-    <row r="549" spans="1:2">
-      <c r="A549" s="13"/>
-    </row>
-    <row r="550" spans="1:2" ht="27.6">
-      <c r="A550" s="16" t="s">
+    <row r="560" spans="1:2" ht="39" thickBot="1">
+      <c r="A560" s="22" t="s">
         <v>744</v>
       </c>
-    </row>
-    <row r="551" spans="1:2">
-      <c r="A551" s="13"/>
-    </row>
-    <row r="552" spans="1:2">
-      <c r="A552" s="13"/>
-    </row>
-    <row r="553" spans="1:2">
-      <c r="A553" s="13"/>
-    </row>
-    <row r="555" spans="1:2">
-      <c r="A555" s="13"/>
-    </row>
-    <row r="556" spans="1:2">
-      <c r="A556" s="13"/>
-    </row>
-    <row r="557" spans="1:2">
-      <c r="A557" s="13"/>
-    </row>
-    <row r="558" spans="1:2" ht="22.2">
-      <c r="A558" s="26" t="s">
+      <c r="B560" s="34" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="561" spans="1:2" ht="64.5" thickBot="1">
+      <c r="A561" s="22" t="s">
         <v>745</v>
       </c>
-    </row>
-    <row r="559" spans="1:2" ht="26.4" thickBot="1">
-      <c r="A559" s="21" t="s">
+      <c r="B561" s="22" t="s">
         <v>746</v>
       </c>
-      <c r="B559" s="21" t="s">
+    </row>
+    <row r="562" spans="1:2" ht="51.75" thickBot="1">
+      <c r="A562" s="22" t="s">
+        <v>683</v>
+      </c>
+      <c r="B562" s="22" t="s">
         <v>747</v>
       </c>
     </row>
-    <row r="560" spans="1:2" ht="38.4" thickBot="1">
-      <c r="A560" s="23" t="s">
+    <row r="563" spans="1:2" ht="38.25">
+      <c r="A563" s="21" t="s">
         <v>748</v>
       </c>
-      <c r="B560" s="35" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="561" spans="1:2" ht="63.6" thickBot="1">
-      <c r="A561" s="23" t="s">
+      <c r="B563" s="21" t="s">
         <v>749</v>
       </c>
-      <c r="B561" s="23" t="s">
+    </row>
+    <row r="564" spans="1:2">
+      <c r="A564" s="6"/>
+    </row>
+    <row r="565" spans="1:2">
+      <c r="A565" s="6"/>
+    </row>
+    <row r="566" spans="1:2">
+      <c r="A566" s="6"/>
+    </row>
+    <row r="568" spans="1:2">
+      <c r="A568" s="6"/>
+    </row>
+    <row r="569" spans="1:2">
+      <c r="A569" s="6"/>
+    </row>
+    <row r="570" spans="1:2">
+      <c r="A570" s="6"/>
+    </row>
+    <row r="571" spans="1:2" ht="25.5">
+      <c r="A571" s="15" t="s">
         <v>750</v>
-      </c>
-    </row>
-    <row r="562" spans="1:2" ht="51" thickBot="1">
-      <c r="A562" s="23" t="s">
-        <v>687</v>
-      </c>
-      <c r="B562" s="23" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="563" spans="1:2" ht="37.799999999999997">
-      <c r="A563" s="22" t="s">
-        <v>752</v>
-      </c>
-      <c r="B563" s="22" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="564" spans="1:2">
-      <c r="A564" s="13"/>
-    </row>
-    <row r="565" spans="1:2">
-      <c r="A565" s="13"/>
-    </row>
-    <row r="566" spans="1:2">
-      <c r="A566" s="13"/>
-    </row>
-    <row r="568" spans="1:2">
-      <c r="A568" s="13"/>
-    </row>
-    <row r="569" spans="1:2">
-      <c r="A569" s="13"/>
-    </row>
-    <row r="570" spans="1:2">
-      <c r="A570" s="13"/>
-    </row>
-    <row r="571" spans="1:2" ht="27.6">
-      <c r="A571" s="16" t="s">
-        <v>754</v>
       </c>
     </row>
     <row r="572" spans="1:2">
       <c r="A572" s="8"/>
     </row>
     <row r="573" spans="1:2">
-      <c r="A573" s="38" t="s">
+      <c r="A573" s="37" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="574" spans="1:2">
+      <c r="A574" s="38" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="575" spans="1:2">
+      <c r="A575" s="38" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="576" spans="1:2">
+      <c r="A576" s="39" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="577" spans="1:1">
+      <c r="A577" s="40" t="s">
         <v>755</v>
-      </c>
-    </row>
-    <row r="574" spans="1:2">
-      <c r="A574" s="39" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="575" spans="1:2">
-      <c r="A575" s="39" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="576" spans="1:2">
-      <c r="A576" s="40" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="577" spans="1:1">
-      <c r="A577" s="41" t="s">
-        <v>759</v>
       </c>
     </row>
   </sheetData>
@@ -15585,8 +15869,8 @@
     <mergeCell ref="D128:D130"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" location="main" display="https://chatgpt.com/ - main"/>
-    <hyperlink ref="A172" r:id="rId2" display="https://cloudinary.com/"/>
+    <hyperlink ref="A1" r:id="rId1" location="main" display="https://chatgpt.com/ - main" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="A172" r:id="rId2" display="https://cloudinary.com/" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
@@ -15594,48 +15878,48 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B3:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
     </row>
   </sheetData>
@@ -15644,123 +15928,123 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B4:E27"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="4" spans="2:5">
       <c r="B4" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
     </row>
     <row r="5" spans="2:5">
       <c r="C5" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
     </row>
     <row r="6" spans="2:5">
       <c r="D6" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
     </row>
     <row r="7" spans="2:5">
       <c r="D7" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
     </row>
     <row r="8" spans="2:5">
       <c r="C8" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
     </row>
     <row r="9" spans="2:5">
       <c r="D9" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
     </row>
     <row r="10" spans="2:5">
       <c r="D10" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
     </row>
     <row r="11" spans="2:5">
       <c r="E11" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
     </row>
     <row r="12" spans="2:5">
       <c r="B12" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
     </row>
     <row r="13" spans="2:5">
       <c r="C13" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
     </row>
     <row r="14" spans="2:5">
       <c r="D14" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
     </row>
     <row r="15" spans="2:5">
       <c r="B15" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
     </row>
     <row r="16" spans="2:5">
       <c r="C16" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
     </row>
     <row r="17" spans="2:4">
       <c r="D17" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
     </row>
     <row r="18" spans="2:4">
       <c r="C18" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
     </row>
     <row r="20" spans="2:4">
       <c r="B20" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
     </row>
     <row r="21" spans="2:4">
       <c r="B21" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
     </row>
     <row r="22" spans="2:4">
       <c r="B22" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
     </row>
     <row r="23" spans="2:4">
       <c r="B23" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
     </row>
     <row r="24" spans="2:4">
       <c r="C24" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
     </row>
     <row r="25" spans="2:4">
       <c r="C25" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
     </row>
     <row r="27" spans="2:4">
       <c r="B27" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
     </row>
   </sheetData>
@@ -15769,33 +16053,33 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B20:B93"/>
   <sheetViews>
     <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="B20" sqref="B20:B93"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="20" spans="2:2">
       <c r="B20" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" s="9" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
     </row>
     <row r="26" spans="2:2" ht="18">
       <c r="B26" s="10" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
     </row>
     <row r="27" spans="2:2">
@@ -15803,57 +16087,57 @@
     </row>
     <row r="28" spans="2:2">
       <c r="B28" s="11" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="29" spans="2:2">
       <c r="B29" s="11" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
     </row>
     <row r="30" spans="2:2">
       <c r="B30" s="11" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
     </row>
     <row r="31" spans="2:2">
       <c r="B31" s="11" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
     </row>
     <row r="32" spans="2:2">
       <c r="B32" s="11" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
     </row>
     <row r="33" spans="2:2">
       <c r="B33" s="11" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
     </row>
     <row r="34" spans="2:2">
       <c r="B34" s="11" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
     </row>
     <row r="35" spans="2:2">
       <c r="B35" s="11" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
     </row>
     <row r="36" spans="2:2">
       <c r="B36" s="11" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
     </row>
     <row r="38" spans="2:2" ht="18">
       <c r="B38" s="10" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
     </row>
     <row r="40" spans="2:2">
       <c r="B40" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
     </row>
     <row r="41" spans="2:2">
@@ -15861,7 +16145,7 @@
     </row>
     <row r="42" spans="2:2">
       <c r="B42" s="12" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
     </row>
     <row r="43" spans="2:2">
@@ -15869,7 +16153,7 @@
     </row>
     <row r="44" spans="2:2">
       <c r="B44" s="12" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
     </row>
     <row r="45" spans="2:2">
@@ -15877,7 +16161,7 @@
     </row>
     <row r="46" spans="2:2">
       <c r="B46" s="12" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
     </row>
     <row r="47" spans="2:2">
@@ -15885,62 +16169,62 @@
     </row>
     <row r="48" spans="2:2">
       <c r="B48" s="11" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
     </row>
     <row r="49" spans="2:2">
       <c r="B49" s="11" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
     </row>
     <row r="50" spans="2:2">
       <c r="B50" s="11" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
     </row>
     <row r="51" spans="2:2">
       <c r="B51" s="11" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
     </row>
     <row r="52" spans="2:2">
       <c r="B52" s="11" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
     </row>
     <row r="53" spans="2:2">
       <c r="B53" s="11" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
     </row>
     <row r="54" spans="2:2">
       <c r="B54" s="11" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
     </row>
     <row r="55" spans="2:2">
       <c r="B55" s="11" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
     </row>
     <row r="56" spans="2:2">
       <c r="B56" s="11" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
     </row>
     <row r="57" spans="2:2">
       <c r="B57" s="11" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
     </row>
     <row r="58" spans="2:2">
       <c r="B58" s="11" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
     </row>
     <row r="59" spans="2:2">
       <c r="B59" s="11" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="60" spans="2:2">
@@ -15948,62 +16232,62 @@
     </row>
     <row r="61" spans="2:2">
       <c r="B61" s="11" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="62" spans="2:2">
       <c r="B62" s="11" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
     </row>
     <row r="63" spans="2:2">
       <c r="B63" s="11" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
     </row>
     <row r="64" spans="2:2">
       <c r="B64" s="11" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
     </row>
     <row r="65" spans="2:2">
       <c r="B65" s="11" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
     </row>
     <row r="66" spans="2:2">
       <c r="B66" s="11" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
     </row>
     <row r="67" spans="2:2">
       <c r="B67" s="11" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
     </row>
     <row r="68" spans="2:2">
       <c r="B68" s="11" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
     </row>
     <row r="69" spans="2:2">
       <c r="B69" s="11" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
     </row>
     <row r="70" spans="2:2">
       <c r="B70" s="11" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
     </row>
     <row r="71" spans="2:2">
       <c r="B71" s="11" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
     </row>
     <row r="72" spans="2:2">
       <c r="B72" s="11" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="73" spans="2:2">
@@ -16011,47 +16295,47 @@
     </row>
     <row r="74" spans="2:2">
       <c r="B74" s="11" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="75" spans="2:2">
       <c r="B75" s="11" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
     </row>
     <row r="76" spans="2:2">
       <c r="B76" s="11" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
     </row>
     <row r="77" spans="2:2">
       <c r="B77" s="11" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
     </row>
     <row r="78" spans="2:2">
       <c r="B78" s="11" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
     </row>
     <row r="79" spans="2:2">
       <c r="B79" s="11" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
     </row>
     <row r="80" spans="2:2">
       <c r="B80" s="11" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
     </row>
     <row r="81" spans="2:2">
       <c r="B81" s="11" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
     </row>
     <row r="82" spans="2:2">
       <c r="B82" s="11" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="83" spans="2:2">
@@ -16059,52 +16343,52 @@
     </row>
     <row r="84" spans="2:2">
       <c r="B84" s="11" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
     </row>
     <row r="85" spans="2:2">
       <c r="B85" s="11" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
     </row>
     <row r="86" spans="2:2">
       <c r="B86" s="11" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
     </row>
     <row r="87" spans="2:2">
       <c r="B87" s="11" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
     </row>
     <row r="88" spans="2:2">
       <c r="B88" s="11" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
     </row>
     <row r="89" spans="2:2">
       <c r="B89" s="11" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
     </row>
     <row r="90" spans="2:2">
       <c r="B90" s="11" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
     </row>
     <row r="91" spans="2:2">
       <c r="B91" s="11" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
     </row>
     <row r="92" spans="2:2">
       <c r="B92" s="11" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
     </row>
     <row r="93" spans="2:2">
       <c r="B93" s="11" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
   </sheetData>
@@ -16114,14 +16398,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="C4:N27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="Q24" sqref="Q24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="4" spans="3:14">
       <c r="C4" t="s">
@@ -16306,17 +16590,17 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="B1:S29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="R20" sqref="R20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:19">
@@ -16614,14 +16898,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A3:B24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="3" spans="1:2">
       <c r="B3" s="1" t="s">
@@ -16674,56 +16958,56 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="B17" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="B18" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="B21" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="B22" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B23" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="B24" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1"/>
-    <hyperlink ref="B5" r:id="rId2"/>
-    <hyperlink ref="B10" r:id="rId3"/>
-    <hyperlink ref="B11" r:id="rId4"/>
-    <hyperlink ref="B12" r:id="rId5"/>
-    <hyperlink ref="B17" r:id="rId6"/>
-    <hyperlink ref="B22" r:id="rId7"/>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{00000000-0004-0000-0700-000000000000}"/>
+    <hyperlink ref="B5" r:id="rId2" xr:uid="{00000000-0004-0000-0700-000001000000}"/>
+    <hyperlink ref="B10" r:id="rId3" xr:uid="{00000000-0004-0000-0700-000002000000}"/>
+    <hyperlink ref="B11" r:id="rId4" xr:uid="{00000000-0004-0000-0700-000003000000}"/>
+    <hyperlink ref="B12" r:id="rId5" xr:uid="{00000000-0004-0000-0700-000004000000}"/>
+    <hyperlink ref="B17" r:id="rId6" xr:uid="{00000000-0004-0000-0700-000005000000}"/>
+    <hyperlink ref="B22" r:id="rId7" xr:uid="{00000000-0004-0000-0700-000006000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId8"/>
@@ -16731,547 +17015,547 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="B3:T294"/>
   <sheetViews>
     <sheetView topLeftCell="A241" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="N249" sqref="N249"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="16384" width="9.109375" style="2"/>
+    <col min="1" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:6">
       <c r="B3" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="2:6">
       <c r="C4" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="2:6">
       <c r="D5" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="2:6">
       <c r="D6" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" spans="2:6">
       <c r="D7" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="2:6">
       <c r="E8" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9" spans="2:6">
       <c r="F9" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10" spans="2:6">
       <c r="E10" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11" spans="2:6">
       <c r="E11" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="12" spans="2:6">
       <c r="E12" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13" spans="2:6">
       <c r="F13" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14" spans="2:6">
       <c r="E14" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="15" spans="2:6">
       <c r="E15" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="16" spans="2:6">
       <c r="C16" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="17" spans="2:5">
       <c r="D17" s="3" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="18" spans="2:5">
       <c r="C18" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="19" spans="2:5">
       <c r="D19" s="3" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="E19" s="3"/>
     </row>
     <row r="20" spans="2:5">
       <c r="D20" s="3" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="E20" s="3"/>
     </row>
     <row r="21" spans="2:5">
       <c r="D21" s="3"/>
       <c r="E21" s="3" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="22" spans="2:5">
       <c r="D22" s="3"/>
       <c r="E22" s="3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="2:5">
       <c r="C23" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="24" spans="2:5">
       <c r="D24" s="3" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="25" spans="2:5">
       <c r="D25" s="3" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="26" spans="2:5">
       <c r="D26" s="3" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="27" spans="2:5">
       <c r="D27" s="3" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="28" spans="2:5">
       <c r="D28" s="3" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="29" spans="2:5">
       <c r="B29" s="2" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="30" spans="2:5">
       <c r="C30" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="31" spans="2:5">
       <c r="D31" s="2" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="32" spans="2:5">
       <c r="E32" s="3" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="33" spans="3:5">
       <c r="E33" s="3" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="34" spans="3:5">
       <c r="E34" s="3" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="35" spans="3:5">
       <c r="E35" s="3" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="36" spans="3:5">
       <c r="E36" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="37" spans="3:5">
       <c r="E37" s="3" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="38" spans="3:5">
       <c r="E38" s="3" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="39" spans="3:5">
       <c r="E39" s="3" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="40" spans="3:5">
       <c r="E40" s="3" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="41" spans="3:5">
       <c r="E41" s="3" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="42" spans="3:5">
       <c r="E42" s="3" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="43" spans="3:5">
       <c r="C43" s="2" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="44" spans="3:5">
       <c r="D44" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="45" spans="3:5">
       <c r="E45" s="3" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="46" spans="3:5">
       <c r="D46" s="2" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="47" spans="3:5">
       <c r="E47" s="3" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="48" spans="3:5">
       <c r="E48" s="3" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="49" spans="3:5">
       <c r="C49" s="2" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="50" spans="3:5">
       <c r="D50" s="2" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="51" spans="3:5">
       <c r="E51" s="3" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="52" spans="3:5">
       <c r="E52" s="3" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="53" spans="3:5">
       <c r="E53" s="3" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="54" spans="3:5">
       <c r="E54" s="3" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="55" spans="3:5">
       <c r="D55" s="2" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="E55" s="3"/>
     </row>
     <row r="56" spans="3:5">
       <c r="E56" s="3" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="57" spans="3:5">
       <c r="E57" s="3" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="58" spans="3:5">
       <c r="C58" s="3"/>
       <c r="E58" s="3" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="59" spans="3:5">
       <c r="C59" s="3"/>
       <c r="D59" s="2" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="E59" s="3"/>
     </row>
     <row r="60" spans="3:5">
       <c r="C60" s="3"/>
       <c r="E60" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="61" spans="3:5">
       <c r="C61" s="3"/>
       <c r="D61" s="2" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="E61" s="3"/>
     </row>
     <row r="62" spans="3:5">
       <c r="C62" s="3"/>
       <c r="E62" s="3" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="63" spans="3:5">
       <c r="C63" s="3"/>
       <c r="D63" s="2" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="64" spans="3:5">
       <c r="C64" s="3"/>
       <c r="E64" s="3" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
     </row>
     <row r="65" spans="3:4">
       <c r="C65" s="2" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="66" spans="3:4">
       <c r="C66" s="3"/>
       <c r="D66" s="3" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="67" spans="3:4">
       <c r="C67" s="3"/>
       <c r="D67" s="3" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="68" spans="3:4">
       <c r="C68" s="3"/>
       <c r="D68" s="3" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="69" spans="3:4">
       <c r="C69" s="3"/>
       <c r="D69" s="3" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
     <row r="70" spans="3:4">
       <c r="D70" s="3" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="71" spans="3:4">
       <c r="D71" s="3" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
     <row r="72" spans="3:4">
       <c r="C72" s="2" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="73" spans="3:4">
       <c r="D73" s="3" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="74" spans="3:4">
       <c r="D74" s="3" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="75" spans="3:4">
       <c r="D75" s="3" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="76" spans="3:4">
       <c r="D76" s="3" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="77" spans="3:4">
       <c r="D77" s="3" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="78" spans="3:4">
       <c r="D78" s="3" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="79" spans="3:4">
       <c r="C79" s="2" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
     </row>
     <row r="80" spans="3:4">
       <c r="D80" s="2" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="81" spans="2:5">
       <c r="C81" s="2" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="82" spans="2:5">
       <c r="D82" s="3" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="83" spans="2:5">
       <c r="D83" s="3" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="84" spans="2:5">
       <c r="D84" s="3" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="85" spans="2:5">
       <c r="D85" s="3" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="86" spans="2:5">
       <c r="D86" s="3" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="87" spans="2:5">
       <c r="D87" s="3" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="88" spans="2:5">
       <c r="D88" s="3" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="89" spans="2:5">
       <c r="D89" s="3" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="90" spans="2:5">
       <c r="D90" s="3" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="91" spans="2:5">
       <c r="D91" s="3" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="92" spans="2:5">
       <c r="B92" s="2" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="93" spans="2:5">
       <c r="B93" s="2" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="94" spans="2:5">
       <c r="D94" s="2" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
     <row r="95" spans="2:5">
       <c r="E95" s="3" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="96" spans="2:5">
       <c r="E96" s="3" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="97" spans="3:17">
       <c r="E97" s="3" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="98" spans="3:17">
       <c r="E98" s="3" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="99" spans="3:17">
       <c r="E99" s="3" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
     </row>
     <row r="100" spans="3:17">
       <c r="C100" s="2" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="101" spans="3:17">
       <c r="C101" s="2" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="102" spans="3:17">
       <c r="D102" s="3" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="103" spans="3:17">
       <c r="C103" s="2" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="104" spans="3:17">
       <c r="D104" s="5" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="H104" s="3"/>
       <c r="M104" s="3"/>
@@ -17279,7 +17563,7 @@
     </row>
     <row r="105" spans="3:17">
       <c r="D105" s="5" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="H105" s="3"/>
       <c r="M105" s="3"/>
@@ -17287,7 +17571,7 @@
     </row>
     <row r="106" spans="3:17">
       <c r="D106" s="5" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="H106" s="3"/>
       <c r="M106" s="3"/>
@@ -17295,7 +17579,7 @@
     </row>
     <row r="107" spans="3:17">
       <c r="D107" s="5" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="H107" s="3"/>
       <c r="M107" s="3"/>
@@ -17303,7 +17587,7 @@
     </row>
     <row r="108" spans="3:17">
       <c r="D108" s="5" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="H108" s="3"/>
       <c r="M108" s="3"/>
@@ -17311,7 +17595,7 @@
     </row>
     <row r="109" spans="3:17">
       <c r="D109" s="5" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="H109" s="3"/>
       <c r="M109" s="3"/>
@@ -17319,7 +17603,7 @@
     </row>
     <row r="110" spans="3:17">
       <c r="D110" s="5" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="H110" s="3"/>
       <c r="M110" s="3"/>
@@ -17327,7 +17611,7 @@
     </row>
     <row r="111" spans="3:17">
       <c r="D111" s="5" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="H111" s="3"/>
       <c r="M111" s="3"/>
@@ -17335,7 +17619,7 @@
     </row>
     <row r="112" spans="3:17">
       <c r="D112" s="5" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="H112" s="3"/>
       <c r="M112" s="3"/>
@@ -17343,7 +17627,7 @@
     </row>
     <row r="113" spans="4:17">
       <c r="D113" s="5" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="H113" s="3"/>
       <c r="M113" s="3"/>
@@ -17351,7 +17635,7 @@
     </row>
     <row r="114" spans="4:17">
       <c r="D114" s="5" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="H114" s="3"/>
       <c r="M114" s="3"/>
@@ -17359,7 +17643,7 @@
     </row>
     <row r="115" spans="4:17">
       <c r="D115" s="5" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="H115" s="3"/>
       <c r="M115" s="3"/>
@@ -17367,7 +17651,7 @@
     </row>
     <row r="116" spans="4:17">
       <c r="D116" s="5" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="H116" s="3"/>
       <c r="M116" s="3"/>
@@ -17375,7 +17659,7 @@
     </row>
     <row r="117" spans="4:17">
       <c r="D117" s="5" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="H117" s="3"/>
       <c r="M117" s="3"/>
@@ -17383,7 +17667,7 @@
     </row>
     <row r="118" spans="4:17">
       <c r="D118" s="5" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="H118" s="3"/>
       <c r="M118" s="3"/>
@@ -17391,7 +17675,7 @@
     </row>
     <row r="119" spans="4:17">
       <c r="D119" s="5" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="H119" s="3"/>
       <c r="M119" s="3"/>
@@ -17399,7 +17683,7 @@
     </row>
     <row r="120" spans="4:17">
       <c r="D120" s="5" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="H120" s="3"/>
       <c r="M120" s="3"/>
@@ -17407,7 +17691,7 @@
     </row>
     <row r="121" spans="4:17">
       <c r="D121" s="5" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="H121" s="3"/>
       <c r="M121" s="3"/>
@@ -17415,7 +17699,7 @@
     </row>
     <row r="122" spans="4:17">
       <c r="D122" s="5" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="H122" s="3"/>
       <c r="M122" s="3"/>
@@ -17423,121 +17707,121 @@
     </row>
     <row r="123" spans="4:17">
       <c r="D123" s="5" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="H123" s="3"/>
       <c r="Q123" s="3"/>
     </row>
     <row r="124" spans="4:17">
       <c r="D124" s="5" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="H124" s="3"/>
       <c r="Q124" s="3"/>
     </row>
     <row r="125" spans="4:17">
       <c r="D125" s="5" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="H125" s="3"/>
       <c r="Q125" s="3"/>
     </row>
     <row r="126" spans="4:17">
       <c r="D126" s="5" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="Q126" s="3"/>
     </row>
     <row r="127" spans="4:17">
       <c r="D127" s="5" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="Q127" s="3"/>
     </row>
     <row r="128" spans="4:17">
       <c r="D128" s="5" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="Q128" s="3"/>
     </row>
     <row r="129" spans="2:20">
       <c r="D129" s="5" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="Q129" s="3"/>
     </row>
     <row r="130" spans="2:20">
       <c r="D130" s="5" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="Q130" s="3"/>
     </row>
     <row r="131" spans="2:20">
       <c r="D131" s="5" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="Q131" s="3"/>
     </row>
     <row r="132" spans="2:20">
       <c r="D132" s="5" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="Q132" s="3"/>
     </row>
     <row r="133" spans="2:20">
       <c r="D133" s="5" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="Q133" s="3"/>
     </row>
     <row r="134" spans="2:20">
       <c r="C134" s="2" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="135" spans="2:20">
       <c r="D135" s="5" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="136" spans="2:20">
       <c r="D136" s="5" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
     </row>
     <row r="137" spans="2:20">
       <c r="B137" s="2" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="138" spans="2:20">
       <c r="C138" s="2" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
     </row>
     <row r="139" spans="2:20">
       <c r="C139" s="2" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="140" spans="2:20">
       <c r="D140" s="3" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="141" spans="2:20">
       <c r="C141" s="2" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="142" spans="2:20">
       <c r="D142" s="2" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="143" spans="2:20">
       <c r="D143" s="5" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="I143" s="3"/>
       <c r="O143" s="3"/>
@@ -17545,7 +17829,7 @@
     </row>
     <row r="144" spans="2:20">
       <c r="D144" s="5" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="I144" s="3"/>
       <c r="O144" s="3"/>
@@ -17553,7 +17837,7 @@
     </row>
     <row r="145" spans="2:20">
       <c r="D145" s="5" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="I145" s="3"/>
       <c r="O145" s="3"/>
@@ -17561,7 +17845,7 @@
     </row>
     <row r="146" spans="2:20">
       <c r="D146" s="5" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="I146" s="3"/>
       <c r="O146" s="3"/>
@@ -17569,7 +17853,7 @@
     </row>
     <row r="147" spans="2:20">
       <c r="D147" s="5" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="I147" s="3"/>
       <c r="O147" s="3"/>
@@ -17577,7 +17861,7 @@
     </row>
     <row r="148" spans="2:20">
       <c r="D148" s="5" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="I148" s="3"/>
       <c r="O148" s="3"/>
@@ -17585,7 +17869,7 @@
     </row>
     <row r="149" spans="2:20">
       <c r="D149" s="5" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="I149" s="3"/>
       <c r="O149" s="3"/>
@@ -17593,7 +17877,7 @@
     </row>
     <row r="150" spans="2:20">
       <c r="D150" s="5" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="I150" s="3"/>
       <c r="O150" s="3"/>
@@ -17601,7 +17885,7 @@
     </row>
     <row r="151" spans="2:20">
       <c r="D151" s="5" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="I151" s="3"/>
       <c r="O151" s="3"/>
@@ -17609,7 +17893,7 @@
     </row>
     <row r="152" spans="2:20">
       <c r="D152" s="5" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="I152" s="3"/>
       <c r="O152" s="3"/>
@@ -17617,7 +17901,7 @@
     </row>
     <row r="153" spans="2:20">
       <c r="D153" s="5" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="I153" s="3"/>
       <c r="O153" s="3"/>
@@ -17625,7 +17909,7 @@
     </row>
     <row r="154" spans="2:20">
       <c r="D154" s="5" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="I154" s="3"/>
       <c r="O154" s="3"/>
@@ -17633,7 +17917,7 @@
     </row>
     <row r="155" spans="2:20">
       <c r="D155" s="5" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="I155" s="3"/>
       <c r="O155" s="3"/>
@@ -17641,7 +17925,7 @@
     </row>
     <row r="156" spans="2:20">
       <c r="D156" s="5" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="I156" s="3"/>
       <c r="O156" s="3"/>
@@ -17649,7 +17933,7 @@
     </row>
     <row r="157" spans="2:20">
       <c r="D157" s="5" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="I157" s="3"/>
       <c r="O157" s="3"/>
@@ -17657,54 +17941,54 @@
     </row>
     <row r="158" spans="2:20">
       <c r="D158" s="5" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="I158" s="3"/>
       <c r="T158" s="3"/>
     </row>
     <row r="159" spans="2:20">
       <c r="B159" s="2" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="160" spans="2:20">
       <c r="C160" s="2" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="161" spans="3:20">
       <c r="C161" s="2" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="162" spans="3:20">
       <c r="D162" s="2" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="163" spans="3:20">
       <c r="E163" s="4" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="164" spans="3:20">
       <c r="E164" s="3" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
     <row r="165" spans="3:20">
       <c r="C165" s="2" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="166" spans="3:20">
       <c r="D166" s="2" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="167" spans="3:20">
       <c r="E167" s="3" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="J167" s="3"/>
       <c r="O167" s="3"/>
@@ -17712,7 +17996,7 @@
     </row>
     <row r="168" spans="3:20">
       <c r="E168" s="3" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="J168" s="3"/>
       <c r="O168" s="3"/>
@@ -17720,7 +18004,7 @@
     </row>
     <row r="169" spans="3:20">
       <c r="E169" s="3" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="J169" s="3"/>
       <c r="O169" s="3"/>
@@ -17728,7 +18012,7 @@
     </row>
     <row r="170" spans="3:20">
       <c r="E170" s="3" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="J170" s="3"/>
       <c r="O170" s="3"/>
@@ -17736,7 +18020,7 @@
     </row>
     <row r="171" spans="3:20">
       <c r="E171" s="3" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="J171" s="3"/>
       <c r="O171" s="3"/>
@@ -17744,7 +18028,7 @@
     </row>
     <row r="172" spans="3:20">
       <c r="E172" s="3" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="J172" s="3"/>
       <c r="O172" s="3"/>
@@ -17752,7 +18036,7 @@
     </row>
     <row r="173" spans="3:20">
       <c r="E173" s="3" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="J173" s="3"/>
       <c r="O173" s="3"/>
@@ -17760,66 +18044,66 @@
     </row>
     <row r="174" spans="3:20">
       <c r="D174" s="2" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="175" spans="3:20">
       <c r="E175" s="3" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="L175" s="3"/>
       <c r="R175" s="3"/>
     </row>
     <row r="176" spans="3:20">
       <c r="E176" s="3" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="L176" s="3"/>
       <c r="R176" s="3"/>
     </row>
     <row r="177" spans="4:18">
       <c r="E177" s="3" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="L177" s="3"/>
       <c r="R177" s="3"/>
     </row>
     <row r="178" spans="4:18">
       <c r="E178" s="3" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="L178" s="3"/>
       <c r="R178" s="3"/>
     </row>
     <row r="179" spans="4:18">
       <c r="E179" s="3" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="L179" s="3"/>
       <c r="R179" s="3"/>
     </row>
     <row r="180" spans="4:18">
       <c r="E180" s="3" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="L180" s="3"/>
       <c r="R180" s="3"/>
     </row>
     <row r="181" spans="4:18">
       <c r="E181" s="3" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="L181" s="3"/>
       <c r="R181" s="3"/>
     </row>
     <row r="182" spans="4:18">
       <c r="D182" s="2" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="183" spans="4:18">
       <c r="E183" s="3" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="I183" s="3"/>
       <c r="N183" s="3"/>
@@ -17827,7 +18111,7 @@
     </row>
     <row r="184" spans="4:18">
       <c r="E184" s="3" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="I184" s="3"/>
       <c r="N184" s="3"/>
@@ -17835,7 +18119,7 @@
     </row>
     <row r="185" spans="4:18">
       <c r="E185" s="3" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="I185" s="3"/>
       <c r="N185" s="3"/>
@@ -17843,7 +18127,7 @@
     </row>
     <row r="186" spans="4:18">
       <c r="E186" s="3" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="I186" s="3"/>
       <c r="N186" s="3"/>
@@ -17851,7 +18135,7 @@
     </row>
     <row r="187" spans="4:18">
       <c r="E187" s="3" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="I187" s="3"/>
       <c r="N187" s="3"/>
@@ -17859,7 +18143,7 @@
     </row>
     <row r="188" spans="4:18">
       <c r="E188" s="3" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="I188" s="3"/>
       <c r="N188" s="3"/>
@@ -17867,7 +18151,7 @@
     </row>
     <row r="189" spans="4:18">
       <c r="E189" s="3" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="I189" s="3"/>
       <c r="N189" s="3"/>
@@ -17875,7 +18159,7 @@
     </row>
     <row r="190" spans="4:18">
       <c r="E190" s="3" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="I190" s="3"/>
       <c r="N190" s="3"/>
@@ -17883,7 +18167,7 @@
     </row>
     <row r="191" spans="4:18">
       <c r="E191" s="3" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="I191" s="3"/>
       <c r="N191" s="3"/>
@@ -17891,7 +18175,7 @@
     </row>
     <row r="192" spans="4:18">
       <c r="E192" s="3" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="I192" s="3"/>
       <c r="N192" s="3"/>
@@ -17899,7 +18183,7 @@
     </row>
     <row r="193" spans="3:19">
       <c r="E193" s="3" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="I193" s="3"/>
       <c r="N193" s="3"/>
@@ -17907,7 +18191,7 @@
     </row>
     <row r="194" spans="3:19">
       <c r="E194" s="3" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="I194" s="3"/>
       <c r="N194" s="3"/>
@@ -17915,7 +18199,7 @@
     </row>
     <row r="195" spans="3:19">
       <c r="E195" s="3" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="I195" s="3"/>
       <c r="N195" s="3"/>
@@ -17923,12 +18207,12 @@
     </row>
     <row r="196" spans="3:19">
       <c r="D196" s="2" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
     <row r="197" spans="3:19">
       <c r="E197" s="3" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="I197" s="3"/>
       <c r="N197" s="3"/>
@@ -17936,7 +18220,7 @@
     </row>
     <row r="198" spans="3:19">
       <c r="E198" s="3" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="I198" s="3"/>
       <c r="N198" s="3"/>
@@ -17944,7 +18228,7 @@
     </row>
     <row r="199" spans="3:19">
       <c r="E199" s="3" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="I199" s="3"/>
       <c r="N199" s="3"/>
@@ -17952,7 +18236,7 @@
     </row>
     <row r="200" spans="3:19">
       <c r="E200" s="3" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="I200" s="3"/>
       <c r="N200" s="3"/>
@@ -17960,12 +18244,12 @@
     </row>
     <row r="201" spans="3:19">
       <c r="D201" s="2" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="202" spans="3:19">
       <c r="E202" s="3" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="I202" s="3"/>
       <c r="N202" s="3"/>
@@ -17973,7 +18257,7 @@
     </row>
     <row r="203" spans="3:19">
       <c r="E203" s="3" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="I203" s="3"/>
       <c r="N203" s="3"/>
@@ -17981,7 +18265,7 @@
     </row>
     <row r="204" spans="3:19">
       <c r="E204" s="3" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="I204" s="3"/>
       <c r="N204" s="3"/>
@@ -17989,7 +18273,7 @@
     </row>
     <row r="205" spans="3:19">
       <c r="E205" s="3" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="I205" s="3"/>
       <c r="N205" s="3"/>
@@ -17997,28 +18281,28 @@
     </row>
     <row r="206" spans="3:19">
       <c r="C206" s="2" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="207" spans="3:19">
       <c r="D207" s="2" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="208" spans="3:19">
       <c r="E208" s="3" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
     </row>
     <row r="209" spans="4:20">
       <c r="D209" s="2" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="F209" s="3"/>
     </row>
     <row r="210" spans="4:20">
       <c r="E210" s="3" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="J210" s="3"/>
       <c r="O210" s="3"/>
@@ -18026,7 +18310,7 @@
     </row>
     <row r="211" spans="4:20">
       <c r="E211" s="3" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="J211" s="3"/>
       <c r="O211" s="3"/>
@@ -18034,7 +18318,7 @@
     </row>
     <row r="212" spans="4:20">
       <c r="E212" s="3" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="J212" s="3"/>
       <c r="O212" s="3"/>
@@ -18042,7 +18326,7 @@
     </row>
     <row r="213" spans="4:20">
       <c r="E213" s="3" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="J213" s="3"/>
       <c r="O213" s="3"/>
@@ -18050,7 +18334,7 @@
     </row>
     <row r="214" spans="4:20">
       <c r="E214" s="3" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="J214" s="3"/>
       <c r="O214" s="3"/>
@@ -18058,7 +18342,7 @@
     </row>
     <row r="215" spans="4:20">
       <c r="E215" s="3" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="J215" s="3"/>
       <c r="O215" s="3"/>
@@ -18066,7 +18350,7 @@
     </row>
     <row r="216" spans="4:20">
       <c r="E216" s="3" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="J216" s="3"/>
       <c r="O216" s="3"/>
@@ -18074,108 +18358,108 @@
     </row>
     <row r="217" spans="4:20">
       <c r="D217" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="218" spans="4:20">
       <c r="E218" s="3" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="J218" s="3"/>
       <c r="O218" s="3"/>
     </row>
     <row r="219" spans="4:20">
       <c r="E219" s="3" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="J219" s="3"/>
       <c r="O219" s="3"/>
     </row>
     <row r="220" spans="4:20">
       <c r="E220" s="3" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="J220" s="3"/>
       <c r="O220" s="3"/>
     </row>
     <row r="221" spans="4:20">
       <c r="E221" s="3" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="J221" s="3"/>
       <c r="O221" s="3"/>
     </row>
     <row r="222" spans="4:20">
       <c r="E222" s="3" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="J222" s="3"/>
       <c r="O222" s="3"/>
     </row>
     <row r="223" spans="4:20">
       <c r="E223" s="3" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="J223" s="3"/>
       <c r="O223" s="3"/>
     </row>
     <row r="224" spans="4:20">
       <c r="E224" s="3" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="J224" s="3"/>
       <c r="O224" s="3"/>
     </row>
     <row r="225" spans="4:19">
       <c r="E225" s="3" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="J225" s="3"/>
       <c r="O225" s="3"/>
     </row>
     <row r="226" spans="4:19">
       <c r="E226" s="3" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="J226" s="3"/>
       <c r="O226" s="3"/>
     </row>
     <row r="227" spans="4:19">
       <c r="E227" s="3" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="J227" s="3"/>
       <c r="O227" s="3"/>
     </row>
     <row r="228" spans="4:19">
       <c r="E228" s="3" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="J228" s="3"/>
       <c r="O228" s="3"/>
     </row>
     <row r="229" spans="4:19">
       <c r="E229" s="3" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="J229" s="3"/>
       <c r="O229" s="3"/>
     </row>
     <row r="230" spans="4:19">
       <c r="E230" s="3" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="J230" s="3"/>
       <c r="O230" s="3"/>
     </row>
     <row r="231" spans="4:19">
       <c r="D231" s="2" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="232" spans="4:19">
       <c r="E232" s="3" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="J232" s="3"/>
       <c r="O232" s="3"/>
@@ -18183,7 +18467,7 @@
     </row>
     <row r="233" spans="4:19">
       <c r="E233" s="3" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="J233" s="3"/>
       <c r="O233" s="3"/>
@@ -18191,7 +18475,7 @@
     </row>
     <row r="234" spans="4:19">
       <c r="E234" s="3" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="J234" s="3"/>
       <c r="O234" s="3"/>
@@ -18199,7 +18483,7 @@
     </row>
     <row r="235" spans="4:19">
       <c r="E235" s="3" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="J235" s="3"/>
       <c r="O235" s="3"/>
@@ -18207,7 +18491,7 @@
     </row>
     <row r="236" spans="4:19">
       <c r="E236" s="3" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="J236" s="3"/>
       <c r="O236" s="3"/>
@@ -18215,7 +18499,7 @@
     </row>
     <row r="237" spans="4:19">
       <c r="E237" s="3" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="J237" s="3"/>
       <c r="O237" s="3"/>
@@ -18223,7 +18507,7 @@
     </row>
     <row r="238" spans="4:19">
       <c r="E238" s="3" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="J238" s="3"/>
       <c r="O238" s="3"/>
@@ -18231,7 +18515,7 @@
     </row>
     <row r="239" spans="4:19">
       <c r="E239" s="3" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="J239" s="3"/>
       <c r="O239" s="3"/>
@@ -18239,7 +18523,7 @@
     </row>
     <row r="240" spans="4:19">
       <c r="E240" s="3" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="J240" s="3"/>
       <c r="O240" s="3"/>
@@ -18247,7 +18531,7 @@
     </row>
     <row r="241" spans="4:19">
       <c r="E241" s="3" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="J241" s="3"/>
       <c r="O241" s="3"/>
@@ -18255,12 +18539,12 @@
     </row>
     <row r="242" spans="4:19">
       <c r="D242" s="2" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
     <row r="243" spans="4:19">
       <c r="E243" s="3" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="J243" s="3"/>
       <c r="O243" s="3"/>
@@ -18268,7 +18552,7 @@
     </row>
     <row r="244" spans="4:19">
       <c r="E244" s="3" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="J244" s="3"/>
       <c r="O244" s="3"/>
@@ -18276,7 +18560,7 @@
     </row>
     <row r="245" spans="4:19">
       <c r="E245" s="3" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="J245" s="3"/>
       <c r="O245" s="3"/>
@@ -18284,7 +18568,7 @@
     </row>
     <row r="246" spans="4:19">
       <c r="E246" s="3" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="J246" s="3"/>
       <c r="O246" s="3"/>
@@ -18292,7 +18576,7 @@
     </row>
     <row r="247" spans="4:19">
       <c r="E247" s="3" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="J247" s="3"/>
       <c r="O247" s="3"/>
@@ -18300,7 +18584,7 @@
     </row>
     <row r="248" spans="4:19">
       <c r="E248" s="3" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="J248" s="3"/>
       <c r="O248" s="3"/>
@@ -18308,7 +18592,7 @@
     </row>
     <row r="249" spans="4:19">
       <c r="E249" s="3" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="J249" s="3"/>
       <c r="O249" s="3"/>
@@ -18316,7 +18600,7 @@
     </row>
     <row r="250" spans="4:19">
       <c r="E250" s="3" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="J250" s="3"/>
       <c r="O250" s="3"/>
@@ -18324,7 +18608,7 @@
     </row>
     <row r="251" spans="4:19">
       <c r="E251" s="3" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="J251" s="3"/>
       <c r="O251" s="3"/>
@@ -18332,7 +18616,7 @@
     </row>
     <row r="252" spans="4:19">
       <c r="E252" s="3" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="J252" s="3"/>
       <c r="O252" s="3"/>
@@ -18340,12 +18624,12 @@
     </row>
     <row r="253" spans="4:19">
       <c r="D253" s="2" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="254" spans="4:19">
       <c r="E254" s="4" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="J254" s="4"/>
       <c r="O254" s="4"/>
@@ -18353,7 +18637,7 @@
     </row>
     <row r="255" spans="4:19">
       <c r="E255" s="4" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="J255" s="4"/>
       <c r="O255" s="4"/>
@@ -18361,7 +18645,7 @@
     </row>
     <row r="256" spans="4:19">
       <c r="E256" s="4" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="J256" s="4"/>
       <c r="O256" s="4"/>
@@ -18369,7 +18653,7 @@
     </row>
     <row r="257" spans="3:19">
       <c r="E257" s="4" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="J257" s="4"/>
       <c r="O257" s="4"/>
@@ -18377,7 +18661,7 @@
     </row>
     <row r="258" spans="3:19">
       <c r="E258" s="4" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="J258" s="4"/>
       <c r="O258" s="4"/>
@@ -18385,7 +18669,7 @@
     </row>
     <row r="259" spans="3:19">
       <c r="E259" s="4" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="J259" s="4"/>
       <c r="O259" s="4"/>
@@ -18393,7 +18677,7 @@
     </row>
     <row r="260" spans="3:19">
       <c r="E260" s="4" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="J260" s="4"/>
       <c r="O260" s="4"/>
@@ -18401,62 +18685,62 @@
     </row>
     <row r="261" spans="3:19">
       <c r="C261" s="2" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
     </row>
     <row r="262" spans="3:19">
       <c r="D262" s="2" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
     <row r="263" spans="3:19">
       <c r="E263" s="2" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="264" spans="3:19">
       <c r="F264" s="3" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="265" spans="3:19">
       <c r="E265" s="2" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="266" spans="3:19">
       <c r="F266" s="3" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
     </row>
     <row r="267" spans="3:19">
       <c r="E267" s="2" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="268" spans="3:19">
       <c r="F268" s="3" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="269" spans="3:19">
       <c r="E269" s="2" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="270" spans="3:19">
       <c r="F270" s="3" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
     </row>
     <row r="271" spans="3:19">
       <c r="D271" s="2" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="272" spans="3:19">
       <c r="E272" s="3" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="I272" s="3"/>
       <c r="N272" s="3"/>
@@ -18464,7 +18748,7 @@
     </row>
     <row r="273" spans="3:18">
       <c r="E273" s="3" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="I273" s="3"/>
       <c r="N273" s="3"/>
@@ -18472,97 +18756,97 @@
     </row>
     <row r="274" spans="3:18">
       <c r="D274" s="2" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="275" spans="3:18">
       <c r="E275" s="3" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
     </row>
     <row r="276" spans="3:18">
       <c r="D276" s="2" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="277" spans="3:18">
       <c r="E277" s="3" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
     </row>
     <row r="278" spans="3:18">
       <c r="D278" s="2" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
     </row>
     <row r="279" spans="3:18">
       <c r="E279" s="3" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
     </row>
     <row r="280" spans="3:18">
       <c r="D280" s="2" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="281" spans="3:18">
       <c r="E281" s="3" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
     </row>
     <row r="282" spans="3:18">
       <c r="D282" s="2" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
     </row>
     <row r="283" spans="3:18">
       <c r="E283" s="3" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
     </row>
     <row r="284" spans="3:18">
       <c r="C284" s="2" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
     </row>
     <row r="285" spans="3:18">
       <c r="D285" s="2" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="286" spans="3:18">
       <c r="E286" s="3" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
     </row>
     <row r="287" spans="3:18">
       <c r="D287" s="2" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
     </row>
     <row r="288" spans="3:18">
       <c r="E288" s="3" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
     </row>
     <row r="289" spans="2:4">
       <c r="B289" s="2" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="290" spans="2:4">
       <c r="D290" s="2" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
     <row r="292" spans="2:4">
       <c r="D292" s="2" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
     </row>
     <row r="294" spans="2:4">
       <c r="D294" s="2" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
     </row>
   </sheetData>

--- a/Project-MRA/Project MRA.xlsx
+++ b/Project-MRA/Project MRA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Viktor\Desktop\Tenderi\WEB\PROG\Qinshift-homeworks\Project-MRA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E60B054E-DC8C-489F-AB18-682D9E5E7D50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF882E54-35DA-4B0C-B763-2EBED5A37701}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="764" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="957" uniqueCount="777">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="963" uniqueCount="783">
   <si>
     <t>Contact details</t>
   </si>
@@ -8387,7 +8387,18 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Vo </t>
+      <t xml:space="preserve">.dorpdown </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>vo</t>
     </r>
     <r>
       <rPr>
@@ -8399,12 +8410,12 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t>main.css</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">.dorpdown </t>
+      <t xml:space="preserve"> .dropdownLanguageSelector</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">.dorpdown-toggle </t>
     </r>
     <r>
       <rPr>
@@ -8427,12 +8438,12 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> .dropdownLanguageSelector</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">.dorpdown-toggle </t>
+      <t xml:space="preserve"> .dropdownLanguageSelector-toggle</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">.dorpdown-menu </t>
     </r>
     <r>
       <rPr>
@@ -8455,23 +8466,12 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> .dropdownLanguageSelector-toggle</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">.dorpdown-menu </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>vo</t>
+      <t xml:space="preserve"> .dropdownLanguageSelector-menu</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Za integriranje na </t>
     </r>
     <r>
       <rPr>
@@ -8483,12 +8483,17 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> .dropdownLanguageSelector-menu</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Za integriranje na </t>
+      <t>multilingual dropdown</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> vo </t>
     </r>
     <r>
       <rPr>
@@ -8500,7 +8505,7 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t>multilingual dropdown</t>
+      <t>navbar</t>
     </r>
     <r>
       <rPr>
@@ -8510,7 +8515,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> vo </t>
+      <t xml:space="preserve"> od ticket </t>
     </r>
     <r>
       <rPr>
@@ -8522,17 +8527,12 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t>navbar</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> od ticket </t>
+      <t>navBar#9</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Vo </t>
     </r>
     <r>
       <rPr>
@@ -8544,12 +8544,17 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t>navBar#9</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Vo </t>
+      <t>contact.html</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, kopiran e block </t>
     </r>
     <r>
       <rPr>
@@ -8561,7 +8566,7 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t>contact.html</t>
+      <t>nav</t>
     </r>
     <r>
       <rPr>
@@ -8571,7 +8576,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">, kopiran e block </t>
+      <t xml:space="preserve"> I vo nego vo poslednoto </t>
     </r>
     <r>
       <rPr>
@@ -8583,7 +8588,7 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t>nav</t>
+      <t>li</t>
     </r>
     <r>
       <rPr>
@@ -8593,7 +8598,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> I vo nego vo poslednoto </t>
+      <t xml:space="preserve"> celosniot </t>
     </r>
     <r>
       <rPr>
@@ -8605,7 +8610,7 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t>li</t>
+      <t>div</t>
     </r>
     <r>
       <rPr>
@@ -8615,7 +8620,12 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> celosniot </t>
+      <t xml:space="preserve"> e zamenet so nov.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Vo </t>
     </r>
     <r>
       <rPr>
@@ -8627,7 +8637,7 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t>div</t>
+      <t>main.css</t>
     </r>
     <r>
       <rPr>
@@ -8637,7 +8647,403 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> e zamenet so nov.</t>
+      <t xml:space="preserve"> (PREDVIDENO E main.css od navBar#9 da bide konecniot main.css)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Za integriranje na </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">multilingual </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>vo display text od</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> footer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> od ticket </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Footer#10</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Kodot od </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>konecniot</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>main.css</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> koj se odnesuva na </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>footer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, e zamenet so celosniot kod od </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">main.css </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">od tiket  </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Footer#10 </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Celosniot kod za </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>footer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> od </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Footer#10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> e staven kako </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>footer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> vo </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>contact.html</t>
+    </r>
+  </si>
+  <si>
+    <t>Dodadeni se potrebnite klasi kaj site elementi koi prikazuvaat text koj zavisi od izborot na jazik na aplikacijata.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Blokot </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>footer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, od </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>contact.html</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> e spremen da se kopira vo site preostanati .</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>html</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> strani.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Blokot </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>header</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, od </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>contact.html</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> e spremen da se kopira vo site preostanati .</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>html</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> strani.</t>
     </r>
   </si>
 </sst>
@@ -13131,27 +13537,27 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="B3:E12"/>
+  <dimension ref="B3:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="3" spans="2:5">
       <c r="B3" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="4" spans="2:5">
       <c r="C4" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="5" spans="2:5">
       <c r="C5" t="s">
-        <v>771</v>
+        <v>776</v>
       </c>
     </row>
     <row r="6" spans="2:5">
@@ -13176,17 +13582,47 @@
     </row>
     <row r="10" spans="2:5">
       <c r="E10" s="41" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="11" spans="2:5">
       <c r="E11" s="41" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="12" spans="2:5">
       <c r="E12" s="41" t="s">
-        <v>774</v>
+        <v>773</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5">
+      <c r="C13" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5">
+      <c r="B15" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5">
+      <c r="C16" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4">
+      <c r="D17" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4">
+      <c r="C18" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4">
+      <c r="C19" t="s">
+        <v>781</v>
       </c>
     </row>
   </sheetData>
@@ -15855,18 +16291,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A125:A127"/>
+    <mergeCell ref="C125:C127"/>
+    <mergeCell ref="D125:D127"/>
+    <mergeCell ref="A128:A130"/>
+    <mergeCell ref="C128:C130"/>
+    <mergeCell ref="D128:D130"/>
     <mergeCell ref="A117:A120"/>
     <mergeCell ref="C117:C120"/>
     <mergeCell ref="D117:D120"/>
     <mergeCell ref="A121:A124"/>
     <mergeCell ref="C121:C124"/>
     <mergeCell ref="D121:D124"/>
-    <mergeCell ref="A125:A127"/>
-    <mergeCell ref="C125:C127"/>
-    <mergeCell ref="D125:D127"/>
-    <mergeCell ref="A128:A130"/>
-    <mergeCell ref="C128:C130"/>
-    <mergeCell ref="D128:D130"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" location="main" display="https://chatgpt.com/ - main" xr:uid="{00000000-0004-0000-0100-000000000000}"/>

--- a/Project-MRA/Project MRA.xlsx
+++ b/Project-MRA/Project MRA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Viktor\Desktop\Tenderi\WEB\PROG\Qinshift-homeworks\Project-MRA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF882E54-35DA-4B0C-B763-2EBED5A37701}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1208F106-7482-4795-974E-3A925CCCAEBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="764" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
     <sheet name="DB" sheetId="3" r:id="rId7"/>
     <sheet name="Sheet1" sheetId="4" r:id="rId8"/>
     <sheet name="mraMongoose" sheetId="6" r:id="rId9"/>
-    <sheet name="contactPage" sheetId="5" r:id="rId10"/>
+    <sheet name="Upatstvo" sheetId="5" r:id="rId10"/>
     <sheet name="multilingual" sheetId="7" r:id="rId11"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="963" uniqueCount="783">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="993" uniqueCount="812">
   <si>
     <t>Contact details</t>
   </si>
@@ -8374,31 +8374,8 @@
     <t>Upload_preset:unsigned_preset</t>
   </si>
   <si>
-    <t xml:space="preserve">Preimenuvani se klasite </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Se izbrisani </t>
-  </si>
-  <si>
-    <t>#languageToggle</t>
-  </si>
-  <si>
-    <t>#dropdownToggle</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">.dorpdown </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>vo</t>
+    <r>
+      <t xml:space="preserve">Za integriranje na </t>
     </r>
     <r>
       <rPr>
@@ -8410,12 +8387,7 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> .dropdownLanguageSelector</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">.dorpdown-toggle </t>
+      <t xml:space="preserve">multilingual </t>
     </r>
     <r>
       <rPr>
@@ -8426,7 +8398,7 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t>vo</t>
+      <t>vo display text od</t>
     </r>
     <r>
       <rPr>
@@ -8438,12 +8410,7 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> .dropdownLanguageSelector-toggle</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">.dorpdown-menu </t>
+      <t xml:space="preserve"> footer</t>
     </r>
     <r>
       <rPr>
@@ -8454,7 +8421,7 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t>vo</t>
+      <t xml:space="preserve"> od ticket </t>
     </r>
     <r>
       <rPr>
@@ -8466,8 +8433,44 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> .dropdownLanguageSelector-menu</t>
-    </r>
+      <t>Footer#10</t>
+    </r>
+  </si>
+  <si>
+    <t>Vo nego dodadeni se potrebnite klasi kaj site elementi koi prikazuvaat text koj zavisi od izborot na jazik na aplikacijata.</t>
+  </si>
+  <si>
+    <t>Kreiran e main.css koj sodrzi:</t>
+  </si>
+  <si>
+    <t>VAZNO:</t>
+  </si>
+  <si>
+    <t>&lt;head&gt;</t>
+  </si>
+  <si>
+    <t>  &lt;meta charset="UTF-8"&gt;</t>
+  </si>
+  <si>
+    <t>  &lt;meta name="viewport" content="width=device-width, initial-scale=1.0"&gt;</t>
+  </si>
+  <si>
+    <t>  &lt;link rel="stylesheet" href="../css/main.css"&gt;</t>
+  </si>
+  <si>
+    <t>  &lt;link rel="stylesheet" href="https://cdnjs.cloudflare.com/ajax/libs/font-awesome/4.7.0/css/font-awesome.min.css"&gt;</t>
+  </si>
+  <si>
+    <t>  &lt;title&gt;Page&lt;/title&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/head&gt;</t>
+  </si>
+  <si>
+    <t>  &lt;script src="../scripts/main.js"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>  &lt;script src="../modules/multilingual.js"&gt;&lt;/script&gt;</t>
   </si>
   <si>
     <r>
@@ -8491,6 +8494,7 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> vo </t>
@@ -8513,6 +8517,7 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> od ticket </t>
@@ -8552,6 +8557,7 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">, kopiran e block </t>
@@ -8566,7 +8572,7 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t>nav</t>
+      <t xml:space="preserve">nav </t>
     </r>
     <r>
       <rPr>
@@ -8574,9 +8580,10 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> I vo nego vo poslednoto </t>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>od</t>
     </r>
     <r>
       <rPr>
@@ -8588,7 +8595,7 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t>li</t>
+      <t xml:space="preserve"> navBar#10</t>
     </r>
     <r>
       <rPr>
@@ -8596,9 +8603,10 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> celosniot </t>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> I vo nego vo poslednoto </t>
     </r>
     <r>
       <rPr>
@@ -8610,7 +8618,7 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t>div</t>
+      <t>li</t>
     </r>
     <r>
       <rPr>
@@ -8618,14 +8626,10 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> e zamenet so nov.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Vo </t>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> celosniot </t>
     </r>
     <r>
       <rPr>
@@ -8637,7 +8641,7 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t>main.css</t>
+      <t>div</t>
     </r>
     <r>
       <rPr>
@@ -8645,14 +8649,15 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (PREDVIDENO E main.css od navBar#9 da bide konecniot main.css)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Za integriranje na </t>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> e zamenet so nov.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Vo celtiot block </t>
     </r>
     <r>
       <rPr>
@@ -8664,7 +8669,7 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">multilingual </t>
+      <t>nav</t>
     </r>
     <r>
       <rPr>
@@ -8675,7 +8680,12 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t>vo display text od</t>
+      <t xml:space="preserve"> se dodadeni se potrebnite klasi kaj site elementi koi prikazuvaat text koj zavisi od izborot na jazik na aplikacijata.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Vo </t>
     </r>
     <r>
       <rPr>
@@ -8687,7 +8697,7 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> footer</t>
+      <t>main.js</t>
     </r>
     <r>
       <rPr>
@@ -8698,7 +8708,7 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> od ticket </t>
+      <t xml:space="preserve"> e celosno prevzement kodot od </t>
     </r>
     <r>
       <rPr>
@@ -8710,12 +8720,18 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Footer#10</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Kodot od </t>
+      <t>main.js</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> na </t>
     </r>
     <r>
       <rPr>
@@ -8727,7 +8743,7 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t>konecniot</t>
+      <t>navBar#9</t>
     </r>
     <r>
       <rPr>
@@ -8735,9 +8751,15 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Blokot </t>
     </r>
     <r>
       <rPr>
@@ -8749,7 +8771,7 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t>main.css</t>
+      <t>header</t>
     </r>
     <r>
       <rPr>
@@ -8757,9 +8779,10 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> koj se odnesuva na </t>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, od </t>
     </r>
     <r>
       <rPr>
@@ -8771,7 +8794,7 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t>footer</t>
+      <t>contact.html</t>
     </r>
     <r>
       <rPr>
@@ -8779,9 +8802,10 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, e zamenet so celosniot kod od </t>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> e spremen da se kopira vo site preostanati .</t>
     </r>
     <r>
       <rPr>
@@ -8793,7 +8817,7 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">main.css </t>
+      <t>html</t>
     </r>
     <r>
       <rPr>
@@ -8801,9 +8825,15 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">od tiket  </t>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> strani.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Celosniot kod za </t>
     </r>
     <r>
       <rPr>
@@ -8815,12 +8845,18 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">Footer#10 </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Celosniot kod za </t>
+      <t>footer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> od </t>
     </r>
     <r>
       <rPr>
@@ -8832,7 +8868,7 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t>footer</t>
+      <t>Footer#10</t>
     </r>
     <r>
       <rPr>
@@ -8840,9 +8876,10 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> od </t>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> e staven kako </t>
     </r>
     <r>
       <rPr>
@@ -8854,7 +8891,7 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Footer#10</t>
+      <t>footer</t>
     </r>
     <r>
       <rPr>
@@ -8862,9 +8899,10 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> e staven kako </t>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> vo </t>
     </r>
     <r>
       <rPr>
@@ -8876,17 +8914,12 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t>footer</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> vo </t>
+      <t>contact.html</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Blokot </t>
     </r>
     <r>
       <rPr>
@@ -8898,15 +8931,18 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t>contact.html</t>
-    </r>
-  </si>
-  <si>
-    <t>Dodadeni se potrebnite klasi kaj site elementi koi prikazuvaat text koj zavisi od izborot na jazik na aplikacijata.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Blokot </t>
+      <t>footer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, od </t>
     </r>
     <r>
       <rPr>
@@ -8918,7 +8954,7 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t>footer</t>
+      <t>contact.html</t>
     </r>
     <r>
       <rPr>
@@ -8926,9 +8962,10 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, od </t>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> e spremen da se kopira vo site preostanati .</t>
     </r>
     <r>
       <rPr>
@@ -8940,7 +8977,7 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t>contact.html</t>
+      <t>html</t>
     </r>
     <r>
       <rPr>
@@ -8948,9 +8985,15 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> e spremen da se kopira vo site preostanati .</t>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> strani.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">blok namenet za </t>
     </r>
     <r>
       <rPr>
@@ -8962,7 +9005,7 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t>html</t>
+      <t>footer</t>
     </r>
     <r>
       <rPr>
@@ -8970,14 +9013,10 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> strani.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Blokot </t>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, prevzemen kompletno od ticket </t>
     </r>
     <r>
       <rPr>
@@ -8989,7 +9028,7 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t>header</t>
+      <t>Footer#10</t>
     </r>
     <r>
       <rPr>
@@ -8997,9 +9036,15 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, od </t>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> so napraveni minimalni korekcii vo pozicioniranje I otstraneti nepostoecki klasi.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">blok namenet za </t>
     </r>
     <r>
       <rPr>
@@ -9011,7 +9056,7 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t>contact.html</t>
+      <t>header</t>
     </r>
     <r>
       <rPr>
@@ -9019,9 +9064,10 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> e spremen da se kopira vo site preostanati .</t>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, prevzemen od ticket </t>
     </r>
     <r>
       <rPr>
@@ -9033,7 +9079,7 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t>html</t>
+      <t>navBar#9</t>
     </r>
     <r>
       <rPr>
@@ -9041,9 +9087,496 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> strani.</t>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, so promena vo delot koj se odnesuva na </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>language selector dropdown</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Koga vo </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">main.css </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">ili </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>main.js</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> se dodava kod treba, pocetokot I krajot na noviot kod, so komentiranje da se oznaci na sto se odnesuva… </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2. Za da kodot se loadira po pravilen redosled I se da funkcionira treba, koga se integriraat </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.css</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> I </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.js</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> file-ovite da bidat na sledniot nacin:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">najgore vo </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;head&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> da bidat .css po sledniot redosled</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>  &lt;link rel="stylesheet" href="../css/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>page</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.css"&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">najdolu pred </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">&lt;/body&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>da bidat .js po sledniot redosled</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>  &lt;script src="../scripts/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>page</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.js"&gt;&lt;/script&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3. Koga treba da se stavaat kartickite koi kje se renderiraat na </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>services.html</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, treba tie da se kreiraat vo stranata </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>contact.html</t>
+    </r>
+  </si>
+  <si>
+    <t>4. Koga nekoj tekst treba da se prikaze na ekran preku nekoj element mora:</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">toj element da ima klasi </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">onscreenText pagenamehtmlUniquename </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">tekstot koj treba da se prikaze ne se pisuva pomegju otvoracki I zatvaracki </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">tag </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>na toj element</t>
+    </r>
+  </si>
+  <si>
+    <t>Primer:</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">tekstot koj treba da se prikaze treba da se prevede na germanski, angliski I makedonski I istiot direktno da se vnese vo file-ot </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>contents.json</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> vo </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>data</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> folderot</t>
+    </r>
+  </si>
+  <si>
+    <t>  {</t>
+  </si>
+  <si>
+    <t>  }</t>
+  </si>
+  <si>
+    <t>    "id": "homepagehtmlHome",</t>
+  </si>
+  <si>
+    <t>    "english": "Home",</t>
+  </si>
+  <si>
+    <t>    "macedonian": "Дома"</t>
+  </si>
+  <si>
+    <t>    "german": "Heim",</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Ako treba na homePage.html preku </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>p tag</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> da se ispise tekst "Home", treba: </t>
+    </r>
+  </si>
+  <si>
+    <t>Da se vpise     &lt;p class="onscreenText homepagehtmlHome"&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Namesto      </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;p&gt;Home&lt;/p&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Vo </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>contents.json</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> da se dodade</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">5. Strukturata na branch-ata e MVC patern, odnosno, za da se testira otkako kje se merge-ne, prvo treba da se izvrsi npm install, potoa npm run dev, i se pristapuva preku API so </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>http://localhost:3000/pagename.html</t>
     </r>
   </si>
 </sst>
@@ -9051,7 +9584,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="42">
+  <fonts count="47">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -9341,6 +9874,43 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -9382,7 +9952,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
@@ -9500,7 +10070,6 @@
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -9522,6 +10091,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -13537,96 +14114,251 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="B3:E19"/>
+  <dimension ref="B2:G51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="O43" sqref="O43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="49"/>
+  </cols>
   <sheetData>
-    <row r="3" spans="2:5">
-      <c r="B3" t="s">
+    <row r="2" spans="2:4">
+      <c r="B2" s="49" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4">
+      <c r="C3" s="49" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4">
+      <c r="D4" s="49" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4">
+      <c r="C5" s="49" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4">
+      <c r="C6" s="49" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4">
+      <c r="B8" s="49" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4">
+      <c r="C9" s="49" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4">
+      <c r="D10" s="49" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4">
+      <c r="C11" s="49" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4">
+      <c r="B14" s="49" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4">
+      <c r="C15" s="49" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4">
+      <c r="C16" s="49" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5">
+      <c r="B18" s="49" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5">
+      <c r="C19" s="49" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5">
+      <c r="C20" s="49" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5">
+      <c r="D21" s="49" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5">
+      <c r="E22" s="50" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5">
+      <c r="E23" s="50" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5">
+      <c r="E24" s="50" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5">
+      <c r="E25" s="50" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5">
+      <c r="E26" s="50" t="s">
         <v>774</v>
       </c>
     </row>
-    <row r="4" spans="2:5">
-      <c r="C4" t="s">
+    <row r="27" spans="2:5">
+      <c r="E27" s="50" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5">
+      <c r="E28" s="50" t="s">
         <v>775</v>
       </c>
     </row>
-    <row r="5" spans="2:5">
-      <c r="C5" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5">
-      <c r="D6" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5">
-      <c r="E7" s="41" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5">
-      <c r="E8" s="41" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5">
-      <c r="D9" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5">
-      <c r="E10" s="41" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5">
-      <c r="E11" s="41" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5">
-      <c r="E12" s="41" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5">
-      <c r="C13" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5">
-      <c r="B15" t="s">
+    <row r="29" spans="2:5">
+      <c r="E29" s="50" t="s">
         <v>777</v>
       </c>
     </row>
-    <row r="16" spans="2:5">
-      <c r="C16" t="s">
+    <row r="30" spans="2:5">
+      <c r="D30" s="49" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5">
+      <c r="E31" s="50" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5">
+      <c r="E32" s="50" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="33" spans="3:7">
+      <c r="E33" s="50" t="s">
         <v>779</v>
       </c>
     </row>
-    <row r="17" spans="3:4">
-      <c r="D17" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="18" spans="3:4">
-      <c r="C18" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="19" spans="3:4">
-      <c r="C19" t="s">
-        <v>781</v>
+    <row r="34" spans="3:7">
+      <c r="E34" s="50" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="35" spans="3:7">
+      <c r="C35" s="49" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="36" spans="3:7">
+      <c r="C36" s="49" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="37" spans="3:7">
+      <c r="D37" s="49" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="38" spans="3:7">
+      <c r="D38" s="49" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="39" spans="3:7">
+      <c r="D39" s="49" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="40" spans="3:7">
+      <c r="D40" s="51" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="41" spans="3:7">
+      <c r="E41" s="49" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="42" spans="3:7">
+      <c r="F42" s="49" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="43" spans="3:7">
+      <c r="F43" s="49" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="44" spans="3:7">
+      <c r="F44" s="49" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="45" spans="3:7">
+      <c r="G45" s="48" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="46" spans="3:7">
+      <c r="G46" s="48" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="47" spans="3:7">
+      <c r="G47" s="48" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="48" spans="3:7">
+      <c r="G48" s="48" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="49" spans="3:7">
+      <c r="G49" s="48" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="50" spans="3:7">
+      <c r="G50" s="48" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="51" spans="3:7">
+      <c r="C51" s="49" t="s">
+        <v>811</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="42" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -13647,59 +14379,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="47" t="s">
         <v>355</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="47" t="s">
         <v>356</v>
       </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="48" t="s">
+      <c r="A3" s="47" t="s">
         <v>357</v>
       </c>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="47" t="s">
         <v>358</v>
       </c>
-      <c r="B4" s="48"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="48" t="s">
+      <c r="A5" s="47" t="s">
         <v>359</v>
       </c>
-      <c r="B5" s="48"/>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
+      <c r="B5" s="47"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="48" t="s">
+      <c r="A6" s="47" t="s">
         <v>360</v>
       </c>
-      <c r="B6" s="48"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
+      <c r="B6" s="47"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="48" t="s">
+      <c r="A7" s="47" t="s">
         <v>361</v>
       </c>
-      <c r="B7" s="48"/>
-      <c r="C7" s="48"/>
+      <c r="B7" s="47"/>
+      <c r="C7" s="47"/>
       <c r="D7" s="6"/>
     </row>
     <row r="8" spans="1:4">
@@ -13718,11 +14450,11 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="6"/>
-      <c r="B10" s="48" t="s">
+      <c r="B10" s="47" t="s">
         <v>363</v>
       </c>
-      <c r="C10" s="48"/>
-      <c r="D10" s="48"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="47"/>
     </row>
     <row r="11" spans="1:4" ht="45">
       <c r="A11" s="6"/>
@@ -13759,10 +14491,10 @@
     <row r="15" spans="1:4">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
-      <c r="C15" s="48" t="s">
+      <c r="C15" s="47" t="s">
         <v>368</v>
       </c>
-      <c r="D15" s="48"/>
+      <c r="D15" s="47"/>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
@@ -14374,140 +15106,140 @@
       </c>
     </row>
     <row r="117" spans="1:4" ht="127.5">
-      <c r="A117" s="42" t="s">
+      <c r="A117" s="41" t="s">
         <v>537</v>
       </c>
       <c r="B117" s="21" t="s">
         <v>538</v>
       </c>
-      <c r="C117" s="45" t="s">
+      <c r="C117" s="44" t="s">
         <v>542</v>
       </c>
-      <c r="D117" s="45" t="s">
+      <c r="D117" s="44" t="s">
         <v>543</v>
       </c>
     </row>
     <row r="118" spans="1:4" ht="25.5">
-      <c r="A118" s="43"/>
+      <c r="A118" s="42"/>
       <c r="B118" s="21" t="s">
         <v>539</v>
       </c>
-      <c r="C118" s="46"/>
-      <c r="D118" s="46"/>
+      <c r="C118" s="45"/>
+      <c r="D118" s="45"/>
     </row>
     <row r="119" spans="1:4" ht="51">
-      <c r="A119" s="43"/>
+      <c r="A119" s="42"/>
       <c r="B119" s="21" t="s">
         <v>540</v>
       </c>
-      <c r="C119" s="46"/>
-      <c r="D119" s="46"/>
+      <c r="C119" s="45"/>
+      <c r="D119" s="45"/>
     </row>
     <row r="120" spans="1:4" ht="51.75" thickBot="1">
-      <c r="A120" s="44"/>
+      <c r="A120" s="43"/>
       <c r="B120" s="22" t="s">
         <v>541</v>
       </c>
-      <c r="C120" s="47"/>
-      <c r="D120" s="47"/>
+      <c r="C120" s="46"/>
+      <c r="D120" s="46"/>
     </row>
     <row r="121" spans="1:4" ht="38.25">
-      <c r="A121" s="42" t="s">
+      <c r="A121" s="41" t="s">
         <v>544</v>
       </c>
       <c r="B121" s="21" t="s">
         <v>545</v>
       </c>
-      <c r="C121" s="45" t="s">
+      <c r="C121" s="44" t="s">
         <v>549</v>
       </c>
-      <c r="D121" s="45" t="s">
+      <c r="D121" s="44" t="s">
         <v>550</v>
       </c>
     </row>
     <row r="122" spans="1:4" ht="25.5">
-      <c r="A122" s="43"/>
+      <c r="A122" s="42"/>
       <c r="B122" s="21" t="s">
         <v>546</v>
       </c>
-      <c r="C122" s="46"/>
-      <c r="D122" s="46"/>
+      <c r="C122" s="45"/>
+      <c r="D122" s="45"/>
     </row>
     <row r="123" spans="1:4" ht="51">
-      <c r="A123" s="43"/>
+      <c r="A123" s="42"/>
       <c r="B123" s="21" t="s">
         <v>547</v>
       </c>
-      <c r="C123" s="46"/>
-      <c r="D123" s="46"/>
+      <c r="C123" s="45"/>
+      <c r="D123" s="45"/>
     </row>
     <row r="124" spans="1:4" ht="26.25" thickBot="1">
-      <c r="A124" s="44"/>
+      <c r="A124" s="43"/>
       <c r="B124" s="22" t="s">
         <v>548</v>
       </c>
-      <c r="C124" s="47"/>
-      <c r="D124" s="47"/>
+      <c r="C124" s="46"/>
+      <c r="D124" s="46"/>
     </row>
     <row r="125" spans="1:4" ht="38.25">
-      <c r="A125" s="42" t="s">
+      <c r="A125" s="41" t="s">
         <v>551</v>
       </c>
       <c r="B125" s="21" t="s">
         <v>552</v>
       </c>
-      <c r="C125" s="45" t="s">
+      <c r="C125" s="44" t="s">
         <v>555</v>
       </c>
-      <c r="D125" s="45" t="s">
+      <c r="D125" s="44" t="s">
         <v>556</v>
       </c>
     </row>
     <row r="126" spans="1:4" ht="63.75">
-      <c r="A126" s="43"/>
+      <c r="A126" s="42"/>
       <c r="B126" s="21" t="s">
         <v>553</v>
       </c>
-      <c r="C126" s="46"/>
-      <c r="D126" s="46"/>
+      <c r="C126" s="45"/>
+      <c r="D126" s="45"/>
     </row>
     <row r="127" spans="1:4" ht="90" thickBot="1">
-      <c r="A127" s="44"/>
+      <c r="A127" s="43"/>
       <c r="B127" s="22" t="s">
         <v>554</v>
       </c>
-      <c r="C127" s="47"/>
-      <c r="D127" s="47"/>
+      <c r="C127" s="46"/>
+      <c r="D127" s="46"/>
     </row>
     <row r="128" spans="1:4" ht="51">
-      <c r="A128" s="42" t="s">
+      <c r="A128" s="41" t="s">
         <v>557</v>
       </c>
       <c r="B128" s="21" t="s">
         <v>558</v>
       </c>
-      <c r="C128" s="45" t="s">
+      <c r="C128" s="44" t="s">
         <v>561</v>
       </c>
-      <c r="D128" s="45" t="s">
+      <c r="D128" s="44" t="s">
         <v>562</v>
       </c>
     </row>
     <row r="129" spans="1:4" ht="38.25">
-      <c r="A129" s="43"/>
+      <c r="A129" s="42"/>
       <c r="B129" s="21" t="s">
         <v>559</v>
       </c>
-      <c r="C129" s="46"/>
-      <c r="D129" s="46"/>
+      <c r="C129" s="45"/>
+      <c r="D129" s="45"/>
     </row>
     <row r="130" spans="1:4" ht="51">
-      <c r="A130" s="43"/>
+      <c r="A130" s="42"/>
       <c r="B130" s="21" t="s">
         <v>560</v>
       </c>
-      <c r="C130" s="46"/>
-      <c r="D130" s="46"/>
+      <c r="C130" s="45"/>
+      <c r="D130" s="45"/>
     </row>
     <row r="131" spans="1:4">
       <c r="A131" s="6"/>
@@ -16291,18 +17023,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A117:A120"/>
+    <mergeCell ref="C117:C120"/>
+    <mergeCell ref="D117:D120"/>
+    <mergeCell ref="A121:A124"/>
+    <mergeCell ref="C121:C124"/>
+    <mergeCell ref="D121:D124"/>
     <mergeCell ref="A125:A127"/>
     <mergeCell ref="C125:C127"/>
     <mergeCell ref="D125:D127"/>
     <mergeCell ref="A128:A130"/>
     <mergeCell ref="C128:C130"/>
     <mergeCell ref="D128:D130"/>
-    <mergeCell ref="A117:A120"/>
-    <mergeCell ref="C117:C120"/>
-    <mergeCell ref="D117:D120"/>
-    <mergeCell ref="A121:A124"/>
-    <mergeCell ref="C121:C124"/>
-    <mergeCell ref="D121:D124"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" location="main" display="https://chatgpt.com/ - main" xr:uid="{00000000-0004-0000-0100-000000000000}"/>

--- a/Project-MRA/Project MRA.xlsx
+++ b/Project-MRA/Project MRA.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Viktor\Desktop\Tenderi\WEB\PROG\Qinshift-homeworks\Project-MRA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Programming\GIT\Qinshift-homeworks\Project-MRA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1208F106-7482-4795-974E-3A925CCCAEBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="764" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="764" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Public" sheetId="1" r:id="rId1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="993" uniqueCount="812">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1000" uniqueCount="818">
   <si>
     <t>Contact details</t>
   </si>
@@ -8685,7 +8684,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Vo </t>
+      <t xml:space="preserve">Blokot </t>
     </r>
     <r>
       <rPr>
@@ -8697,7 +8696,7 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t>main.js</t>
+      <t>header</t>
     </r>
     <r>
       <rPr>
@@ -8708,7 +8707,7 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> e celosno prevzement kodot od </t>
+      <t xml:space="preserve">, od </t>
     </r>
     <r>
       <rPr>
@@ -8720,7 +8719,7 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t>main.js</t>
+      <t>contact.html</t>
     </r>
     <r>
       <rPr>
@@ -8731,7 +8730,7 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> na </t>
+      <t xml:space="preserve"> e spremen da se kopira vo site preostanati .</t>
     </r>
     <r>
       <rPr>
@@ -8743,7 +8742,7 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t>navBar#9</t>
+      <t>html</t>
     </r>
     <r>
       <rPr>
@@ -8754,12 +8753,12 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Blokot </t>
+      <t xml:space="preserve"> strani.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Celosniot kod za </t>
     </r>
     <r>
       <rPr>
@@ -8771,7 +8770,7 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t>header</t>
+      <t>footer</t>
     </r>
     <r>
       <rPr>
@@ -8782,7 +8781,7 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">, od </t>
+      <t xml:space="preserve"> od </t>
     </r>
     <r>
       <rPr>
@@ -8794,7 +8793,7 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t>contact.html</t>
+      <t>Footer#10</t>
     </r>
     <r>
       <rPr>
@@ -8805,7 +8804,7 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> e spremen da se kopira vo site preostanati .</t>
+      <t xml:space="preserve"> e staven kako </t>
     </r>
     <r>
       <rPr>
@@ -8817,7 +8816,7 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t>html</t>
+      <t>footer</t>
     </r>
     <r>
       <rPr>
@@ -8828,12 +8827,7 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> strani.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Celosniot kod za </t>
+      <t xml:space="preserve"> vo </t>
     </r>
     <r>
       <rPr>
@@ -8845,18 +8839,12 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t>footer</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> od </t>
+      <t>contact.html</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Blokot </t>
     </r>
     <r>
       <rPr>
@@ -8868,7 +8856,7 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Footer#10</t>
+      <t>footer</t>
     </r>
     <r>
       <rPr>
@@ -8879,7 +8867,7 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> e staven kako </t>
+      <t xml:space="preserve">, od </t>
     </r>
     <r>
       <rPr>
@@ -8891,7 +8879,7 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t>footer</t>
+      <t>contact.html</t>
     </r>
     <r>
       <rPr>
@@ -8902,7 +8890,7 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> vo </t>
+      <t xml:space="preserve"> e spremen da se kopira vo site preostanati .</t>
     </r>
     <r>
       <rPr>
@@ -8914,12 +8902,23 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t>contact.html</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Blokot </t>
+      <t>html</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> strani.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">blok namenet za </t>
     </r>
     <r>
       <rPr>
@@ -8942,7 +8941,7 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">, od </t>
+      <t xml:space="preserve">, prevzemen kompletno od ticket </t>
     </r>
     <r>
       <rPr>
@@ -8954,7 +8953,7 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t>contact.html</t>
+      <t>Footer#10</t>
     </r>
     <r>
       <rPr>
@@ -8965,7 +8964,12 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> e spremen da se kopira vo site preostanati .</t>
+      <t xml:space="preserve"> so napraveni minimalni korekcii vo pozicioniranje I otstraneti nepostoecki klasi.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">blok namenet za </t>
     </r>
     <r>
       <rPr>
@@ -8977,7 +8981,7 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t>html</t>
+      <t>header</t>
     </r>
     <r>
       <rPr>
@@ -8988,12 +8992,7 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> strani.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">blok namenet za </t>
+      <t xml:space="preserve">, prevzemen od ticket </t>
     </r>
     <r>
       <rPr>
@@ -9005,7 +9004,7 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t>footer</t>
+      <t>navBar#9</t>
     </r>
     <r>
       <rPr>
@@ -9016,7 +9015,7 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">, prevzemen kompletno od ticket </t>
+      <t xml:space="preserve">, so promena vo delot koj se odnesuva na </t>
     </r>
     <r>
       <rPr>
@@ -9028,7 +9027,7 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Footer#10</t>
+      <t>language selector dropdown</t>
     </r>
     <r>
       <rPr>
@@ -9039,12 +9038,12 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> so napraveni minimalni korekcii vo pozicioniranje I otstraneti nepostoecki klasi.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">blok namenet za </t>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Koga vo </t>
     </r>
     <r>
       <rPr>
@@ -9056,7 +9055,7 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t>header</t>
+      <t xml:space="preserve">main.css </t>
     </r>
     <r>
       <rPr>
@@ -9067,7 +9066,7 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">, prevzemen od ticket </t>
+      <t xml:space="preserve">ili </t>
     </r>
     <r>
       <rPr>
@@ -9079,7 +9078,7 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t>navBar#9</t>
+      <t>main.js</t>
     </r>
     <r>
       <rPr>
@@ -9090,7 +9089,12 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">, so promena vo delot koj se odnesuva na </t>
+      <t xml:space="preserve"> se dodava kod treba, pocetokot I krajot na noviot kod, so komentiranje da se oznaci na sto se odnesuva… </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2. Za da kodot se loadira po pravilen redosled I se da funkcionira treba, koga se integriraat </t>
     </r>
     <r>
       <rPr>
@@ -9102,7 +9106,7 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t>language selector dropdown</t>
+      <t>.css</t>
     </r>
     <r>
       <rPr>
@@ -9113,12 +9117,7 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1. Koga vo </t>
+      <t xml:space="preserve"> I </t>
     </r>
     <r>
       <rPr>
@@ -9130,7 +9129,7 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">main.css </t>
+      <t>.js</t>
     </r>
     <r>
       <rPr>
@@ -9141,7 +9140,12 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">ili </t>
+      <t xml:space="preserve"> file-ovite da bidat na sledniot nacin:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">najgore vo </t>
     </r>
     <r>
       <rPr>
@@ -9153,7 +9157,7 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t>main.js</t>
+      <t>&lt;head&gt;</t>
     </r>
     <r>
       <rPr>
@@ -9164,12 +9168,38 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> se dodava kod treba, pocetokot I krajot na noviot kod, so komentiranje da se oznaci na sto se odnesuva… </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2. Za da kodot se loadira po pravilen redosled I se da funkcionira treba, koga se integriraat </t>
+      <t xml:space="preserve"> da bidat .css po sledniot redosled</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>  &lt;link rel="stylesheet" href="../css/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>page</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.css"&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">najdolu pred </t>
     </r>
     <r>
       <rPr>
@@ -9181,7 +9211,7 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t>.css</t>
+      <t xml:space="preserve">&lt;/body&gt; </t>
     </r>
     <r>
       <rPr>
@@ -9192,7 +9222,38 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> I </t>
+      <t>da bidat .js po sledniot redosled</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>  &lt;script src="../scripts/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>page</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.js"&gt;&lt;/script&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3. Koga treba da se stavaat kartickite koi kje se renderiraat na </t>
     </r>
     <r>
       <rPr>
@@ -9204,7 +9265,7 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t>.js</t>
+      <t>services.html</t>
     </r>
     <r>
       <rPr>
@@ -9215,12 +9276,7 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> file-ovite da bidat na sledniot nacin:</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">najgore vo </t>
+      <t xml:space="preserve">, treba tie da se kreiraat vo stranata </t>
     </r>
     <r>
       <rPr>
@@ -9232,49 +9288,15 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t>&lt;head&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> da bidat .css po sledniot redosled</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>  &lt;link rel="stylesheet" href="../css/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>page</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.css"&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">najdolu pred </t>
+      <t>contact.html</t>
+    </r>
+  </si>
+  <si>
+    <t>4. Koga nekoj tekst treba da se prikaze na ekran preku nekoj element mora:</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">toj element da ima klasi </t>
     </r>
     <r>
       <rPr>
@@ -9286,49 +9308,12 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">&lt;/body&gt; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>da bidat .js po sledniot redosled</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>  &lt;script src="../scripts/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>page</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.js"&gt;&lt;/script&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">3. Koga treba da se stavaat kartickite koi kje se renderiraat na </t>
+      <t xml:space="preserve">onscreenText pagenamehtmlUniquename </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">tekstot koj treba da se prikaze ne se pisuva pomegju otvoracki I zatvaracki </t>
     </r>
     <r>
       <rPr>
@@ -9340,7 +9325,7 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t>services.html</t>
+      <t xml:space="preserve">tag </t>
     </r>
     <r>
       <rPr>
@@ -9351,7 +9336,15 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">, treba tie da se kreiraat vo stranata </t>
+      <t>na toj element</t>
+    </r>
+  </si>
+  <si>
+    <t>Primer:</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">tekstot koj treba da se prikaze treba da se prevede na germanski, angliski I makedonski I istiot direktno da se vnese vo file-ot </t>
     </r>
     <r>
       <rPr>
@@ -9363,15 +9356,18 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t>contact.html</t>
-    </r>
-  </si>
-  <si>
-    <t>4. Koga nekoj tekst treba da se prikaze na ekran preku nekoj element mora:</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">toj element da ima klasi </t>
+      <t>contents.json</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> vo </t>
     </r>
     <r>
       <rPr>
@@ -9383,12 +9379,41 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">onscreenText pagenamehtmlUniquename </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">tekstot koj treba da se prikaze ne se pisuva pomegju otvoracki I zatvaracki </t>
+      <t>data</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> folderot</t>
+    </r>
+  </si>
+  <si>
+    <t>  {</t>
+  </si>
+  <si>
+    <t>  }</t>
+  </si>
+  <si>
+    <t>    "id": "homepagehtmlHome",</t>
+  </si>
+  <si>
+    <t>    "english": "Home",</t>
+  </si>
+  <si>
+    <t>    "macedonian": "Дома"</t>
+  </si>
+  <si>
+    <t>    "german": "Heim",</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Ako treba na homePage.html preku </t>
     </r>
     <r>
       <rPr>
@@ -9400,7 +9425,7 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">tag </t>
+      <t>p tag</t>
     </r>
     <r>
       <rPr>
@@ -9411,15 +9436,15 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t>na toj element</t>
-    </r>
-  </si>
-  <si>
-    <t>Primer:</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">tekstot koj treba da se prikaze treba da se prevede na germanski, angliski I makedonski I istiot direktno da se vnese vo file-ot </t>
+      <t xml:space="preserve"> da se ispise tekst "Home", treba: </t>
+    </r>
+  </si>
+  <si>
+    <t>Da se vpise     &lt;p class="onscreenText homepagehtmlHome"&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Namesto      </t>
     </r>
     <r>
       <rPr>
@@ -9431,18 +9456,12 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t>contents.json</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> vo </t>
+      <t>&lt;p&gt;Home&lt;/p&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Vo </t>
     </r>
     <r>
       <rPr>
@@ -9454,7 +9473,7 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t>data</t>
+      <t>contents.json</t>
     </r>
     <r>
       <rPr>
@@ -9465,30 +9484,12 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> folderot</t>
-    </r>
-  </si>
-  <si>
-    <t>  {</t>
-  </si>
-  <si>
-    <t>  }</t>
-  </si>
-  <si>
-    <t>    "id": "homepagehtmlHome",</t>
-  </si>
-  <si>
-    <t>    "english": "Home",</t>
-  </si>
-  <si>
-    <t>    "macedonian": "Дома"</t>
-  </si>
-  <si>
-    <t>    "german": "Heim",</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Ako treba na homePage.html preku </t>
+      <t xml:space="preserve"> da se dodade</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">5. Strukturata na branch-ata e MVC patern, odnosno, za da se testira otkako kje se merge-ne, prvo treba da se izvrsi npm install, potoa npm run dev, i se pristapuva preku API so </t>
     </r>
     <r>
       <rPr>
@@ -9500,26 +9501,12 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t>p tag</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> da se ispise tekst "Home", treba: </t>
-    </r>
-  </si>
-  <si>
-    <t>Da se vpise     &lt;p class="onscreenText homepagehtmlHome"&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Namesto      </t>
+      <t>http://localhost:3000/pagename.html</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Vo </t>
     </r>
     <r>
       <rPr>
@@ -9531,12 +9518,18 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t>&lt;p&gt;Home&lt;/p&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Vo </t>
+      <t>main.js</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> e celosno prevzement kodot od </t>
     </r>
     <r>
       <rPr>
@@ -9548,7 +9541,7 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t>contents.json</t>
+      <t>main.js</t>
     </r>
     <r>
       <rPr>
@@ -9559,12 +9552,7 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> da se dodade</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">5. Strukturata na branch-ata e MVC patern, odnosno, za da se testira otkako kje se merge-ne, prvo treba da se izvrsi npm install, potoa npm run dev, i se pristapuva preku API so </t>
+      <t xml:space="preserve"> na </t>
     </r>
     <r>
       <rPr>
@@ -9576,15 +9564,267 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t>http://localhost:3000/pagename.html</t>
+      <t>navBar#9, no delot koj se odnesuva na language selector dropdown e zakomentiran.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Za integriranje na </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">multilingual </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">vo display text vo homePage.html od ticket </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Hero-section#8</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Kako sto pogore e objasneto sredenite header I footer se kopirani tuka, zaedno so celosniot kod za section hero od Hero-section#8 od </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">homePage.html </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">I </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>homePage.css</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Za integriranje na </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">multilingual </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">vo display text vo services.html od ticket </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dynamic-cards-services#2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Kako sto pogore e objasneto sredenite header I footer se kopirani tuka, zaedno so celosniot kod za section za cards od services</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.html.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Celosnite kodovi od services.js I services.css se isto taka kopirani od </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dynamic-cards-services#2.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Zakomentiran e kodot od ticket </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dynamic-cards-services#2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> I vo </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>services.html</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, I vo </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>services.js</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, I vo </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>services.css</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, za da ne pojavuva konflikti I da moze da se prodolzi so rabota na toj tiket I da se integrira vo aplikacijata soodvetno. </t>
     </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="47">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="48">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -9911,6 +10151,14 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -10070,6 +10318,14 @@
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -10091,19 +10347,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 2" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -13914,14 +14162,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:N30"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="4" spans="2:14">
       <c r="B4" t="s">
@@ -14105,254 +14353,289 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="N7" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="N16" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="N7" r:id="rId1"/>
+    <hyperlink ref="N16" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="B2:G51"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:G59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="O43" sqref="O43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="49"/>
+    <col min="1" max="16384" width="9.109375" style="42"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:4">
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="42" t="s">
         <v>780</v>
       </c>
     </row>
     <row r="3" spans="2:4">
-      <c r="C3" s="49" t="s">
+      <c r="C3" s="42" t="s">
         <v>781</v>
       </c>
     </row>
     <row r="4" spans="2:4">
-      <c r="D4" s="49" t="s">
+      <c r="D4" s="42" t="s">
         <v>782</v>
       </c>
     </row>
     <row r="5" spans="2:4">
-      <c r="C5" s="49" t="s">
+      <c r="C5" s="42" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4">
+      <c r="C6" s="42" t="s">
         <v>783</v>
       </c>
     </row>
-    <row r="6" spans="2:4">
-      <c r="C6" s="49" t="s">
+    <row r="8" spans="2:4">
+      <c r="B8" s="42" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4">
+      <c r="C9" s="42" t="s">
         <v>784</v>
       </c>
     </row>
-    <row r="8" spans="2:4">
-      <c r="B8" s="49" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4">
-      <c r="C9" s="49" t="s">
+    <row r="10" spans="2:4">
+      <c r="D10" s="42" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4">
+      <c r="C11" s="42" t="s">
         <v>785</v>
       </c>
     </row>
-    <row r="10" spans="2:4">
-      <c r="D10" s="49" t="s">
+    <row r="13" spans="2:4">
+      <c r="B13" s="42" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4">
+      <c r="C14" s="42" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4">
+      <c r="D15" s="42" t="s">
         <v>768</v>
       </c>
     </row>
-    <row r="11" spans="2:4">
-      <c r="C11" s="49" t="s">
+    <row r="17" spans="2:5">
+      <c r="B17" s="42" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5">
+      <c r="C18" s="42" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5">
+      <c r="C19" s="42" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5">
+      <c r="C20" s="42" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5">
+      <c r="B22" s="42" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5">
+      <c r="C23" s="42" t="s">
         <v>786</v>
       </c>
     </row>
-    <row r="14" spans="2:4">
-      <c r="B14" s="49" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4">
-      <c r="C15" s="49" t="s">
+    <row r="24" spans="2:5">
+      <c r="C24" s="42" t="s">
         <v>787</v>
       </c>
     </row>
-    <row r="16" spans="2:4">
-      <c r="C16" s="49" t="s">
+    <row r="26" spans="2:5">
+      <c r="B26" s="42" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5">
+      <c r="C27" s="42" t="s">
         <v>788</v>
       </c>
     </row>
-    <row r="18" spans="2:5">
-      <c r="B18" s="49" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5">
-      <c r="C19" s="49" t="s">
+    <row r="28" spans="2:5">
+      <c r="C28" s="42" t="s">
         <v>789</v>
       </c>
     </row>
-    <row r="20" spans="2:5">
-      <c r="C20" s="49" t="s">
+    <row r="29" spans="2:5">
+      <c r="D29" s="42" t="s">
         <v>790</v>
       </c>
     </row>
-    <row r="21" spans="2:5">
-      <c r="D21" s="49" t="s">
+    <row r="30" spans="2:5">
+      <c r="E30" s="43" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5">
+      <c r="E31" s="43" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5">
+      <c r="E32" s="43" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="33" spans="3:5">
+      <c r="E33" s="43" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="34" spans="3:5">
+      <c r="E34" s="43" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="35" spans="3:5">
+      <c r="E35" s="43" t="s">
         <v>791</v>
       </c>
     </row>
-    <row r="22" spans="2:5">
-      <c r="E22" s="50" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5">
-      <c r="E23" s="50" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5">
-      <c r="E24" s="50" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5">
-      <c r="E25" s="50" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5">
-      <c r="E26" s="50" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5">
-      <c r="E27" s="50" t="s">
+    <row r="36" spans="3:5">
+      <c r="E36" s="43" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="37" spans="3:5">
+      <c r="E37" s="43" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="38" spans="3:5">
+      <c r="D38" s="42" t="s">
         <v>792</v>
       </c>
     </row>
-    <row r="28" spans="2:5">
-      <c r="E28" s="50" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5">
-      <c r="E29" s="50" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="30" spans="2:5">
-      <c r="D30" s="49" t="s">
+    <row r="39" spans="3:5">
+      <c r="E39" s="43" t="s">
         <v>793</v>
       </c>
     </row>
-    <row r="31" spans="2:5">
-      <c r="E31" s="50" t="s">
+    <row r="40" spans="3:5">
+      <c r="E40" s="43" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="41" spans="3:5">
+      <c r="E41" s="43" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="42" spans="3:5">
+      <c r="E42" s="43" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="43" spans="3:5">
+      <c r="C43" s="42" t="s">
         <v>794</v>
       </c>
     </row>
-    <row r="32" spans="2:5">
-      <c r="E32" s="50" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="33" spans="3:7">
-      <c r="E33" s="50" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="34" spans="3:7">
-      <c r="E34" s="50" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="35" spans="3:7">
-      <c r="C35" s="49" t="s">
+    <row r="44" spans="3:5">
+      <c r="C44" s="42" t="s">
         <v>795</v>
       </c>
     </row>
-    <row r="36" spans="3:7">
-      <c r="C36" s="49" t="s">
+    <row r="45" spans="3:5">
+      <c r="D45" s="42" t="s">
         <v>796</v>
       </c>
     </row>
-    <row r="37" spans="3:7">
-      <c r="D37" s="49" t="s">
+    <row r="46" spans="3:5">
+      <c r="D46" s="42" t="s">
         <v>797</v>
       </c>
     </row>
-    <row r="38" spans="3:7">
-      <c r="D38" s="49" t="s">
+    <row r="47" spans="3:5">
+      <c r="D47" s="42" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="48" spans="3:5">
+      <c r="D48" s="44" t="s">
         <v>798</v>
       </c>
     </row>
-    <row r="39" spans="3:7">
-      <c r="D39" s="49" t="s">
+    <row r="49" spans="3:7">
+      <c r="E49" s="42" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="50" spans="3:7">
+      <c r="F50" s="42" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="51" spans="3:7">
+      <c r="F51" s="42" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="52" spans="3:7">
+      <c r="F52" s="42" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="53" spans="3:7">
+      <c r="G53" s="41" t="s">
         <v>800</v>
       </c>
     </row>
-    <row r="40" spans="3:7">
-      <c r="D40" s="51" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="41" spans="3:7">
-      <c r="E41" s="49" t="s">
-        <v>807</v>
-      </c>
-    </row>
-    <row r="42" spans="3:7">
-      <c r="F42" s="49" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="43" spans="3:7">
-      <c r="F43" s="49" t="s">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="44" spans="3:7">
-      <c r="F44" s="49" t="s">
+    <row r="54" spans="3:7">
+      <c r="G54" s="41" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="55" spans="3:7">
+      <c r="G55" s="41" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="56" spans="3:7">
+      <c r="G56" s="41" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="57" spans="3:7">
+      <c r="G57" s="41" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="58" spans="3:7">
+      <c r="G58" s="41" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="59" spans="3:7">
+      <c r="C59" s="42" t="s">
         <v>810</v>
-      </c>
-    </row>
-    <row r="45" spans="3:7">
-      <c r="G45" s="48" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="46" spans="3:7">
-      <c r="G46" s="48" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="47" spans="3:7">
-      <c r="G47" s="48" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="48" spans="3:7">
-      <c r="G48" s="48" t="s">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="49" spans="3:7">
-      <c r="G49" s="48" t="s">
-        <v>805</v>
-      </c>
-    </row>
-    <row r="50" spans="3:7">
-      <c r="G50" s="48" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="51" spans="3:7">
-      <c r="C51" s="49" t="s">
-        <v>811</v>
       </c>
     </row>
   </sheetData>
@@ -14363,75 +14646,75 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView topLeftCell="A17" workbookViewId="0">
       <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="35.28515625" customWidth="1"/>
-    <col min="2" max="2" width="30.140625" customWidth="1"/>
-    <col min="3" max="3" width="28.28515625" customWidth="1"/>
-    <col min="4" max="4" width="33.7109375" customWidth="1"/>
+    <col min="1" max="1" width="35.33203125" customWidth="1"/>
+    <col min="2" max="2" width="30.109375" customWidth="1"/>
+    <col min="3" max="3" width="28.33203125" customWidth="1"/>
+    <col min="4" max="4" width="33.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="51" t="s">
         <v>355</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="51" t="s">
         <v>356</v>
       </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="51" t="s">
         <v>357</v>
       </c>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="47" t="s">
+      <c r="A4" s="51" t="s">
         <v>358</v>
       </c>
-      <c r="B4" s="47"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="47" t="s">
+      <c r="A5" s="51" t="s">
         <v>359</v>
       </c>
-      <c r="B5" s="47"/>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
+      <c r="B5" s="51"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="47" t="s">
+      <c r="A6" s="51" t="s">
         <v>360</v>
       </c>
-      <c r="B6" s="47"/>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
+      <c r="B6" s="51"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="47" t="s">
+      <c r="A7" s="51" t="s">
         <v>361</v>
       </c>
-      <c r="B7" s="47"/>
-      <c r="C7" s="47"/>
+      <c r="B7" s="51"/>
+      <c r="C7" s="51"/>
       <c r="D7" s="6"/>
     </row>
     <row r="8" spans="1:4">
@@ -14450,13 +14733,13 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="6"/>
-      <c r="B10" s="47" t="s">
+      <c r="B10" s="51" t="s">
         <v>363</v>
       </c>
-      <c r="C10" s="47"/>
-      <c r="D10" s="47"/>
-    </row>
-    <row r="11" spans="1:4" ht="45">
+      <c r="C10" s="51"/>
+      <c r="D10" s="51"/>
+    </row>
+    <row r="11" spans="1:4" ht="43.2">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -14464,7 +14747,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="30">
+    <row r="12" spans="1:4">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -14472,7 +14755,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="30">
+    <row r="13" spans="1:4">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -14480,7 +14763,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="30">
+    <row r="14" spans="1:4" ht="28.8">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -14491,10 +14774,10 @@
     <row r="15" spans="1:4">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
-      <c r="C15" s="47" t="s">
+      <c r="C15" s="51" t="s">
         <v>368</v>
       </c>
-      <c r="D15" s="47"/>
+      <c r="D15" s="51"/>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
@@ -14583,16 +14866,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D577"/>
   <sheetViews>
     <sheetView topLeftCell="A164" workbookViewId="0">
       <selection activeCell="G172" sqref="G172"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="74.42578125" customWidth="1"/>
+    <col min="1" max="1" width="74.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -14633,7 +14916,7 @@
     <row r="8" spans="1:1">
       <c r="A8" s="6"/>
     </row>
-    <row r="9" spans="1:1" ht="25.5">
+    <row r="9" spans="1:1" ht="27.6">
       <c r="A9" s="15" t="s">
         <v>467</v>
       </c>
@@ -14651,27 +14934,27 @@
         <v>469</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="25.5">
+    <row r="13" spans="1:1" ht="27.6">
       <c r="A13" s="17" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="14" spans="1:1" ht="25.5">
+    <row r="14" spans="1:1" ht="27.6">
       <c r="A14" s="17" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="15" spans="1:1" ht="25.5">
+    <row r="15" spans="1:1">
       <c r="A15" s="17" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="16" spans="1:1" ht="25.5">
+    <row r="16" spans="1:1" ht="27.6">
       <c r="A16" s="17" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="25.5">
+    <row r="17" spans="1:1" ht="27.6">
       <c r="A17" s="17" t="s">
         <v>474</v>
       </c>
@@ -14684,7 +14967,7 @@
     <row r="19" spans="1:1">
       <c r="A19" s="6"/>
     </row>
-    <row r="20" spans="1:1" ht="25.5">
+    <row r="20" spans="1:1" ht="27.6">
       <c r="A20" s="15" t="s">
         <v>476</v>
       </c>
@@ -14718,7 +15001,7 @@
     <row r="27" spans="1:1">
       <c r="A27" s="6"/>
     </row>
-    <row r="28" spans="1:1" ht="25.5">
+    <row r="28" spans="1:1" ht="27.6">
       <c r="A28" s="15" t="s">
         <v>479</v>
       </c>
@@ -14796,7 +15079,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="44" spans="1:1" ht="25.5">
+    <row r="44" spans="1:1" ht="27.6">
       <c r="A44" s="19" t="s">
         <v>494</v>
       </c>
@@ -14811,7 +15094,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="47" spans="1:1" ht="25.5">
+    <row r="47" spans="1:1" ht="27.6">
       <c r="A47" s="19" t="s">
         <v>497</v>
       </c>
@@ -14831,7 +15114,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="51" spans="1:1" ht="25.5">
+    <row r="51" spans="1:1" ht="27.6">
       <c r="A51" s="19" t="s">
         <v>501</v>
       </c>
@@ -14854,7 +15137,7 @@
     <row r="58" spans="1:1">
       <c r="A58" s="6"/>
     </row>
-    <row r="59" spans="1:1" ht="25.5">
+    <row r="59" spans="1:1" ht="27.6">
       <c r="A59" s="15" t="s">
         <v>502</v>
       </c>
@@ -14888,7 +15171,7 @@
     <row r="66" spans="1:1">
       <c r="A66" s="6"/>
     </row>
-    <row r="67" spans="1:1" ht="25.5">
+    <row r="67" spans="1:1" ht="27.6">
       <c r="A67" s="15" t="s">
         <v>505</v>
       </c>
@@ -14936,7 +15219,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="77" spans="1:1" ht="25.5">
+    <row r="77" spans="1:1" ht="27.6">
       <c r="A77" s="19" t="s">
         <v>513</v>
       </c>
@@ -14956,7 +15239,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="81" spans="1:1" ht="25.5">
+    <row r="81" spans="1:1" ht="27.6">
       <c r="A81" s="19" t="s">
         <v>517</v>
       </c>
@@ -14991,12 +15274,12 @@
         <v>523</v>
       </c>
     </row>
-    <row r="88" spans="1:1" ht="25.5">
+    <row r="88" spans="1:1" ht="27.6">
       <c r="A88" s="19" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="89" spans="1:1" ht="25.5">
+    <row r="89" spans="1:1" ht="27.6">
       <c r="A89" s="19" t="s">
         <v>525</v>
       </c>
@@ -15057,7 +15340,7 @@
     <row r="107" spans="1:1">
       <c r="A107" s="6"/>
     </row>
-    <row r="108" spans="1:1" ht="25.5">
+    <row r="108" spans="1:1" ht="27.6">
       <c r="A108" s="15" t="s">
         <v>530</v>
       </c>
@@ -15083,7 +15366,7 @@
     <row r="113" spans="1:4">
       <c r="A113" s="6"/>
     </row>
-    <row r="114" spans="1:4" ht="25.5">
+    <row r="114" spans="1:4" ht="27.6">
       <c r="A114" s="15" t="s">
         <v>532</v>
       </c>
@@ -15091,7 +15374,7 @@
     <row r="115" spans="1:4">
       <c r="A115" s="15"/>
     </row>
-    <row r="116" spans="1:4" ht="39.75" thickBot="1">
+    <row r="116" spans="1:4" ht="39" thickBot="1">
       <c r="A116" s="20" t="s">
         <v>533</v>
       </c>
@@ -15105,141 +15388,141 @@
         <v>536</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="127.5">
-      <c r="A117" s="41" t="s">
+    <row r="117" spans="1:4" ht="113.4">
+      <c r="A117" s="45" t="s">
         <v>537</v>
       </c>
       <c r="B117" s="21" t="s">
         <v>538</v>
       </c>
-      <c r="C117" s="44" t="s">
+      <c r="C117" s="48" t="s">
         <v>542</v>
       </c>
-      <c r="D117" s="44" t="s">
+      <c r="D117" s="48" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="118" spans="1:4" ht="25.5">
-      <c r="A118" s="42"/>
+    <row r="118" spans="1:4" ht="25.2">
+      <c r="A118" s="46"/>
       <c r="B118" s="21" t="s">
         <v>539</v>
       </c>
-      <c r="C118" s="45"/>
-      <c r="D118" s="45"/>
-    </row>
-    <row r="119" spans="1:4" ht="51">
-      <c r="A119" s="42"/>
+      <c r="C118" s="49"/>
+      <c r="D118" s="49"/>
+    </row>
+    <row r="119" spans="1:4" ht="50.4">
+      <c r="A119" s="46"/>
       <c r="B119" s="21" t="s">
         <v>540</v>
       </c>
-      <c r="C119" s="45"/>
-      <c r="D119" s="45"/>
-    </row>
-    <row r="120" spans="1:4" ht="51.75" thickBot="1">
-      <c r="A120" s="43"/>
+      <c r="C119" s="49"/>
+      <c r="D119" s="49"/>
+    </row>
+    <row r="120" spans="1:4" ht="38.4" thickBot="1">
+      <c r="A120" s="47"/>
       <c r="B120" s="22" t="s">
         <v>541</v>
       </c>
-      <c r="C120" s="46"/>
-      <c r="D120" s="46"/>
-    </row>
-    <row r="121" spans="1:4" ht="38.25">
-      <c r="A121" s="41" t="s">
+      <c r="C120" s="50"/>
+      <c r="D120" s="50"/>
+    </row>
+    <row r="121" spans="1:4" ht="37.799999999999997">
+      <c r="A121" s="45" t="s">
         <v>544</v>
       </c>
       <c r="B121" s="21" t="s">
         <v>545</v>
       </c>
-      <c r="C121" s="44" t="s">
+      <c r="C121" s="48" t="s">
         <v>549</v>
       </c>
-      <c r="D121" s="44" t="s">
+      <c r="D121" s="48" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="122" spans="1:4" ht="25.5">
-      <c r="A122" s="42"/>
+    <row r="122" spans="1:4" ht="25.2">
+      <c r="A122" s="46"/>
       <c r="B122" s="21" t="s">
         <v>546</v>
       </c>
-      <c r="C122" s="45"/>
-      <c r="D122" s="45"/>
-    </row>
-    <row r="123" spans="1:4" ht="51">
-      <c r="A123" s="42"/>
+      <c r="C122" s="49"/>
+      <c r="D122" s="49"/>
+    </row>
+    <row r="123" spans="1:4" ht="37.799999999999997">
+      <c r="A123" s="46"/>
       <c r="B123" s="21" t="s">
         <v>547</v>
       </c>
-      <c r="C123" s="45"/>
-      <c r="D123" s="45"/>
-    </row>
-    <row r="124" spans="1:4" ht="26.25" thickBot="1">
-      <c r="A124" s="43"/>
+      <c r="C123" s="49"/>
+      <c r="D123" s="49"/>
+    </row>
+    <row r="124" spans="1:4" ht="25.8" thickBot="1">
+      <c r="A124" s="47"/>
       <c r="B124" s="22" t="s">
         <v>548</v>
       </c>
-      <c r="C124" s="46"/>
-      <c r="D124" s="46"/>
-    </row>
-    <row r="125" spans="1:4" ht="38.25">
-      <c r="A125" s="41" t="s">
+      <c r="C124" s="50"/>
+      <c r="D124" s="50"/>
+    </row>
+    <row r="125" spans="1:4" ht="37.799999999999997">
+      <c r="A125" s="45" t="s">
         <v>551</v>
       </c>
       <c r="B125" s="21" t="s">
         <v>552</v>
       </c>
-      <c r="C125" s="44" t="s">
+      <c r="C125" s="48" t="s">
         <v>555</v>
       </c>
-      <c r="D125" s="44" t="s">
+      <c r="D125" s="48" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="126" spans="1:4" ht="63.75">
-      <c r="A126" s="42"/>
+    <row r="126" spans="1:4" ht="50.4">
+      <c r="A126" s="46"/>
       <c r="B126" s="21" t="s">
         <v>553</v>
       </c>
-      <c r="C126" s="45"/>
-      <c r="D126" s="45"/>
-    </row>
-    <row r="127" spans="1:4" ht="90" thickBot="1">
-      <c r="A127" s="43"/>
+      <c r="C126" s="49"/>
+      <c r="D126" s="49"/>
+    </row>
+    <row r="127" spans="1:4" ht="76.2" thickBot="1">
+      <c r="A127" s="47"/>
       <c r="B127" s="22" t="s">
         <v>554</v>
       </c>
-      <c r="C127" s="46"/>
-      <c r="D127" s="46"/>
-    </row>
-    <row r="128" spans="1:4" ht="51">
-      <c r="A128" s="41" t="s">
+      <c r="C127" s="50"/>
+      <c r="D127" s="50"/>
+    </row>
+    <row r="128" spans="1:4" ht="37.799999999999997">
+      <c r="A128" s="45" t="s">
         <v>557</v>
       </c>
       <c r="B128" s="21" t="s">
         <v>558</v>
       </c>
-      <c r="C128" s="44" t="s">
+      <c r="C128" s="48" t="s">
         <v>561</v>
       </c>
-      <c r="D128" s="44" t="s">
+      <c r="D128" s="48" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="129" spans="1:4" ht="38.25">
-      <c r="A129" s="42"/>
+    <row r="129" spans="1:4" ht="25.2">
+      <c r="A129" s="46"/>
       <c r="B129" s="21" t="s">
         <v>559</v>
       </c>
-      <c r="C129" s="45"/>
-      <c r="D129" s="45"/>
-    </row>
-    <row r="130" spans="1:4" ht="51">
-      <c r="A130" s="42"/>
+      <c r="C129" s="49"/>
+      <c r="D129" s="49"/>
+    </row>
+    <row r="130" spans="1:4" ht="50.4">
+      <c r="A130" s="46"/>
       <c r="B130" s="21" t="s">
         <v>560</v>
       </c>
-      <c r="C130" s="45"/>
-      <c r="D130" s="45"/>
+      <c r="C130" s="49"/>
+      <c r="D130" s="49"/>
     </row>
     <row r="131" spans="1:4">
       <c r="A131" s="6"/>
@@ -15303,7 +15586,7 @@
     <row r="147" spans="1:1">
       <c r="A147" s="6"/>
     </row>
-    <row r="148" spans="1:1" ht="25.5">
+    <row r="148" spans="1:1" ht="27.6">
       <c r="A148" s="24" t="s">
         <v>570</v>
       </c>
@@ -15326,7 +15609,7 @@
     <row r="155" spans="1:1">
       <c r="A155" s="6"/>
     </row>
-    <row r="156" spans="1:1" ht="25.5">
+    <row r="156" spans="1:1" ht="27.6">
       <c r="A156" s="15" t="s">
         <v>571</v>
       </c>
@@ -15352,7 +15635,7 @@
     <row r="161" spans="1:1">
       <c r="A161" s="6"/>
     </row>
-    <row r="162" spans="1:1" ht="38.25">
+    <row r="162" spans="1:1" ht="41.4">
       <c r="A162" s="15" t="s">
         <v>573</v>
       </c>
@@ -15375,7 +15658,7 @@
     <row r="169" spans="1:1">
       <c r="A169" s="6"/>
     </row>
-    <row r="170" spans="1:1" ht="21.75">
+    <row r="170" spans="1:1" ht="22.2">
       <c r="A170" s="25" t="s">
         <v>574</v>
       </c>
@@ -15390,7 +15673,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="173" spans="1:1" ht="25.5">
+    <row r="173" spans="1:1" ht="27.6">
       <c r="A173" s="19" t="s">
         <v>577</v>
       </c>
@@ -15400,7 +15683,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="175" spans="1:1" ht="15.75">
+    <row r="175" spans="1:1" ht="15.6">
       <c r="A175" s="27" t="s">
         <v>579</v>
       </c>
@@ -15544,7 +15827,7 @@
     <row r="206" spans="1:1">
       <c r="A206" s="18"/>
     </row>
-    <row r="207" spans="1:1" ht="25.5">
+    <row r="207" spans="1:1" ht="27.6">
       <c r="A207" s="19" t="s">
         <v>600</v>
       </c>
@@ -15572,7 +15855,7 @@
     <row r="215" spans="1:1">
       <c r="A215" s="6"/>
     </row>
-    <row r="216" spans="1:1" ht="21.75">
+    <row r="216" spans="1:1" ht="22.2">
       <c r="A216" s="25" t="s">
         <v>602</v>
       </c>
@@ -15723,7 +16006,7 @@
     <row r="249" spans="1:1">
       <c r="A249" s="6"/>
     </row>
-    <row r="250" spans="1:1" ht="21.75">
+    <row r="250" spans="1:1" ht="22.2">
       <c r="A250" s="25" t="s">
         <v>622</v>
       </c>
@@ -15800,7 +16083,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="270" spans="1:1" ht="25.5">
+    <row r="270" spans="1:1" ht="27.6">
       <c r="A270" s="14" t="s">
         <v>629</v>
       </c>
@@ -15869,7 +16152,7 @@
     <row r="287" spans="1:1">
       <c r="A287" s="6"/>
     </row>
-    <row r="288" spans="1:1" ht="36">
+    <row r="288" spans="1:1" ht="18">
       <c r="A288" s="23" t="s">
         <v>637</v>
       </c>
@@ -15877,7 +16160,7 @@
     <row r="289" spans="1:1">
       <c r="A289" s="6"/>
     </row>
-    <row r="290" spans="1:1" ht="25.5">
+    <row r="290" spans="1:1" ht="27.6">
       <c r="A290" s="15" t="s">
         <v>638</v>
       </c>
@@ -15905,7 +16188,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="299" spans="1:1" ht="15.75">
+    <row r="299" spans="1:1" ht="15.6">
       <c r="A299" s="27" t="s">
         <v>640</v>
       </c>
@@ -16011,7 +16294,7 @@
     <row r="325" spans="1:1">
       <c r="A325" s="6"/>
     </row>
-    <row r="326" spans="1:1" ht="15.75">
+    <row r="326" spans="1:1" ht="15.6">
       <c r="A326" s="27" t="s">
         <v>649</v>
       </c>
@@ -16147,7 +16430,7 @@
     <row r="358" spans="1:1">
       <c r="A358" s="6"/>
     </row>
-    <row r="359" spans="1:1" ht="15.75">
+    <row r="359" spans="1:1" ht="15.6">
       <c r="A359" s="27" t="s">
         <v>666</v>
       </c>
@@ -16235,7 +16518,7 @@
     <row r="381" spans="1:1">
       <c r="A381" s="6"/>
     </row>
-    <row r="382" spans="1:1" ht="15.75">
+    <row r="382" spans="1:1" ht="15.6">
       <c r="A382" s="27" t="s">
         <v>675</v>
       </c>
@@ -16271,7 +16554,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="393" spans="1:2" ht="78" thickBot="1">
+    <row r="393" spans="1:2" ht="51.6" thickBot="1">
       <c r="A393" s="20" t="s">
         <v>678</v>
       </c>
@@ -16279,7 +16562,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="394" spans="1:2" ht="39" thickBot="1">
+    <row r="394" spans="1:2" ht="38.4" thickBot="1">
       <c r="A394" s="34" t="s">
         <v>680</v>
       </c>
@@ -16287,7 +16570,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="395" spans="1:2" ht="64.5" thickBot="1">
+    <row r="395" spans="1:2" ht="51" thickBot="1">
       <c r="A395" s="34" t="s">
         <v>634</v>
       </c>
@@ -16295,7 +16578,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="396" spans="1:2" ht="39" thickBot="1">
+    <row r="396" spans="1:2" ht="38.4" thickBot="1">
       <c r="A396" s="34" t="s">
         <v>633</v>
       </c>
@@ -16303,7 +16586,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="397" spans="1:2" ht="63.75">
+    <row r="397" spans="1:2" ht="50.4">
       <c r="A397" s="35" t="s">
         <v>632</v>
       </c>
@@ -16329,7 +16612,7 @@
     <row r="404" spans="1:1">
       <c r="A404" s="6"/>
     </row>
-    <row r="405" spans="1:1" ht="25.5">
+    <row r="405" spans="1:1" ht="27.6">
       <c r="A405" s="15" t="s">
         <v>685</v>
       </c>
@@ -16342,7 +16625,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="408" spans="1:1" ht="409.5">
+    <row r="408" spans="1:1" ht="409.6">
       <c r="A408" s="14" t="s">
         <v>686</v>
       </c>
@@ -16355,7 +16638,7 @@
     <row r="410" spans="1:1">
       <c r="A410" s="6"/>
     </row>
-    <row r="411" spans="1:1" ht="38.25">
+    <row r="411" spans="1:1" ht="41.4">
       <c r="A411" s="15" t="s">
         <v>687</v>
       </c>
@@ -16378,7 +16661,7 @@
     <row r="418" spans="1:1">
       <c r="A418" s="6"/>
     </row>
-    <row r="419" spans="1:1" ht="64.5">
+    <row r="419" spans="1:1" ht="63.6">
       <c r="A419" s="36" t="s">
         <v>688</v>
       </c>
@@ -16409,7 +16692,7 @@
     <row r="428" spans="1:1">
       <c r="A428" s="6"/>
     </row>
-    <row r="429" spans="1:1" ht="25.5">
+    <row r="429" spans="1:1" ht="27.6">
       <c r="A429" s="15" t="s">
         <v>690</v>
       </c>
@@ -16902,7 +17185,7 @@
     <row r="549" spans="1:2">
       <c r="A549" s="6"/>
     </row>
-    <row r="550" spans="1:2" ht="25.5">
+    <row r="550" spans="1:2" ht="27.6">
       <c r="A550" s="15" t="s">
         <v>740</v>
       </c>
@@ -16925,12 +17208,12 @@
     <row r="557" spans="1:2">
       <c r="A557" s="6"/>
     </row>
-    <row r="558" spans="1:2" ht="21.75">
+    <row r="558" spans="1:2" ht="22.2">
       <c r="A558" s="25" t="s">
         <v>741</v>
       </c>
     </row>
-    <row r="559" spans="1:2" ht="27" thickBot="1">
+    <row r="559" spans="1:2" ht="26.4" thickBot="1">
       <c r="A559" s="20" t="s">
         <v>742</v>
       </c>
@@ -16938,7 +17221,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="560" spans="1:2" ht="39" thickBot="1">
+    <row r="560" spans="1:2" ht="38.4" thickBot="1">
       <c r="A560" s="22" t="s">
         <v>744</v>
       </c>
@@ -16946,7 +17229,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="561" spans="1:2" ht="64.5" thickBot="1">
+    <row r="561" spans="1:2" ht="63.6" thickBot="1">
       <c r="A561" s="22" t="s">
         <v>745</v>
       </c>
@@ -16954,7 +17237,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="562" spans="1:2" ht="51.75" thickBot="1">
+    <row r="562" spans="1:2" ht="51" thickBot="1">
       <c r="A562" s="22" t="s">
         <v>683</v>
       </c>
@@ -16962,7 +17245,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="563" spans="1:2" ht="38.25">
+    <row r="563" spans="1:2" ht="37.799999999999997">
       <c r="A563" s="21" t="s">
         <v>748</v>
       </c>
@@ -16988,7 +17271,7 @@
     <row r="570" spans="1:2">
       <c r="A570" s="6"/>
     </row>
-    <row r="571" spans="1:2" ht="25.5">
+    <row r="571" spans="1:2" ht="27.6">
       <c r="A571" s="15" t="s">
         <v>750</v>
       </c>
@@ -17023,22 +17306,22 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A125:A127"/>
+    <mergeCell ref="C125:C127"/>
+    <mergeCell ref="D125:D127"/>
+    <mergeCell ref="A128:A130"/>
+    <mergeCell ref="C128:C130"/>
+    <mergeCell ref="D128:D130"/>
     <mergeCell ref="A117:A120"/>
     <mergeCell ref="C117:C120"/>
     <mergeCell ref="D117:D120"/>
     <mergeCell ref="A121:A124"/>
     <mergeCell ref="C121:C124"/>
     <mergeCell ref="D121:D124"/>
-    <mergeCell ref="A125:A127"/>
-    <mergeCell ref="C125:C127"/>
-    <mergeCell ref="D125:D127"/>
-    <mergeCell ref="A128:A130"/>
-    <mergeCell ref="C128:C130"/>
-    <mergeCell ref="D128:D130"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" location="main" display="https://chatgpt.com/ - main" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="A172" r:id="rId2" display="https://cloudinary.com/" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="A1" r:id="rId1" location="main" display="https://chatgpt.com/ - main"/>
+    <hyperlink ref="A172" r:id="rId2" display="https://cloudinary.com/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
@@ -17046,14 +17329,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
@@ -17096,14 +17379,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:E27"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="4" spans="2:5">
       <c r="B4" t="s">
@@ -17221,14 +17504,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B20:B93"/>
   <sheetViews>
     <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="B20" sqref="B20:B93"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="20" spans="2:2">
       <c r="B20" t="s">
@@ -17566,14 +17849,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C4:N27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="Q24" sqref="Q24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="4" spans="3:14">
       <c r="C4" t="s">
@@ -17758,17 +18041,17 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:S29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="R20" sqref="R20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:19">
@@ -18066,14 +18349,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:B24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="3" spans="1:2">
       <c r="B3" s="1" t="s">
@@ -18169,13 +18452,13 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" xr:uid="{00000000-0004-0000-0700-000000000000}"/>
-    <hyperlink ref="B5" r:id="rId2" xr:uid="{00000000-0004-0000-0700-000001000000}"/>
-    <hyperlink ref="B10" r:id="rId3" xr:uid="{00000000-0004-0000-0700-000002000000}"/>
-    <hyperlink ref="B11" r:id="rId4" xr:uid="{00000000-0004-0000-0700-000003000000}"/>
-    <hyperlink ref="B12" r:id="rId5" xr:uid="{00000000-0004-0000-0700-000004000000}"/>
-    <hyperlink ref="B17" r:id="rId6" xr:uid="{00000000-0004-0000-0700-000005000000}"/>
-    <hyperlink ref="B22" r:id="rId7" xr:uid="{00000000-0004-0000-0700-000006000000}"/>
+    <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="B5" r:id="rId2"/>
+    <hyperlink ref="B10" r:id="rId3"/>
+    <hyperlink ref="B11" r:id="rId4"/>
+    <hyperlink ref="B12" r:id="rId5"/>
+    <hyperlink ref="B17" r:id="rId6"/>
+    <hyperlink ref="B22" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId8"/>
@@ -18183,16 +18466,16 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:T294"/>
   <sheetViews>
     <sheetView topLeftCell="A241" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="N249" sqref="N249"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:6">

--- a/Project-MRA/Project MRA.xlsx
+++ b/Project-MRA/Project MRA.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1000" uniqueCount="818">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1004" uniqueCount="822">
   <si>
     <t>Contact details</t>
   </si>
@@ -9817,6 +9817,110 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">, za da ne pojavuva konflikti I da moze da se prodolzi so rabota na toj tiket I da se integrira vo aplikacijata soodvetno. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Book Now</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> dugmeto go nasociv kon </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>contact.html,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> za da moze da se prti mejl kako baranje za booking, se dodeka ne se naoravi nekoj drug servis.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Za integriranje na </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">multilingual </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>vo display text vo aboutUs.html</t>
+    </r>
+  </si>
+  <si>
+    <t>Kako sto pogore e objasneto sredenite header I footer se kopirani tuka, so cel da se oformi strukturata na &lt;body&gt; kade kje ima sekcii za header, main I footer.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Potrebno e da se dodade nekoja slika ili tekst vo </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>main</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> delot za da lici kako sto treba.</t>
     </r>
   </si>
 </sst>
@@ -10200,7 +10304,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
@@ -10326,6 +10430,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -14362,10 +14467,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G59"/>
+  <dimension ref="B2:G64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -14433,208 +14538,228 @@
         <v>768</v>
       </c>
     </row>
-    <row r="17" spans="2:5">
-      <c r="B17" s="42" t="s">
+    <row r="16" spans="2:4">
+      <c r="C16" s="45" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3">
+      <c r="B18" s="42" t="s">
         <v>814</v>
       </c>
     </row>
-    <row r="18" spans="2:5">
-      <c r="C18" s="42" t="s">
+    <row r="19" spans="2:3">
+      <c r="C19" s="42" t="s">
         <v>815</v>
       </c>
     </row>
-    <row r="19" spans="2:5">
-      <c r="C19" s="42" t="s">
+    <row r="20" spans="2:3">
+      <c r="C20" s="42" t="s">
         <v>816</v>
       </c>
     </row>
-    <row r="20" spans="2:5">
-      <c r="C20" s="42" t="s">
+    <row r="21" spans="2:3">
+      <c r="C21" s="42" t="s">
         <v>817</v>
       </c>
     </row>
-    <row r="22" spans="2:5">
-      <c r="B22" s="42" t="s">
+    <row r="23" spans="2:3">
+      <c r="B23" s="42" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3">
+      <c r="C24" s="42" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3">
+      <c r="C25" s="42" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3">
+      <c r="B27" s="42" t="s">
         <v>769</v>
       </c>
     </row>
-    <row r="23" spans="2:5">
-      <c r="C23" s="42" t="s">
+    <row r="28" spans="2:3">
+      <c r="C28" s="42" t="s">
         <v>786</v>
       </c>
     </row>
-    <row r="24" spans="2:5">
-      <c r="C24" s="42" t="s">
+    <row r="29" spans="2:3">
+      <c r="C29" s="42" t="s">
         <v>787</v>
       </c>
     </row>
-    <row r="26" spans="2:5">
-      <c r="B26" s="42" t="s">
+    <row r="31" spans="2:3">
+      <c r="B31" s="42" t="s">
         <v>770</v>
       </c>
     </row>
-    <row r="27" spans="2:5">
-      <c r="C27" s="42" t="s">
+    <row r="32" spans="2:3">
+      <c r="C32" s="42" t="s">
         <v>788</v>
       </c>
     </row>
-    <row r="28" spans="2:5">
-      <c r="C28" s="42" t="s">
+    <row r="33" spans="3:5">
+      <c r="C33" s="42" t="s">
         <v>789</v>
       </c>
     </row>
-    <row r="29" spans="2:5">
-      <c r="D29" s="42" t="s">
+    <row r="34" spans="3:5">
+      <c r="D34" s="42" t="s">
         <v>790</v>
-      </c>
-    </row>
-    <row r="30" spans="2:5">
-      <c r="E30" s="43" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="31" spans="2:5">
-      <c r="E31" s="43" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="32" spans="2:5">
-      <c r="E32" s="43" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="33" spans="3:5">
-      <c r="E33" s="43" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="34" spans="3:5">
-      <c r="E34" s="43" t="s">
-        <v>774</v>
       </c>
     </row>
     <row r="35" spans="3:5">
       <c r="E35" s="43" t="s">
-        <v>791</v>
+        <v>771</v>
       </c>
     </row>
     <row r="36" spans="3:5">
       <c r="E36" s="43" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
     </row>
     <row r="37" spans="3:5">
       <c r="E37" s="43" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
     </row>
     <row r="38" spans="3:5">
-      <c r="D38" s="42" t="s">
-        <v>792</v>
+      <c r="E38" s="43" t="s">
+        <v>776</v>
       </c>
     </row>
     <row r="39" spans="3:5">
       <c r="E39" s="43" t="s">
-        <v>793</v>
+        <v>774</v>
       </c>
     </row>
     <row r="40" spans="3:5">
       <c r="E40" s="43" t="s">
-        <v>778</v>
+        <v>791</v>
       </c>
     </row>
     <row r="41" spans="3:5">
       <c r="E41" s="43" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
     </row>
     <row r="42" spans="3:5">
       <c r="E42" s="43" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="43" spans="3:5">
+      <c r="D43" s="42" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="44" spans="3:5">
+      <c r="E44" s="43" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="45" spans="3:5">
+      <c r="E45" s="43" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="46" spans="3:5">
+      <c r="E46" s="43" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="47" spans="3:5">
+      <c r="E47" s="43" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="43" spans="3:5">
-      <c r="C43" s="42" t="s">
+    <row r="48" spans="3:5">
+      <c r="C48" s="42" t="s">
         <v>794</v>
       </c>
     </row>
-    <row r="44" spans="3:5">
-      <c r="C44" s="42" t="s">
+    <row r="49" spans="3:7">
+      <c r="C49" s="42" t="s">
         <v>795</v>
       </c>
     </row>
-    <row r="45" spans="3:5">
-      <c r="D45" s="42" t="s">
+    <row r="50" spans="3:7">
+      <c r="D50" s="42" t="s">
         <v>796</v>
       </c>
     </row>
-    <row r="46" spans="3:5">
-      <c r="D46" s="42" t="s">
+    <row r="51" spans="3:7">
+      <c r="D51" s="42" t="s">
         <v>797</v>
       </c>
     </row>
-    <row r="47" spans="3:5">
-      <c r="D47" s="42" t="s">
+    <row r="52" spans="3:7">
+      <c r="D52" s="42" t="s">
         <v>799</v>
       </c>
     </row>
-    <row r="48" spans="3:5">
-      <c r="D48" s="44" t="s">
+    <row r="53" spans="3:7">
+      <c r="D53" s="44" t="s">
         <v>798</v>
       </c>
     </row>
-    <row r="49" spans="3:7">
-      <c r="E49" s="42" t="s">
+    <row r="54" spans="3:7">
+      <c r="E54" s="42" t="s">
         <v>806</v>
       </c>
     </row>
-    <row r="50" spans="3:7">
-      <c r="F50" s="42" t="s">
+    <row r="55" spans="3:7">
+      <c r="F55" s="42" t="s">
         <v>808</v>
       </c>
     </row>
-    <row r="51" spans="3:7">
-      <c r="F51" s="42" t="s">
+    <row r="56" spans="3:7">
+      <c r="F56" s="42" t="s">
         <v>807</v>
       </c>
     </row>
-    <row r="52" spans="3:7">
-      <c r="F52" s="42" t="s">
+    <row r="57" spans="3:7">
+      <c r="F57" s="42" t="s">
         <v>809</v>
-      </c>
-    </row>
-    <row r="53" spans="3:7">
-      <c r="G53" s="41" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="54" spans="3:7">
-      <c r="G54" s="41" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="55" spans="3:7">
-      <c r="G55" s="41" t="s">
-        <v>805</v>
-      </c>
-    </row>
-    <row r="56" spans="3:7">
-      <c r="G56" s="41" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="57" spans="3:7">
-      <c r="G57" s="41" t="s">
-        <v>804</v>
       </c>
     </row>
     <row r="58" spans="3:7">
       <c r="G58" s="41" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="59" spans="3:7">
+      <c r="G59" s="41" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="60" spans="3:7">
+      <c r="G60" s="41" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="61" spans="3:7">
+      <c r="G61" s="41" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="62" spans="3:7">
+      <c r="G62" s="41" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="63" spans="3:7">
+      <c r="G63" s="41" t="s">
         <v>801</v>
       </c>
     </row>
-    <row r="59" spans="3:7">
-      <c r="C59" s="42" t="s">
+    <row r="64" spans="3:7">
+      <c r="C64" s="42" t="s">
         <v>810</v>
       </c>
     </row>
@@ -14662,59 +14787,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="52" t="s">
         <v>355</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="52" t="s">
         <v>356</v>
       </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="52" t="s">
         <v>357</v>
       </c>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="51" t="s">
+      <c r="A4" s="52" t="s">
         <v>358</v>
       </c>
-      <c r="B4" s="51"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="51" t="s">
+      <c r="A5" s="52" t="s">
         <v>359</v>
       </c>
-      <c r="B5" s="51"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
+      <c r="B5" s="52"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="52"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="51" t="s">
+      <c r="A6" s="52" t="s">
         <v>360</v>
       </c>
-      <c r="B6" s="51"/>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
+      <c r="B6" s="52"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="52"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="51" t="s">
+      <c r="A7" s="52" t="s">
         <v>361</v>
       </c>
-      <c r="B7" s="51"/>
-      <c r="C7" s="51"/>
+      <c r="B7" s="52"/>
+      <c r="C7" s="52"/>
       <c r="D7" s="6"/>
     </row>
     <row r="8" spans="1:4">
@@ -14733,11 +14858,11 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="6"/>
-      <c r="B10" s="51" t="s">
+      <c r="B10" s="52" t="s">
         <v>363</v>
       </c>
-      <c r="C10" s="51"/>
-      <c r="D10" s="51"/>
+      <c r="C10" s="52"/>
+      <c r="D10" s="52"/>
     </row>
     <row r="11" spans="1:4" ht="43.2">
       <c r="A11" s="6"/>
@@ -14774,10 +14899,10 @@
     <row r="15" spans="1:4">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
-      <c r="C15" s="51" t="s">
+      <c r="C15" s="52" t="s">
         <v>368</v>
       </c>
-      <c r="D15" s="51"/>
+      <c r="D15" s="52"/>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
@@ -15389,140 +15514,140 @@
       </c>
     </row>
     <row r="117" spans="1:4" ht="113.4">
-      <c r="A117" s="45" t="s">
+      <c r="A117" s="46" t="s">
         <v>537</v>
       </c>
       <c r="B117" s="21" t="s">
         <v>538</v>
       </c>
-      <c r="C117" s="48" t="s">
+      <c r="C117" s="49" t="s">
         <v>542</v>
       </c>
-      <c r="D117" s="48" t="s">
+      <c r="D117" s="49" t="s">
         <v>543</v>
       </c>
     </row>
     <row r="118" spans="1:4" ht="25.2">
-      <c r="A118" s="46"/>
+      <c r="A118" s="47"/>
       <c r="B118" s="21" t="s">
         <v>539</v>
       </c>
-      <c r="C118" s="49"/>
-      <c r="D118" s="49"/>
+      <c r="C118" s="50"/>
+      <c r="D118" s="50"/>
     </row>
     <row r="119" spans="1:4" ht="50.4">
-      <c r="A119" s="46"/>
+      <c r="A119" s="47"/>
       <c r="B119" s="21" t="s">
         <v>540</v>
       </c>
-      <c r="C119" s="49"/>
-      <c r="D119" s="49"/>
+      <c r="C119" s="50"/>
+      <c r="D119" s="50"/>
     </row>
     <row r="120" spans="1:4" ht="38.4" thickBot="1">
-      <c r="A120" s="47"/>
+      <c r="A120" s="48"/>
       <c r="B120" s="22" t="s">
         <v>541</v>
       </c>
-      <c r="C120" s="50"/>
-      <c r="D120" s="50"/>
+      <c r="C120" s="51"/>
+      <c r="D120" s="51"/>
     </row>
     <row r="121" spans="1:4" ht="37.799999999999997">
-      <c r="A121" s="45" t="s">
+      <c r="A121" s="46" t="s">
         <v>544</v>
       </c>
       <c r="B121" s="21" t="s">
         <v>545</v>
       </c>
-      <c r="C121" s="48" t="s">
+      <c r="C121" s="49" t="s">
         <v>549</v>
       </c>
-      <c r="D121" s="48" t="s">
+      <c r="D121" s="49" t="s">
         <v>550</v>
       </c>
     </row>
     <row r="122" spans="1:4" ht="25.2">
-      <c r="A122" s="46"/>
+      <c r="A122" s="47"/>
       <c r="B122" s="21" t="s">
         <v>546</v>
       </c>
-      <c r="C122" s="49"/>
-      <c r="D122" s="49"/>
+      <c r="C122" s="50"/>
+      <c r="D122" s="50"/>
     </row>
     <row r="123" spans="1:4" ht="37.799999999999997">
-      <c r="A123" s="46"/>
+      <c r="A123" s="47"/>
       <c r="B123" s="21" t="s">
         <v>547</v>
       </c>
-      <c r="C123" s="49"/>
-      <c r="D123" s="49"/>
+      <c r="C123" s="50"/>
+      <c r="D123" s="50"/>
     </row>
     <row r="124" spans="1:4" ht="25.8" thickBot="1">
-      <c r="A124" s="47"/>
+      <c r="A124" s="48"/>
       <c r="B124" s="22" t="s">
         <v>548</v>
       </c>
-      <c r="C124" s="50"/>
-      <c r="D124" s="50"/>
+      <c r="C124" s="51"/>
+      <c r="D124" s="51"/>
     </row>
     <row r="125" spans="1:4" ht="37.799999999999997">
-      <c r="A125" s="45" t="s">
+      <c r="A125" s="46" t="s">
         <v>551</v>
       </c>
       <c r="B125" s="21" t="s">
         <v>552</v>
       </c>
-      <c r="C125" s="48" t="s">
+      <c r="C125" s="49" t="s">
         <v>555</v>
       </c>
-      <c r="D125" s="48" t="s">
+      <c r="D125" s="49" t="s">
         <v>556</v>
       </c>
     </row>
     <row r="126" spans="1:4" ht="50.4">
-      <c r="A126" s="46"/>
+      <c r="A126" s="47"/>
       <c r="B126" s="21" t="s">
         <v>553</v>
       </c>
-      <c r="C126" s="49"/>
-      <c r="D126" s="49"/>
+      <c r="C126" s="50"/>
+      <c r="D126" s="50"/>
     </row>
     <row r="127" spans="1:4" ht="76.2" thickBot="1">
-      <c r="A127" s="47"/>
+      <c r="A127" s="48"/>
       <c r="B127" s="22" t="s">
         <v>554</v>
       </c>
-      <c r="C127" s="50"/>
-      <c r="D127" s="50"/>
+      <c r="C127" s="51"/>
+      <c r="D127" s="51"/>
     </row>
     <row r="128" spans="1:4" ht="37.799999999999997">
-      <c r="A128" s="45" t="s">
+      <c r="A128" s="46" t="s">
         <v>557</v>
       </c>
       <c r="B128" s="21" t="s">
         <v>558</v>
       </c>
-      <c r="C128" s="48" t="s">
+      <c r="C128" s="49" t="s">
         <v>561</v>
       </c>
-      <c r="D128" s="48" t="s">
+      <c r="D128" s="49" t="s">
         <v>562</v>
       </c>
     </row>
     <row r="129" spans="1:4" ht="25.2">
-      <c r="A129" s="46"/>
+      <c r="A129" s="47"/>
       <c r="B129" s="21" t="s">
         <v>559</v>
       </c>
-      <c r="C129" s="49"/>
-      <c r="D129" s="49"/>
+      <c r="C129" s="50"/>
+      <c r="D129" s="50"/>
     </row>
     <row r="130" spans="1:4" ht="50.4">
-      <c r="A130" s="46"/>
+      <c r="A130" s="47"/>
       <c r="B130" s="21" t="s">
         <v>560</v>
       </c>
-      <c r="C130" s="49"/>
-      <c r="D130" s="49"/>
+      <c r="C130" s="50"/>
+      <c r="D130" s="50"/>
     </row>
     <row r="131" spans="1:4">
       <c r="A131" s="6"/>

--- a/Project-MRA/Project MRA.xlsx
+++ b/Project-MRA/Project MRA.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1004" uniqueCount="822">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1009" uniqueCount="827">
   <si>
     <t>Contact details</t>
   </si>
@@ -9569,7 +9569,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Za integriranje na </t>
+      <t xml:space="preserve">Kako sto pogore e objasneto sredenite header I footer se kopirani tuka, zaedno so celosniot kod za section hero od Hero-section#8 od </t>
     </r>
     <r>
       <rPr>
@@ -9578,10 +9578,9 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">multilingual </t>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">homePage.html </t>
     </r>
     <r>
       <rPr>
@@ -9592,7 +9591,7 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">vo display text vo homePage.html od ticket </t>
+      <t xml:space="preserve">I </t>
     </r>
     <r>
       <rPr>
@@ -9603,12 +9602,23 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Hero-section#8</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Kako sto pogore e objasneto sredenite header I footer se kopirani tuka, zaedno so celosniot kod za section hero od Hero-section#8 od </t>
+      <t>homePage.css</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Kako sto pogore e objasneto sredenite header I footer se kopirani tuka, zaedno so celosniot kod za section za cards od services</t>
     </r>
     <r>
       <rPr>
@@ -9619,18 +9629,12 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">homePage.html </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">I </t>
+      <t>.html.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Celosnite kodovi od services.js I services.css se isto taka kopirani od </t>
     </r>
     <r>
       <rPr>
@@ -9641,23 +9645,12 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>homePage.css</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Za integriranje na </t>
+      <t>dynamic-cards-services#2.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Zakomentiran e kodot od ticket </t>
     </r>
     <r>
       <rPr>
@@ -9666,10 +9659,9 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">multilingual </t>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dynamic-cards-services#2</t>
     </r>
     <r>
       <rPr>
@@ -9680,7 +9672,7 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">vo display text vo services.html od ticket </t>
+      <t xml:space="preserve"> I vo </t>
     </r>
     <r>
       <rPr>
@@ -9691,12 +9683,18 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>dynamic-cards-services#2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Kako sto pogore e objasneto sredenite header I footer se kopirani tuka, zaedno so celosniot kod za section za cards od services</t>
+      <t>services.html</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, I vo </t>
     </r>
     <r>
       <rPr>
@@ -9707,12 +9705,18 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>.html.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Celosnite kodovi od services.js I services.css se isto taka kopirani od </t>
+      <t>services.js</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, I vo </t>
     </r>
     <r>
       <rPr>
@@ -9723,13 +9727,21 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>dynamic-cards-services#2.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Zakomentiran e kodot od ticket </t>
-    </r>
+      <t>services.css</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, za da ne pojavuva konflikti I da moze da se prodolzi so rabota na toj tiket I da se integrira vo aplikacijata soodvetno. </t>
+    </r>
+  </si>
+  <si>
     <r>
       <rPr>
         <i/>
@@ -9739,7 +9751,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>dynamic-cards-services#2</t>
+      <t>Book Now</t>
     </r>
     <r>
       <rPr>
@@ -9750,7 +9762,7 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> I vo </t>
+      <t xml:space="preserve"> dugmeto go nasociv kon </t>
     </r>
     <r>
       <rPr>
@@ -9761,7 +9773,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>services.html</t>
+      <t>contact.html,</t>
     </r>
     <r>
       <rPr>
@@ -9772,7 +9784,12 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">, I vo </t>
+      <t xml:space="preserve"> za da moze da se prti mejl kako baranje za booking, se dodeka ne se naoravi nekoj drug servis.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Za integriranje na </t>
     </r>
     <r>
       <rPr>
@@ -9781,9 +9798,10 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>services.js</t>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">multilingual </t>
     </r>
     <r>
       <rPr>
@@ -9794,7 +9812,15 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">, I vo </t>
+      <t>vo display text vo aboutUs.html</t>
+    </r>
+  </si>
+  <si>
+    <t>Kako sto pogore e objasneto sredenite header I footer se kopirani tuka, so cel da se oformi strukturata na &lt;body&gt; kade kje ima sekcii za header, main I footer.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Potrebno e da se dodade nekoja slika ili tekst vo </t>
     </r>
     <r>
       <rPr>
@@ -9805,7 +9831,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>services.css</t>
+      <t>main</t>
     </r>
     <r>
       <rPr>
@@ -9816,10 +9842,13 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">, za da ne pojavuva konflikti I da moze da se prodolzi so rabota na toj tiket I da se integrira vo aplikacijata soodvetno. </t>
-    </r>
-  </si>
-  <si>
+      <t xml:space="preserve"> delot za da lici kako sto treba.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Za integriranje na </t>
+    </r>
     <r>
       <rPr>
         <i/>
@@ -9827,9 +9856,10 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Book Now</t>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">multilingual </t>
     </r>
     <r>
       <rPr>
@@ -9840,7 +9870,7 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> dugmeto go nasociv kon </t>
+      <t xml:space="preserve">vo display text vo </t>
     </r>
     <r>
       <rPr>
@@ -9851,7 +9881,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>contact.html,</t>
+      <t>services.html</t>
     </r>
     <r>
       <rPr>
@@ -9862,12 +9892,7 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> za da moze da se prti mejl kako baranje za booking, se dodeka ne se naoravi nekoj drug servis.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Za integriranje na </t>
+      <t xml:space="preserve"> od ticket </t>
     </r>
     <r>
       <rPr>
@@ -9876,29 +9901,14 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">multilingual </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>vo display text vo aboutUs.html</t>
-    </r>
-  </si>
-  <si>
-    <t>Kako sto pogore e objasneto sredenite header I footer se kopirani tuka, so cel da se oformi strukturata na &lt;body&gt; kade kje ima sekcii za header, main I footer.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Potrebno e da se dodade nekoja slika ili tekst vo </t>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dynamic-cards-services#2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Za integriranje na </t>
     </r>
     <r>
       <rPr>
@@ -9907,9 +9917,10 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>main</t>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">multilingual </t>
     </r>
     <r>
       <rPr>
@@ -9920,7 +9931,91 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> delot za da lici kako sto treba.</t>
+      <t xml:space="preserve">vo display text vo </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>homePage.html</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> od ticket </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Hero-section#8</t>
+    </r>
+  </si>
+  <si>
+    <t>Kako sto pogore e objasneto sredenite header I footer se kopirani tuka.</t>
+  </si>
+  <si>
+    <t>Kreiran e celosen sistem za pisuvanje na reviews od strana na posetiteli na stranata reviews.html, zaedno so reviews.css.</t>
+  </si>
+  <si>
+    <t>Vo contact.html I vo contact.js e kreiran sistem za da moze da se poglednat site reviews koi se dobieni I istite da se izmenuvaat vo property public so koe kje se odreduva dali nekoj review kje se prikaze javno ili ne.</t>
+  </si>
+  <si>
+    <t>Ne sakame site reviews da bidat prikazani javno, bidejki ne sme sigurni dali kje ni odgovara sodrzinata sto nekoj posetitel kje ja napise za nasata rabota.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Za integriranje na </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">multilingual </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">vo display text vo </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>reviews.html</t>
     </r>
   </si>
 </sst>
@@ -14467,10 +14562,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G64"/>
+  <dimension ref="B2:G70"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+      <selection activeCell="B27" sqref="B27:D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -14525,12 +14620,12 @@
     </row>
     <row r="13" spans="2:4">
       <c r="B13" s="42" t="s">
-        <v>812</v>
+        <v>821</v>
       </c>
     </row>
     <row r="14" spans="2:4">
       <c r="C14" s="42" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="15" spans="2:4">
@@ -14540,226 +14635,251 @@
     </row>
     <row r="16" spans="2:4">
       <c r="C16" s="45" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4">
+      <c r="B18" s="42" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4">
+      <c r="C19" s="42" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4">
+      <c r="C20" s="42" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4">
+      <c r="C21" s="42" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4">
+      <c r="B23" s="42" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4">
+      <c r="C24" s="42" t="s">
         <v>818</v>
       </c>
     </row>
-    <row r="18" spans="2:3">
-      <c r="B18" s="42" t="s">
-        <v>814</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3">
-      <c r="C19" s="42" t="s">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3">
-      <c r="C20" s="42" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3">
-      <c r="C21" s="42" t="s">
-        <v>817</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3">
-      <c r="B23" s="42" t="s">
+    <row r="25" spans="2:4">
+      <c r="C25" s="42" t="s">
         <v>819</v>
       </c>
     </row>
-    <row r="24" spans="2:3">
-      <c r="C24" s="42" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3">
-      <c r="C25" s="42" t="s">
-        <v>821</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3">
+    <row r="27" spans="2:4">
       <c r="B27" s="42" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4">
+      <c r="C28" s="42" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4">
+      <c r="C29" s="42" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4">
+      <c r="C30" s="42" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4">
+      <c r="D31" s="42" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5">
+      <c r="B33" s="42" t="s">
         <v>769</v>
       </c>
     </row>
-    <row r="28" spans="2:3">
-      <c r="C28" s="42" t="s">
+    <row r="34" spans="2:5">
+      <c r="C34" s="42" t="s">
         <v>786</v>
       </c>
     </row>
-    <row r="29" spans="2:3">
-      <c r="C29" s="42" t="s">
+    <row r="35" spans="2:5">
+      <c r="C35" s="42" t="s">
         <v>787</v>
       </c>
     </row>
-    <row r="31" spans="2:3">
-      <c r="B31" s="42" t="s">
+    <row r="37" spans="2:5">
+      <c r="B37" s="42" t="s">
         <v>770</v>
       </c>
     </row>
-    <row r="32" spans="2:3">
-      <c r="C32" s="42" t="s">
+    <row r="38" spans="2:5">
+      <c r="C38" s="42" t="s">
         <v>788</v>
       </c>
     </row>
-    <row r="33" spans="3:5">
-      <c r="C33" s="42" t="s">
+    <row r="39" spans="2:5">
+      <c r="C39" s="42" t="s">
         <v>789</v>
       </c>
     </row>
-    <row r="34" spans="3:5">
-      <c r="D34" s="42" t="s">
+    <row r="40" spans="2:5">
+      <c r="D40" s="42" t="s">
         <v>790</v>
       </c>
     </row>
-    <row r="35" spans="3:5">
-      <c r="E35" s="43" t="s">
+    <row r="41" spans="2:5">
+      <c r="E41" s="43" t="s">
         <v>771</v>
       </c>
     </row>
-    <row r="36" spans="3:5">
-      <c r="E36" s="43" t="s">
+    <row r="42" spans="2:5">
+      <c r="E42" s="43" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="37" spans="3:5">
-      <c r="E37" s="43" t="s">
+    <row r="43" spans="2:5">
+      <c r="E43" s="43" t="s">
         <v>773</v>
       </c>
     </row>
-    <row r="38" spans="3:5">
-      <c r="E38" s="43" t="s">
+    <row r="44" spans="2:5">
+      <c r="E44" s="43" t="s">
         <v>776</v>
       </c>
     </row>
-    <row r="39" spans="3:5">
-      <c r="E39" s="43" t="s">
+    <row r="45" spans="2:5">
+      <c r="E45" s="43" t="s">
         <v>774</v>
       </c>
     </row>
-    <row r="40" spans="3:5">
-      <c r="E40" s="43" t="s">
+    <row r="46" spans="2:5">
+      <c r="E46" s="43" t="s">
         <v>791</v>
       </c>
     </row>
-    <row r="41" spans="3:5">
-      <c r="E41" s="43" t="s">
+    <row r="47" spans="2:5">
+      <c r="E47" s="43" t="s">
         <v>775</v>
       </c>
     </row>
-    <row r="42" spans="3:5">
-      <c r="E42" s="43" t="s">
+    <row r="48" spans="2:5">
+      <c r="E48" s="43" t="s">
         <v>777</v>
       </c>
     </row>
-    <row r="43" spans="3:5">
-      <c r="D43" s="42" t="s">
+    <row r="49" spans="3:7">
+      <c r="D49" s="42" t="s">
         <v>792</v>
       </c>
     </row>
-    <row r="44" spans="3:5">
-      <c r="E44" s="43" t="s">
+    <row r="50" spans="3:7">
+      <c r="E50" s="43" t="s">
         <v>793</v>
       </c>
     </row>
-    <row r="45" spans="3:5">
-      <c r="E45" s="43" t="s">
+    <row r="51" spans="3:7">
+      <c r="E51" s="43" t="s">
         <v>778</v>
       </c>
     </row>
-    <row r="46" spans="3:5">
-      <c r="E46" s="43" t="s">
+    <row r="52" spans="3:7">
+      <c r="E52" s="43" t="s">
         <v>779</v>
       </c>
     </row>
-    <row r="47" spans="3:5">
-      <c r="E47" s="43" t="s">
+    <row r="53" spans="3:7">
+      <c r="E53" s="43" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="48" spans="3:5">
-      <c r="C48" s="42" t="s">
+    <row r="54" spans="3:7">
+      <c r="C54" s="42" t="s">
         <v>794</v>
       </c>
     </row>
-    <row r="49" spans="3:7">
-      <c r="C49" s="42" t="s">
+    <row r="55" spans="3:7">
+      <c r="C55" s="42" t="s">
         <v>795</v>
       </c>
     </row>
-    <row r="50" spans="3:7">
-      <c r="D50" s="42" t="s">
+    <row r="56" spans="3:7">
+      <c r="D56" s="42" t="s">
         <v>796</v>
       </c>
     </row>
-    <row r="51" spans="3:7">
-      <c r="D51" s="42" t="s">
+    <row r="57" spans="3:7">
+      <c r="D57" s="42" t="s">
         <v>797</v>
       </c>
     </row>
-    <row r="52" spans="3:7">
-      <c r="D52" s="42" t="s">
+    <row r="58" spans="3:7">
+      <c r="D58" s="42" t="s">
         <v>799</v>
       </c>
     </row>
-    <row r="53" spans="3:7">
-      <c r="D53" s="44" t="s">
+    <row r="59" spans="3:7">
+      <c r="D59" s="44" t="s">
         <v>798</v>
       </c>
     </row>
-    <row r="54" spans="3:7">
-      <c r="E54" s="42" t="s">
+    <row r="60" spans="3:7">
+      <c r="E60" s="42" t="s">
         <v>806</v>
       </c>
     </row>
-    <row r="55" spans="3:7">
-      <c r="F55" s="42" t="s">
+    <row r="61" spans="3:7">
+      <c r="F61" s="42" t="s">
         <v>808</v>
       </c>
     </row>
-    <row r="56" spans="3:7">
-      <c r="F56" s="42" t="s">
+    <row r="62" spans="3:7">
+      <c r="F62" s="42" t="s">
         <v>807</v>
       </c>
     </row>
-    <row r="57" spans="3:7">
-      <c r="F57" s="42" t="s">
+    <row r="63" spans="3:7">
+      <c r="F63" s="42" t="s">
         <v>809</v>
       </c>
     </row>
-    <row r="58" spans="3:7">
-      <c r="G58" s="41" t="s">
+    <row r="64" spans="3:7">
+      <c r="G64" s="41" t="s">
         <v>800</v>
       </c>
     </row>
-    <row r="59" spans="3:7">
-      <c r="G59" s="41" t="s">
+    <row r="65" spans="3:7">
+      <c r="G65" s="41" t="s">
         <v>802</v>
       </c>
     </row>
-    <row r="60" spans="3:7">
-      <c r="G60" s="41" t="s">
+    <row r="66" spans="3:7">
+      <c r="G66" s="41" t="s">
         <v>805</v>
       </c>
     </row>
-    <row r="61" spans="3:7">
-      <c r="G61" s="41" t="s">
+    <row r="67" spans="3:7">
+      <c r="G67" s="41" t="s">
         <v>803</v>
       </c>
     </row>
-    <row r="62" spans="3:7">
-      <c r="G62" s="41" t="s">
+    <row r="68" spans="3:7">
+      <c r="G68" s="41" t="s">
         <v>804</v>
       </c>
     </row>
-    <row r="63" spans="3:7">
-      <c r="G63" s="41" t="s">
+    <row r="69" spans="3:7">
+      <c r="G69" s="41" t="s">
         <v>801</v>
       </c>
     </row>
-    <row r="64" spans="3:7">
-      <c r="C64" s="42" t="s">
+    <row r="70" spans="3:7">
+      <c r="C70" s="42" t="s">
         <v>810</v>
       </c>
     </row>
@@ -17431,18 +17551,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A117:A120"/>
+    <mergeCell ref="C117:C120"/>
+    <mergeCell ref="D117:D120"/>
+    <mergeCell ref="A121:A124"/>
+    <mergeCell ref="C121:C124"/>
+    <mergeCell ref="D121:D124"/>
     <mergeCell ref="A125:A127"/>
     <mergeCell ref="C125:C127"/>
     <mergeCell ref="D125:D127"/>
     <mergeCell ref="A128:A130"/>
     <mergeCell ref="C128:C130"/>
     <mergeCell ref="D128:D130"/>
-    <mergeCell ref="A117:A120"/>
-    <mergeCell ref="C117:C120"/>
-    <mergeCell ref="D117:D120"/>
-    <mergeCell ref="A121:A124"/>
-    <mergeCell ref="C121:C124"/>
-    <mergeCell ref="D121:D124"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" location="main" display="https://chatgpt.com/ - main"/>

--- a/Project-MRA/Project MRA.xlsx
+++ b/Project-MRA/Project MRA.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1009" uniqueCount="827">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1010" uniqueCount="828">
   <si>
     <t>Contact details</t>
   </si>
@@ -10017,6 +10017,9 @@
       </rPr>
       <t>reviews.html</t>
     </r>
+  </si>
+  <si>
+    <t>4f62d42</t>
   </si>
 </sst>
 </file>
@@ -14562,10 +14565,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G70"/>
+  <dimension ref="B2:O70"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27:D31"/>
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -14573,67 +14576,70 @@
     <col min="1" max="16384" width="9.109375" style="42"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4">
+    <row r="2" spans="2:15">
       <c r="B2" s="42" t="s">
         <v>780</v>
       </c>
     </row>
-    <row r="3" spans="2:4">
+    <row r="3" spans="2:15">
       <c r="C3" s="42" t="s">
         <v>781</v>
       </c>
     </row>
-    <row r="4" spans="2:4">
+    <row r="4" spans="2:15">
       <c r="D4" s="42" t="s">
         <v>782</v>
       </c>
     </row>
-    <row r="5" spans="2:4">
+    <row r="5" spans="2:15">
       <c r="C5" s="42" t="s">
         <v>811</v>
       </c>
     </row>
-    <row r="6" spans="2:4">
+    <row r="6" spans="2:15">
       <c r="C6" s="42" t="s">
         <v>783</v>
       </c>
     </row>
-    <row r="8" spans="2:4">
+    <row r="8" spans="2:15">
       <c r="B8" s="42" t="s">
         <v>767</v>
       </c>
     </row>
-    <row r="9" spans="2:4">
+    <row r="9" spans="2:15">
       <c r="C9" s="42" t="s">
         <v>784</v>
       </c>
     </row>
-    <row r="10" spans="2:4">
+    <row r="10" spans="2:15">
       <c r="D10" s="42" t="s">
         <v>768</v>
       </c>
     </row>
-    <row r="11" spans="2:4">
+    <row r="11" spans="2:15">
       <c r="C11" s="42" t="s">
         <v>785</v>
       </c>
-    </row>
-    <row r="13" spans="2:4">
+      <c r="O11" s="42" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15">
       <c r="B13" s="42" t="s">
         <v>821</v>
       </c>
     </row>
-    <row r="14" spans="2:4">
+    <row r="14" spans="2:15">
       <c r="C14" s="42" t="s">
         <v>812</v>
       </c>
     </row>
-    <row r="15" spans="2:4">
+    <row r="15" spans="2:15">
       <c r="D15" s="42" t="s">
         <v>768</v>
       </c>
     </row>
-    <row r="16" spans="2:4">
+    <row r="16" spans="2:15">
       <c r="C16" s="45" t="s">
         <v>816</v>
       </c>
@@ -17551,18 +17557,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A125:A127"/>
+    <mergeCell ref="C125:C127"/>
+    <mergeCell ref="D125:D127"/>
+    <mergeCell ref="A128:A130"/>
+    <mergeCell ref="C128:C130"/>
+    <mergeCell ref="D128:D130"/>
     <mergeCell ref="A117:A120"/>
     <mergeCell ref="C117:C120"/>
     <mergeCell ref="D117:D120"/>
     <mergeCell ref="A121:A124"/>
     <mergeCell ref="C121:C124"/>
     <mergeCell ref="D121:D124"/>
-    <mergeCell ref="A125:A127"/>
-    <mergeCell ref="C125:C127"/>
-    <mergeCell ref="D125:D127"/>
-    <mergeCell ref="A128:A130"/>
-    <mergeCell ref="C128:C130"/>
-    <mergeCell ref="D128:D130"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" location="main" display="https://chatgpt.com/ - main"/>

--- a/Project-MRA/Project MRA.xlsx
+++ b/Project-MRA/Project MRA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Viktor\Desktop\Tenderi\WEB\PROG\Qinshift-homeworks\Project-MRA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1208F106-7482-4795-974E-3A925CCCAEBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1339138A-8A26-46FE-A383-FA2430672A13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="764" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="993" uniqueCount="812">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1053" uniqueCount="872">
   <si>
     <t>Contact details</t>
   </si>
@@ -9327,8 +9327,11 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">3. Koga treba da se stavaat kartickite koi kje se renderiraat na </t>
+    <t>4. Koga nekoj tekst treba da se prikaze na ekran preku nekoj element mora:</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">toj element da ima klasi </t>
     </r>
     <r>
       <rPr>
@@ -9340,18 +9343,12 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t>services.html</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, treba tie da se kreiraat vo stranata </t>
+      <t xml:space="preserve">onscreenText pagenamehtmlUniquename </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">tekstot koj treba da se prikaze ne se pisuva pomegju otvoracki I zatvaracki </t>
     </r>
     <r>
       <rPr>
@@ -9363,15 +9360,26 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t>contact.html</t>
-    </r>
-  </si>
-  <si>
-    <t>4. Koga nekoj tekst treba da se prikaze na ekran preku nekoj element mora:</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">toj element da ima klasi </t>
+      <t xml:space="preserve">tag </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>na toj element</t>
+    </r>
+  </si>
+  <si>
+    <t>Primer:</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">tekstot koj treba da se prikaze treba da se prevede na germanski, angliski I makedonski I istiot direktno da se vnese vo file-ot </t>
     </r>
     <r>
       <rPr>
@@ -9383,12 +9391,18 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">onscreenText pagenamehtmlUniquename </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">tekstot koj treba da se prikaze ne se pisuva pomegju otvoracki I zatvaracki </t>
+      <t>contents.json</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> vo </t>
     </r>
     <r>
       <rPr>
@@ -9400,7 +9414,7 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">tag </t>
+      <t>data</t>
     </r>
     <r>
       <rPr>
@@ -9411,15 +9425,30 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t>na toj element</t>
-    </r>
-  </si>
-  <si>
-    <t>Primer:</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">tekstot koj treba da se prikaze treba da se prevede na germanski, angliski I makedonski I istiot direktno da se vnese vo file-ot </t>
+      <t xml:space="preserve"> folderot</t>
+    </r>
+  </si>
+  <si>
+    <t>  {</t>
+  </si>
+  <si>
+    <t>  }</t>
+  </si>
+  <si>
+    <t>    "id": "homepagehtmlHome",</t>
+  </si>
+  <si>
+    <t>    "english": "Home",</t>
+  </si>
+  <si>
+    <t>    "macedonian": "Дома"</t>
+  </si>
+  <si>
+    <t>    "german": "Heim",</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Ako treba na homePage.html preku </t>
     </r>
     <r>
       <rPr>
@@ -9431,7 +9460,7 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t>contents.json</t>
+      <t>p tag</t>
     </r>
     <r>
       <rPr>
@@ -9442,7 +9471,15 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> vo </t>
+      <t xml:space="preserve"> da se ispise tekst "Home", treba: </t>
+    </r>
+  </si>
+  <si>
+    <t>Da se vpise     &lt;p class="onscreenText homepagehtmlHome"&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Namesto      </t>
     </r>
     <r>
       <rPr>
@@ -9454,41 +9491,12 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t>data</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> folderot</t>
-    </r>
-  </si>
-  <si>
-    <t>  {</t>
-  </si>
-  <si>
-    <t>  }</t>
-  </si>
-  <si>
-    <t>    "id": "homepagehtmlHome",</t>
-  </si>
-  <si>
-    <t>    "english": "Home",</t>
-  </si>
-  <si>
-    <t>    "macedonian": "Дома"</t>
-  </si>
-  <si>
-    <t>    "german": "Heim",</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Ako treba na homePage.html preku </t>
+      <t>&lt;p&gt;Home&lt;/p&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Vo </t>
     </r>
     <r>
       <rPr>
@@ -9500,7 +9508,7 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t>p tag</t>
+      <t>contents.json</t>
     </r>
     <r>
       <rPr>
@@ -9511,15 +9519,12 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> da se ispise tekst "Home", treba: </t>
-    </r>
-  </si>
-  <si>
-    <t>Da se vpise     &lt;p class="onscreenText homepagehtmlHome"&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Namesto      </t>
+      <t xml:space="preserve"> da se dodade</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">5. Strukturata na branch-ata e MVC patern, odnosno, za da se testira otkako kje se merge-ne, prvo treba da se izvrsi npm install, potoa npm run dev, i se pristapuva preku API so </t>
     </r>
     <r>
       <rPr>
@@ -9531,12 +9536,27 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t>&lt;p&gt;Home&lt;/p&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Vo </t>
+      <t>http://localhost:3000/pagename.html</t>
+    </r>
+  </si>
+  <si>
+    <t>Napravena e promena da ako user e logiran odnosno ima ima vrednost za localStorage isLoggedIn da vodi do admin.html, a ako nema da vodi do homepage.html</t>
+  </si>
+  <si>
+    <t>ZA DORABOTKA:</t>
+  </si>
+  <si>
+    <t>2. Da se stavi toggle vo admin,html za promena na sitlovi na karticki</t>
+  </si>
+  <si>
+    <t>3. Da se sredi CSS na footer, ako treba</t>
+  </si>
+  <si>
+    <t>1. Da se sredi CSS delot vo dark-light.js za dark mode vo site .html, I ako treba dodavanje klasi vo .html</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Prevzemen e celiot file </t>
     </r>
     <r>
       <rPr>
@@ -9548,7 +9568,7 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t>contents.json</t>
+      <t>darkLight.js</t>
     </r>
     <r>
       <rPr>
@@ -9559,13 +9579,10 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> da se dodade</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">5. Strukturata na branch-ata e MVC patern, odnosno, za da se testira otkako kje se merge-ne, prvo treba da se izvrsi npm install, potoa npm run dev, i se pristapuva preku API so </t>
-    </r>
+      <t xml:space="preserve"> od tiketot dark-light-mode#16 I staven vo folder modules.</t>
+    </r>
+  </si>
+  <si>
     <r>
       <rPr>
         <i/>
@@ -9576,8 +9593,315 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t>http://localhost:3000/pagename.html</t>
-    </r>
+      <t>darkLight.js</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> e integriran kako scipt na dnoto od </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>body</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> vo site</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> .html</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, isto kako I ostnatite skript.</t>
+    </r>
+  </si>
+  <si>
+    <t>Za potrebite na prezentacijata, karticite se renderiraat na ist princip kako reviews, I na niv ne funkcionira odbiranje na stil na kratici.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3. Koga treba da se stavaat kartickite koi kje se renderiraat na </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>services.html</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, treba tie da se kreiraat vo stranata </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>admin.html</t>
+    </r>
+  </si>
+  <si>
+    <t>Dugme za promena na stil na kartici treba da se napravi vo admin.html</t>
+  </si>
+  <si>
+    <t>6. Za da se pristapi do admin.html se klika na logo na firmata, vo header, I toj vodi vo login.html ako ne ste logirani so sistemot, ili do admin.html dokolku ste logirani</t>
+  </si>
+  <si>
+    <t>Za logiranje kako obicen vraboten vo firmata koristete gi slednive kredencii:</t>
+  </si>
+  <si>
+    <t>email:</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Treba kartickite da gi imaat property-njata koi se definirani vo </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cards.json</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Treba da se vnimava da se renderiraat samo karticite koi imaat propertycard. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>public="yes"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> I da bidat sortirani po redoslen na </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>card.number koe vsusnost e strung vrednost.</t>
+    </r>
+  </si>
+  <si>
+    <t>ZA PREZENTACIJA I TESTIRANJE</t>
+  </si>
+  <si>
+    <t>1. Aplikacijata ima frontend I backend, izraboten vo nodeJs so express vo MVC struktura.</t>
+  </si>
+  <si>
+    <t>Postoi administratorski account koj e zakucan direktno vo users.json, koj moze da deaktivira drugi users da se logiraat.</t>
+  </si>
+  <si>
+    <t>Osven deaktivacija na drugi users, site users kje moze da gi pravat predvidenite promeni vo aplikacijata.</t>
+  </si>
+  <si>
+    <t>Logo, koe vodi do login.html, dokolku user-ot ne e logiran, ili do admin.html dokolku user-ot e logiran.</t>
+  </si>
+  <si>
+    <t>homepage link, koj vodi do homepage.html, koj vo sebe vklucuva hero element cija teksturalna sodrzina e povekje-jazicna i moze da se menuva preku admin panelot.</t>
+  </si>
+  <si>
+    <t>services link, koj vodi do services.html, na koj se renderiraat karticki za uslugi na kompanjata.</t>
+  </si>
+  <si>
+    <t>Stilovite kje bidat predefinirani vo .json</t>
+  </si>
+  <si>
+    <t>Karticki za novi uslugi, kje moze da se kreiraat vo admin.html od strana na bilo koj logiran user.</t>
+  </si>
+  <si>
+    <t>Vo tekot na prezentacijata kje koristime vekje kreirani accounti za administrator I za vraboten.</t>
+  </si>
+  <si>
+    <t>VO IZRABOTKA e moznost da preku dugme za selekcija vo admin.html se menuvaat stilovite na kartickite vo odnos na nivniot CSS.</t>
+  </si>
+  <si>
+    <t>reviews link, koj vodi do reviews.html, na koj se renderiraat osvrti na klinti na kompanijata sopstvenik.</t>
+  </si>
+  <si>
+    <t>Kreiranje na nov review se pravi direktno preku reviews.html</t>
+  </si>
+  <si>
+    <t>Moze logiran user da gi gleda I menuva kartickite vo site propertinja: naslov na povekje jazici, opis na povekje jazici, slika, javnost, I redosleden broj za prikazuvanje na services.html</t>
+  </si>
+  <si>
+    <t>Moze logiran user da gi gleda site reviews I da gi menuva vo property public, kade samo vrednost "yes" ovozmozuva prikazuvanje na reviews.html</t>
+  </si>
+  <si>
+    <t>Zaradi zastita od nesakani komentari, novokreiranite reviews se zacuvuvaat so proprty public="no"</t>
+  </si>
+  <si>
+    <t>aboutUs link, koj vodi do aboutus.html, na koj vo momentov nema sodrzina bidejki toa vo najgolema mera zavisi od zelbata na sopstvenikot</t>
+  </si>
+  <si>
+    <t>Na homepage.html ima I dugme za booking na usluga koe vodi do contact.html kade se naogja formata za prakjanje na mejl do kompanijata.</t>
+  </si>
+  <si>
+    <t>contact link, koj vodi do contact.html, na koj ima forma preku koj klient kje moze da prati poraka do kompanijata, barajki sostanok, prasuvajki, bukirajki usluga I sl.</t>
+  </si>
+  <si>
+    <t>Isprateniot poraka pristignuva na Google account na kompanija kade moze da se vidi ime I email na isprakjacot, kako I sodrzinata na mejlot, so cel prodolzuvanje na komunikacijata.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Porakata, koja e sostavena od ime I email na isprakjacot, kako I sodrzina, isto taka se zacuvuva vo .json za ponatamosno koristenje I zaedno </t>
+  </si>
+  <si>
+    <t>Site dobieni mejlovi moze da se vidat vo posebna lista vo admin.html od strana na bilo koj logiran user.</t>
+  </si>
+  <si>
+    <t>dark-light toggle, so koj posetitelot moze da izbere kakov mode treba da bidat stranite koi gi posetuva na aplikacijata.</t>
+  </si>
+  <si>
+    <t>language selector dropdown, so koj posetitelot moze da izbere na koj jazik saka da ja cita sodrzinata na aplikacijata.</t>
+  </si>
+  <si>
+    <t>Povekje-jazicnost funkcionira na sledniot nacin:</t>
+  </si>
+  <si>
+    <t>Elementite so koi se prikazuva tekst, treba da imaat dve konkretni klasi, edna opsta I edna unikatna.</t>
+  </si>
+  <si>
+    <t>Kartickite za uslugite koi gi nudi kompanijata, so cel da moze samite vraboteni da menuvaat sodrzina, sodrzat propertinja za site jazici koi se poddrzani.</t>
+  </si>
+  <si>
+    <t>Sodrzinite na tekstovite na site jazici koi se poddrzani se diraktno zapisani vo content.json.</t>
+  </si>
+  <si>
+    <t>Site sodrzini, na site poddrzani jazici moze da se poglednat I menuvaat vo lista vo admin.html od strana na bilo koj vraboten.</t>
+  </si>
+  <si>
+    <t>Na sopstvenikot ne mu e ovozmozeno da moze sam da kreira sodrzini, bidejki za toa e potrebno kodiranje na nov element, a za postoeckite ima moznost da si gi edit-ira.</t>
+  </si>
+  <si>
+    <t>3. Ima 7 strani: Home, Services, Reviews, About us, Contact, Login, Admin.</t>
+  </si>
+  <si>
+    <t>4. Header ima 8 aktivni elementi:</t>
+  </si>
+  <si>
+    <t>Adresa na kompanijata, koj pri klik otvora google maps I ja posocuva tocnata lokacija na kompanijata</t>
+  </si>
+  <si>
+    <t>Telefon na kompanijata, koj pri klik trigerira third-party aplikacija, po izbor na sopstvenikot, preku koja moze da se ostvari direkten telefonski povik</t>
+  </si>
+  <si>
+    <t>Email na kompanijata, koj pri klik trigerira third-party aplikacija, po izbor na posetitelot, preku koja moze da se prati mejl direktno do kompanijata</t>
+  </si>
+  <si>
+    <t>Social media segment, kade ima ikoni od Facebook, Instagram I LinkedIn, koi na klik vodat do profilite na kompanijata na tie socijalni mediumi</t>
+  </si>
+  <si>
+    <t>5. Da se razberat linkovite od socijalnite mediumi na kompanijata</t>
+  </si>
+  <si>
+    <t>4. Da se stavi sodrzina vo aboutus.html po zelba na kompanijata.</t>
+  </si>
+  <si>
+    <t>Ovoj feature e reguliran so modul multilingual.js koj e integriran vo sekoj .html kako I sekoja skripta, I funkcionira preku vrednosti na localStorage parametri.</t>
+  </si>
+  <si>
+    <t>Ovoj feature e reguliran so modul darkLight.js koj e integriran vo sekoj .html kako I sekoja skripta, I funkcionira preku vrednosti na localStorage parametri.</t>
+  </si>
+  <si>
+    <t>2. Sodrzi 4 objecti, User, Review, Service, i eMail, cii entitety se cuvaat na lokalni .json bazi, i pri cie kreiranje ili izmena na podatoci validacija se vrsi preku zodSchema.js</t>
+  </si>
+  <si>
+    <t>4. Footer, pokraj tekst, ima 4 aktivni elementi:</t>
+  </si>
+  <si>
+    <t>PROMENI POSLE PREZENTACIJA PRED MNGT</t>
+  </si>
+  <si>
+    <t>Odstraneti se multilingual klasite od telofon I email vo footer I izbrisani sodrzinite vo contents.json</t>
+  </si>
+  <si>
+    <t>Podelen e main.js vo main.js, header.js, footer.js</t>
+  </si>
+  <si>
+    <t>Promenet e html na footer, I css na footer I na header za da bidat vo ist stil I dobro da se prikazuvaat na ekran.</t>
   </si>
 </sst>
 </file>
@@ -10070,6 +10394,14 @@
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -10091,14 +10423,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -14114,245 +14438,545 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="B2:G51"/>
+  <dimension ref="B2:G114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="O43" sqref="O43"/>
+    <sheetView tabSelected="1" topLeftCell="A96" workbookViewId="0">
+      <selection activeCell="P115" sqref="P115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="49"/>
+    <col min="1" max="16384" width="9.140625" style="42"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:4">
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="42" t="s">
         <v>780</v>
       </c>
     </row>
     <row r="3" spans="2:4">
-      <c r="C3" s="49" t="s">
+      <c r="C3" s="42" t="s">
         <v>781</v>
       </c>
     </row>
     <row r="4" spans="2:4">
-      <c r="D4" s="49" t="s">
+      <c r="D4" s="42" t="s">
         <v>782</v>
       </c>
     </row>
     <row r="5" spans="2:4">
-      <c r="C5" s="49" t="s">
+      <c r="C5" s="42" t="s">
         <v>783</v>
       </c>
     </row>
     <row r="6" spans="2:4">
-      <c r="C6" s="49" t="s">
+      <c r="D6" s="42" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4">
+      <c r="C7" s="42" t="s">
         <v>784</v>
       </c>
     </row>
-    <row r="8" spans="2:4">
-      <c r="B8" s="49" t="s">
+    <row r="9" spans="2:4">
+      <c r="B9" s="42" t="s">
         <v>767</v>
       </c>
     </row>
-    <row r="9" spans="2:4">
-      <c r="C9" s="49" t="s">
+    <row r="10" spans="2:4">
+      <c r="C10" s="42" t="s">
         <v>785</v>
       </c>
     </row>
-    <row r="10" spans="2:4">
-      <c r="D10" s="49" t="s">
+    <row r="11" spans="2:4">
+      <c r="D11" s="42" t="s">
         <v>768</v>
       </c>
     </row>
-    <row r="11" spans="2:4">
-      <c r="C11" s="49" t="s">
+    <row r="12" spans="2:4">
+      <c r="C12" s="42" t="s">
         <v>786</v>
       </c>
     </row>
     <row r="14" spans="2:4">
-      <c r="B14" s="49" t="s">
+      <c r="B14" s="42" t="s">
         <v>769</v>
       </c>
     </row>
     <row r="15" spans="2:4">
-      <c r="C15" s="49" t="s">
+      <c r="C15" s="42" t="s">
         <v>787</v>
       </c>
     </row>
     <row r="16" spans="2:4">
-      <c r="C16" s="49" t="s">
+      <c r="C16" s="42" t="s">
         <v>788</v>
       </c>
     </row>
     <row r="18" spans="2:5">
-      <c r="B18" s="49" t="s">
+      <c r="B18" s="42" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5">
+      <c r="C19" s="42" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5">
+      <c r="B21" s="42" t="s">
         <v>770</v>
       </c>
     </row>
-    <row r="19" spans="2:5">
-      <c r="C19" s="49" t="s">
+    <row r="22" spans="2:5">
+      <c r="C22" s="42" t="s">
         <v>789</v>
       </c>
     </row>
-    <row r="20" spans="2:5">
-      <c r="C20" s="49" t="s">
+    <row r="23" spans="2:5">
+      <c r="C23" s="42" t="s">
         <v>790</v>
       </c>
     </row>
-    <row r="21" spans="2:5">
-      <c r="D21" s="49" t="s">
+    <row r="24" spans="2:5">
+      <c r="D24" s="42" t="s">
         <v>791</v>
       </c>
     </row>
-    <row r="22" spans="2:5">
-      <c r="E22" s="50" t="s">
+    <row r="25" spans="2:5">
+      <c r="E25" s="43" t="s">
         <v>771</v>
       </c>
     </row>
-    <row r="23" spans="2:5">
-      <c r="E23" s="50" t="s">
+    <row r="26" spans="2:5">
+      <c r="E26" s="43" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="24" spans="2:5">
-      <c r="E24" s="50" t="s">
+    <row r="27" spans="2:5">
+      <c r="E27" s="43" t="s">
         <v>773</v>
       </c>
     </row>
-    <row r="25" spans="2:5">
-      <c r="E25" s="50" t="s">
+    <row r="28" spans="2:5">
+      <c r="E28" s="43" t="s">
         <v>776</v>
       </c>
     </row>
-    <row r="26" spans="2:5">
-      <c r="E26" s="50" t="s">
+    <row r="29" spans="2:5">
+      <c r="E29" s="43" t="s">
         <v>774</v>
       </c>
     </row>
-    <row r="27" spans="2:5">
-      <c r="E27" s="50" t="s">
+    <row r="30" spans="2:5">
+      <c r="E30" s="43" t="s">
         <v>792</v>
       </c>
     </row>
-    <row r="28" spans="2:5">
-      <c r="E28" s="50" t="s">
+    <row r="31" spans="2:5">
+      <c r="E31" s="43" t="s">
         <v>775</v>
       </c>
     </row>
-    <row r="29" spans="2:5">
-      <c r="E29" s="50" t="s">
+    <row r="32" spans="2:5">
+      <c r="E32" s="43" t="s">
         <v>777</v>
       </c>
     </row>
-    <row r="30" spans="2:5">
-      <c r="D30" s="49" t="s">
+    <row r="33" spans="3:5">
+      <c r="D33" s="42" t="s">
         <v>793</v>
       </c>
     </row>
-    <row r="31" spans="2:5">
-      <c r="E31" s="50" t="s">
+    <row r="34" spans="3:5">
+      <c r="E34" s="43" t="s">
         <v>794</v>
       </c>
     </row>
-    <row r="32" spans="2:5">
-      <c r="E32" s="50" t="s">
+    <row r="35" spans="3:5">
+      <c r="E35" s="43" t="s">
         <v>778</v>
       </c>
     </row>
-    <row r="33" spans="3:7">
-      <c r="E33" s="50" t="s">
+    <row r="36" spans="3:5">
+      <c r="E36" s="43" t="s">
         <v>779</v>
       </c>
     </row>
-    <row r="34" spans="3:7">
-      <c r="E34" s="50" t="s">
+    <row r="37" spans="3:5">
+      <c r="E37" s="43" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="35" spans="3:7">
-      <c r="C35" s="49" t="s">
+    <row r="38" spans="3:5">
+      <c r="C38" s="42" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="39" spans="3:5">
+      <c r="D39" s="42" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="40" spans="3:5">
+      <c r="D40" s="42" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="41" spans="3:5">
+      <c r="D41" s="42" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="42" spans="3:5">
+      <c r="D42" s="42" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="43" spans="3:5">
+      <c r="C43" s="42" t="s">
         <v>795</v>
       </c>
     </row>
-    <row r="36" spans="3:7">
-      <c r="C36" s="49" t="s">
+    <row r="44" spans="3:5">
+      <c r="D44" s="42" t="s">
         <v>796</v>
       </c>
     </row>
-    <row r="37" spans="3:7">
-      <c r="D37" s="49" t="s">
+    <row r="45" spans="3:5">
+      <c r="D45" s="42" t="s">
         <v>797</v>
       </c>
     </row>
-    <row r="38" spans="3:7">
-      <c r="D38" s="49" t="s">
+    <row r="46" spans="3:5">
+      <c r="D46" s="42" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="47" spans="3:5">
+      <c r="D47" s="44" t="s">
         <v>798</v>
       </c>
     </row>
-    <row r="39" spans="3:7">
-      <c r="D39" s="49" t="s">
+    <row r="48" spans="3:5">
+      <c r="E48" s="42" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="49" spans="3:7">
+      <c r="F49" s="42" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="50" spans="3:7">
+      <c r="F50" s="42" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="51" spans="3:7">
+      <c r="F51" s="42" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="52" spans="3:7">
+      <c r="G52" s="41" t="s">
         <v>800</v>
       </c>
     </row>
-    <row r="40" spans="3:7">
-      <c r="D40" s="51" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="41" spans="3:7">
-      <c r="E41" s="49" t="s">
-        <v>807</v>
-      </c>
-    </row>
-    <row r="42" spans="3:7">
-      <c r="F42" s="49" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="43" spans="3:7">
-      <c r="F43" s="49" t="s">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="44" spans="3:7">
-      <c r="F44" s="49" t="s">
+    <row r="53" spans="3:7">
+      <c r="G53" s="41" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="54" spans="3:7">
+      <c r="G54" s="41" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="55" spans="3:7">
+      <c r="G55" s="41" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="56" spans="3:7">
+      <c r="G56" s="41" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="57" spans="3:7">
+      <c r="G57" s="41" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="58" spans="3:7">
+      <c r="C58" s="42" t="s">
         <v>810</v>
       </c>
     </row>
-    <row r="45" spans="3:7">
-      <c r="G45" s="48" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="46" spans="3:7">
-      <c r="G46" s="48" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="47" spans="3:7">
-      <c r="G47" s="48" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="48" spans="3:7">
-      <c r="G48" s="48" t="s">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="49" spans="3:7">
-      <c r="G49" s="48" t="s">
-        <v>805</v>
-      </c>
-    </row>
-    <row r="50" spans="3:7">
-      <c r="G50" s="48" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="51" spans="3:7">
-      <c r="C51" s="49" t="s">
-        <v>811</v>
+    <row r="59" spans="3:7">
+      <c r="C59" s="42" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="60" spans="3:7">
+      <c r="D60" s="42" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="61" spans="3:7">
+      <c r="E61" s="42" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="62" spans="3:7">
+      <c r="C62" s="42" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="63" spans="3:7">
+      <c r="C63" s="42" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="64" spans="3:7">
+      <c r="C64" s="42" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="65" spans="3:5">
+      <c r="C65" s="42" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="66" spans="3:5">
+      <c r="C66" s="42" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="67" spans="3:5">
+      <c r="C67" s="42" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="69" spans="3:5">
+      <c r="C69" s="42" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="70" spans="3:5">
+      <c r="C70" s="42" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="71" spans="3:5">
+      <c r="C71" s="42" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="72" spans="3:5">
+      <c r="C72" s="42" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="73" spans="3:5">
+      <c r="C73" s="42" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="74" spans="3:5">
+      <c r="D74" s="42" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="75" spans="3:5">
+      <c r="E75" s="42" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="76" spans="3:5">
+      <c r="E76" s="42" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="77" spans="3:5">
+      <c r="E77" s="42" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="78" spans="3:5">
+      <c r="D78" s="42" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="79" spans="3:5">
+      <c r="E79" s="42" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="80" spans="3:5">
+      <c r="D80" s="42" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="81" spans="4:6">
+      <c r="E81" s="42" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="82" spans="4:6">
+      <c r="E82" s="42" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="83" spans="4:6">
+      <c r="E83" s="42" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="84" spans="4:6">
+      <c r="F84" s="42" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="85" spans="4:6">
+      <c r="D85" s="42" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="86" spans="4:6">
+      <c r="E86" s="42" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="87" spans="4:6">
+      <c r="F87" s="42" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="88" spans="4:6">
+      <c r="E88" s="42" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="89" spans="4:6">
+      <c r="D89" s="42" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="90" spans="4:6">
+      <c r="D90" s="42" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="91" spans="4:6">
+      <c r="E91" s="42" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="92" spans="4:6">
+      <c r="E92" s="42" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="93" spans="4:6">
+      <c r="E93" s="42" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="94" spans="4:6">
+      <c r="D94" s="42" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="95" spans="4:6">
+      <c r="E95" s="42" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="96" spans="4:6">
+      <c r="D96" s="42" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="97" spans="3:7">
+      <c r="E97" s="42" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="98" spans="3:7">
+      <c r="F98" s="42" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="99" spans="3:7">
+      <c r="G99" s="42" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="100" spans="3:7">
+      <c r="G100" s="42" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="101" spans="3:7">
+      <c r="E101" s="42" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="102" spans="3:7">
+      <c r="F102" s="42" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="103" spans="3:7">
+      <c r="G103" s="42" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="104" spans="3:7">
+      <c r="C104" s="42" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="105" spans="3:7">
+      <c r="D105" s="42" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="106" spans="3:7">
+      <c r="D106" s="42" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="107" spans="3:7">
+      <c r="D107" s="42" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="108" spans="3:7">
+      <c r="D108" s="42" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="111" spans="3:7">
+      <c r="C111" s="42" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="112" spans="3:7">
+      <c r="D112" s="42" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="113" spans="4:4">
+      <c r="D113" s="42" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="114" spans="4:4">
+      <c r="D114" s="42" t="s">
+        <v>871</v>
       </c>
     </row>
   </sheetData>
@@ -14379,59 +15003,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="51" t="s">
         <v>355</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="51" t="s">
         <v>356</v>
       </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="51" t="s">
         <v>357</v>
       </c>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="47" t="s">
+      <c r="A4" s="51" t="s">
         <v>358</v>
       </c>
-      <c r="B4" s="47"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="47" t="s">
+      <c r="A5" s="51" t="s">
         <v>359</v>
       </c>
-      <c r="B5" s="47"/>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
+      <c r="B5" s="51"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="47" t="s">
+      <c r="A6" s="51" t="s">
         <v>360</v>
       </c>
-      <c r="B6" s="47"/>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
+      <c r="B6" s="51"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="47" t="s">
+      <c r="A7" s="51" t="s">
         <v>361</v>
       </c>
-      <c r="B7" s="47"/>
-      <c r="C7" s="47"/>
+      <c r="B7" s="51"/>
+      <c r="C7" s="51"/>
       <c r="D7" s="6"/>
     </row>
     <row r="8" spans="1:4">
@@ -14450,11 +15074,11 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="6"/>
-      <c r="B10" s="47" t="s">
+      <c r="B10" s="51" t="s">
         <v>363</v>
       </c>
-      <c r="C10" s="47"/>
-      <c r="D10" s="47"/>
+      <c r="C10" s="51"/>
+      <c r="D10" s="51"/>
     </row>
     <row r="11" spans="1:4" ht="45">
       <c r="A11" s="6"/>
@@ -14491,10 +15115,10 @@
     <row r="15" spans="1:4">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
-      <c r="C15" s="47" t="s">
+      <c r="C15" s="51" t="s">
         <v>368</v>
       </c>
-      <c r="D15" s="47"/>
+      <c r="D15" s="51"/>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
@@ -15091,7 +15715,7 @@
     <row r="115" spans="1:4">
       <c r="A115" s="15"/>
     </row>
-    <row r="116" spans="1:4" ht="39.75" thickBot="1">
+    <row r="116" spans="1:4" ht="52.5" thickBot="1">
       <c r="A116" s="20" t="s">
         <v>533</v>
       </c>
@@ -15106,140 +15730,140 @@
       </c>
     </row>
     <row r="117" spans="1:4" ht="127.5">
-      <c r="A117" s="41" t="s">
+      <c r="A117" s="45" t="s">
         <v>537</v>
       </c>
       <c r="B117" s="21" t="s">
         <v>538</v>
       </c>
-      <c r="C117" s="44" t="s">
+      <c r="C117" s="48" t="s">
         <v>542</v>
       </c>
-      <c r="D117" s="44" t="s">
+      <c r="D117" s="48" t="s">
         <v>543</v>
       </c>
     </row>
     <row r="118" spans="1:4" ht="25.5">
-      <c r="A118" s="42"/>
+      <c r="A118" s="46"/>
       <c r="B118" s="21" t="s">
         <v>539</v>
       </c>
-      <c r="C118" s="45"/>
-      <c r="D118" s="45"/>
-    </row>
-    <row r="119" spans="1:4" ht="51">
-      <c r="A119" s="42"/>
+      <c r="C118" s="49"/>
+      <c r="D118" s="49"/>
+    </row>
+    <row r="119" spans="1:4" ht="63.75">
+      <c r="A119" s="46"/>
       <c r="B119" s="21" t="s">
         <v>540</v>
       </c>
-      <c r="C119" s="45"/>
-      <c r="D119" s="45"/>
+      <c r="C119" s="49"/>
+      <c r="D119" s="49"/>
     </row>
     <row r="120" spans="1:4" ht="51.75" thickBot="1">
-      <c r="A120" s="43"/>
+      <c r="A120" s="47"/>
       <c r="B120" s="22" t="s">
         <v>541</v>
       </c>
-      <c r="C120" s="46"/>
-      <c r="D120" s="46"/>
+      <c r="C120" s="50"/>
+      <c r="D120" s="50"/>
     </row>
     <row r="121" spans="1:4" ht="38.25">
-      <c r="A121" s="41" t="s">
+      <c r="A121" s="45" t="s">
         <v>544</v>
       </c>
       <c r="B121" s="21" t="s">
         <v>545</v>
       </c>
-      <c r="C121" s="44" t="s">
+      <c r="C121" s="48" t="s">
         <v>549</v>
       </c>
-      <c r="D121" s="44" t="s">
+      <c r="D121" s="48" t="s">
         <v>550</v>
       </c>
     </row>
     <row r="122" spans="1:4" ht="25.5">
-      <c r="A122" s="42"/>
+      <c r="A122" s="46"/>
       <c r="B122" s="21" t="s">
         <v>546</v>
       </c>
-      <c r="C122" s="45"/>
-      <c r="D122" s="45"/>
+      <c r="C122" s="49"/>
+      <c r="D122" s="49"/>
     </row>
     <row r="123" spans="1:4" ht="51">
-      <c r="A123" s="42"/>
+      <c r="A123" s="46"/>
       <c r="B123" s="21" t="s">
         <v>547</v>
       </c>
-      <c r="C123" s="45"/>
-      <c r="D123" s="45"/>
+      <c r="C123" s="49"/>
+      <c r="D123" s="49"/>
     </row>
     <row r="124" spans="1:4" ht="26.25" thickBot="1">
-      <c r="A124" s="43"/>
+      <c r="A124" s="47"/>
       <c r="B124" s="22" t="s">
         <v>548</v>
       </c>
-      <c r="C124" s="46"/>
-      <c r="D124" s="46"/>
+      <c r="C124" s="50"/>
+      <c r="D124" s="50"/>
     </row>
     <row r="125" spans="1:4" ht="38.25">
-      <c r="A125" s="41" t="s">
+      <c r="A125" s="45" t="s">
         <v>551</v>
       </c>
       <c r="B125" s="21" t="s">
         <v>552</v>
       </c>
-      <c r="C125" s="44" t="s">
+      <c r="C125" s="48" t="s">
         <v>555</v>
       </c>
-      <c r="D125" s="44" t="s">
+      <c r="D125" s="48" t="s">
         <v>556</v>
       </c>
     </row>
     <row r="126" spans="1:4" ht="63.75">
-      <c r="A126" s="42"/>
+      <c r="A126" s="46"/>
       <c r="B126" s="21" t="s">
         <v>553</v>
       </c>
-      <c r="C126" s="45"/>
-      <c r="D126" s="45"/>
+      <c r="C126" s="49"/>
+      <c r="D126" s="49"/>
     </row>
     <row r="127" spans="1:4" ht="90" thickBot="1">
-      <c r="A127" s="43"/>
+      <c r="A127" s="47"/>
       <c r="B127" s="22" t="s">
         <v>554</v>
       </c>
-      <c r="C127" s="46"/>
-      <c r="D127" s="46"/>
+      <c r="C127" s="50"/>
+      <c r="D127" s="50"/>
     </row>
     <row r="128" spans="1:4" ht="51">
-      <c r="A128" s="41" t="s">
+      <c r="A128" s="45" t="s">
         <v>557</v>
       </c>
       <c r="B128" s="21" t="s">
         <v>558</v>
       </c>
-      <c r="C128" s="44" t="s">
+      <c r="C128" s="48" t="s">
         <v>561</v>
       </c>
-      <c r="D128" s="44" t="s">
+      <c r="D128" s="48" t="s">
         <v>562</v>
       </c>
     </row>
     <row r="129" spans="1:4" ht="38.25">
-      <c r="A129" s="42"/>
+      <c r="A129" s="46"/>
       <c r="B129" s="21" t="s">
         <v>559</v>
       </c>
-      <c r="C129" s="45"/>
-      <c r="D129" s="45"/>
+      <c r="C129" s="49"/>
+      <c r="D129" s="49"/>
     </row>
     <row r="130" spans="1:4" ht="51">
-      <c r="A130" s="42"/>
+      <c r="A130" s="46"/>
       <c r="B130" s="21" t="s">
         <v>560</v>
       </c>
-      <c r="C130" s="45"/>
-      <c r="D130" s="45"/>
+      <c r="C130" s="49"/>
+      <c r="D130" s="49"/>
     </row>
     <row r="131" spans="1:4">
       <c r="A131" s="6"/>
